--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\valuationquan\AIindex\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE9F96F-C1CD-4EC5-B722-AA7B16489662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="模型二 (1)平均线" sheetId="13" r:id="rId1"/>
     <sheet name="模型二 (1)MA250" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'模型二 (1)MA250'!$O$1:$O$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'模型二 (1)平均线'!$O$1:$O$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'模型二 (1)MA250'!$O$1:$O$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'模型二 (1)平均线'!$O$1:$O$84</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('模型二 (1)MA250'!J1,0,0,COUNTA('模型二 (1)MA250'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('模型二 (1)平均线'!J1,0,0,COUNTA('模型二 (1)平均线'!J:J)-1)</definedName>
     <definedName name="时间" localSheetId="1">OFFSET('模型二 (1)MA250'!A1,0,0,COUNTA('模型二 (1)MA250'!A:A)-1)</definedName>
@@ -28,7 +22,7 @@
     <definedName name="资金" localSheetId="1">OFFSET('模型二 (1)MA250'!H1,0,0,COUNTA('模型二 (1)MA250'!H:H)-1)</definedName>
     <definedName name="资金" localSheetId="0">OFFSET('模型二 (1)平均线'!H1,0,0,COUNTA('模型二 (1)平均线'!H:H)-1)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -162,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -509,14 +503,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -570,34 +563,34 @@
     <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="28">
-    <cellStyle name="20% - 着色 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 着色 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 着色 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 着色 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 着色 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - 着色 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - 着色 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 着色 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - 着色 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 着色 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - 着色 5" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - 着色 6" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - 着色 1" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - 着色 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - 着色 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - 着色 4" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - 着色 5" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - 着色 6" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="差_主要板块" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - 着色 1" xfId="2"/>
+    <cellStyle name="20% - 着色 2" xfId="3"/>
+    <cellStyle name="20% - 着色 3" xfId="4"/>
+    <cellStyle name="20% - 着色 4" xfId="5"/>
+    <cellStyle name="20% - 着色 5" xfId="6"/>
+    <cellStyle name="20% - 着色 6" xfId="7"/>
+    <cellStyle name="40% - 着色 1" xfId="8"/>
+    <cellStyle name="40% - 着色 2" xfId="9"/>
+    <cellStyle name="40% - 着色 3" xfId="10"/>
+    <cellStyle name="40% - 着色 4" xfId="11"/>
+    <cellStyle name="40% - 着色 5" xfId="12"/>
+    <cellStyle name="40% - 着色 6" xfId="13"/>
+    <cellStyle name="60% - 着色 1" xfId="14"/>
+    <cellStyle name="60% - 着色 2" xfId="15"/>
+    <cellStyle name="60% - 着色 3" xfId="16"/>
+    <cellStyle name="60% - 着色 4" xfId="17"/>
+    <cellStyle name="60% - 着色 5" xfId="18"/>
+    <cellStyle name="60% - 着色 6" xfId="19"/>
+    <cellStyle name="差_主要板块" xfId="20"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="好_主要板块" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="着色 1" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="着色 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="着色 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="着色 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="着色 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="着色 6" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="好_主要板块" xfId="21"/>
+    <cellStyle name="着色 1" xfId="22"/>
+    <cellStyle name="着色 2" xfId="23"/>
+    <cellStyle name="着色 3" xfId="24"/>
+    <cellStyle name="着色 4" xfId="25"/>
+    <cellStyle name="着色 5" xfId="26"/>
+    <cellStyle name="着色 6" xfId="27"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -634,7 +627,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -702,6 +695,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1209,7 +1203,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3F74-4DDF-B785-43F3E88DDF16}"/>
             </c:ext>
@@ -1695,7 +1689,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3F74-4DDF-B785-43F3E88DDF16}"/>
             </c:ext>
@@ -2184,7 +2178,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3F74-4DDF-B785-43F3E88DDF16}"/>
             </c:ext>
@@ -2198,12 +2192,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82103296"/>
-        <c:axId val="388120576"/>
+        <c:axId val="232929920"/>
+        <c:axId val="232940288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="82103296"/>
+        <c:axId val="232929920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2246,14 +2241,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388120576"/>
+        <c:crossAx val="232940288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="388120576"/>
+        <c:axId val="232940288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,7 +2297,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82103296"/>
+        <c:crossAx val="232929920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2391,7 +2386,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2459,6 +2454,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2894,7 +2890,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-44FC-4CF7-AEC2-660318BEDD89}"/>
             </c:ext>
@@ -3311,7 +3307,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-44FC-4CF7-AEC2-660318BEDD89}"/>
             </c:ext>
@@ -3728,7 +3724,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-44FC-4CF7-AEC2-660318BEDD89}"/>
             </c:ext>
@@ -3742,12 +3738,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="522899840"/>
-        <c:axId val="522901760"/>
+        <c:axId val="254318464"/>
+        <c:axId val="254812928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="522899840"/>
+        <c:axId val="254318464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3790,14 +3787,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522901760"/>
+        <c:crossAx val="254812928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="522901760"/>
+        <c:axId val="254812928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3846,7 +3843,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522899840"/>
+        <c:crossAx val="254318464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3954,7 +3951,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3997,7 +3994,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4306,193 +4303,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF180"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="11.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="3" customWidth="1"/>
+    <col min="7" max="8" width="11.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="2"/>
     <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="11.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.21875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="11.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.125" style="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="1"/>
-    <col min="24" max="24" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="9" style="1"/>
-    <col min="27" max="27" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="9" style="1"/>
-    <col min="30" max="30" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="50" width="9" style="1"/>
-    <col min="51" max="51" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:32" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="25"/>
-      <c r="M2" s="20"/>
-    </row>
-    <row r="3" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:32" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="24"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
         <v>1550</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
         <f>MIN(F:F)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="9"/>
-    </row>
-    <row r="4" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8"/>
+    </row>
+    <row r="4" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
         <v>42825</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>0.97609000000000001</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>0.99386428571428564</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>27.550142857142728</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>28.225002671006493</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>28.225002671006493</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <v>27.550142857142728</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>27.550142857142728</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <v>27.550142857142728</v>
       </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="O4" s="27" t="s">
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="O4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <v>43098</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <f>VLOOKUP(X4,O:P,2,)</f>
         <v>304.12500617544276</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="7">
         <f t="shared" ref="Z4:Z5" si="0">0-Y4</f>
         <v>-304.12500617544276</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="6">
         <v>43098</v>
       </c>
       <c r="AB4" s="1">
@@ -4503,89 +4500,89 @@
         <f t="shared" ref="AC4" si="1">0-AB4</f>
         <v>-304.12500617544276</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4" s="6">
         <v>43098</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE4" s="7">
         <f>VLOOKUP(AD4,O:P,2,)</f>
         <v>304.12500617544276</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF4" s="7">
         <f t="shared" ref="AF4" si="2">0-AE4</f>
         <v>-304.12500617544276</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>42853</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>0.88445000000000007</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>0.95655781250000005</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>111.76710937499996</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>126.36905350782968</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>154.59405617883618</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <v>136.73071298737167</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>139.31725223214269</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <v>136.73071298737167</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>-2.5865392447710178</v>
       </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="O5" s="7">
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="O5" s="6">
         <v>43098</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>304.12500617544276</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>304.12500617544276</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>328.80443799445595</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>24.679431819013189</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <v>251.21204627564666</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="9">
         <v>8.1148972685186532E-2</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="9">
         <v>8.1148972685186532E-2</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>43462</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="7">
         <f>VLOOKUP(X5,O:P,2,)</f>
         <v>1807.7843670854991</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="7">
         <f t="shared" si="0"/>
         <v>-1807.7843670854991</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="6">
         <v>43462</v>
       </c>
       <c r="AB5" s="1">
@@ -4596,84 +4593,84 @@
         <f t="shared" ref="AC5:AC6" si="3">0-AB5</f>
         <v>-1807.7843670854991</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="6">
         <v>43462</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="7">
         <f>VLOOKUP(AD5,O:P,2,)</f>
         <v>1807.7843670854991</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="7">
         <f t="shared" ref="AF5:AF7" si="4">0-AE5</f>
         <v>-1807.7843670854991</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>42886</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>0.84275</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>0.91796173076923115</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>116.57818269230829</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>138.33068251831301</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>292.92473869714922</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>246.86232353702252</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>255.89543492445097</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>246.86232353702252</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>-9.0331113874284483</v>
       </c>
-      <c r="K6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="O6" s="7">
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="O6" s="6">
         <v>43462</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>1807.7843670854991</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>2111.9093732609417</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>1961.8999213933344</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>-150.00945186760737</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>317.52088040945171</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="9">
         <v>-7.1030250524425617E-2</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="9">
         <v>-6.2582124461404876E-2</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>43462</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="7">
         <v>1961.8999213933344</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="6">
         <v>43830</v>
       </c>
       <c r="AB6" s="1">
@@ -4684,226 +4681,226 @@
         <f t="shared" si="3"/>
         <v>-287.98245355098834</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="6">
         <v>43830</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="7">
         <f>VLOOKUP(AD6,O:P,2,)</f>
         <v>287.98245355098834</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="7">
         <f t="shared" si="4"/>
         <v>-287.98245355098834</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>42916</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>0.91246000000000005</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>0.90437932432432466</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>-12.525047297296849</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>-13.726680947435337</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>279.19805774971388</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>254.75705977430394</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>255.89543492445097</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>267.28210707160076</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>11.386672147149795</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="21">
         <v>12.525047297296849</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="O7" s="7">
+      <c r="L7" s="7"/>
+      <c r="O7" s="6">
         <v>43830</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="10">
         <v>287.98245355098834</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>3217.6093105743603</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>817.71748376243022</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>1365.8977430166979</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <v>0.34073097571597816</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="9">
         <v>0.15583831681496263</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="8">
         <f>IRR(Z4:Z6)</f>
         <v>-6.2582124461404876E-2</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="6">
         <v>43830</v>
       </c>
       <c r="AC7" s="1">
         <v>3217.6093105743603</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="6">
         <v>44196</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AE7" s="7">
         <f>VLOOKUP(AD7,O:P,2,)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>42947</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>0.89419999999999999</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>0.90019273684210555</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>9.2887421052636032</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>10.38776795489108</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>289.58582570460499</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>258.94764534505777</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>271.47269264235462</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>6.2885156126400261</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="21">
         <v>12.525047297296849</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="O8" s="7">
+      <c r="L8" s="7"/>
+      <c r="O8" s="6">
         <v>44196</v>
       </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>1020.932566047371</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="9">
         <v>0.42540774323299424</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="9">
         <v>0.12448297099432648</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
         <v>0.15583831681496263</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="6">
         <v>44196</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8" s="7">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>42978</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>0.97410000000000008</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>0.90535008474576273</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>-106.56236864406789</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>-109.39571773336195</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>180.19010797124304</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>175.52318417478784</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>294.61060011615257</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>29.426423086437978</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <v>119.08741594136474</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="O9" s="7">
+      <c r="L9" s="7"/>
+      <c r="O9" s="6">
         <v>44561</v>
       </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>1020.932566047371</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="9">
         <v>0.42540774323299424</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="9">
         <v>0.11623036743162096</v>
       </c>
       <c r="AF9" s="2">
@@ -4912,65 +4909,65 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>43007</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>0.97174000000000005</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>0.91768381294964019</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>-83.787089928057782</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>-86.223773774937513</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>93.966334196305525</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>91.310845591917939</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>294.18535146134047</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>29.001174431625884</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <v>202.87450586942253</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="O10" s="7">
+      <c r="L10" s="7"/>
+      <c r="O10" s="6">
         <v>44925</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="10">
         <v>1191.9854404928446</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>3591.8772673047747</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <v>4692.9521370177645</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <v>1101.0748697129898</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="9">
         <v>0.30654579423845396</v>
       </c>
-      <c r="V10" s="10">
+      <c r="V10" s="9">
         <v>9.2107928430304797E-2</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="6">
         <v>43098</v>
       </c>
       <c r="Y10" s="1">
@@ -4980,7 +4977,7 @@
         <f>-Y10</f>
         <v>-18.350992705669857</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="6">
         <v>43098</v>
       </c>
       <c r="AB10" s="1">
@@ -4992,41 +4989,41 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>43039</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>0.94596999999999998</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>0.92351769230769187</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>-34.801076923077559</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>-36.788774404132859</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>57.177559792172666</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>54.088256236601573</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>291.76383902910169</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>26.579661999387099</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="21">
         <v>237.67558279250011</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="X11" s="7">
+      <c r="L11" s="7"/>
+      <c r="X11" s="6">
         <v>43462</v>
       </c>
       <c r="Y11" s="1">
@@ -5036,7 +5033,7 @@
         <f>-Y11</f>
         <v>-255.17901000780921</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AA11" s="6">
         <v>43462</v>
       </c>
       <c r="AB11" s="1">
@@ -5048,41 +5045,41 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>43069</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>0.93876000000000004</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>0.93002679775280872</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>-13.536463483146544</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>-14.419514554461783</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>42.758045237710881</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>40.139542547353471</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>291.35158882300016</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>26.167411793285567</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <v>251.21204627564666</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="X12" s="7">
+      <c r="L12" s="7"/>
+      <c r="X12" s="6">
         <v>43830</v>
       </c>
       <c r="Y12" s="1">
@@ -5092,7 +5089,7 @@
         <f>-Y12</f>
         <v>-51.512876965237467</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="6">
         <v>43830</v>
       </c>
       <c r="AB12" s="1">
@@ -5104,41 +5101,41 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>43098</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>0.90395999999999999</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>0.92908311557788914</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>38.940829145728188</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>43.07804454370568</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>85.836089781416561</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>77.59239171880931</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>304.12500617544276</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>328.80443799445595</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>24.679431819013189</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="21">
         <v>251.21204627564666</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="X13" s="7">
+      <c r="L13" s="7"/>
+      <c r="X13" s="6">
         <v>44196</v>
       </c>
       <c r="Y13" s="1">
@@ -5148,7 +5145,7 @@
         <f>-Y13</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AA13" s="6">
         <v>44196</v>
       </c>
       <c r="AB13" s="1">
@@ -5160,41 +5157,41 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>43131</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>0.86690999999999996</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>0.92713140271493188</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>93.34317420814449</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>107.67343116141755</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>193.50952094283411</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>167.75533880055232</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>397.46818038358725</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>418.96738507619898</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>21.499204692611727</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="21">
         <v>251.21204627564666</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="X14" s="7">
+      <c r="L14" s="7"/>
+      <c r="X14" s="6">
         <v>44561</v>
       </c>
       <c r="Y14" s="1">
@@ -5204,7 +5201,7 @@
         <f>-Y14</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AA14" s="6">
         <v>44561</v>
       </c>
       <c r="AB14" s="1">
@@ -5216,47 +5213,47 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>43159</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>0.8518</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>0.91968983050847442</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>105.22923728813534</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>123.53749388135165</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>317.04701482418579</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>270.06064722724147</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>502.69741767172258</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>521.27269350288816</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <v>18.575275831165584</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <v>251.21204627564666</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="X15" s="7">
+      <c r="L15" s="7"/>
+      <c r="X15" s="6">
         <v>44561</v>
       </c>
       <c r="Z15" s="1">
         <v>499.59426954009558</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AA15" s="6">
         <v>44925</v>
       </c>
       <c r="AB15" s="1">
@@ -5268,45 +5265,45 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>43189</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>0.95575999999999994</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>0.91931608527131781</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>-56.488067829457314</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>-59.102774576731939</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>257.94424024745388</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>246.53278705890651</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>502.69741767172258</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>554.23290116401051</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>51.535483492287938</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <v>307.70011410510398</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
         <v>0.11623036743162096</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AA16" s="6">
         <v>44925</v>
       </c>
       <c r="AC16" s="1">
@@ -5314,2429 +5311,2142 @@
       </c>
     </row>
     <row r="17" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>43217</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>0.92662</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>0.92028402173913049</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>-9.8207663043477442</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>-10.598482985849371</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>247.34575726160452</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>229.19552559374799</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>502.69741767172258</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>546.71640600319972</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>44.018988331477146</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="7"/>
       <c r="AC17" s="2">
         <f>IRR(AC10:AC16)</f>
         <v>9.2107928430304797E-2</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>43251</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>0.88405999999999996</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>0.91991989932885943</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>55.582843959732173</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>62.87225296895253</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>310.21801023055707</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>274.25133412442625</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>558.28026163145478</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>591.77221453387801</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <v>33.491952902423236</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>43280</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>0.81235999999999997</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>0.91462415094339644</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>158.50943396226452</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>195.12215515567547</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>505.34016538623257</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>410.51813675315987</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>716.78969559371933</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>728.03901716261157</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>11.249321568892242</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>43312</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>0.8131799999999999</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>0.90820861764705896</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>147.29435735294155</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>181.13376786559132</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>686.47393325182384</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <v>558.22687304171802</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>864.0840529466609</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>875.74775345116973</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <v>11.663700504508824</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>43343</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>0.77766999999999997</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>0.90034011019283766</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>190.13867079889843</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>244.49788573417831</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>930.97181898600218</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <v>723.98885447084433</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>1054.2227237455593</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>1041.509734880296</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <v>-12.712988865263242</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>43371</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>0.76784000000000008</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>0.8937382984293194</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>195.14236256544496</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>254.14456470807062</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>1185.1163836940727</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>909.97976405565691</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>1249.3650863110042</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>1227.5006444651085</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>-21.864441845895726</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>43404</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>0.67677999999999994</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>0.88415025000000003</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>321.42388750000015</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>474.93112606755545</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>1660.0475097616281</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>1123.4869536564745</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>1570.7889738110043</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <v>1441.0078340659261</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <v>-129.78113974507824</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>43434</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>0.7214299999999999</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>0.87621106635071089</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>239.91065284360204</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>332.54876127081224</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>1992.5962710324404</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <v>1437.5187278109333</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>1810.6996266546064</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <v>1755.0396082203852</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>-55.660018434221229</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L24" s="8"/>
+      <c r="L24" s="7"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>43462</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>0.67408000000000001</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>0.86840886877828072</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>301.2097466063351</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>446.84569577251233</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>2439.4419668049527</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="22">
         <v>1644.3790409838825</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>2111.9093732609417</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="22">
         <v>1961.8999213933344</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>-150.00945186760737</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>43496</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>0.67819000000000007</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>0.86047514038876904</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>282.54196760259191</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>416.61181616153567</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <v>2856.0537829664881</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="22">
         <v>1936.9471150700429</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <v>2394.4513408635335</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <v>2254.4679954794947</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <v>-139.98334538403878</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>43524</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>0.85648000000000002</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>0.8580328242677826</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>2.406877615063002</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>2.8101971033334134</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="22">
         <v>2858.8639800698215</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="22">
         <v>2448.5598216502008</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="22">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="22">
         <v>2766.0807020596526</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>369.22248358105617</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L27" s="8"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>43553</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>0.94580999999999993</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>0.86124096192384803</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>-131.08200901803545</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="22">
         <v>-138.59232723066521</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="22">
         <v>2720.2716528391566</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="22">
         <v>2572.8601319718023</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="22">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="22">
         <v>3021.4630213992896</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <v>624.60480292069315</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="21">
         <v>448.60288942748718</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>43585</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>0.9108099999999999</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>0.86549344230769254</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>-70.24066442307641</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <v>-77.118899027323394</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="22">
         <v>2643.152753811833</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="22">
         <v>2407.4099596993556</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="22">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <v>2926.2535135499193</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <v>529.39529507132283</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="21">
         <v>518.84355385056358</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>43616</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>0.86360000000000003</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>0.86555716666666693</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>3.0336083333336927</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <v>3.5127470279454522</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="22">
         <v>2646.6655008397784</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="22">
         <v>2285.6603265252329</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <v>2804.5038803757966</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="22">
         <v>404.61205356386654</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="21">
         <v>518.84355385056358</v>
       </c>
-      <c r="L30" s="8"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>43644</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>0.88732</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>0.86554053667263009</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <v>-33.758168157423356</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="22">
         <v>-38.045088758760485</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="22">
         <v>2608.620412081018</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="22">
         <v>2314.6810640477288</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <v>2867.2827860557159</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="22">
         <v>467.3909592437858</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="21">
         <v>552.60172200798695</v>
       </c>
-      <c r="L31" s="8"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>43677</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>0.89222000000000001</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>0.86642510309278375</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <v>-39.982090206185198</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22">
         <v>-44.811918816194655</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="22">
         <v>2563.8084932648235</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="22">
         <v>2287.4812138607408</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <v>2880.065026074913</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="22">
         <v>480.17319926298296</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="21">
         <v>592.5838122141721</v>
       </c>
-      <c r="L32" s="8"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>43707</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="25">
         <v>0.92357</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>0.86719825870646772</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <v>-87.376199004975035</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>-94.607013009273828</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="22">
         <v>2469.2014802555495</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="22">
         <v>2280.4804111196181</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="22">
         <v>2960.4404223387655</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="22">
         <v>560.54859552683547</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="21">
         <v>679.96001121914719</v>
       </c>
-      <c r="L33" s="8"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>43738</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="25">
         <v>0.95855999999999997</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>0.87132205457463874</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>-135.21881540930991</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <v>-141.0645295122996</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="22">
         <v>2328.1369507432501</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="22">
         <v>2231.6589555044498</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="22">
         <v>3046.8377821329068</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="22">
         <v>646.94595532097674</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="21">
         <v>815.17882662845705</v>
       </c>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
         <v>43769</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="25">
         <v>0.97238999999999998</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>0.87426804992199714</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <v>-152.08902262090442</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <v>-156.40743181326877</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="22">
         <v>2171.7295189299812</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="22">
         <v>2111.7680669123242</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <v>3079.0359161616857</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="22">
         <v>679.14408934975563</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="21">
         <v>967.26784924936146</v>
       </c>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
         <v>43798</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <v>0.97728999999999999</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>0.87806616314199404</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="21">
         <v>-153.79694712990923</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="22">
         <v>-157.37083888089433</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="22">
         <v>2014.3586800490868</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="22">
         <v>1968.6125944251721</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="22">
         <v>3089.6773908044429</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="22">
         <v>689.78556399251283</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="21">
         <v>1121.0647963792708</v>
       </c>
-      <c r="L36" s="8"/>
+      <c r="L36" s="7"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+    <row r="37" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
         <v>43830</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="25">
         <v>1.0407999999999999</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>0.8828432602339179</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <v>-244.83294663742717</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="22">
         <v>-235.2353445786195</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="22">
         <v>1779.1233354704673</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="22">
         <v>1851.7115675576622</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="22">
         <v>3217.6093105743603</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="22">
         <v>817.71748376243022</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="21">
         <v>1365.8977430166979</v>
       </c>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
         <v>43853</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="25">
         <v>1.13632</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>0.88820977142857116</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21">
         <v>-384.57085428571469</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>-338.43534768878015</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <v>1440.6879877816871</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <v>1637.0825742760867</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <v>3387.5511715784992</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="22">
         <v>987.65934476656912</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="21">
         <v>1750.4685973024125</v>
       </c>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
         <v>43889</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <v>1.2075199999999999</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>0.89720491666666646</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <v>-480.98837916666685</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>-398.32746386533296</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <v>1042.3605239163542</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <v>1258.6711798394758</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <v>3490.1281563085554</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="22">
         <v>1090.2363294966253</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K39" s="21">
         <v>2231.4569764690796</v>
       </c>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
         <v>43921</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <v>1.0721400000000001</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>0.90529318059299169</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>-258.61257008086301</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>-241.21156759458933</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="22">
         <v>801.1489563217649</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="22">
         <v>858.94384203081711</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <v>3349.0133885807595</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="22">
         <v>949.12156176882945</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="21">
         <v>2490.0695465499425</v>
       </c>
-      <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
         <v>43951</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <v>1.13618</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>0.91107858453473123</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <v>-348.90719397116652</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="22">
         <v>-307.08795610833363</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <v>494.06100021343127</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="22">
         <v>561.34222722249638</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <v>3400.3189677436058</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="22">
         <v>1000.4271409316757</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="21">
         <v>2838.9767405211091</v>
       </c>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
         <v>43980</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="25">
         <v>1.12294</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>0.91666642765685002</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="21">
         <v>-319.72403713188254</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="22">
         <v>-284.72049898648419</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="22">
         <v>209.34050122694708</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="22">
         <v>235.07682244778798</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="22">
         <v>3393.7776001007796</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="22">
         <v>993.88577328884958</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K42" s="21">
         <v>3158.7007776529917</v>
       </c>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
         <v>44012</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="25">
         <v>1.25214</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>0.92355369538077381</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <v>-262.12361520630952</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="22">
         <v>-209.34050122694708</v>
       </c>
-      <c r="F43" s="23">
-        <v>0</v>
-      </c>
-      <c r="G43" s="23">
-        <v>0</v>
-      </c>
-      <c r="H43" s="23">
+      <c r="F43" s="22">
+        <v>0</v>
+      </c>
+      <c r="G43" s="22">
+        <v>0</v>
+      </c>
+      <c r="H43" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K43" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
         <v>44043</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="25">
         <v>1.3561700000000001</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>0.93564675970873734</v>
       </c>
-      <c r="D44" s="22">
-        <v>0</v>
-      </c>
-      <c r="E44" s="23">
-        <v>0</v>
-      </c>
-      <c r="F44" s="23">
-        <v>0</v>
-      </c>
-      <c r="G44" s="23">
-        <v>0</v>
-      </c>
-      <c r="H44" s="23">
+      <c r="D44" s="21">
+        <v>0</v>
+      </c>
+      <c r="E44" s="22">
+        <v>0</v>
+      </c>
+      <c r="F44" s="22">
+        <v>0</v>
+      </c>
+      <c r="G44" s="22">
+        <v>0</v>
+      </c>
+      <c r="H44" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K44" s="22">
+      <c r="K44" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
         <v>44074</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="25">
         <v>1.35833</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>0.9459795739644965</v>
       </c>
-      <c r="D45" s="22">
-        <v>0</v>
-      </c>
-      <c r="E45" s="23">
-        <v>0</v>
-      </c>
-      <c r="F45" s="23">
-        <v>0</v>
-      </c>
-      <c r="G45" s="23">
-        <v>0</v>
-      </c>
-      <c r="H45" s="23">
+      <c r="D45" s="21">
+        <v>0</v>
+      </c>
+      <c r="E45" s="22">
+        <v>0</v>
+      </c>
+      <c r="F45" s="22">
+        <v>0</v>
+      </c>
+      <c r="G45" s="22">
+        <v>0</v>
+      </c>
+      <c r="H45" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
         <v>44104</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="25">
         <v>1.2336199999999999</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>0.95444417531718506</v>
       </c>
-      <c r="D46" s="22">
-        <v>0</v>
-      </c>
-      <c r="E46" s="23">
-        <v>0</v>
-      </c>
-      <c r="F46" s="23">
-        <v>0</v>
-      </c>
-      <c r="G46" s="23">
-        <v>0</v>
-      </c>
-      <c r="H46" s="23">
+      <c r="D46" s="21">
+        <v>0</v>
+      </c>
+      <c r="E46" s="22">
+        <v>0</v>
+      </c>
+      <c r="F46" s="22">
+        <v>0</v>
+      </c>
+      <c r="G46" s="22">
+        <v>0</v>
+      </c>
+      <c r="H46" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K46" s="22">
+      <c r="K46" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
         <v>44134</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="25">
         <v>1.2367600000000001</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <v>0.96014630804076961</v>
       </c>
-      <c r="D47" s="22">
-        <v>0</v>
-      </c>
-      <c r="E47" s="23">
-        <v>0</v>
-      </c>
-      <c r="F47" s="23">
-        <v>0</v>
-      </c>
-      <c r="G47" s="23">
-        <v>0</v>
-      </c>
-      <c r="H47" s="23">
+      <c r="D47" s="21">
+        <v>0</v>
+      </c>
+      <c r="E47" s="22">
+        <v>0</v>
+      </c>
+      <c r="F47" s="22">
+        <v>0</v>
+      </c>
+      <c r="G47" s="22">
+        <v>0</v>
+      </c>
+      <c r="H47" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K47" s="22">
+      <c r="K47" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
         <v>44165</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="25">
         <v>1.23942</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>0.96710720132743311</v>
       </c>
-      <c r="D48" s="22">
-        <v>0</v>
-      </c>
-      <c r="E48" s="23">
-        <v>0</v>
-      </c>
-      <c r="F48" s="23">
-        <v>0</v>
-      </c>
-      <c r="G48" s="23">
-        <v>0</v>
-      </c>
-      <c r="H48" s="23">
+      <c r="D48" s="21">
+        <v>0</v>
+      </c>
+      <c r="E48" s="22">
+        <v>0</v>
+      </c>
+      <c r="F48" s="22">
+        <v>0</v>
+      </c>
+      <c r="G48" s="22">
+        <v>0</v>
+      </c>
+      <c r="H48" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K48" s="22">
+      <c r="K48" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="15">
         <v>44196</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49" s="25">
         <v>1.2531099999999999</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="20">
         <v>0.97392800431499404</v>
       </c>
-      <c r="D49" s="22">
-        <v>0</v>
-      </c>
-      <c r="E49" s="23">
-        <v>0</v>
-      </c>
-      <c r="F49" s="23">
-        <v>0</v>
-      </c>
-      <c r="G49" s="23">
-        <v>0</v>
-      </c>
-      <c r="H49" s="23">
+      <c r="D49" s="21">
+        <v>0</v>
+      </c>
+      <c r="E49" s="22">
+        <v>0</v>
+      </c>
+      <c r="F49" s="22">
+        <v>0</v>
+      </c>
+      <c r="G49" s="22">
+        <v>0</v>
+      </c>
+      <c r="H49" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K49" s="22">
+      <c r="K49" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
+    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15">
         <v>44225</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>1.2375</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="20">
         <v>0.98019564941921822</v>
       </c>
-      <c r="D50" s="22">
-        <v>0</v>
-      </c>
-      <c r="E50" s="23">
-        <v>0</v>
-      </c>
-      <c r="F50" s="23">
-        <v>0</v>
-      </c>
-      <c r="G50" s="23">
-        <v>0</v>
-      </c>
-      <c r="H50" s="23">
+      <c r="D50" s="21">
+        <v>0</v>
+      </c>
+      <c r="E50" s="22">
+        <v>0</v>
+      </c>
+      <c r="F50" s="22">
+        <v>0</v>
+      </c>
+      <c r="G50" s="22">
+        <v>0</v>
+      </c>
+      <c r="H50" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16">
+    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15">
         <v>44253</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="25">
         <v>1.23967</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="20">
         <v>0.984757931392931</v>
       </c>
-      <c r="D51" s="22">
-        <v>0</v>
-      </c>
-      <c r="E51" s="23">
-        <v>0</v>
-      </c>
-      <c r="F51" s="23">
-        <v>0</v>
-      </c>
-      <c r="G51" s="23">
-        <v>0</v>
-      </c>
-      <c r="H51" s="23">
+      <c r="D51" s="21">
+        <v>0</v>
+      </c>
+      <c r="E51" s="22">
+        <v>0</v>
+      </c>
+      <c r="F51" s="22">
+        <v>0</v>
+      </c>
+      <c r="G51" s="22">
+        <v>0</v>
+      </c>
+      <c r="H51" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K51" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
+    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="15">
         <v>44286</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="25">
         <v>1.15709</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>0.98919197969543116</v>
       </c>
-      <c r="D52" s="22">
-        <v>0</v>
-      </c>
-      <c r="E52" s="23">
-        <v>0</v>
-      </c>
-      <c r="F52" s="23">
-        <v>0</v>
-      </c>
-      <c r="G52" s="23">
-        <v>0</v>
-      </c>
-      <c r="H52" s="23">
+      <c r="D52" s="21">
+        <v>0</v>
+      </c>
+      <c r="E52" s="22">
+        <v>0</v>
+      </c>
+      <c r="F52" s="22">
+        <v>0</v>
+      </c>
+      <c r="G52" s="22">
+        <v>0</v>
+      </c>
+      <c r="H52" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K52" s="22">
+      <c r="K52" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
         <v>44316</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="25">
         <v>1.17998</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <v>0.99311644135188804</v>
       </c>
-      <c r="D53" s="22">
-        <v>0</v>
-      </c>
-      <c r="E53" s="23">
-        <v>0</v>
-      </c>
-      <c r="F53" s="23">
-        <v>0</v>
-      </c>
-      <c r="G53" s="23">
-        <v>0</v>
-      </c>
-      <c r="H53" s="23">
+      <c r="D53" s="21">
+        <v>0</v>
+      </c>
+      <c r="E53" s="22">
+        <v>0</v>
+      </c>
+      <c r="F53" s="22">
+        <v>0</v>
+      </c>
+      <c r="G53" s="22">
+        <v>0</v>
+      </c>
+      <c r="H53" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K53" s="22">
+      <c r="K53" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15">
         <v>44347</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="25">
         <v>1.2623</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>0.99678004882812443</v>
       </c>
-      <c r="D54" s="22">
-        <v>0</v>
-      </c>
-      <c r="E54" s="23">
-        <v>0</v>
-      </c>
-      <c r="F54" s="23">
-        <v>0</v>
-      </c>
-      <c r="G54" s="23">
-        <v>0</v>
-      </c>
-      <c r="H54" s="23">
+      <c r="D54" s="21">
+        <v>0</v>
+      </c>
+      <c r="E54" s="22">
+        <v>0</v>
+      </c>
+      <c r="F54" s="22">
+        <v>0</v>
+      </c>
+      <c r="G54" s="22">
+        <v>0</v>
+      </c>
+      <c r="H54" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K54" s="22">
+      <c r="K54" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15">
         <v>44377</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="25">
         <v>1.33643</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <v>1.0025140478468895</v>
       </c>
-      <c r="D55" s="22">
-        <v>0</v>
-      </c>
-      <c r="E55" s="23">
-        <v>0</v>
-      </c>
-      <c r="F55" s="23">
-        <v>0</v>
-      </c>
-      <c r="G55" s="23">
-        <v>0</v>
-      </c>
-      <c r="H55" s="23">
+      <c r="D55" s="21">
+        <v>0</v>
+      </c>
+      <c r="E55" s="22">
+        <v>0</v>
+      </c>
+      <c r="F55" s="22">
+        <v>0</v>
+      </c>
+      <c r="G55" s="22">
+        <v>0</v>
+      </c>
+      <c r="H55" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K55" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
         <v>44407</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="25">
         <v>1.28626</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>1.0086370852858479</v>
       </c>
-      <c r="D56" s="22">
-        <v>0</v>
-      </c>
-      <c r="E56" s="23">
-        <v>0</v>
-      </c>
-      <c r="F56" s="23">
-        <v>0</v>
-      </c>
-      <c r="G56" s="23">
-        <v>0</v>
-      </c>
-      <c r="H56" s="23">
+      <c r="D56" s="21">
+        <v>0</v>
+      </c>
+      <c r="E56" s="22">
+        <v>0</v>
+      </c>
+      <c r="F56" s="22">
+        <v>0</v>
+      </c>
+      <c r="G56" s="22">
+        <v>0</v>
+      </c>
+      <c r="H56" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K56" s="22">
+      <c r="K56" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16">
+    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="15">
         <v>44439</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="25">
         <v>1.2177899999999999</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="20">
         <v>1.0138825528007342</v>
       </c>
-      <c r="D57" s="22">
-        <v>0</v>
-      </c>
-      <c r="E57" s="23">
-        <v>0</v>
-      </c>
-      <c r="F57" s="23">
-        <v>0</v>
-      </c>
-      <c r="G57" s="23">
-        <v>0</v>
-      </c>
-      <c r="H57" s="23">
+      <c r="D57" s="21">
+        <v>0</v>
+      </c>
+      <c r="E57" s="22">
+        <v>0</v>
+      </c>
+      <c r="F57" s="22">
+        <v>0</v>
+      </c>
+      <c r="G57" s="22">
+        <v>0</v>
+      </c>
+      <c r="H57" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K57" s="22">
+      <c r="K57" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
+    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="15">
         <v>44469</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58" s="25">
         <v>1.20347</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="20">
         <v>1.0177556176735794</v>
       </c>
-      <c r="D58" s="22">
-        <v>0</v>
-      </c>
-      <c r="E58" s="23">
-        <v>0</v>
-      </c>
-      <c r="F58" s="23">
-        <v>0</v>
-      </c>
-      <c r="G58" s="23">
-        <v>0</v>
-      </c>
-      <c r="H58" s="23">
+      <c r="D58" s="21">
+        <v>0</v>
+      </c>
+      <c r="E58" s="22">
+        <v>0</v>
+      </c>
+      <c r="F58" s="22">
+        <v>0</v>
+      </c>
+      <c r="G58" s="22">
+        <v>0</v>
+      </c>
+      <c r="H58" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I58" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J58" s="23">
+      <c r="J58" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K58" s="22">
+      <c r="K58" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="15">
         <v>44498</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="25">
         <v>1.1970999999999998</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="20">
         <v>1.0204018311111105</v>
       </c>
-      <c r="D59" s="22">
-        <v>0</v>
-      </c>
-      <c r="E59" s="23">
-        <v>0</v>
-      </c>
-      <c r="F59" s="23">
-        <v>0</v>
-      </c>
-      <c r="G59" s="23">
-        <v>0</v>
-      </c>
-      <c r="H59" s="23">
+      <c r="D59" s="21">
+        <v>0</v>
+      </c>
+      <c r="E59" s="22">
+        <v>0</v>
+      </c>
+      <c r="F59" s="22">
+        <v>0</v>
+      </c>
+      <c r="G59" s="22">
+        <v>0</v>
+      </c>
+      <c r="H59" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K59" s="22">
+      <c r="K59" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
+    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15">
         <v>44530</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="25">
         <v>1.23373</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="20">
         <v>1.0245603661726232</v>
       </c>
-      <c r="D60" s="22">
-        <v>0</v>
-      </c>
-      <c r="E60" s="23">
-        <v>0</v>
-      </c>
-      <c r="F60" s="23">
-        <v>0</v>
-      </c>
-      <c r="G60" s="23">
-        <v>0</v>
-      </c>
-      <c r="H60" s="23">
+      <c r="D60" s="21">
+        <v>0</v>
+      </c>
+      <c r="E60" s="22">
+        <v>0</v>
+      </c>
+      <c r="F60" s="22">
+        <v>0</v>
+      </c>
+      <c r="G60" s="22">
+        <v>0</v>
+      </c>
+      <c r="H60" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I60" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J60" s="23">
+      <c r="J60" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K60" s="22">
+      <c r="K60" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="16">
+    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="15">
         <v>44561</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="25">
         <v>1.2554100000000001</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="20">
         <v>1.0289409572649562</v>
       </c>
-      <c r="D61" s="22">
-        <v>0</v>
-      </c>
-      <c r="E61" s="23">
-        <v>0</v>
-      </c>
-      <c r="F61" s="23">
-        <v>0</v>
-      </c>
-      <c r="G61" s="23">
-        <v>0</v>
-      </c>
-      <c r="H61" s="23">
+      <c r="D61" s="21">
+        <v>0</v>
+      </c>
+      <c r="E61" s="22">
+        <v>0</v>
+      </c>
+      <c r="F61" s="22">
+        <v>0</v>
+      </c>
+      <c r="G61" s="22">
+        <v>0</v>
+      </c>
+      <c r="H61" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J61" s="23">
+      <c r="J61" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K61" s="22">
+      <c r="K61" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15">
         <v>44589</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="25">
         <v>1.11076</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="20">
         <v>1.0316563299663286</v>
       </c>
-      <c r="D62" s="22">
-        <v>0</v>
-      </c>
-      <c r="E62" s="23">
-        <v>0</v>
-      </c>
-      <c r="F62" s="23">
-        <v>0</v>
-      </c>
-      <c r="G62" s="23">
-        <v>0</v>
-      </c>
-      <c r="H62" s="23">
+      <c r="D62" s="21">
+        <v>0</v>
+      </c>
+      <c r="E62" s="22">
+        <v>0</v>
+      </c>
+      <c r="F62" s="22">
+        <v>0</v>
+      </c>
+      <c r="G62" s="22">
+        <v>0</v>
+      </c>
+      <c r="H62" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I62" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J62" s="23">
+      <c r="J62" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K62" s="22">
+      <c r="K62" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="16">
+    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="15">
         <v>44620</v>
       </c>
-      <c r="B63" s="26">
+      <c r="B63" s="25">
         <v>1.15177</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="20">
         <v>1.0331931727574739</v>
       </c>
-      <c r="D63" s="22">
-        <v>0</v>
-      </c>
-      <c r="E63" s="23">
-        <v>0</v>
-      </c>
-      <c r="F63" s="23">
-        <v>0</v>
-      </c>
-      <c r="G63" s="23">
-        <v>0</v>
-      </c>
-      <c r="H63" s="23">
+      <c r="D63" s="21">
+        <v>0</v>
+      </c>
+      <c r="E63" s="22">
+        <v>0</v>
+      </c>
+      <c r="F63" s="22">
+        <v>0</v>
+      </c>
+      <c r="G63" s="22">
+        <v>0</v>
+      </c>
+      <c r="H63" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I63" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J63" s="23">
+      <c r="J63" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K63" s="22">
+      <c r="K63" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
+    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="15">
         <v>44651</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64" s="25">
         <v>1.0468499999999998</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>1.0340066340668286</v>
       </c>
-      <c r="D64" s="22">
-        <v>0</v>
-      </c>
-      <c r="E64" s="23">
-        <v>0</v>
-      </c>
-      <c r="F64" s="23">
-        <v>0</v>
-      </c>
-      <c r="G64" s="23">
-        <v>0</v>
-      </c>
-      <c r="H64" s="23">
+      <c r="D64" s="21">
+        <v>0</v>
+      </c>
+      <c r="E64" s="22">
+        <v>0</v>
+      </c>
+      <c r="F64" s="22">
+        <v>0</v>
+      </c>
+      <c r="G64" s="22">
+        <v>0</v>
+      </c>
+      <c r="H64" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I64" s="23">
+      <c r="I64" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J64" s="23">
+      <c r="J64" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K64" s="22">
+      <c r="K64" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="16">
+    <row r="65" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="15">
         <v>44680</v>
       </c>
-      <c r="B65" s="26">
+      <c r="B65" s="25">
         <v>0.83169999999999999</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="20">
         <v>1.032387961476724</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="21">
         <v>311.06634028892216</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="22">
         <v>374.01267318615146</v>
       </c>
-      <c r="F65" s="23">
+      <c r="F65" s="22">
         <v>374.01267318615146</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="22">
         <v>311.06634028892216</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="22">
         <v>2710.9581671008523</v>
       </c>
-      <c r="I65" s="23">
+      <c r="I65" s="22">
         <v>3731.8907331482233</v>
       </c>
-      <c r="J65" s="23">
+      <c r="J65" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K65" s="22">
+      <c r="K65" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="16">
+    <row r="66" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="15">
         <v>44712</v>
       </c>
-      <c r="B66" s="26">
+      <c r="B66" s="25">
         <v>0.90644000000000002</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="20">
         <v>1.0300312806324092</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D66" s="21">
         <v>191.56648498023426</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="22">
         <v>211.3393991662264</v>
       </c>
-      <c r="F66" s="23">
+      <c r="F66" s="22">
         <v>585.35207235237783</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="22">
         <v>530.58653246308938</v>
       </c>
-      <c r="H66" s="23">
+      <c r="H66" s="22">
         <v>2902.5246520810865</v>
       </c>
-      <c r="I66" s="23">
+      <c r="I66" s="22">
         <v>3951.4109253223905</v>
       </c>
-      <c r="J66" s="23">
+      <c r="J66" s="22">
         <v>1048.886273241304</v>
       </c>
-      <c r="K66" s="22">
+      <c r="K66" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="16">
+    <row r="67" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="15">
         <v>44742</v>
       </c>
-      <c r="B67" s="26">
+      <c r="B67" s="25">
         <v>0.99066999999999994</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="20">
         <v>1.0286842768273694</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="21">
         <v>58.922129082422671</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="22">
         <v>59.477049958535815</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F67" s="22">
         <v>644.82912231091359</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G67" s="22">
         <v>638.81286659975274</v>
       </c>
-      <c r="H67" s="23">
+      <c r="H67" s="22">
         <v>2961.4467811635091</v>
       </c>
-      <c r="I67" s="23">
+      <c r="I67" s="22">
         <v>4059.6372594590539</v>
       </c>
-      <c r="J67" s="23">
+      <c r="J67" s="22">
         <v>1098.1904782955448</v>
       </c>
-      <c r="K67" s="22">
+      <c r="K67" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="16">
+    <row r="68" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15">
         <v>44771</v>
       </c>
-      <c r="B68" s="26">
+      <c r="B68" s="25">
         <v>1.01267</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="20">
         <v>1.0278637413924998</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="21">
         <v>23.550299158374767</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="22">
         <v>23.255650071962997</v>
       </c>
-      <c r="F68" s="23">
+      <c r="F68" s="22">
         <v>668.08477238287662</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="22">
         <v>676.5494064489676</v>
       </c>
-      <c r="H68" s="23">
+      <c r="H68" s="22">
         <v>2984.9970803218839</v>
       </c>
-      <c r="I68" s="23">
+      <c r="I68" s="22">
         <v>4097.3737993082686</v>
       </c>
-      <c r="J68" s="23">
+      <c r="J68" s="22">
         <v>1112.3767189863847</v>
       </c>
-      <c r="K68" s="22">
+      <c r="K68" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="16">
+    <row r="69" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="15">
         <v>44804</v>
       </c>
-      <c r="B69" s="26">
+      <c r="B69" s="25">
         <v>0.95750000000000002</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="20">
         <v>1.0277413007518783</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="21">
         <v>108.87401616541135</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="22">
         <v>113.70654429807973</v>
       </c>
-      <c r="F69" s="23">
+      <c r="F69" s="22">
         <v>781.79131668095636</v>
       </c>
-      <c r="G69" s="23">
+      <c r="G69" s="22">
         <v>748.56518572201571</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H69" s="22">
         <v>3093.8710964872953</v>
       </c>
-      <c r="I69" s="23">
+      <c r="I69" s="22">
         <v>4169.3895785813165</v>
       </c>
-      <c r="J69" s="23">
+      <c r="J69" s="22">
         <v>1075.5184820940212</v>
       </c>
-      <c r="K69" s="22">
+      <c r="K69" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="16">
+    <row r="70" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="15">
         <v>44834</v>
       </c>
-      <c r="B70" s="26">
+      <c r="B70" s="25">
         <v>0.85887999999999998</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="20">
         <v>1.0261969874167267</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="21">
         <v>259.34133049592646</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="22">
         <v>301.95292764521992</v>
       </c>
-      <c r="F70" s="23">
+      <c r="F70" s="22">
         <v>1083.7442443261762</v>
       </c>
-      <c r="G70" s="23">
+      <c r="G70" s="22">
         <v>930.80625656686618</v>
       </c>
-      <c r="H70" s="23">
+      <c r="H70" s="22">
         <v>3353.2124269832216</v>
       </c>
-      <c r="I70" s="23">
+      <c r="I70" s="22">
         <v>4351.6306494261671</v>
       </c>
-      <c r="J70" s="23">
+      <c r="J70" s="22">
         <v>998.41822244294553</v>
       </c>
-      <c r="K70" s="22">
+      <c r="K70" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="16">
+    <row r="71" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="15">
         <v>44865</v>
       </c>
-      <c r="B71" s="26">
+      <c r="B71" s="25">
         <v>0.96957000000000004</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="20">
         <v>1.0250083101682501</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="21">
         <v>85.929380760787609</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="22">
         <v>88.626278412891907</v>
       </c>
-      <c r="F71" s="23">
+      <c r="F71" s="22">
         <v>1172.3705227390681</v>
       </c>
-      <c r="G71" s="23">
+      <c r="G71" s="22">
         <v>1136.6952877321182</v>
       </c>
-      <c r="H71" s="23">
+      <c r="H71" s="22">
         <v>3439.1418077440094</v>
       </c>
-      <c r="I71" s="23">
+      <c r="I71" s="22">
         <v>4557.5196805914193</v>
       </c>
-      <c r="J71" s="23">
+      <c r="J71" s="22">
         <v>1118.3778728474099</v>
       </c>
-      <c r="K71" s="22">
+      <c r="K71" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="16">
+    <row r="72" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="15">
         <v>44895</v>
       </c>
-      <c r="B72" s="26">
+      <c r="B72" s="25">
         <v>0.99405999999999994</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="20">
         <v>1.0247448956083498</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="21">
         <v>47.561588192942281</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="22">
         <v>47.845792198601977</v>
       </c>
-      <c r="F72" s="23">
+      <c r="F72" s="22">
         <v>1220.2163149376699</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G72" s="22">
         <v>1212.9682300269401</v>
       </c>
-      <c r="H72" s="23">
+      <c r="H72" s="22">
         <v>3486.7033959369519</v>
       </c>
-      <c r="I72" s="23">
+      <c r="I72" s="22">
         <v>4633.7926228862416</v>
       </c>
-      <c r="J72" s="23">
+      <c r="J72" s="22">
         <v>1147.0892269492897</v>
       </c>
-      <c r="K72" s="22">
+      <c r="K72" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="16">
+    <row r="73" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="15">
         <v>44925</v>
       </c>
-      <c r="B73" s="26">
+      <c r="B73" s="25">
         <v>0.95635000000000003</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="20">
         <v>1.0242041105598856</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="21">
         <v>105.1738713678226</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E73" s="22">
         <v>109.97424726075452</v>
       </c>
-      <c r="F73" s="23">
+      <c r="F73" s="22">
         <v>1330.1905621984245</v>
       </c>
-      <c r="G73" s="23">
+      <c r="G73" s="22">
         <v>1272.1277441584632</v>
       </c>
-      <c r="H73" s="23">
+      <c r="H73" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I73" s="23">
+      <c r="I73" s="22">
         <v>4692.9521370177645</v>
       </c>
-      <c r="J73" s="23">
+      <c r="J73" s="22">
         <v>1101.0748697129898</v>
       </c>
-      <c r="K73" s="22">
+      <c r="K73" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
+    <row r="74" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="15">
         <v>44957</v>
       </c>
-      <c r="B74" s="26">
+      <c r="B74" s="25">
         <v>1.08087</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="20">
         <v>1.0241600981079177</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="21">
         <v>-87.900347932727485</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="22">
         <v>-81.323700290254592</v>
       </c>
-      <c r="F74" s="23">
+      <c r="F74" s="22">
         <v>1248.8668619081698</v>
       </c>
-      <c r="G74" s="23">
+      <c r="G74" s="22">
         <v>1349.8627250306834</v>
       </c>
-      <c r="H74" s="23">
+      <c r="H74" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I74" s="23">
+      <c r="I74" s="22">
         <v>4858.5874658227121</v>
       </c>
-      <c r="J74" s="23">
+      <c r="J74" s="22">
         <v>1266.7101985179374</v>
       </c>
-      <c r="K74" s="22">
+      <c r="K74" s="21">
         <v>3508.7247407920286</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="16">
+    <row r="75" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="15">
         <v>44985</v>
       </c>
-      <c r="B75" s="26">
+      <c r="B75" s="25">
         <v>1.16859</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="20">
         <v>1.0261586247408419</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="21">
         <v>-220.76863165169516</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="22">
         <v>-188.91880954970961</v>
       </c>
-      <c r="F75" s="23">
+      <c r="F75" s="22">
         <v>1059.9480523584602</v>
       </c>
-      <c r="G75" s="23">
+      <c r="G75" s="22">
         <v>1238.6446945055732</v>
       </c>
-      <c r="H75" s="23">
+      <c r="H75" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I75" s="23">
+      <c r="I75" s="22">
         <v>4968.1380669492974</v>
       </c>
-      <c r="J75" s="23">
+      <c r="J75" s="22">
         <v>1376.2607996445226</v>
       </c>
-      <c r="K75" s="22">
+      <c r="K75" s="21">
         <v>3729.4933724437237</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="16">
+    <row r="76" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="15">
         <v>45016</v>
       </c>
-      <c r="B76" s="26">
+      <c r="B76" s="25">
         <v>1.2989900000000001</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="20">
         <v>1.0293158435374137</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="21">
         <v>-417.99494251700895</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="22">
         <v>-321.78457302751286</v>
       </c>
-      <c r="F76" s="23">
+      <c r="F76" s="22">
         <v>738.16347933094744</v>
       </c>
-      <c r="G76" s="23">
+      <c r="G76" s="22">
         <v>958.86697801610751</v>
       </c>
-      <c r="H76" s="23">
+      <c r="H76" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I76" s="23">
+      <c r="I76" s="22">
         <v>5106.3552929768402</v>
       </c>
-      <c r="J76" s="23">
+      <c r="J76" s="22">
         <v>1514.4780256720655</v>
       </c>
-      <c r="K76" s="22">
+      <c r="K76" s="21">
         <v>4147.4883149607331</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L93" s="8"/>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L94" s="8"/>
-    </row>
-    <row r="95" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L97" s="8"/>
-    </row>
-    <row r="98" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L98" s="8"/>
-    </row>
-    <row r="99" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L100" s="8"/>
-    </row>
-    <row r="101" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L101" s="8"/>
-    </row>
-    <row r="102" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L102" s="8"/>
-    </row>
-    <row r="103" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L103" s="8"/>
-    </row>
-    <row r="104" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L104" s="8"/>
-    </row>
-    <row r="105" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L105" s="8"/>
-      <c r="O105" s="3"/>
-    </row>
-    <row r="106" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L106" s="8"/>
-    </row>
-    <row r="107" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L107" s="8"/>
-    </row>
-    <row r="108" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L116" s="8"/>
-    </row>
-    <row r="117" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L117" s="8"/>
-      <c r="O117" s="3"/>
-    </row>
-    <row r="118" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L118" s="8"/>
-    </row>
-    <row r="119" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L128" s="8"/>
-    </row>
-    <row r="129" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L129" s="8"/>
-      <c r="O129" s="3"/>
-    </row>
-    <row r="130" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L130" s="8"/>
-    </row>
-    <row r="131" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L135" s="8"/>
-    </row>
-    <row r="136" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L136" s="8"/>
-    </row>
-    <row r="137" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L137" s="8"/>
-    </row>
-    <row r="138" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L138" s="8"/>
-    </row>
-    <row r="139" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L139" s="8"/>
-    </row>
-    <row r="140" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L140" s="8"/>
-    </row>
-    <row r="141" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L141" s="8"/>
-      <c r="O141" s="3"/>
-    </row>
-    <row r="142" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L142" s="8"/>
-    </row>
-    <row r="143" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L143" s="8"/>
-    </row>
-    <row r="144" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L144" s="8"/>
-    </row>
-    <row r="145" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L145" s="8"/>
-    </row>
-    <row r="146" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L146" s="8"/>
-    </row>
-    <row r="147" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L147" s="8"/>
-    </row>
-    <row r="148" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L148" s="8"/>
-    </row>
-    <row r="149" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L149" s="8"/>
-    </row>
-    <row r="150" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L150" s="8"/>
-    </row>
-    <row r="151" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L151" s="8"/>
-    </row>
-    <row r="152" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L152" s="8"/>
-    </row>
-    <row r="153" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L153" s="8"/>
-      <c r="O153" s="3"/>
-    </row>
-    <row r="154" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L154" s="8"/>
-    </row>
-    <row r="155" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L155" s="8"/>
-    </row>
-    <row r="156" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L156" s="8"/>
-    </row>
-    <row r="157" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L157" s="8"/>
-    </row>
-    <row r="158" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L158" s="8"/>
-    </row>
-    <row r="159" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L159" s="8"/>
-    </row>
-    <row r="160" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L162" s="8"/>
-    </row>
-    <row r="163" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L164" s="8"/>
-    </row>
-    <row r="165" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L165" s="8"/>
-      <c r="O165" s="3"/>
-    </row>
-    <row r="166" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L166" s="8"/>
-    </row>
-    <row r="167" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L167" s="8"/>
-    </row>
-    <row r="168" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L168" s="4"/>
-    </row>
-    <row r="169" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L169" s="4"/>
-    </row>
-    <row r="170" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L171" s="4"/>
-    </row>
-    <row r="172" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L172" s="4"/>
-    </row>
-    <row r="173" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L173" s="4"/>
-    </row>
-    <row r="174" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L174" s="4"/>
-    </row>
-    <row r="175" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L175" s="4"/>
-    </row>
-    <row r="176" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L176" s="4"/>
-    </row>
-    <row r="177" spans="12:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L177" s="4"/>
-    </row>
-    <row r="178" spans="12:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L178" s="4"/>
-    </row>
-    <row r="179" spans="12:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L179" s="4"/>
-    </row>
-    <row r="180" spans="12:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L180" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7752,179 +7462,179 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF180"/>
+  <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="11.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="3" customWidth="1"/>
+    <col min="7" max="8" width="11.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="2"/>
     <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="11.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.21875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="11.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.125" style="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="1"/>
-    <col min="24" max="24" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="9" style="1"/>
-    <col min="27" max="27" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="9" style="1"/>
-    <col min="30" max="30" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="50" width="9" style="1"/>
-    <col min="51" max="51" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="52" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:32" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="25"/>
-      <c r="M2" s="20"/>
-    </row>
-    <row r="3" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:32" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="24"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
         <v>1550</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
         <f>MIN(F:F)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
         <v>43189</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>0.95575999999999994</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>0.91680896000000012</v>
       </c>
-      <c r="D4" s="22">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0</v>
-      </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="O4" s="27" t="s">
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="O4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <v>43462</v>
       </c>
       <c r="Y4" s="1">
@@ -7935,18 +7645,18 @@
         <f t="shared" ref="Z4" si="0">0-Y4</f>
         <v>-1431.6926540000038</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="6">
         <v>43462</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="7">
         <f>VLOOKUP(AA4,O:P,2,)</f>
         <v>1431.6926540000038</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="7">
         <f t="shared" ref="AC4:AC6" si="1">0-AB4</f>
         <v>-1431.6926540000038</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4" s="6">
         <v>43462</v>
       </c>
       <c r="AE4" s="1">
@@ -7958,65 +7668,65 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>43217</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>0.92662</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>0.91465696000000007</v>
       </c>
-      <c r="D5" s="22">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0</v>
-      </c>
-      <c r="I5" s="23">
-        <v>0</v>
-      </c>
-      <c r="J5" s="23">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="O5" s="7">
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="O5" s="6">
         <v>43462</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>1431.6926540000038</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>1431.6926540000038</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>1305.2741513950191</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>-126.41850260498472</v>
       </c>
-      <c r="T5" s="6">
-        <v>0</v>
-      </c>
-      <c r="U5" s="10">
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
         <v>-8.8300028816788487E-2</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="9">
         <v>-8.8300028816788487E-2</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>43830</v>
       </c>
       <c r="Y5" s="1">
@@ -8027,18 +7737,18 @@
         <f t="shared" ref="Z5" si="2">0-Y5</f>
         <v>-193.28661200000033</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="6">
         <v>43830</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="7">
         <f>VLOOKUP(AA5,O:P,2,)</f>
         <v>193.28661200000033</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="7">
         <f t="shared" si="1"/>
         <v>-193.28661200000033</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="6">
         <v>43830</v>
       </c>
       <c r="AE5" s="1">
@@ -8050,82 +7760,82 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>43251</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>0.88405999999999996</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>0.91904036000000011</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>54.219558000000241</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>61.330178947130563</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>61.330178947130563</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>54.219558000000241</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>54.219558000000241</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>54.219558000000241</v>
       </c>
-      <c r="J6" s="23">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="O6" s="7">
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="O6" s="6">
         <v>43830</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>193.28661200000033</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>1624.9792660000041</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>2121.5860729661367</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>496.60680696613258</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>1754.5207020000048</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="9">
         <v>0.30560808827337449</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="9">
         <v>0.15168919836337369</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>43830</v>
       </c>
       <c r="Z6" s="1">
         <v>2121.5860729661367</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="6">
         <v>44196</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="7">
         <f>VLOOKUP(AA6,O:P,2,)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="6">
         <v>44196</v>
       </c>
       <c r="AE6" s="1">
@@ -8137,75 +7847,75 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>43280</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>0.81235999999999997</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>0.91734940000000031</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>162.73357000000053</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>200.32198778866578</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>261.65216673579636</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>212.55575416949151</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>216.95312800000076</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>212.55575416949151</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>-4.3973738305092525</v>
       </c>
-      <c r="K7" s="22">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="O7" s="7">
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="O7" s="6">
         <v>44196</v>
       </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <v>1624.9792660000041</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>2160.3103145693699</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>535.33104856936575</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>2160.3103145693699</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <v>0.32943869486231608</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="9">
         <v>0.10369660281505078</v>
       </c>
       <c r="Z7" s="2">
         <f>IRR(Z4:Z6)</f>
         <v>0.15168919836337369</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="6">
         <v>44196</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AC7" s="7">
         <v>2160.3103145693699</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="6">
         <v>44561</v>
       </c>
       <c r="AE7" s="1">
@@ -8217,69 +7927,69 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>43312</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>0.8131799999999999</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>0.91070244000000022</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>151.15978200000049</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>185.88723529845853</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>447.53940203425486</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>363.93009094621533</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>368.11291000000125</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>363.93009094621533</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>-4.18281905378592</v>
       </c>
-      <c r="K8" s="22">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="O8" s="7">
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="O8" s="6">
         <v>44561</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="10">
         <v>439.433556000002</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>2064.4128220000061</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>2633.6658962308707</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>569.25307423086451</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>2365.5016705693652</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="9">
         <v>0.2757457559672446</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="9">
         <v>9.161448749478418E-2</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
         <v>0.10369660281505078</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="6">
         <v>44561</v>
       </c>
       <c r="AF8" s="1">
@@ -8287,62 +7997,62 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>43343</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>0.77766999999999997</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>0.89930640000000006</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>188.53642000000013</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>242.43756349094107</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>689.97696552519596</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>536.57438677997914</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>556.64933000000133</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>536.57438677997914</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>-20.074943220022192</v>
       </c>
-      <c r="K9" s="22">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="O9" s="7">
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="O9" s="6">
         <v>44925</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <v>2771.7310180000009</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>4836.143840000007</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>5394.8728413640729</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>558.72900136406588</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>2365.5016705693652</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="9">
         <v>0.11553192374941128</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="9">
         <v>6.5682800424140098E-2</v>
       </c>
       <c r="AF9" s="2">
@@ -8351,41 +8061,41 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>43371</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>0.76784000000000008</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>0.8825278000000002</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>177.76609000000019</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>231.51449520733507</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>921.4914607325311</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>707.55800320886669</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>734.41542000000152</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>707.55800320886669</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>-26.857416791134824</v>
       </c>
-      <c r="K10" s="22">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="X10" s="7">
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="X10" s="6">
         <v>43462</v>
       </c>
       <c r="Y10" s="1">
@@ -8397,41 +8107,41 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>43404</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>0.67677999999999994</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>0.86133792000000031</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>286.06477600000056</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>422.68503206359611</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>1344.1764927961271</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>909.71176679456289</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>1020.480196000002</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>909.71176679456289</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>-110.76842920543913</v>
       </c>
-      <c r="K11" s="22">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="X11" s="7">
+      <c r="K11" s="21">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="X11" s="6">
         <v>43830</v>
       </c>
       <c r="Y11" s="1">
@@ -8443,41 +8153,41 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>43434</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>0.7214299999999999</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>0.83959144000000063</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>183.15023200000113</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>253.8711059978115</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>1598.0475987939387</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>1152.879479197911</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>1203.6304280000031</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>1152.879479197911</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>-50.750948802092125</v>
       </c>
-      <c r="K12" s="22">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="X12" s="7">
+      <c r="K12" s="21">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="X12" s="6">
         <v>44196</v>
       </c>
       <c r="Y12" s="1">
@@ -8489,41 +8199,41 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>43462</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>0.67408000000000001</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>0.82121692000000046</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>228.06222600000069</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>338.33109719914654</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>1936.3786959930853</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>1305.2741513950191</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>1431.6926540000038</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>1305.2741513950191</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>-126.41850260498472</v>
       </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="X13" s="7">
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="X13" s="6">
         <v>44561</v>
       </c>
       <c r="Y13" s="1">
@@ -8535,41 +8245,41 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>43496</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>0.67819000000000007</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>0.80289104000000022</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>193.28661200000025</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>285.00363025110988</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>2221.3823262441952</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>1506.5192798355508</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>1506.5192798355508</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>-118.45998616445331</v>
       </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="X14" s="7">
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="X14" s="6">
         <v>44925</v>
       </c>
       <c r="Y14" s="1">
@@ -8581,41 +8291,41 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>43524</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>0.85648000000000002</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>0.79863988000000019</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>-89.65218599999973</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>-104.67516579488105</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>2116.707160449314</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>1812.9173487816286</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>1902.5695347816284</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <v>277.59026878162422</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <v>89.65218599999973</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="X15" s="7">
+      <c r="L15" s="7"/>
+      <c r="X15" s="6">
         <v>44925</v>
       </c>
       <c r="Z15" s="1">
@@ -8623,2057 +8333,1757 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>43553</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>0.94580999999999993</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>0.80337899999999995</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>-220.76804999999996</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>-233.41691248770891</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>1883.290247961605</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>1781.2347494245655</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>2091.654985424565</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>466.67571942456084</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <v>310.4202359999997</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
         <v>6.5682800424140098E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>43585</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>0.9108099999999999</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>0.80660947999999977</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>-161.5108060000002</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>-177.32656207112376</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>1705.9636858904812</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>1553.808784745909</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>2025.7398267459089</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>400.76056074590474</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <v>471.93104199999993</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>43616</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>0.86360000000000003</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>0.8020255199999996</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>-95.440444000000667</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>-110.51464103751813</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>1595.449044852963</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>1377.8297951350189</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>1945.2012811350196</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <v>320.22201513501545</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="21">
         <v>567.37148600000057</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>43644</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>0.88732</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>0.80021431999999926</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>-135.01380400000116</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>-152.15909029437086</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>1443.2899545585922</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>1280.6600424789301</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>1983.0453324789319</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>358.06606647892772</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <v>702.38529000000176</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>43677</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>0.89222000000000001</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>0.80840215999999976</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>-129.9176520000004</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>-145.61167873394498</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>1297.6782758246472</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <v>1157.8145112562668</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>1990.1174532562691</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <v>365.13818725626493</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <v>832.30294200000219</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>43707</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>0.92357</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>0.81579543999999959</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>-167.05056800000062</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>-180.87483136091538</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>1116.8034444637319</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <v>1031.4461572033688</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>2030.7996672033717</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <v>405.82040120336751</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="21">
         <v>999.35351000000287</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>43738</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>0.95855999999999997</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>0.83312139999999968</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>-194.42983000000044</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>-202.83532590552542</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>913.96811855820647</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>876.09327972515439</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>2069.876619725158</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>444.89735372515383</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <v>1193.7833400000034</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>43769</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>0.97238999999999998</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>0.85132979999999947</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>-187.64331000000078</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>-192.97124610495871</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>720.99687245324776</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>701.09014880481357</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <v>2082.5167988048179</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <v>457.53753280481374</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="21">
         <v>1381.4266500000042</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="7"/>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>43798</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>0.97728999999999999</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>0.87548991999999959</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>-157.79012400000062</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>-161.45680811222934</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>559.54006434101848</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <v>546.83290947983392</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <v>2086.0496834798387</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>461.07041747983453</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="21">
         <v>1539.2167740000048</v>
       </c>
-      <c r="L24" s="8"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>43830</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>1.0407999999999999</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>0.90189423999999996</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>-215.30392799999998</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>-206.86388162951576</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>352.67618271150275</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="22">
         <v>367.06537096613204</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="22">
         <v>2121.5860729661367</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>496.60680696613258</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="21">
         <v>1754.5207020000048</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>43853</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>1.13632</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>0.92962908</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>-320.370926</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>-281.93724127006476</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <v>70.738941441437987</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="22">
         <v>80.38207393873482</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <v>2155.2737019387396</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <v>530.29443593873543</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="21">
         <v>2074.8916280000049</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>43889</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>1.2075199999999999</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>0.96966315999999997</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>-85.418686569365192</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>-70.738941441437987</v>
       </c>
-      <c r="F27" s="23">
-        <v>0</v>
-      </c>
-      <c r="G27" s="23">
-        <v>0</v>
-      </c>
-      <c r="H27" s="23">
+      <c r="F27" s="22">
+        <v>0</v>
+      </c>
+      <c r="G27" s="22">
+        <v>0</v>
+      </c>
+      <c r="H27" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L27" s="8"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>43921</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>1.0721400000000001</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>0.99416948000000038</v>
       </c>
-      <c r="D28" s="22">
-        <v>0</v>
-      </c>
-      <c r="E28" s="23">
-        <v>0</v>
-      </c>
-      <c r="F28" s="23">
-        <v>0</v>
-      </c>
-      <c r="G28" s="23">
-        <v>0</v>
-      </c>
-      <c r="H28" s="23">
+      <c r="D28" s="21">
+        <v>0</v>
+      </c>
+      <c r="E28" s="22">
+        <v>0</v>
+      </c>
+      <c r="F28" s="22">
+        <v>0</v>
+      </c>
+      <c r="G28" s="22">
+        <v>0</v>
+      </c>
+      <c r="H28" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>43951</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>1.13618</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>1.0066833200000003</v>
       </c>
-      <c r="D29" s="22">
-        <v>0</v>
-      </c>
-      <c r="E29" s="23">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23">
-        <v>0</v>
-      </c>
-      <c r="G29" s="23">
-        <v>0</v>
-      </c>
-      <c r="H29" s="23">
+      <c r="D29" s="21">
+        <v>0</v>
+      </c>
+      <c r="E29" s="22">
+        <v>0</v>
+      </c>
+      <c r="F29" s="22">
+        <v>0</v>
+      </c>
+      <c r="G29" s="22">
+        <v>0</v>
+      </c>
+      <c r="H29" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>43980</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>1.12294</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>1.0254032800000001</v>
       </c>
-      <c r="D30" s="22">
-        <v>0</v>
-      </c>
-      <c r="E30" s="23">
-        <v>0</v>
-      </c>
-      <c r="F30" s="23">
-        <v>0</v>
-      </c>
-      <c r="G30" s="23">
-        <v>0</v>
-      </c>
-      <c r="H30" s="23">
+      <c r="D30" s="21">
+        <v>0</v>
+      </c>
+      <c r="E30" s="22">
+        <v>0</v>
+      </c>
+      <c r="F30" s="22">
+        <v>0</v>
+      </c>
+      <c r="G30" s="22">
+        <v>0</v>
+      </c>
+      <c r="H30" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L30" s="8"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>44012</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>1.25214</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>1.0521240799999996</v>
       </c>
-      <c r="D31" s="22">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23">
-        <v>0</v>
-      </c>
-      <c r="F31" s="23">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23">
-        <v>0</v>
-      </c>
-      <c r="H31" s="23">
+      <c r="D31" s="21">
+        <v>0</v>
+      </c>
+      <c r="E31" s="22">
+        <v>0</v>
+      </c>
+      <c r="F31" s="22">
+        <v>0</v>
+      </c>
+      <c r="G31" s="22">
+        <v>0</v>
+      </c>
+      <c r="H31" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L31" s="8"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>44043</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>1.3561700000000001</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>1.09524756</v>
       </c>
-      <c r="D32" s="22">
-        <v>0</v>
-      </c>
-      <c r="E32" s="23">
-        <v>0</v>
-      </c>
-      <c r="F32" s="23">
-        <v>0</v>
-      </c>
-      <c r="G32" s="23">
-        <v>0</v>
-      </c>
-      <c r="H32" s="23">
+      <c r="D32" s="21">
+        <v>0</v>
+      </c>
+      <c r="E32" s="22">
+        <v>0</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0</v>
+      </c>
+      <c r="G32" s="22">
+        <v>0</v>
+      </c>
+      <c r="H32" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L32" s="8"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>44074</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="25">
         <v>1.35833</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>1.1352650000000004</v>
       </c>
-      <c r="D33" s="22">
-        <v>0</v>
-      </c>
-      <c r="E33" s="23">
-        <v>0</v>
-      </c>
-      <c r="F33" s="23">
-        <v>0</v>
-      </c>
-      <c r="G33" s="23">
-        <v>0</v>
-      </c>
-      <c r="H33" s="23">
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="E33" s="22">
+        <v>0</v>
+      </c>
+      <c r="F33" s="22">
+        <v>0</v>
+      </c>
+      <c r="G33" s="22">
+        <v>0</v>
+      </c>
+      <c r="H33" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L33" s="8"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>44104</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="25">
         <v>1.2336199999999999</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>1.1624354799999996</v>
       </c>
-      <c r="D34" s="22">
-        <v>0</v>
-      </c>
-      <c r="E34" s="23">
-        <v>0</v>
-      </c>
-      <c r="F34" s="23">
-        <v>0</v>
-      </c>
-      <c r="G34" s="23">
-        <v>0</v>
-      </c>
-      <c r="H34" s="23">
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="22">
+        <v>0</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
+        <v>0</v>
+      </c>
+      <c r="H34" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L34" s="8"/>
+      <c r="L34" s="7"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>44134</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="25">
         <v>1.2367600000000001</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>1.1809904399999995</v>
       </c>
-      <c r="D35" s="22">
-        <v>0</v>
-      </c>
-      <c r="E35" s="23">
-        <v>0</v>
-      </c>
-      <c r="F35" s="23">
-        <v>0</v>
-      </c>
-      <c r="G35" s="23">
-        <v>0</v>
-      </c>
-      <c r="H35" s="23">
+      <c r="D35" s="21">
+        <v>0</v>
+      </c>
+      <c r="E35" s="22">
+        <v>0</v>
+      </c>
+      <c r="F35" s="22">
+        <v>0</v>
+      </c>
+      <c r="G35" s="22">
+        <v>0</v>
+      </c>
+      <c r="H35" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L35" s="8"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <v>44165</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <v>1.23942</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>1.2036349600000003</v>
       </c>
-      <c r="D36" s="22">
-        <v>0</v>
-      </c>
-      <c r="E36" s="23">
-        <v>0</v>
-      </c>
-      <c r="F36" s="23">
-        <v>0</v>
-      </c>
-      <c r="G36" s="23">
-        <v>0</v>
-      </c>
-      <c r="H36" s="23">
+      <c r="D36" s="21">
+        <v>0</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0</v>
+      </c>
+      <c r="F36" s="22">
+        <v>0</v>
+      </c>
+      <c r="G36" s="22">
+        <v>0</v>
+      </c>
+      <c r="H36" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
         <v>44196</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="25">
         <v>1.2531099999999999</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>1.2247530400000011</v>
       </c>
-      <c r="D37" s="22">
-        <v>0</v>
-      </c>
-      <c r="E37" s="23">
-        <v>0</v>
-      </c>
-      <c r="F37" s="23">
-        <v>0</v>
-      </c>
-      <c r="G37" s="23">
-        <v>0</v>
-      </c>
-      <c r="H37" s="23">
+      <c r="D37" s="21">
+        <v>0</v>
+      </c>
+      <c r="E37" s="22">
+        <v>0</v>
+      </c>
+      <c r="F37" s="22">
+        <v>0</v>
+      </c>
+      <c r="G37" s="22">
+        <v>0</v>
+      </c>
+      <c r="H37" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
         <v>44225</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="25">
         <v>1.2375</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>1.2398494000000004</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21">
         <v>3.6415700000006046</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>2.9426828282833166</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <v>2.9426828282833166</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <v>3.6415700000006046</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="22">
         <v>1628.6208360000048</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <v>2163.9518845693706</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
         <v>44253</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <v>1.23967</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>1.2465734400000006</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <v>10.700332000000834</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>8.6315971185886848</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <v>11.574279946872002</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <v>14.348287621738816</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="22">
         <v>1639.3211680000056</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <v>2174.6586021911089</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="22">
         <v>535.33743419110328</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K39" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
         <v>44286</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <v>1.15709</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>1.2413199199999996</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>130.55637599999943</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>112.83165181619358</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="22">
         <v>124.40593176306558</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="22">
         <v>143.94885958372555</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="22">
         <v>1769.8775440000049</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <v>2304.2591741530955</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="22">
         <v>534.38163015309055</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
         <v>44316</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <v>1.17998</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>1.2470086399999996</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <v>103.89439199999927</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="22">
         <v>88.047587247240855</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <v>212.45351901030642</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="22">
         <v>250.69090336178138</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="22">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <v>2411.0012179311511</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="22">
         <v>537.22928193114694</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
         <v>44347</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="25">
         <v>1.2623</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>1.2505698399999998</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="21">
         <v>-18.18174800000024</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="22">
         <v>-14.403666323378152</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="22">
         <v>198.04985268692826</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="22">
         <v>249.99832904670953</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="22">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="22">
         <v>2428.4903916160797</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="22">
         <v>554.71845561607552</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K42" s="21">
         <v>2178.4920625693703</v>
       </c>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
         <v>44377</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="25">
         <v>1.33643</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>1.261064600000001</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <v>-116.8163699999985</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="22">
         <v>-87.409269471650958</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="22">
         <v>110.6405832152773</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="22">
         <v>147.86339462639305</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="22">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="22">
         <v>2443.171827195762</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="22">
         <v>569.39989119575785</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K43" s="21">
         <v>2295.308432569369</v>
       </c>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
         <v>44407</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="25">
         <v>1.28626</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>1.2582182800000008</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <v>-43.464665999998701</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="22">
         <v>-33.791508715188769</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="22">
         <v>76.849074500088534</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44" s="22">
         <v>98.847890566483869</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="22">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="22">
         <v>2437.6209891358512</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="22">
         <v>563.84905313584704</v>
       </c>
-      <c r="K44" s="22">
+      <c r="K44" s="21">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
         <v>44439</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="25">
         <v>1.2177899999999999</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>1.2513532000000005</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="21">
         <v>52.022960000000886</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="22">
         <v>42.719155190961402</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="22">
         <v>119.56822969104994</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="22">
         <v>145.6089944354637</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="22">
         <v>1925.7948960000051</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="22">
         <v>2484.3820930048309</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="22">
         <v>558.58719700482584</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="21">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
         <v>44469</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="25">
         <v>1.20347</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>1.2445208000000001</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="21">
         <v>63.628740000000086</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="22">
         <v>52.871064505139373</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="22">
         <v>172.43929419618931</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="22">
         <v>207.52551738628796</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="22">
         <v>1989.4236360000052</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="22">
         <v>2546.2986159556554</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="22">
         <v>556.87497995565013</v>
       </c>
-      <c r="K46" s="22">
+      <c r="K46" s="21">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
         <v>44498</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="25">
         <v>1.1970999999999998</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <v>1.2406920799999999</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="21">
         <v>67.567724000000055</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="22">
         <v>56.442840197143148</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="22">
         <v>228.88213439333245</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="22">
         <v>273.99480308225822</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="22">
         <v>2056.9913600000054</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="22">
         <v>2612.7679016516258</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="22">
         <v>555.77654165162039</v>
       </c>
-      <c r="K47" s="22">
+      <c r="K47" s="21">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
         <v>44530</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="25">
         <v>1.23373</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>1.2385180400000004</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="21">
         <v>7.4214620000006786</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="22">
         <v>6.0154669173973874</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="22">
         <v>234.89760131072984</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="22">
         <v>289.80021766508673</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="22">
         <v>2064.4128220000061</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="22">
         <v>2628.5733162344541</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="22">
         <v>564.16049423444792</v>
       </c>
-      <c r="K48" s="22">
+      <c r="K48" s="21">
         <v>2338.7730985693674</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
+    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="15">
         <v>44561</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49" s="25">
         <v>1.2554100000000001</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="20">
         <v>1.2381657600000016</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="21">
         <v>-26.728571999997797</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="22">
         <v>-21.290711401054473</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="22">
         <v>213.60688990967537</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="22">
         <v>268.16422566150561</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="22">
         <v>2064.4128220000061</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="22">
         <v>2633.6658962308707</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="22">
         <v>569.25307423086451</v>
       </c>
-      <c r="K49" s="22">
+      <c r="K49" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
+    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15">
         <v>44589</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>1.11076</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="20">
         <v>1.2355355200000004</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="21">
         <v>193.40205600000073</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="22">
         <v>174.11687133134137</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="22">
         <v>387.72376124101675</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="22">
         <v>430.66804503607176</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="22">
         <v>2257.814878000007</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="22">
         <v>2796.169715605437</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="22">
         <v>538.35483760543002</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16">
+    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15">
         <v>44620</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="25">
         <v>1.15177</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="20">
         <v>1.2277890400000004</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="21">
         <v>117.82951200000075</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="22">
         <v>102.30298757564509</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="22">
         <v>490.02674881666184</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="22">
         <v>564.39810848456659</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="22">
         <v>2375.6443900000077</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="22">
         <v>2929.8997790539315</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="22">
         <v>554.25538905392386</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K51" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
+    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="15">
         <v>44651</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="25">
         <v>1.0468499999999998</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>1.2143669200000002</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="21">
         <v>259.65122600000063</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="22">
         <v>248.03097482925031</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="22">
         <v>738.05772364591212</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="22">
         <v>772.63572799872293</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="22">
         <v>2635.2956160000085</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="22">
         <v>3138.137398568088</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="22">
         <v>502.84178256807945</v>
       </c>
-      <c r="K52" s="22">
+      <c r="K52" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
         <v>44680</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="25">
         <v>0.83169999999999999</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <v>1.1967078799999999</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="21">
         <v>565.76221399999997</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="22">
         <v>680.24794276782495</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="22">
         <v>1418.3056664137371</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="22">
         <v>1179.6048227563051</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="22">
         <v>3201.0578300000084</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="22">
         <v>3545.1064933256703</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="22">
         <v>344.04866332566189</v>
       </c>
-      <c r="K53" s="22">
+      <c r="K53" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15">
         <v>44712</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="25">
         <v>0.90644000000000002</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>1.1734625999999997</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="21">
         <v>413.88502999999946</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="22">
         <v>456.60499316005411</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="22">
         <v>1874.9106595737912</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="22">
         <v>1699.4940182640673</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="22">
         <v>3614.9428600000078</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="22">
         <v>4064.9956888334327</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="22">
         <v>450.05282883342488</v>
       </c>
-      <c r="K54" s="22">
+      <c r="K54" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15">
         <v>44742</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="25">
         <v>0.99066999999999994</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <v>1.1480034399999997</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="21">
         <v>243.86683199999956</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="22">
         <v>246.16353780774585</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="22">
         <v>2121.074197381537</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="22">
         <v>2101.284575119967</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="22">
         <v>3858.8096920000075</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="22">
         <v>4466.7862456893326</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="22">
         <v>607.9765536893251</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K55" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15">
         <v>44771</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="25">
         <v>1.01267</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>1.1203607999999998</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="21">
         <v>166.9207399999998</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="22">
         <v>164.83231457434289</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="22">
         <v>2285.90651195588</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="22">
         <v>2314.8689474623607</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="22">
         <v>4025.7304320000076</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="22">
         <v>4680.3706180317258</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="22">
         <v>654.64018603171826</v>
       </c>
-      <c r="K56" s="22">
+      <c r="K56" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16">
+    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="15">
         <v>44804</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="25">
         <v>0.95750000000000002</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="20">
         <v>1.0959177199999997</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="21">
         <v>214.54746599999942</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="22">
         <v>224.07046057441192</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="22">
         <v>2509.9769725302917</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="22">
         <v>2403.3029511977543</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="22">
         <v>4240.2778980000066</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="22">
         <v>4768.8046217671199</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="22">
         <v>528.52672376711325</v>
       </c>
-      <c r="K57" s="22">
+      <c r="K57" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
+    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="15">
         <v>44834</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58" s="25">
         <v>0.85887999999999998</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="20">
         <v>1.06964792</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="21">
         <v>326.69027599999998</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="22">
         <v>380.36777663934424</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="22">
         <v>2890.3447491696361</v>
       </c>
-      <c r="G58" s="23">
+      <c r="G58" s="22">
         <v>2482.459298166817</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="22">
         <v>4566.9681740000069</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I58" s="22">
         <v>4847.9609687361826</v>
       </c>
-      <c r="J58" s="23">
+      <c r="J58" s="22">
         <v>280.99279473617571</v>
       </c>
-      <c r="K58" s="22">
+      <c r="K58" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="15">
         <v>44865</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="25">
         <v>0.96957000000000004</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="20">
         <v>1.0512867600000002</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="21">
         <v>126.66097800000026</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="22">
         <v>130.63623874501093</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="22">
         <v>3020.9809879146469</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="22">
         <v>2929.0525364524042</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="22">
         <v>4693.6291520000068</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="22">
         <v>5294.5542070217689</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="22">
         <v>600.92505502176209</v>
       </c>
-      <c r="K59" s="22">
+      <c r="K59" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
+    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15">
         <v>44895</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="25">
         <v>0.99405999999999994</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="20">
         <v>1.0324731600000001</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="21">
         <v>59.540398000000259</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="22">
         <v>59.896181317023384</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="22">
         <v>3080.8771692316705</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G60" s="22">
         <v>3062.5767588464341</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="22">
         <v>4753.1695500000069</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I60" s="22">
         <v>5428.0784294157993</v>
       </c>
-      <c r="J60" s="23">
+      <c r="J60" s="22">
         <v>674.9088794157924</v>
       </c>
-      <c r="K60" s="22">
+      <c r="K60" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="16">
+    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="15">
         <v>44925</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="25">
         <v>0.95635000000000003</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="20">
         <v>1.0098818000000001</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="21">
         <v>82.974290000000025</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="22">
         <v>86.761426256077812</v>
       </c>
-      <c r="F61" s="23">
+      <c r="F61" s="22">
         <v>3167.6385954877483</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="22">
         <v>3029.3711707947082</v>
       </c>
-      <c r="H61" s="23">
+      <c r="H61" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="22">
         <v>5394.8728413640729</v>
       </c>
-      <c r="J61" s="23">
+      <c r="J61" s="22">
         <v>558.72900136406588</v>
       </c>
-      <c r="K61" s="22">
+      <c r="K61" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15">
         <v>44957</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="25">
         <v>1.08087</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="20">
         <v>0.99600491999999985</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="21">
         <v>-131.54087400000023</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="22">
         <v>-121.69907019345548</v>
       </c>
-      <c r="F62" s="23">
+      <c r="F62" s="22">
         <v>3045.9395252942927</v>
       </c>
-      <c r="G62" s="23">
+      <c r="G62" s="22">
         <v>3292.2646547048421</v>
       </c>
-      <c r="H62" s="23">
+      <c r="H62" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I62" s="22">
         <v>5789.307199274208</v>
       </c>
-      <c r="J62" s="23">
+      <c r="J62" s="22">
         <v>953.16335927420096</v>
       </c>
-      <c r="K62" s="22">
+      <c r="K62" s="21">
         <v>2497.0425445693654</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="16">
+    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="15">
         <v>44985</v>
       </c>
-      <c r="B63" s="26">
+      <c r="B63" s="25">
         <v>1.16859</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="20">
         <v>0.99612511999999998</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="21">
         <v>-267.32056400000005</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="22">
         <v>-228.75479338347927</v>
       </c>
-      <c r="F63" s="23">
+      <c r="F63" s="22">
         <v>2817.1847319108133</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="22">
         <v>3292.1339058636572</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I63" s="22">
         <v>6056.4970144330227</v>
       </c>
-      <c r="J63" s="23">
+      <c r="J63" s="22">
         <v>1220.3531744330157</v>
       </c>
-      <c r="K63" s="22">
+      <c r="K63" s="21">
         <v>2764.3631085693655</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
+    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="15">
         <v>45016</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64" s="25">
         <v>1.2989900000000001</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>1.0068202799999997</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="21">
         <v>-452.86306600000063</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="22">
         <v>-348.62706102433475</v>
       </c>
-      <c r="F64" s="23">
+      <c r="F64" s="22">
         <v>2468.5576708864787</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="22">
         <v>3206.631728904827</v>
       </c>
-      <c r="H64" s="23">
+      <c r="H64" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I64" s="23">
+      <c r="I64" s="22">
         <v>6423.8579034741933</v>
       </c>
-      <c r="J64" s="23">
+      <c r="J64" s="22">
         <v>1587.7140634741863</v>
       </c>
-      <c r="K64" s="22">
+      <c r="K64" s="21">
         <v>3217.2261745693663</v>
       </c>
-    </row>
-    <row r="65" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L93" s="8"/>
-    </row>
-    <row r="94" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L94" s="8"/>
-    </row>
-    <row r="95" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L97" s="8"/>
-    </row>
-    <row r="98" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L98" s="8"/>
-    </row>
-    <row r="99" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L100" s="8"/>
-    </row>
-    <row r="101" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L101" s="8"/>
-    </row>
-    <row r="102" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L102" s="8"/>
-    </row>
-    <row r="103" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L103" s="8"/>
-    </row>
-    <row r="104" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L104" s="8"/>
-      <c r="O104" s="3"/>
-    </row>
-    <row r="105" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L105" s="8"/>
-    </row>
-    <row r="106" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L106" s="8"/>
-    </row>
-    <row r="107" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L107" s="8"/>
-    </row>
-    <row r="108" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L116" s="8"/>
-      <c r="O116" s="3"/>
-    </row>
-    <row r="117" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L117" s="8"/>
-    </row>
-    <row r="118" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L118" s="8"/>
-    </row>
-    <row r="119" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L128" s="8"/>
-      <c r="O128" s="3"/>
-    </row>
-    <row r="129" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L129" s="8"/>
-    </row>
-    <row r="130" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L130" s="8"/>
-    </row>
-    <row r="131" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L135" s="8"/>
-    </row>
-    <row r="136" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L136" s="8"/>
-    </row>
-    <row r="137" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L137" s="8"/>
-    </row>
-    <row r="138" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L138" s="8"/>
-    </row>
-    <row r="139" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L139" s="8"/>
-    </row>
-    <row r="140" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L140" s="8"/>
-      <c r="O140" s="3"/>
-    </row>
-    <row r="141" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L141" s="8"/>
-    </row>
-    <row r="142" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L142" s="8"/>
-    </row>
-    <row r="143" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L143" s="8"/>
-    </row>
-    <row r="144" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L144" s="8"/>
-    </row>
-    <row r="145" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L145" s="8"/>
-    </row>
-    <row r="146" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L146" s="8"/>
-    </row>
-    <row r="147" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L147" s="8"/>
-    </row>
-    <row r="148" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L148" s="8"/>
-    </row>
-    <row r="149" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L149" s="8"/>
-    </row>
-    <row r="150" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L150" s="8"/>
-    </row>
-    <row r="151" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L151" s="8"/>
-    </row>
-    <row r="152" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L152" s="8"/>
-      <c r="O152" s="3"/>
-    </row>
-    <row r="153" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L153" s="8"/>
-    </row>
-    <row r="154" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L154" s="8"/>
-    </row>
-    <row r="155" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L155" s="8"/>
-    </row>
-    <row r="156" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L156" s="8"/>
-    </row>
-    <row r="157" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L157" s="8"/>
-    </row>
-    <row r="158" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L158" s="8"/>
-    </row>
-    <row r="159" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L159" s="8"/>
-    </row>
-    <row r="160" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L162" s="8"/>
-    </row>
-    <row r="163" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L164" s="8"/>
-      <c r="O164" s="3"/>
-    </row>
-    <row r="165" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L165" s="8"/>
-    </row>
-    <row r="166" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L166" s="8"/>
-    </row>
-    <row r="167" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L167" s="8"/>
-    </row>
-    <row r="168" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L168" s="4"/>
-    </row>
-    <row r="169" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L169" s="4"/>
-    </row>
-    <row r="170" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L171" s="4"/>
-    </row>
-    <row r="172" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L172" s="4"/>
-    </row>
-    <row r="173" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L173" s="4"/>
-    </row>
-    <row r="174" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L174" s="4"/>
-    </row>
-    <row r="175" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L175" s="4"/>
-    </row>
-    <row r="176" spans="12:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L176" s="4"/>
-    </row>
-    <row r="177" spans="12:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L177" s="4"/>
-    </row>
-    <row r="178" spans="12:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L178" s="4"/>
-    </row>
-    <row r="179" spans="12:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L179" s="4"/>
-    </row>
-    <row r="180" spans="12:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L180" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="17280" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模型二 (1)平均线" sheetId="13" r:id="rId1"/>
     <sheet name="模型二 (1)MA250" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'模型二 (1)MA250'!$O$1:$O$71</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'模型二 (1)平均线'!$O$1:$O$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'模型二 (1)MA250'!$O$1:$O$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'模型二 (1)平均线'!$O$1:$O$189</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('模型二 (1)MA250'!J1,0,0,COUNTA('模型二 (1)MA250'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('模型二 (1)平均线'!J1,0,0,COUNTA('模型二 (1)平均线'!J:J)-1)</definedName>
     <definedName name="时间" localSheetId="1">OFFSET('模型二 (1)MA250'!A1,0,0,COUNTA('模型二 (1)MA250'!A:A)-1)</definedName>
@@ -162,7 +162,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,13 +503,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,7 +752,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -970,6 +971,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,7 +983,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1197,6 +1201,9 @@
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>3591.8772673047747</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
               </c:numCache>
@@ -1240,7 +1247,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1459,6 +1466,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1468,7 +1478,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1684,6 +1694,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>4968.1380669492974</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5106.3552929768402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,7 +1739,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1945,6 +1958,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1954,7 +1970,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2173,6 +2189,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1514.4780256720655</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1462.3784473008877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,11 +2213,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="232929920"/>
-        <c:axId val="232940288"/>
+        <c:axId val="82103296"/>
+        <c:axId val="388120576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="232929920"/>
+        <c:axId val="82103296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,14 +2260,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232940288"/>
+        <c:crossAx val="388120576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="232940288"/>
+        <c:axId val="388120576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2316,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232929920"/>
+        <c:crossAx val="82103296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2510,7 +2529,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2693,6 +2712,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2702,7 +2724,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2884,6 +2906,9 @@
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
                 <c:pt idx="60">
+                  <c:v>4836.143840000007</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
               </c:numCache>
@@ -2927,7 +2952,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3110,6 +3135,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,7 +3147,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3302,6 +3330,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>6423.8579034741933</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6249.6271030630251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3344,7 +3375,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3527,6 +3558,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3536,7 +3570,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3719,6 +3753,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>1587.7140634741863</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1413.4832630630181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3740,11 +3777,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254318464"/>
-        <c:axId val="254812928"/>
+        <c:axId val="522899840"/>
+        <c:axId val="522901760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="254318464"/>
+        <c:axId val="522899840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3787,14 +3824,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254812928"/>
+        <c:crossAx val="522901760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254812928"/>
+        <c:axId val="522901760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3843,7 +3880,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254318464"/>
+        <c:crossAx val="522899840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3951,7 +3988,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3994,7 +4031,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4305,15 +4342,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AF181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
@@ -4345,151 +4382,151 @@
     <col min="52" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:32" s="13" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:32" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="24"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5">
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:32" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="24"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="25"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6">
         <v>1550</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
         <f>MIN(F:F)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="8"/>
-    </row>
-    <row r="4" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="9"/>
+    </row>
+    <row r="4" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A4" s="16">
         <v>42825</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="26">
         <v>0.97609000000000001</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="21">
         <v>0.99386428571428564</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="22">
         <v>27.550142857142728</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <v>28.225002671006493</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="23">
         <v>28.225002671006493</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="23">
         <v>27.550142857142728</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="23">
         <v>27.550142857142728</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="23">
         <v>27.550142857142728</v>
       </c>
-      <c r="J4" s="22">
-        <v>0</v>
-      </c>
-      <c r="K4" s="21">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="O4" s="26" t="s">
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="O4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="T4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="7">
         <v>43098</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="8">
         <f>VLOOKUP(X4,O:P,2,)</f>
         <v>304.12500617544276</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z4" s="8">
         <f t="shared" ref="Z4:Z5" si="0">0-Y4</f>
         <v>-304.12500617544276</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="7">
         <v>43098</v>
       </c>
       <c r="AB4" s="1">
@@ -4500,89 +4537,89 @@
         <f t="shared" ref="AC4" si="1">0-AB4</f>
         <v>-304.12500617544276</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="7">
         <v>43098</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AE4" s="8">
         <f>VLOOKUP(AD4,O:P,2,)</f>
         <v>304.12500617544276</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AF4" s="8">
         <f t="shared" ref="AF4" si="2">0-AE4</f>
         <v>-304.12500617544276</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A5" s="16">
         <v>42853</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="26">
         <v>0.88445000000000007</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="21">
         <v>0.95655781250000005</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="22">
         <v>111.76710937499996</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="23">
         <v>126.36905350782968</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="23">
         <v>154.59405617883618</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="23">
         <v>136.73071298737167</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="23">
         <v>139.31725223214269</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="23">
         <v>136.73071298737167</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="23">
         <v>-2.5865392447710178</v>
       </c>
-      <c r="K5" s="21">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="O5" s="6">
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="O5" s="7">
         <v>43098</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="11">
         <v>304.12500617544276</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="6">
         <v>304.12500617544276</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="6">
         <v>328.80443799445595</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="6">
         <v>24.679431819013189</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="6">
         <v>251.21204627564666</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="10">
         <v>8.1148972685186532E-2</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="10">
         <v>8.1148972685186532E-2</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="7">
         <v>43462</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="8">
         <f>VLOOKUP(X5,O:P,2,)</f>
         <v>1807.7843670854991</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z5" s="8">
         <f t="shared" si="0"/>
         <v>-1807.7843670854991</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="7">
         <v>43462</v>
       </c>
       <c r="AB5" s="1">
@@ -4593,84 +4630,84 @@
         <f t="shared" ref="AC5:AC6" si="3">0-AB5</f>
         <v>-1807.7843670854991</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="7">
         <v>43462</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AE5" s="8">
         <f>VLOOKUP(AD5,O:P,2,)</f>
         <v>1807.7843670854991</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AF5" s="8">
         <f t="shared" ref="AF5:AF7" si="4">0-AE5</f>
         <v>-1807.7843670854991</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A6" s="16">
         <v>42886</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="26">
         <v>0.84275</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="21">
         <v>0.91796173076923115</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>116.57818269230829</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="23">
         <v>138.33068251831301</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="23">
         <v>292.92473869714922</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="23">
         <v>246.86232353702252</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="23">
         <v>255.89543492445097</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="23">
         <v>246.86232353702252</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="23">
         <v>-9.0331113874284483</v>
       </c>
-      <c r="K6" s="21">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="O6" s="6">
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="O6" s="7">
         <v>43462</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="11">
         <v>1807.7843670854991</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="6">
         <v>2111.9093732609417</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="6">
         <v>1961.8999213933344</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="6">
         <v>-150.00945186760737</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="6">
         <v>317.52088040945171</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="10">
         <v>-7.1030250524425617E-2</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="10">
         <v>-6.2582124461404876E-2</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="7">
         <v>43462</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="Z6" s="8">
         <v>1961.8999213933344</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="7">
         <v>43830</v>
       </c>
       <c r="AB6" s="1">
@@ -4681,226 +4718,226 @@
         <f t="shared" si="3"/>
         <v>-287.98245355098834</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="7">
         <v>43830</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AE6" s="8">
         <f>VLOOKUP(AD6,O:P,2,)</f>
         <v>287.98245355098834</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="AF6" s="8">
         <f t="shared" si="4"/>
         <v>-287.98245355098834</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A7" s="16">
         <v>42916</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="26">
         <v>0.91246000000000005</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="21">
         <v>0.90437932432432466</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>-12.525047297296849</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="23">
         <v>-13.726680947435337</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="23">
         <v>279.19805774971388</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="23">
         <v>254.75705977430394</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="23">
         <v>255.89543492445097</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="23">
         <v>267.28210707160076</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="23">
         <v>11.386672147149795</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="22">
         <v>12.525047297296849</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="O7" s="6">
+      <c r="L7" s="8"/>
+      <c r="O7" s="7">
         <v>43830</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="11">
         <v>287.98245355098834</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="6">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="6">
         <v>3217.6093105743603</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="6">
         <v>817.71748376243022</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="6">
         <v>1365.8977430166979</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="10">
         <v>0.34073097571597816</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="10">
         <v>0.15583831681496263</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="9">
         <f>IRR(Z4:Z6)</f>
         <v>-6.2582124461404876E-2</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="7">
         <v>43830</v>
       </c>
       <c r="AC7" s="1">
         <v>3217.6093105743603</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AD7" s="7">
         <v>44196</v>
       </c>
-      <c r="AE7" s="7">
+      <c r="AE7" s="8">
         <f>VLOOKUP(AD7,O:P,2,)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="7">
+      <c r="AF7" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A8" s="16">
         <v>42947</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="26">
         <v>0.89419999999999999</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="21">
         <v>0.90019273684210555</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>9.2887421052636032</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="23">
         <v>10.38776795489108</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="23">
         <v>289.58582570460499</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="23">
         <v>258.94764534505777</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="23">
         <v>265.18417702971459</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="23">
         <v>271.47269264235462</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="23">
         <v>6.2885156126400261</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="22">
         <v>12.525047297296849</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="O8" s="6">
+      <c r="L8" s="8"/>
+      <c r="O8" s="7">
         <v>44196</v>
       </c>
-      <c r="P8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="6">
         <v>3420.824392859301</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="6">
         <v>1020.932566047371</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="6">
         <v>3420.824392859301</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="10">
         <v>0.42540774323299424</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="10">
         <v>0.12448297099432648</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
         <v>0.15583831681496263</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AD8" s="7">
         <v>44196</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AF8" s="8">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A9" s="16">
         <v>42978</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="26">
         <v>0.97410000000000008</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="21">
         <v>0.90535008474576273</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>-106.56236864406789</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="23">
         <v>-109.39571773336195</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="23">
         <v>180.19010797124304</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="23">
         <v>175.52318417478784</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="23">
         <v>265.18417702971459</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="23">
         <v>294.61060011615257</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="23">
         <v>29.426423086437978</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="22">
         <v>119.08741594136474</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="O9" s="6">
+      <c r="L9" s="8"/>
+      <c r="O9" s="7">
         <v>44561</v>
       </c>
-      <c r="P9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="6">
         <v>3420.824392859301</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="6">
         <v>1020.932566047371</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="6">
         <v>3420.824392859301</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="10">
         <v>0.42540774323299424</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="10">
         <v>0.11623036743162096</v>
       </c>
       <c r="AF9" s="2">
@@ -4908,66 +4945,66 @@
         <v>0.12448297099432648</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A10" s="16">
         <v>43007</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="26">
         <v>0.97174000000000005</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="21">
         <v>0.91768381294964019</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>-83.787089928057782</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="23">
         <v>-86.223773774937513</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="23">
         <v>93.966334196305525</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="23">
         <v>91.310845591917939</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="23">
         <v>265.18417702971459</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="23">
         <v>294.18535146134047</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="23">
         <v>29.001174431625884</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="22">
         <v>202.87450586942253</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="O10" s="6">
+      <c r="L10" s="8"/>
+      <c r="O10" s="7">
         <v>44925</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="11">
         <v>1191.9854404928446</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="6">
         <v>3591.8772673047747</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="6">
         <v>4692.9521370177645</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="6">
         <v>1101.0748697129898</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="6">
         <v>3420.824392859301</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="10">
         <v>0.30654579423845396</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="10">
         <v>9.2107928430304797E-2</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="7">
         <v>43098</v>
       </c>
       <c r="Y10" s="1">
@@ -4977,7 +5014,7 @@
         <f>-Y10</f>
         <v>-18.350992705669857</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="7">
         <v>43098</v>
       </c>
       <c r="AB10" s="1">
@@ -4988,42 +5025,42 @@
         <v>-18.350992705669857</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A11" s="16">
         <v>43039</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="26">
         <v>0.94596999999999998</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="21">
         <v>0.92351769230769187</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="22">
         <v>-34.801076923077559</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="23">
         <v>-36.788774404132859</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="23">
         <v>57.177559792172666</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="23">
         <v>54.088256236601573</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="23">
         <v>265.18417702971459</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="23">
         <v>291.76383902910169</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="23">
         <v>26.579661999387099</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="22">
         <v>237.67558279250011</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="X11" s="6">
+      <c r="L11" s="8"/>
+      <c r="X11" s="7">
         <v>43462</v>
       </c>
       <c r="Y11" s="1">
@@ -5033,7 +5070,7 @@
         <f>-Y11</f>
         <v>-255.17901000780921</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AA11" s="7">
         <v>43462</v>
       </c>
       <c r="AB11" s="1">
@@ -5044,42 +5081,42 @@
         <v>-255.17901000780921</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A12" s="16">
         <v>43069</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="26">
         <v>0.93876000000000004</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="21">
         <v>0.93002679775280872</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="22">
         <v>-13.536463483146544</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="23">
         <v>-14.419514554461783</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="23">
         <v>42.758045237710881</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="23">
         <v>40.139542547353471</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="23">
         <v>265.18417702971459</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="23">
         <v>291.35158882300016</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="23">
         <v>26.167411793285567</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="22">
         <v>251.21204627564666</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="X12" s="6">
+      <c r="L12" s="8"/>
+      <c r="X12" s="7">
         <v>43830</v>
       </c>
       <c r="Y12" s="1">
@@ -5089,7 +5126,7 @@
         <f>-Y12</f>
         <v>-51.512876965237467</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AA12" s="7">
         <v>43830</v>
       </c>
       <c r="AB12" s="1">
@@ -5100,42 +5137,42 @@
         <v>-51.512876965237467</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A13" s="16">
         <v>43098</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="26">
         <v>0.90395999999999999</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="21">
         <v>0.92908311557788914</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="22">
         <v>38.940829145728188</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="23">
         <v>43.07804454370568</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="23">
         <v>85.836089781416561</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="23">
         <v>77.59239171880931</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="23">
         <v>304.12500617544276</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="23">
         <v>328.80443799445595</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="23">
         <v>24.679431819013189</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="22">
         <v>251.21204627564666</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="X13" s="6">
+      <c r="L13" s="8"/>
+      <c r="X13" s="7">
         <v>44196</v>
       </c>
       <c r="Y13" s="1">
@@ -5145,7 +5182,7 @@
         <f>-Y13</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AA13" s="7">
         <v>44196</v>
       </c>
       <c r="AB13" s="1">
@@ -5156,42 +5193,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A14" s="16">
         <v>43131</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="26">
         <v>0.86690999999999996</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="21">
         <v>0.92713140271493188</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="22">
         <v>93.34317420814449</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="23">
         <v>107.67343116141755</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="23">
         <v>193.50952094283411</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="23">
         <v>167.75533880055232</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="23">
         <v>397.46818038358725</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="23">
         <v>418.96738507619898</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="23">
         <v>21.499204692611727</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="22">
         <v>251.21204627564666</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="X14" s="6">
+      <c r="L14" s="8"/>
+      <c r="X14" s="7">
         <v>44561</v>
       </c>
       <c r="Y14" s="1">
@@ -5201,7 +5238,7 @@
         <f>-Y14</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AA14" s="7">
         <v>44561</v>
       </c>
       <c r="AB14" s="1">
@@ -5212,48 +5249,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+    <row r="15" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A15" s="16">
         <v>43159</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="26">
         <v>0.8518</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="21">
         <v>0.91968983050847442</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="22">
         <v>105.22923728813534</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="23">
         <v>123.53749388135165</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="23">
         <v>317.04701482418579</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="23">
         <v>270.06064722724147</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="23">
         <v>502.69741767172258</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="23">
         <v>521.27269350288816</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="23">
         <v>18.575275831165584</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="22">
         <v>251.21204627564666</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="X15" s="6">
+      <c r="L15" s="8"/>
+      <c r="X15" s="7">
         <v>44561</v>
       </c>
       <c r="Z15" s="1">
         <v>499.59426954009558</v>
       </c>
-      <c r="AA15" s="6">
+      <c r="AA15" s="7">
         <v>44925</v>
       </c>
       <c r="AB15" s="1">
@@ -5264,2189 +5301,2511 @@
         <v>-153.10026037530758</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="16" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A16" s="16">
         <v>43189</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="26">
         <v>0.95575999999999994</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="21">
         <v>0.91931608527131781</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="22">
         <v>-56.488067829457314</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="23">
         <v>-59.102774576731939</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="23">
         <v>257.94424024745388</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="23">
         <v>246.53278705890651</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="23">
         <v>502.69741767172258</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="23">
         <v>554.23290116401051</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="23">
         <v>51.535483492287938</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="22">
         <v>307.70011410510398</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="8"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
         <v>0.11623036743162096</v>
       </c>
-      <c r="AA16" s="6">
+      <c r="AA16" s="7">
         <v>44925</v>
       </c>
       <c r="AC16" s="1">
         <v>668.05173961811045</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A17" s="16">
         <v>43217</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="26">
         <v>0.92662</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="21">
         <v>0.92028402173913049</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="22">
         <v>-9.8207663043477442</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="23">
         <v>-10.598482985849371</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="23">
         <v>247.34575726160452</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="23">
         <v>229.19552559374799</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="23">
         <v>502.69741767172258</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="23">
         <v>546.71640600319972</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="23">
         <v>44.018988331477146</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="8"/>
       <c r="AC17" s="2">
         <f>IRR(AC10:AC16)</f>
         <v>9.2107928430304797E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A18" s="16">
         <v>43251</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="26">
         <v>0.88405999999999996</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="21">
         <v>0.91991989932885943</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="22">
         <v>55.582843959732173</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="23">
         <v>62.87225296895253</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="23">
         <v>310.21801023055707</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="23">
         <v>274.25133412442625</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="23">
         <v>558.28026163145478</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="23">
         <v>591.77221453387801</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="23">
         <v>33.491952902423236</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A19" s="16">
         <v>43280</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="26">
         <v>0.81235999999999997</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="21">
         <v>0.91462415094339644</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="22">
         <v>158.50943396226452</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="23">
         <v>195.12215515567547</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="23">
         <v>505.34016538623257</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="23">
         <v>410.51813675315987</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="23">
         <v>716.78969559371933</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="23">
         <v>728.03901716261157</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="23">
         <v>11.249321568892242</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A20" s="16">
         <v>43312</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="26">
         <v>0.8131799999999999</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="21">
         <v>0.90820861764705896</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="22">
         <v>147.29435735294155</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="23">
         <v>181.13376786559132</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="23">
         <v>686.47393325182384</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="23">
         <v>558.22687304171802</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="23">
         <v>864.0840529466609</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="23">
         <v>875.74775345116973</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="23">
         <v>11.663700504508824</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A21" s="16">
         <v>43343</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="26">
         <v>0.77766999999999997</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="21">
         <v>0.90034011019283766</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="22">
         <v>190.13867079889843</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="23">
         <v>244.49788573417831</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="23">
         <v>930.97181898600218</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="23">
         <v>723.98885447084433</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="23">
         <v>1054.2227237455593</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="23">
         <v>1041.509734880296</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="23">
         <v>-12.712988865263242</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A22" s="16">
         <v>43371</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="26">
         <v>0.76784000000000008</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="21">
         <v>0.8937382984293194</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="22">
         <v>195.14236256544496</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="23">
         <v>254.14456470807062</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="23">
         <v>1185.1163836940727</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="23">
         <v>909.97976405565691</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="23">
         <v>1249.3650863110042</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="23">
         <v>1227.5006444651085</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="23">
         <v>-21.864441845895726</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A23" s="16">
         <v>43404</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="26">
         <v>0.67677999999999994</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="21">
         <v>0.88415025000000003</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="22">
         <v>321.42388750000015</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="23">
         <v>474.93112606755545</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="23">
         <v>1660.0475097616281</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="23">
         <v>1123.4869536564745</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="23">
         <v>1570.7889738110043</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="23">
         <v>1441.0078340659261</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="23">
         <v>-129.78113974507824</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A24" s="16">
         <v>43434</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="26">
         <v>0.7214299999999999</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="21">
         <v>0.87621106635071089</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="22">
         <v>239.91065284360204</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="23">
         <v>332.54876127081224</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="23">
         <v>1992.5962710324404</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="23">
         <v>1437.5187278109333</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="23">
         <v>1810.6996266546064</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="23">
         <v>1755.0396082203852</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="23">
         <v>-55.660018434221229</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="8"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A25" s="16">
         <v>43462</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="26">
         <v>0.67408000000000001</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="21">
         <v>0.86840886877828072</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="22">
         <v>301.2097466063351</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="23">
         <v>446.84569577251233</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="23">
         <v>2439.4419668049527</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="23">
         <v>1644.3790409838825</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="23">
         <v>2111.9093732609417</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="23">
         <v>1961.8999213933344</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="23">
         <v>-150.00945186760737</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A26" s="16">
         <v>43496</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="26">
         <v>0.67819000000000007</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="21">
         <v>0.86047514038876904</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="22">
         <v>282.54196760259191</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="23">
         <v>416.61181616153567</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="23">
         <v>2856.0537829664881</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="23">
         <v>1936.9471150700429</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="23">
         <v>2394.4513408635335</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="23">
         <v>2254.4679954794947</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="23">
         <v>-139.98334538403878</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A27" s="16">
         <v>43524</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="26">
         <v>0.85648000000000002</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="21">
         <v>0.8580328242677826</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="22">
         <v>2.406877615063002</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="23">
         <v>2.8101971033334134</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="23">
         <v>2858.8639800698215</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="23">
         <v>2448.5598216502008</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="23">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="23">
         <v>2766.0807020596526</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="23">
         <v>369.22248358105617</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="22">
         <v>317.52088040945171</v>
       </c>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A28" s="16">
         <v>43553</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="26">
         <v>0.94580999999999993</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="21">
         <v>0.86124096192384803</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="22">
         <v>-131.08200901803545</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="23">
         <v>-138.59232723066521</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="23">
         <v>2720.2716528391566</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="23">
         <v>2572.8601319718023</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="23">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="23">
         <v>3021.4630213992896</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="23">
         <v>624.60480292069315</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="22">
         <v>448.60288942748718</v>
       </c>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A29" s="16">
         <v>43585</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="26">
         <v>0.9108099999999999</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="21">
         <v>0.86549344230769254</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="22">
         <v>-70.24066442307641</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="23">
         <v>-77.118899027323394</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="23">
         <v>2643.152753811833</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="23">
         <v>2407.4099596993556</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="23">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="23">
         <v>2926.2535135499193</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="23">
         <v>529.39529507132283</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="22">
         <v>518.84355385056358</v>
       </c>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A30" s="16">
         <v>43616</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="26">
         <v>0.86360000000000003</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="21">
         <v>0.86555716666666693</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="22">
         <v>3.0336083333336927</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="23">
         <v>3.5127470279454522</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="23">
         <v>2646.6655008397784</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="23">
         <v>2285.6603265252329</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="23">
         <v>2804.5038803757966</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="23">
         <v>404.61205356386654</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="22">
         <v>518.84355385056358</v>
       </c>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A31" s="16">
         <v>43644</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="26">
         <v>0.88732</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="21">
         <v>0.86554053667263009</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="22">
         <v>-33.758168157423356</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="23">
         <v>-38.045088758760485</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="23">
         <v>2608.620412081018</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="23">
         <v>2314.6810640477288</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="23">
         <v>2867.2827860557159</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="23">
         <v>467.3909592437858</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="22">
         <v>552.60172200798695</v>
       </c>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+      <c r="A32" s="16">
         <v>43677</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="26">
         <v>0.89222000000000001</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="21">
         <v>0.86642510309278375</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="22">
         <v>-39.982090206185198</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="23">
         <v>-44.811918816194655</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="23">
         <v>2563.8084932648235</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="23">
         <v>2287.4812138607408</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="23">
         <v>2880.065026074913</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="23">
         <v>480.17319926298296</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="22">
         <v>592.5838122141721</v>
       </c>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A33" s="16">
         <v>43707</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="26">
         <v>0.92357</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="21">
         <v>0.86719825870646772</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="22">
         <v>-87.376199004975035</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="23">
         <v>-94.607013009273828</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>2469.2014802555495</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>2280.4804111196181</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="23">
         <v>2960.4404223387655</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="23">
         <v>560.54859552683547</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="22">
         <v>679.96001121914719</v>
       </c>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A34" s="16">
         <v>43738</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="26">
         <v>0.95855999999999997</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="21">
         <v>0.87132205457463874</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="22">
         <v>-135.21881540930991</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="23">
         <v>-141.0645295122996</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="23">
         <v>2328.1369507432501</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="23">
         <v>2231.6589555044498</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="23">
         <v>3046.8377821329068</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="23">
         <v>646.94595532097674</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="22">
         <v>815.17882662845705</v>
       </c>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A35" s="16">
         <v>43769</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="26">
         <v>0.97238999999999998</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="21">
         <v>0.87426804992199714</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="22">
         <v>-152.08902262090442</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="23">
         <v>-156.40743181326877</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="23">
         <v>2171.7295189299812</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="23">
         <v>2111.7680669123242</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="23">
         <v>3079.0359161616857</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="23">
         <v>679.14408934975563</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="22">
         <v>967.26784924936146</v>
       </c>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A36" s="16">
         <v>43798</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="26">
         <v>0.97728999999999999</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="21">
         <v>0.87806616314199404</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="22">
         <v>-153.79694712990923</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="23">
         <v>-157.37083888089433</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="23">
         <v>2014.3586800490868</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="23">
         <v>1968.6125944251721</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="23">
         <v>3089.6773908044429</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="23">
         <v>689.78556399251283</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="22">
         <v>1121.0647963792708</v>
       </c>
-      <c r="L36" s="7"/>
+      <c r="L36" s="8"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
+    <row r="37" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A37" s="16">
         <v>43830</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="26">
         <v>1.0407999999999999</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="21">
         <v>0.8828432602339179</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="22">
         <v>-244.83294663742717</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="23">
         <v>-235.2353445786195</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="23">
         <v>1779.1233354704673</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="23">
         <v>1851.7115675576622</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="23">
         <v>3217.6093105743603</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="23">
         <v>817.71748376243022</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="22">
         <v>1365.8977430166979</v>
       </c>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A38" s="16">
         <v>43853</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="26">
         <v>1.13632</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="21">
         <v>0.88820977142857116</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="22">
         <v>-384.57085428571469</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="23">
         <v>-338.43534768878015</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="23">
         <v>1440.6879877816871</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="23">
         <v>1637.0825742760867</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="23">
         <v>3387.5511715784992</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="23">
         <v>987.65934476656912</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="22">
         <v>1750.4685973024125</v>
       </c>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A39" s="16">
         <v>43889</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="26">
         <v>1.2075199999999999</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="21">
         <v>0.89720491666666646</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="22">
         <v>-480.98837916666685</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="23">
         <v>-398.32746386533296</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="23">
         <v>1042.3605239163542</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="23">
         <v>1258.6711798394758</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="23">
         <v>3490.1281563085554</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J39" s="23">
         <v>1090.2363294966253</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="22">
         <v>2231.4569764690796</v>
       </c>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15">
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A40" s="16">
         <v>43921</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="26">
         <v>1.0721400000000001</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="21">
         <v>0.90529318059299169</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="22">
         <v>-258.61257008086301</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="23">
         <v>-241.21156759458933</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="23">
         <v>801.1489563217649</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="23">
         <v>858.94384203081711</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="23">
         <v>3349.0133885807595</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="23">
         <v>949.12156176882945</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="22">
         <v>2490.0695465499425</v>
       </c>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15">
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A41" s="16">
         <v>43951</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="26">
         <v>1.13618</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="21">
         <v>0.91107858453473123</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="22">
         <v>-348.90719397116652</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="23">
         <v>-307.08795610833363</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="23">
         <v>494.06100021343127</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="23">
         <v>561.34222722249638</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="23">
         <v>3400.3189677436058</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="23">
         <v>1000.4271409316757</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="22">
         <v>2838.9767405211091</v>
       </c>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A42" s="16">
         <v>43980</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="26">
         <v>1.12294</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="21">
         <v>0.91666642765685002</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="22">
         <v>-319.72403713188254</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="23">
         <v>-284.72049898648419</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="23">
         <v>209.34050122694708</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="23">
         <v>235.07682244778798</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="23">
         <v>3393.7776001007796</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J42" s="23">
         <v>993.88577328884958</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="22">
         <v>3158.7007776529917</v>
       </c>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A43" s="16">
         <v>44012</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="26">
         <v>1.25214</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="21">
         <v>0.92355369538077381</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="22">
         <v>-262.12361520630952</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="23">
         <v>-209.34050122694708</v>
       </c>
-      <c r="F43" s="22">
-        <v>0</v>
-      </c>
-      <c r="G43" s="22">
-        <v>0</v>
-      </c>
-      <c r="H43" s="22">
+      <c r="F43" s="23">
+        <v>0</v>
+      </c>
+      <c r="G43" s="23">
+        <v>0</v>
+      </c>
+      <c r="H43" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A44" s="16">
         <v>44043</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B44" s="26">
         <v>1.3561700000000001</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="21">
         <v>0.93564675970873734</v>
       </c>
-      <c r="D44" s="21">
-        <v>0</v>
-      </c>
-      <c r="E44" s="22">
-        <v>0</v>
-      </c>
-      <c r="F44" s="22">
-        <v>0</v>
-      </c>
-      <c r="G44" s="22">
-        <v>0</v>
-      </c>
-      <c r="H44" s="22">
+      <c r="D44" s="22">
+        <v>0</v>
+      </c>
+      <c r="E44" s="23">
+        <v>0</v>
+      </c>
+      <c r="F44" s="23">
+        <v>0</v>
+      </c>
+      <c r="G44" s="23">
+        <v>0</v>
+      </c>
+      <c r="H44" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J44" s="22">
+      <c r="J44" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A45" s="16">
         <v>44074</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="26">
         <v>1.35833</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="21">
         <v>0.9459795739644965</v>
       </c>
-      <c r="D45" s="21">
-        <v>0</v>
-      </c>
-      <c r="E45" s="22">
-        <v>0</v>
-      </c>
-      <c r="F45" s="22">
-        <v>0</v>
-      </c>
-      <c r="G45" s="22">
-        <v>0</v>
-      </c>
-      <c r="H45" s="22">
+      <c r="D45" s="22">
+        <v>0</v>
+      </c>
+      <c r="E45" s="23">
+        <v>0</v>
+      </c>
+      <c r="F45" s="23">
+        <v>0</v>
+      </c>
+      <c r="G45" s="23">
+        <v>0</v>
+      </c>
+      <c r="H45" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J45" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A46" s="16">
         <v>44104</v>
       </c>
-      <c r="B46" s="25">
+      <c r="B46" s="26">
         <v>1.2336199999999999</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="21">
         <v>0.95444417531718506</v>
       </c>
-      <c r="D46" s="21">
-        <v>0</v>
-      </c>
-      <c r="E46" s="22">
-        <v>0</v>
-      </c>
-      <c r="F46" s="22">
-        <v>0</v>
-      </c>
-      <c r="G46" s="22">
-        <v>0</v>
-      </c>
-      <c r="H46" s="22">
+      <c r="D46" s="22">
+        <v>0</v>
+      </c>
+      <c r="E46" s="23">
+        <v>0</v>
+      </c>
+      <c r="F46" s="23">
+        <v>0</v>
+      </c>
+      <c r="G46" s="23">
+        <v>0</v>
+      </c>
+      <c r="H46" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J46" s="22">
+      <c r="J46" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A47" s="16">
         <v>44134</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47" s="26">
         <v>1.2367600000000001</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="21">
         <v>0.96014630804076961</v>
       </c>
-      <c r="D47" s="21">
-        <v>0</v>
-      </c>
-      <c r="E47" s="22">
-        <v>0</v>
-      </c>
-      <c r="F47" s="22">
-        <v>0</v>
-      </c>
-      <c r="G47" s="22">
-        <v>0</v>
-      </c>
-      <c r="H47" s="22">
+      <c r="D47" s="22">
+        <v>0</v>
+      </c>
+      <c r="E47" s="23">
+        <v>0</v>
+      </c>
+      <c r="F47" s="23">
+        <v>0</v>
+      </c>
+      <c r="G47" s="23">
+        <v>0</v>
+      </c>
+      <c r="H47" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A48" s="16">
         <v>44165</v>
       </c>
-      <c r="B48" s="25">
+      <c r="B48" s="26">
         <v>1.23942</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="21">
         <v>0.96710720132743311</v>
       </c>
-      <c r="D48" s="21">
-        <v>0</v>
-      </c>
-      <c r="E48" s="22">
-        <v>0</v>
-      </c>
-      <c r="F48" s="22">
-        <v>0</v>
-      </c>
-      <c r="G48" s="22">
-        <v>0</v>
-      </c>
-      <c r="H48" s="22">
+      <c r="D48" s="22">
+        <v>0</v>
+      </c>
+      <c r="E48" s="23">
+        <v>0</v>
+      </c>
+      <c r="F48" s="23">
+        <v>0</v>
+      </c>
+      <c r="G48" s="23">
+        <v>0</v>
+      </c>
+      <c r="H48" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I48" s="22">
+      <c r="I48" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J48" s="22">
+      <c r="J48" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15">
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A49" s="16">
         <v>44196</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B49" s="26">
         <v>1.2531099999999999</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="21">
         <v>0.97392800431499404</v>
       </c>
-      <c r="D49" s="21">
-        <v>0</v>
-      </c>
-      <c r="E49" s="22">
-        <v>0</v>
-      </c>
-      <c r="F49" s="22">
-        <v>0</v>
-      </c>
-      <c r="G49" s="22">
-        <v>0</v>
-      </c>
-      <c r="H49" s="22">
+      <c r="D49" s="22">
+        <v>0</v>
+      </c>
+      <c r="E49" s="23">
+        <v>0</v>
+      </c>
+      <c r="F49" s="23">
+        <v>0</v>
+      </c>
+      <c r="G49" s="23">
+        <v>0</v>
+      </c>
+      <c r="H49" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I49" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J49" s="22">
+      <c r="J49" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15">
+    <row r="50" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A50" s="16">
         <v>44225</v>
       </c>
-      <c r="B50" s="25">
+      <c r="B50" s="26">
         <v>1.2375</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="21">
         <v>0.98019564941921822</v>
       </c>
-      <c r="D50" s="21">
-        <v>0</v>
-      </c>
-      <c r="E50" s="22">
-        <v>0</v>
-      </c>
-      <c r="F50" s="22">
-        <v>0</v>
-      </c>
-      <c r="G50" s="22">
-        <v>0</v>
-      </c>
-      <c r="H50" s="22">
+      <c r="D50" s="22">
+        <v>0</v>
+      </c>
+      <c r="E50" s="23">
+        <v>0</v>
+      </c>
+      <c r="F50" s="23">
+        <v>0</v>
+      </c>
+      <c r="G50" s="23">
+        <v>0</v>
+      </c>
+      <c r="H50" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15">
+    <row r="51" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A51" s="16">
         <v>44253</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="26">
         <v>1.23967</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="21">
         <v>0.984757931392931</v>
       </c>
-      <c r="D51" s="21">
-        <v>0</v>
-      </c>
-      <c r="E51" s="22">
-        <v>0</v>
-      </c>
-      <c r="F51" s="22">
-        <v>0</v>
-      </c>
-      <c r="G51" s="22">
-        <v>0</v>
-      </c>
-      <c r="H51" s="22">
+      <c r="D51" s="22">
+        <v>0</v>
+      </c>
+      <c r="E51" s="23">
+        <v>0</v>
+      </c>
+      <c r="F51" s="23">
+        <v>0</v>
+      </c>
+      <c r="G51" s="23">
+        <v>0</v>
+      </c>
+      <c r="H51" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I51" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J51" s="22">
+      <c r="J51" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
+    <row r="52" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A52" s="16">
         <v>44286</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="26">
         <v>1.15709</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="21">
         <v>0.98919197969543116</v>
       </c>
-      <c r="D52" s="21">
-        <v>0</v>
-      </c>
-      <c r="E52" s="22">
-        <v>0</v>
-      </c>
-      <c r="F52" s="22">
-        <v>0</v>
-      </c>
-      <c r="G52" s="22">
-        <v>0</v>
-      </c>
-      <c r="H52" s="22">
+      <c r="D52" s="22">
+        <v>0</v>
+      </c>
+      <c r="E52" s="23">
+        <v>0</v>
+      </c>
+      <c r="F52" s="23">
+        <v>0</v>
+      </c>
+      <c r="G52" s="23">
+        <v>0</v>
+      </c>
+      <c r="H52" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J52" s="22">
+      <c r="J52" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15">
+    <row r="53" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A53" s="16">
         <v>44316</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B53" s="26">
         <v>1.17998</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="21">
         <v>0.99311644135188804</v>
       </c>
-      <c r="D53" s="21">
-        <v>0</v>
-      </c>
-      <c r="E53" s="22">
-        <v>0</v>
-      </c>
-      <c r="F53" s="22">
-        <v>0</v>
-      </c>
-      <c r="G53" s="22">
-        <v>0</v>
-      </c>
-      <c r="H53" s="22">
+      <c r="D53" s="22">
+        <v>0</v>
+      </c>
+      <c r="E53" s="23">
+        <v>0</v>
+      </c>
+      <c r="F53" s="23">
+        <v>0</v>
+      </c>
+      <c r="G53" s="23">
+        <v>0</v>
+      </c>
+      <c r="H53" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I53" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J53" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15">
+    <row r="54" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A54" s="16">
         <v>44347</v>
       </c>
-      <c r="B54" s="25">
+      <c r="B54" s="26">
         <v>1.2623</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="21">
         <v>0.99678004882812443</v>
       </c>
-      <c r="D54" s="21">
-        <v>0</v>
-      </c>
-      <c r="E54" s="22">
-        <v>0</v>
-      </c>
-      <c r="F54" s="22">
-        <v>0</v>
-      </c>
-      <c r="G54" s="22">
-        <v>0</v>
-      </c>
-      <c r="H54" s="22">
+      <c r="D54" s="22">
+        <v>0</v>
+      </c>
+      <c r="E54" s="23">
+        <v>0</v>
+      </c>
+      <c r="F54" s="23">
+        <v>0</v>
+      </c>
+      <c r="G54" s="23">
+        <v>0</v>
+      </c>
+      <c r="H54" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I54" s="22">
+      <c r="I54" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J54" s="22">
+      <c r="J54" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15">
+    <row r="55" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A55" s="16">
         <v>44377</v>
       </c>
-      <c r="B55" s="25">
+      <c r="B55" s="26">
         <v>1.33643</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="21">
         <v>1.0025140478468895</v>
       </c>
-      <c r="D55" s="21">
-        <v>0</v>
-      </c>
-      <c r="E55" s="22">
-        <v>0</v>
-      </c>
-      <c r="F55" s="22">
-        <v>0</v>
-      </c>
-      <c r="G55" s="22">
-        <v>0</v>
-      </c>
-      <c r="H55" s="22">
+      <c r="D55" s="22">
+        <v>0</v>
+      </c>
+      <c r="E55" s="23">
+        <v>0</v>
+      </c>
+      <c r="F55" s="23">
+        <v>0</v>
+      </c>
+      <c r="G55" s="23">
+        <v>0</v>
+      </c>
+      <c r="H55" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I55" s="22">
+      <c r="I55" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J55" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15">
+    <row r="56" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A56" s="16">
         <v>44407</v>
       </c>
-      <c r="B56" s="25">
+      <c r="B56" s="26">
         <v>1.28626</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="21">
         <v>1.0086370852858479</v>
       </c>
-      <c r="D56" s="21">
-        <v>0</v>
-      </c>
-      <c r="E56" s="22">
-        <v>0</v>
-      </c>
-      <c r="F56" s="22">
-        <v>0</v>
-      </c>
-      <c r="G56" s="22">
-        <v>0</v>
-      </c>
-      <c r="H56" s="22">
+      <c r="D56" s="22">
+        <v>0</v>
+      </c>
+      <c r="E56" s="23">
+        <v>0</v>
+      </c>
+      <c r="F56" s="23">
+        <v>0</v>
+      </c>
+      <c r="G56" s="23">
+        <v>0</v>
+      </c>
+      <c r="H56" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I56" s="22">
+      <c r="I56" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J56" s="22">
+      <c r="J56" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15">
+    <row r="57" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A57" s="16">
         <v>44439</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B57" s="26">
         <v>1.2177899999999999</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="21">
         <v>1.0138825528007342</v>
       </c>
-      <c r="D57" s="21">
-        <v>0</v>
-      </c>
-      <c r="E57" s="22">
-        <v>0</v>
-      </c>
-      <c r="F57" s="22">
-        <v>0</v>
-      </c>
-      <c r="G57" s="22">
-        <v>0</v>
-      </c>
-      <c r="H57" s="22">
+      <c r="D57" s="22">
+        <v>0</v>
+      </c>
+      <c r="E57" s="23">
+        <v>0</v>
+      </c>
+      <c r="F57" s="23">
+        <v>0</v>
+      </c>
+      <c r="G57" s="23">
+        <v>0</v>
+      </c>
+      <c r="H57" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I57" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J57" s="22">
+      <c r="J57" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K57" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15">
+    <row r="58" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A58" s="16">
         <v>44469</v>
       </c>
-      <c r="B58" s="25">
+      <c r="B58" s="26">
         <v>1.20347</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="21">
         <v>1.0177556176735794</v>
       </c>
-      <c r="D58" s="21">
-        <v>0</v>
-      </c>
-      <c r="E58" s="22">
-        <v>0</v>
-      </c>
-      <c r="F58" s="22">
-        <v>0</v>
-      </c>
-      <c r="G58" s="22">
-        <v>0</v>
-      </c>
-      <c r="H58" s="22">
+      <c r="D58" s="22">
+        <v>0</v>
+      </c>
+      <c r="E58" s="23">
+        <v>0</v>
+      </c>
+      <c r="F58" s="23">
+        <v>0</v>
+      </c>
+      <c r="G58" s="23">
+        <v>0</v>
+      </c>
+      <c r="H58" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I58" s="22">
+      <c r="I58" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J58" s="22">
+      <c r="J58" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K58" s="21">
+      <c r="K58" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15">
+    <row r="59" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A59" s="16">
         <v>44498</v>
       </c>
-      <c r="B59" s="25">
+      <c r="B59" s="26">
         <v>1.1970999999999998</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="21">
         <v>1.0204018311111105</v>
       </c>
-      <c r="D59" s="21">
-        <v>0</v>
-      </c>
-      <c r="E59" s="22">
-        <v>0</v>
-      </c>
-      <c r="F59" s="22">
-        <v>0</v>
-      </c>
-      <c r="G59" s="22">
-        <v>0</v>
-      </c>
-      <c r="H59" s="22">
+      <c r="D59" s="22">
+        <v>0</v>
+      </c>
+      <c r="E59" s="23">
+        <v>0</v>
+      </c>
+      <c r="F59" s="23">
+        <v>0</v>
+      </c>
+      <c r="G59" s="23">
+        <v>0</v>
+      </c>
+      <c r="H59" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I59" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J59" s="22">
+      <c r="J59" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K59" s="21">
+      <c r="K59" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15">
+    <row r="60" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A60" s="16">
         <v>44530</v>
       </c>
-      <c r="B60" s="25">
+      <c r="B60" s="26">
         <v>1.23373</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="21">
         <v>1.0245603661726232</v>
       </c>
-      <c r="D60" s="21">
-        <v>0</v>
-      </c>
-      <c r="E60" s="22">
-        <v>0</v>
-      </c>
-      <c r="F60" s="22">
-        <v>0</v>
-      </c>
-      <c r="G60" s="22">
-        <v>0</v>
-      </c>
-      <c r="H60" s="22">
+      <c r="D60" s="22">
+        <v>0</v>
+      </c>
+      <c r="E60" s="23">
+        <v>0</v>
+      </c>
+      <c r="F60" s="23">
+        <v>0</v>
+      </c>
+      <c r="G60" s="23">
+        <v>0</v>
+      </c>
+      <c r="H60" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I60" s="22">
+      <c r="I60" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J60" s="22">
+      <c r="J60" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K60" s="21">
+      <c r="K60" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15">
+    <row r="61" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A61" s="16">
         <v>44561</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="26">
         <v>1.2554100000000001</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="21">
         <v>1.0289409572649562</v>
       </c>
-      <c r="D61" s="21">
-        <v>0</v>
-      </c>
-      <c r="E61" s="22">
-        <v>0</v>
-      </c>
-      <c r="F61" s="22">
-        <v>0</v>
-      </c>
-      <c r="G61" s="22">
-        <v>0</v>
-      </c>
-      <c r="H61" s="22">
+      <c r="D61" s="22">
+        <v>0</v>
+      </c>
+      <c r="E61" s="23">
+        <v>0</v>
+      </c>
+      <c r="F61" s="23">
+        <v>0</v>
+      </c>
+      <c r="G61" s="23">
+        <v>0</v>
+      </c>
+      <c r="H61" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I61" s="22">
+      <c r="I61" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J61" s="22">
+      <c r="J61" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K61" s="21">
+      <c r="K61" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15">
+    <row r="62" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A62" s="16">
         <v>44589</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B62" s="26">
         <v>1.11076</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="21">
         <v>1.0316563299663286</v>
       </c>
-      <c r="D62" s="21">
-        <v>0</v>
-      </c>
-      <c r="E62" s="22">
-        <v>0</v>
-      </c>
-      <c r="F62" s="22">
-        <v>0</v>
-      </c>
-      <c r="G62" s="22">
-        <v>0</v>
-      </c>
-      <c r="H62" s="22">
+      <c r="D62" s="22">
+        <v>0</v>
+      </c>
+      <c r="E62" s="23">
+        <v>0</v>
+      </c>
+      <c r="F62" s="23">
+        <v>0</v>
+      </c>
+      <c r="G62" s="23">
+        <v>0</v>
+      </c>
+      <c r="H62" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I62" s="22">
+      <c r="I62" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J62" s="22">
+      <c r="J62" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K62" s="21">
+      <c r="K62" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15">
+    <row r="63" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A63" s="16">
         <v>44620</v>
       </c>
-      <c r="B63" s="25">
+      <c r="B63" s="26">
         <v>1.15177</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="21">
         <v>1.0331931727574739</v>
       </c>
-      <c r="D63" s="21">
-        <v>0</v>
-      </c>
-      <c r="E63" s="22">
-        <v>0</v>
-      </c>
-      <c r="F63" s="22">
-        <v>0</v>
-      </c>
-      <c r="G63" s="22">
-        <v>0</v>
-      </c>
-      <c r="H63" s="22">
+      <c r="D63" s="22">
+        <v>0</v>
+      </c>
+      <c r="E63" s="23">
+        <v>0</v>
+      </c>
+      <c r="F63" s="23">
+        <v>0</v>
+      </c>
+      <c r="G63" s="23">
+        <v>0</v>
+      </c>
+      <c r="H63" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I63" s="22">
+      <c r="I63" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J63" s="22">
+      <c r="J63" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K63" s="21">
+      <c r="K63" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15">
+    <row r="64" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A64" s="16">
         <v>44651</v>
       </c>
-      <c r="B64" s="25">
+      <c r="B64" s="26">
         <v>1.0468499999999998</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="21">
         <v>1.0340066340668286</v>
       </c>
-      <c r="D64" s="21">
-        <v>0</v>
-      </c>
-      <c r="E64" s="22">
-        <v>0</v>
-      </c>
-      <c r="F64" s="22">
-        <v>0</v>
-      </c>
-      <c r="G64" s="22">
-        <v>0</v>
-      </c>
-      <c r="H64" s="22">
+      <c r="D64" s="22">
+        <v>0</v>
+      </c>
+      <c r="E64" s="23">
+        <v>0</v>
+      </c>
+      <c r="F64" s="23">
+        <v>0</v>
+      </c>
+      <c r="G64" s="23">
+        <v>0</v>
+      </c>
+      <c r="H64" s="23">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I64" s="22">
+      <c r="I64" s="23">
         <v>3420.824392859301</v>
       </c>
-      <c r="J64" s="22">
+      <c r="J64" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K64" s="21">
+      <c r="K64" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15">
+    <row r="65" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A65" s="16">
         <v>44680</v>
       </c>
-      <c r="B65" s="25">
+      <c r="B65" s="26">
         <v>0.83169999999999999</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="21">
         <v>1.032387961476724</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="22">
         <v>311.06634028892216</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E65" s="23">
         <v>374.01267318615146</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="23">
         <v>374.01267318615146</v>
       </c>
-      <c r="G65" s="22">
+      <c r="G65" s="23">
         <v>311.06634028892216</v>
       </c>
-      <c r="H65" s="22">
+      <c r="H65" s="23">
         <v>2710.9581671008523</v>
       </c>
-      <c r="I65" s="22">
+      <c r="I65" s="23">
         <v>3731.8907331482233</v>
       </c>
-      <c r="J65" s="22">
+      <c r="J65" s="23">
         <v>1020.932566047371</v>
       </c>
-      <c r="K65" s="21">
+      <c r="K65" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15">
+    <row r="66" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A66" s="16">
         <v>44712</v>
       </c>
-      <c r="B66" s="25">
+      <c r="B66" s="26">
         <v>0.90644000000000002</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="21">
         <v>1.0300312806324092</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="22">
         <v>191.56648498023426</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E66" s="23">
         <v>211.3393991662264</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="23">
         <v>585.35207235237783</v>
       </c>
-      <c r="G66" s="22">
+      <c r="G66" s="23">
         <v>530.58653246308938</v>
       </c>
-      <c r="H66" s="22">
+      <c r="H66" s="23">
         <v>2902.5246520810865</v>
       </c>
-      <c r="I66" s="22">
+      <c r="I66" s="23">
         <v>3951.4109253223905</v>
       </c>
-      <c r="J66" s="22">
+      <c r="J66" s="23">
         <v>1048.886273241304</v>
       </c>
-      <c r="K66" s="21">
+      <c r="K66" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15">
+    <row r="67" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A67" s="16">
         <v>44742</v>
       </c>
-      <c r="B67" s="25">
+      <c r="B67" s="26">
         <v>0.99066999999999994</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="21">
         <v>1.0286842768273694</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="22">
         <v>58.922129082422671</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E67" s="23">
         <v>59.477049958535815</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="23">
         <v>644.82912231091359</v>
       </c>
-      <c r="G67" s="22">
+      <c r="G67" s="23">
         <v>638.81286659975274</v>
       </c>
-      <c r="H67" s="22">
+      <c r="H67" s="23">
         <v>2961.4467811635091</v>
       </c>
-      <c r="I67" s="22">
+      <c r="I67" s="23">
         <v>4059.6372594590539</v>
       </c>
-      <c r="J67" s="22">
+      <c r="J67" s="23">
         <v>1098.1904782955448</v>
       </c>
-      <c r="K67" s="21">
+      <c r="K67" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15">
+    <row r="68" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A68" s="16">
         <v>44771</v>
       </c>
-      <c r="B68" s="25">
+      <c r="B68" s="26">
         <v>1.01267</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="21">
         <v>1.0278637413924998</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="22">
         <v>23.550299158374767</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E68" s="23">
         <v>23.255650071962997</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="23">
         <v>668.08477238287662</v>
       </c>
-      <c r="G68" s="22">
+      <c r="G68" s="23">
         <v>676.5494064489676</v>
       </c>
-      <c r="H68" s="22">
+      <c r="H68" s="23">
         <v>2984.9970803218839</v>
       </c>
-      <c r="I68" s="22">
+      <c r="I68" s="23">
         <v>4097.3737993082686</v>
       </c>
-      <c r="J68" s="22">
+      <c r="J68" s="23">
         <v>1112.3767189863847</v>
       </c>
-      <c r="K68" s="21">
+      <c r="K68" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="15">
+    <row r="69" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A69" s="16">
         <v>44804</v>
       </c>
-      <c r="B69" s="25">
+      <c r="B69" s="26">
         <v>0.95750000000000002</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69" s="21">
         <v>1.0277413007518783</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D69" s="22">
         <v>108.87401616541135</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E69" s="23">
         <v>113.70654429807973</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="23">
         <v>781.79131668095636</v>
       </c>
-      <c r="G69" s="22">
+      <c r="G69" s="23">
         <v>748.56518572201571</v>
       </c>
-      <c r="H69" s="22">
+      <c r="H69" s="23">
         <v>3093.8710964872953</v>
       </c>
-      <c r="I69" s="22">
+      <c r="I69" s="23">
         <v>4169.3895785813165</v>
       </c>
-      <c r="J69" s="22">
+      <c r="J69" s="23">
         <v>1075.5184820940212</v>
       </c>
-      <c r="K69" s="21">
+      <c r="K69" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="15">
+    <row r="70" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A70" s="16">
         <v>44834</v>
       </c>
-      <c r="B70" s="25">
+      <c r="B70" s="26">
         <v>0.85887999999999998</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="21">
         <v>1.0261969874167267</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="22">
         <v>259.34133049592646</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E70" s="23">
         <v>301.95292764521992</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="23">
         <v>1083.7442443261762</v>
       </c>
-      <c r="G70" s="22">
+      <c r="G70" s="23">
         <v>930.80625656686618</v>
       </c>
-      <c r="H70" s="22">
+      <c r="H70" s="23">
         <v>3353.2124269832216</v>
       </c>
-      <c r="I70" s="22">
+      <c r="I70" s="23">
         <v>4351.6306494261671</v>
       </c>
-      <c r="J70" s="22">
+      <c r="J70" s="23">
         <v>998.41822244294553</v>
       </c>
-      <c r="K70" s="21">
+      <c r="K70" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="15">
+    <row r="71" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A71" s="16">
         <v>44865</v>
       </c>
-      <c r="B71" s="25">
+      <c r="B71" s="26">
         <v>0.96957000000000004</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="21">
         <v>1.0250083101682501</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D71" s="22">
         <v>85.929380760787609</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E71" s="23">
         <v>88.626278412891907</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="23">
         <v>1172.3705227390681</v>
       </c>
-      <c r="G71" s="22">
+      <c r="G71" s="23">
         <v>1136.6952877321182</v>
       </c>
-      <c r="H71" s="22">
+      <c r="H71" s="23">
         <v>3439.1418077440094</v>
       </c>
-      <c r="I71" s="22">
+      <c r="I71" s="23">
         <v>4557.5196805914193</v>
       </c>
-      <c r="J71" s="22">
+      <c r="J71" s="23">
         <v>1118.3778728474099</v>
       </c>
-      <c r="K71" s="21">
+      <c r="K71" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="15">
+    <row r="72" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A72" s="16">
         <v>44895</v>
       </c>
-      <c r="B72" s="25">
+      <c r="B72" s="26">
         <v>0.99405999999999994</v>
       </c>
-      <c r="C72" s="20">
+      <c r="C72" s="21">
         <v>1.0247448956083498</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D72" s="22">
         <v>47.561588192942281</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E72" s="23">
         <v>47.845792198601977</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="23">
         <v>1220.2163149376699</v>
       </c>
-      <c r="G72" s="22">
+      <c r="G72" s="23">
         <v>1212.9682300269401</v>
       </c>
-      <c r="H72" s="22">
+      <c r="H72" s="23">
         <v>3486.7033959369519</v>
       </c>
-      <c r="I72" s="22">
+      <c r="I72" s="23">
         <v>4633.7926228862416</v>
       </c>
-      <c r="J72" s="22">
+      <c r="J72" s="23">
         <v>1147.0892269492897</v>
       </c>
-      <c r="K72" s="21">
+      <c r="K72" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15">
+    <row r="73" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A73" s="16">
         <v>44925</v>
       </c>
-      <c r="B73" s="25">
+      <c r="B73" s="26">
         <v>0.95635000000000003</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="21">
         <v>1.0242041105598856</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D73" s="22">
         <v>105.1738713678226</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E73" s="23">
         <v>109.97424726075452</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="23">
         <v>1330.1905621984245</v>
       </c>
-      <c r="G73" s="22">
+      <c r="G73" s="23">
         <v>1272.1277441584632</v>
       </c>
-      <c r="H73" s="22">
+      <c r="H73" s="23">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I73" s="22">
+      <c r="I73" s="23">
         <v>4692.9521370177645</v>
       </c>
-      <c r="J73" s="22">
+      <c r="J73" s="23">
         <v>1101.0748697129898</v>
       </c>
-      <c r="K73" s="21">
+      <c r="K73" s="22">
         <v>3420.824392859301</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="15">
+    <row r="74" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A74" s="16">
         <v>44957</v>
       </c>
-      <c r="B74" s="25">
+      <c r="B74" s="26">
         <v>1.08087</v>
       </c>
-      <c r="C74" s="20">
+      <c r="C74" s="21">
         <v>1.0241600981079177</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="22">
         <v>-87.900347932727485</v>
       </c>
-      <c r="E74" s="22">
+      <c r="E74" s="23">
         <v>-81.323700290254592</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="23">
         <v>1248.8668619081698</v>
       </c>
-      <c r="G74" s="22">
+      <c r="G74" s="23">
         <v>1349.8627250306834</v>
       </c>
-      <c r="H74" s="22">
+      <c r="H74" s="23">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I74" s="22">
+      <c r="I74" s="23">
         <v>4858.5874658227121</v>
       </c>
-      <c r="J74" s="22">
+      <c r="J74" s="23">
         <v>1266.7101985179374</v>
       </c>
-      <c r="K74" s="21">
+      <c r="K74" s="22">
         <v>3508.7247407920286</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15">
+    <row r="75" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A75" s="16">
         <v>44985</v>
       </c>
-      <c r="B75" s="25">
+      <c r="B75" s="26">
         <v>1.16859</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="21">
         <v>1.0261586247408419</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D75" s="22">
         <v>-220.76863165169516</v>
       </c>
-      <c r="E75" s="22">
+      <c r="E75" s="23">
         <v>-188.91880954970961</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="23">
         <v>1059.9480523584602</v>
       </c>
-      <c r="G75" s="22">
+      <c r="G75" s="23">
         <v>1238.6446945055732</v>
       </c>
-      <c r="H75" s="22">
+      <c r="H75" s="23">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I75" s="22">
+      <c r="I75" s="23">
         <v>4968.1380669492974</v>
       </c>
-      <c r="J75" s="22">
+      <c r="J75" s="23">
         <v>1376.2607996445226</v>
       </c>
-      <c r="K75" s="21">
+      <c r="K75" s="22">
         <v>3729.4933724437237</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="15">
+    <row r="76" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A76" s="16">
         <v>45016</v>
       </c>
-      <c r="B76" s="25">
+      <c r="B76" s="26">
         <v>1.2989900000000001</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="21">
         <v>1.0293158435374137</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="22">
         <v>-417.99494251700895</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E76" s="23">
         <v>-321.78457302751286</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="23">
         <v>738.16347933094744</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G76" s="23">
         <v>958.86697801610751</v>
       </c>
-      <c r="H76" s="22">
+      <c r="H76" s="23">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I76" s="22">
+      <c r="I76" s="23">
         <v>5106.3552929768402</v>
       </c>
-      <c r="J76" s="22">
+      <c r="J76" s="23">
         <v>1514.4780256720655</v>
       </c>
-      <c r="K76" s="21">
+      <c r="K76" s="22">
         <v>4147.4883149607331</v>
       </c>
+    </row>
+    <row r="77" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A77" s="16">
+        <v>45044</v>
+      </c>
+      <c r="B77" s="26">
+        <v>1.22841</v>
+      </c>
+      <c r="C77" s="21">
+        <v>1.0326041370047001</v>
+      </c>
+      <c r="D77" s="22">
+        <v>-303.49908764271481</v>
+      </c>
+      <c r="E77" s="23">
+        <v>-247.06660450722057</v>
+      </c>
+      <c r="F77" s="23">
+        <v>491.09687482372686</v>
+      </c>
+      <c r="G77" s="23">
+        <v>603.26831200221432</v>
+      </c>
+      <c r="H77" s="23">
+        <v>3591.8772673047747</v>
+      </c>
+      <c r="I77" s="23">
+        <v>5054.2557146056624</v>
+      </c>
+      <c r="J77" s="23">
+        <v>1462.3784473008877</v>
+      </c>
+      <c r="K77" s="22">
+        <v>4450.9874026034477</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="79" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="80" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="81" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="82" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="83" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="84" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="85" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="86" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="87" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="88" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="89" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="90" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="91" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="92" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="93" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="94" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L94" s="8"/>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L95" s="8"/>
+    </row>
+    <row r="96" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L96" s="8"/>
+    </row>
+    <row r="97" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L97" s="8"/>
+    </row>
+    <row r="98" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L98" s="8"/>
+    </row>
+    <row r="99" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L99" s="8"/>
+    </row>
+    <row r="100" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L100" s="8"/>
+    </row>
+    <row r="101" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L101" s="8"/>
+    </row>
+    <row r="102" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L102" s="8"/>
+    </row>
+    <row r="103" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L103" s="8"/>
+    </row>
+    <row r="104" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L104" s="8"/>
+    </row>
+    <row r="105" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L105" s="8"/>
+    </row>
+    <row r="106" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L106" s="8"/>
+      <c r="O106" s="3"/>
+    </row>
+    <row r="107" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L107" s="8"/>
+    </row>
+    <row r="108" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L108" s="8"/>
+    </row>
+    <row r="109" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L109" s="8"/>
+    </row>
+    <row r="110" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L110" s="8"/>
+    </row>
+    <row r="111" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L111" s="8"/>
+    </row>
+    <row r="112" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L112" s="8"/>
+    </row>
+    <row r="113" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L113" s="8"/>
+    </row>
+    <row r="114" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L114" s="8"/>
+    </row>
+    <row r="115" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L115" s="8"/>
+    </row>
+    <row r="116" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L116" s="8"/>
+    </row>
+    <row r="117" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L117" s="8"/>
+    </row>
+    <row r="118" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L118" s="8"/>
+      <c r="O118" s="3"/>
+    </row>
+    <row r="119" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L119" s="8"/>
+    </row>
+    <row r="120" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L120" s="8"/>
+    </row>
+    <row r="121" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L121" s="8"/>
+    </row>
+    <row r="122" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L122" s="8"/>
+    </row>
+    <row r="123" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L123" s="8"/>
+    </row>
+    <row r="124" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L124" s="8"/>
+    </row>
+    <row r="125" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L125" s="8"/>
+    </row>
+    <row r="126" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L126" s="8"/>
+    </row>
+    <row r="127" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L127" s="8"/>
+    </row>
+    <row r="128" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L128" s="8"/>
+    </row>
+    <row r="129" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L129" s="8"/>
+    </row>
+    <row r="130" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L130" s="8"/>
+      <c r="O130" s="3"/>
+    </row>
+    <row r="131" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L131" s="8"/>
+    </row>
+    <row r="132" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L132" s="8"/>
+    </row>
+    <row r="133" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L133" s="8"/>
+    </row>
+    <row r="134" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L134" s="8"/>
+    </row>
+    <row r="135" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L135" s="8"/>
+    </row>
+    <row r="136" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L136" s="8"/>
+    </row>
+    <row r="137" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L137" s="8"/>
+    </row>
+    <row r="138" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L138" s="8"/>
+    </row>
+    <row r="139" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L139" s="8"/>
+    </row>
+    <row r="140" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L140" s="8"/>
+    </row>
+    <row r="141" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L141" s="8"/>
+    </row>
+    <row r="142" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L142" s="8"/>
+      <c r="O142" s="3"/>
+    </row>
+    <row r="143" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L143" s="8"/>
+    </row>
+    <row r="144" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L144" s="8"/>
+    </row>
+    <row r="145" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L145" s="8"/>
+    </row>
+    <row r="146" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L146" s="8"/>
+    </row>
+    <row r="147" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L147" s="8"/>
+    </row>
+    <row r="148" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L148" s="8"/>
+    </row>
+    <row r="149" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L149" s="8"/>
+    </row>
+    <row r="150" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L150" s="8"/>
+    </row>
+    <row r="151" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L151" s="8"/>
+    </row>
+    <row r="152" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L152" s="8"/>
+    </row>
+    <row r="153" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L153" s="8"/>
+    </row>
+    <row r="154" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L154" s="8"/>
+      <c r="O154" s="3"/>
+    </row>
+    <row r="155" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L155" s="8"/>
+    </row>
+    <row r="156" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L156" s="8"/>
+    </row>
+    <row r="157" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L157" s="8"/>
+    </row>
+    <row r="158" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L158" s="8"/>
+    </row>
+    <row r="159" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L159" s="8"/>
+    </row>
+    <row r="160" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L160" s="8"/>
+    </row>
+    <row r="161" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L161" s="8"/>
+    </row>
+    <row r="162" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L162" s="8"/>
+    </row>
+    <row r="163" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L163" s="8"/>
+    </row>
+    <row r="164" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L164" s="8"/>
+    </row>
+    <row r="165" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L165" s="8"/>
+    </row>
+    <row r="166" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L166" s="8"/>
+      <c r="O166" s="3"/>
+    </row>
+    <row r="167" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L167" s="8"/>
+    </row>
+    <row r="168" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L168" s="8"/>
+    </row>
+    <row r="169" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L169" s="4"/>
+    </row>
+    <row r="170" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L170" s="4"/>
+    </row>
+    <row r="171" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L171" s="4"/>
+    </row>
+    <row r="172" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L172" s="4"/>
+    </row>
+    <row r="173" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L173" s="4"/>
+    </row>
+    <row r="174" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L174" s="4"/>
+    </row>
+    <row r="175" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L175" s="4"/>
+    </row>
+    <row r="176" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L176" s="4"/>
+    </row>
+    <row r="177" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L177" s="4"/>
+    </row>
+    <row r="178" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L178" s="4"/>
+    </row>
+    <row r="179" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L179" s="4"/>
+    </row>
+    <row r="180" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L180" s="4"/>
+    </row>
+    <row r="181" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L181" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7464,15 +7823,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF64"/>
+  <dimension ref="A1:AF181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C10" sqref="C10"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
@@ -7504,137 +7863,137 @@
     <col min="52" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:32" s="13" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:32" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="24"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5">
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:32" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="24"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="25"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6">
         <v>1550</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
         <f>MIN(F:F)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A4" s="16">
         <v>43189</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="26">
         <v>0.95575999999999994</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="21">
         <v>0.91680896000000012</v>
       </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0</v>
-      </c>
-      <c r="G4" s="22">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22">
-        <v>0</v>
-      </c>
-      <c r="K4" s="21">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="O4" s="26" t="s">
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="O4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="T4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="7">
         <v>43462</v>
       </c>
       <c r="Y4" s="1">
@@ -7645,18 +8004,18 @@
         <f t="shared" ref="Z4" si="0">0-Y4</f>
         <v>-1431.6926540000038</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="7">
         <v>43462</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="8">
         <f>VLOOKUP(AA4,O:P,2,)</f>
         <v>1431.6926540000038</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC4" s="8">
         <f t="shared" ref="AC4:AC6" si="1">0-AB4</f>
         <v>-1431.6926540000038</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="7">
         <v>43462</v>
       </c>
       <c r="AE4" s="1">
@@ -7667,66 +8026,66 @@
         <v>-185.03707217220185</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A5" s="16">
         <v>43217</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="26">
         <v>0.92662</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="21">
         <v>0.91465696000000007</v>
       </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0</v>
-      </c>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
-      <c r="G5" s="22">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0</v>
-      </c>
-      <c r="I5" s="22">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-      <c r="K5" s="21">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="O5" s="6">
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="O5" s="7">
         <v>43462</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="11">
         <v>1431.6926540000038</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="6">
         <v>1431.6926540000038</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="6">
         <v>1305.2741513950191</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="6">
         <v>-126.41850260498472</v>
       </c>
-      <c r="T5" s="5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="9">
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
         <v>-8.8300028816788487E-2</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="10">
         <v>-8.8300028816788487E-2</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="7">
         <v>43830</v>
       </c>
       <c r="Y5" s="1">
@@ -7737,18 +8096,18 @@
         <f t="shared" ref="Z5" si="2">0-Y5</f>
         <v>-193.28661200000033</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="7">
         <v>43830</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="8">
         <f>VLOOKUP(AA5,O:P,2,)</f>
         <v>193.28661200000033</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="8">
         <f t="shared" si="1"/>
         <v>-193.28661200000033</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="7">
         <v>43830</v>
       </c>
       <c r="AE5" s="1">
@@ -7759,83 +8118,83 @@
         <v>-24.103041534476546</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A6" s="16">
         <v>43251</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="26">
         <v>0.88405999999999996</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="21">
         <v>0.91904036000000011</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="22">
         <v>54.219558000000241</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="23">
         <v>61.330178947130563</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="23">
         <v>61.330178947130563</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="23">
         <v>54.219558000000241</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="23">
         <v>54.219558000000241</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="23">
         <v>54.219558000000241</v>
       </c>
-      <c r="J6" s="22">
-        <v>0</v>
-      </c>
-      <c r="K6" s="21">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="O6" s="6">
+      <c r="J6" s="23">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="O6" s="7">
         <v>43830</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="11">
         <v>193.28661200000033</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="6">
         <v>1624.9792660000041</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="6">
         <v>2121.5860729661367</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="6">
         <v>496.60680696613258</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="6">
         <v>1754.5207020000048</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="10">
         <v>0.30560808827337449</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="10">
         <v>0.15168919836337369</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="7">
         <v>43830</v>
       </c>
       <c r="Z6" s="1">
         <v>2121.5860729661367</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="7">
         <v>44196</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="8">
         <f>VLOOKUP(AA6,O:P,2,)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AC6" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="7">
         <v>44196</v>
       </c>
       <c r="AE6" s="1">
@@ -7846,76 +8205,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A7" s="16">
         <v>43280</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="26">
         <v>0.81235999999999997</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="21">
         <v>0.91734940000000031</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="22">
         <v>162.73357000000053</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="23">
         <v>200.32198778866578</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="23">
         <v>261.65216673579636</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="23">
         <v>212.55575416949151</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="23">
         <v>216.95312800000076</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="23">
         <v>212.55575416949151</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="23">
         <v>-4.3973738305092525</v>
       </c>
-      <c r="K7" s="21">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="O7" s="6">
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="O7" s="7">
         <v>44196</v>
       </c>
-      <c r="P7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>1624.9792660000041</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="6">
         <v>2160.3103145693699</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="6">
         <v>535.33104856936575</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="6">
         <v>2160.3103145693699</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="10">
         <v>0.32943869486231608</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="10">
         <v>0.10369660281505078</v>
       </c>
       <c r="Z7" s="2">
         <f>IRR(Z4:Z6)</f>
         <v>0.15168919836337369</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="7">
         <v>44196</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="8">
         <v>2160.3103145693699</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AD7" s="7">
         <v>44561</v>
       </c>
       <c r="AE7" s="1">
@@ -7926,133 +8285,133 @@
         <v>-25.382097087861155</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A8" s="16">
         <v>43312</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="26">
         <v>0.8131799999999999</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="21">
         <v>0.91070244000000022</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="22">
         <v>151.15978200000049</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="23">
         <v>185.88723529845853</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="23">
         <v>447.53940203425486</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="23">
         <v>363.93009094621533</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="23">
         <v>368.11291000000125</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="23">
         <v>363.93009094621533</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="23">
         <v>-4.18281905378592</v>
       </c>
-      <c r="K8" s="21">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="O8" s="6">
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="O8" s="7">
         <v>44561</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="11">
         <v>439.433556000002</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="6">
         <v>2064.4128220000061</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="6">
         <v>2633.6658962308707</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="6">
         <v>569.25307423086451</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="6">
         <v>2365.5016705693652</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="10">
         <v>0.2757457559672446</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="10">
         <v>9.161448749478418E-2</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
         <v>0.10369660281505078</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AD8" s="7">
         <v>44561</v>
       </c>
       <c r="AF8" s="1">
         <v>321.80638751270993</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A9" s="16">
         <v>43343</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="26">
         <v>0.77766999999999997</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="21">
         <v>0.89930640000000006</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="22">
         <v>188.53642000000013</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="23">
         <v>242.43756349094107</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="23">
         <v>689.97696552519596</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="23">
         <v>536.57438677997914</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="23">
         <v>556.64933000000133</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="23">
         <v>536.57438677997914</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="23">
         <v>-20.074943220022192</v>
       </c>
-      <c r="K9" s="21">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="O9" s="6">
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="O9" s="7">
         <v>44925</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="11">
         <v>2771.7310180000009</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="6">
         <v>4836.143840000007</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="6">
         <v>5394.8728413640729</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="6">
         <v>558.72900136406588</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="6">
         <v>2365.5016705693652</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="10">
         <v>0.11553192374941128</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="10">
         <v>6.5682800424140098E-2</v>
       </c>
       <c r="AF9" s="2">
@@ -8060,42 +8419,42 @@
         <v>9.161448749478418E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A10" s="16">
         <v>43371</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="26">
         <v>0.76784000000000008</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="21">
         <v>0.8825278000000002</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>177.76609000000019</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="23">
         <v>231.51449520733507</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="23">
         <v>921.4914607325311</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="23">
         <v>707.55800320886669</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="23">
         <v>734.41542000000152</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="23">
         <v>707.55800320886669</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="23">
         <v>-26.857416791134824</v>
       </c>
-      <c r="K10" s="21">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="X10" s="6">
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="X10" s="7">
         <v>43462</v>
       </c>
       <c r="Y10" s="1">
@@ -8106,42 +8465,42 @@
         <v>-185.03707217220185</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A11" s="16">
         <v>43404</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="26">
         <v>0.67677999999999994</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="21">
         <v>0.86133792000000031</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="22">
         <v>286.06477600000056</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="23">
         <v>422.68503206359611</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="23">
         <v>1344.1764927961271</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="23">
         <v>909.71176679456289</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="23">
         <v>1020.480196000002</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="23">
         <v>909.71176679456289</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="23">
         <v>-110.76842920543913</v>
       </c>
-      <c r="K11" s="21">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="X11" s="6">
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="X11" s="7">
         <v>43830</v>
       </c>
       <c r="Y11" s="1">
@@ -8152,42 +8511,42 @@
         <v>-24.103041534476546</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A12" s="16">
         <v>43434</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="26">
         <v>0.7214299999999999</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="21">
         <v>0.83959144000000063</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="22">
         <v>183.15023200000113</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="23">
         <v>253.8711059978115</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="23">
         <v>1598.0475987939387</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="23">
         <v>1152.879479197911</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="23">
         <v>1203.6304280000031</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="23">
         <v>1152.879479197911</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="23">
         <v>-50.750948802092125</v>
       </c>
-      <c r="K12" s="21">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="X12" s="6">
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="X12" s="7">
         <v>44196</v>
       </c>
       <c r="Y12" s="1">
@@ -8198,42 +8557,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A13" s="16">
         <v>43462</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="26">
         <v>0.67408000000000001</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="21">
         <v>0.82121692000000046</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="22">
         <v>228.06222600000069</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="23">
         <v>338.33109719914654</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="23">
         <v>1936.3786959930853</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="23">
         <v>1305.2741513950191</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="23">
         <v>1431.6926540000038</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="23">
         <v>1305.2741513950191</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="23">
         <v>-126.41850260498472</v>
       </c>
-      <c r="K13" s="21">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="X13" s="6">
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="X13" s="7">
         <v>44561</v>
       </c>
       <c r="Y13" s="1">
@@ -8244,42 +8603,42 @@
         <v>-25.382097087861155</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A14" s="16">
         <v>43496</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="26">
         <v>0.67819000000000007</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="21">
         <v>0.80289104000000022</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="22">
         <v>193.28661200000025</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="23">
         <v>285.00363025110988</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="23">
         <v>2221.3823262441952</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="23">
         <v>1506.5192798355508</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="23">
         <v>1506.5192798355508</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="23">
         <v>-118.45998616445331</v>
       </c>
-      <c r="K14" s="21">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="X14" s="6">
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="X14" s="7">
         <v>44925</v>
       </c>
       <c r="Y14" s="1">
@@ -8290,1800 +8649,2135 @@
         <v>-565.58588458679435</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+    <row r="15" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A15" s="16">
         <v>43524</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="26">
         <v>0.85648000000000002</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="21">
         <v>0.79863988000000019</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="22">
         <v>-89.65218599999973</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="23">
         <v>-104.67516579488105</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="23">
         <v>2116.707160449314</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="23">
         <v>1812.9173487816286</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="23">
         <v>1902.5695347816284</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="23">
         <v>277.59026878162422</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="22">
         <v>89.65218599999973</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="X15" s="6">
+      <c r="L15" s="8"/>
+      <c r="X15" s="7">
         <v>44925</v>
       </c>
       <c r="Z15" s="1">
         <v>916.97898329904501</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="16" spans="1:32" ht="14.1" customHeight="1">
+      <c r="A16" s="16">
         <v>43553</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="26">
         <v>0.94580999999999993</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="21">
         <v>0.80337899999999995</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="22">
         <v>-220.76804999999996</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="23">
         <v>-233.41691248770891</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="23">
         <v>1883.290247961605</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="23">
         <v>1781.2347494245655</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="23">
         <v>2091.654985424565</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="23">
         <v>466.67571942456084</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="22">
         <v>310.4202359999997</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="8"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
         <v>6.5682800424140098E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+    <row r="17" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A17" s="16">
         <v>43585</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="26">
         <v>0.9108099999999999</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="21">
         <v>0.80660947999999977</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="22">
         <v>-161.5108060000002</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="23">
         <v>-177.32656207112376</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="23">
         <v>1705.9636858904812</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="23">
         <v>1553.808784745909</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="23">
         <v>2025.7398267459089</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="23">
         <v>400.76056074590474</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="22">
         <v>471.93104199999993</v>
       </c>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A18" s="16">
         <v>43616</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="26">
         <v>0.86360000000000003</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="21">
         <v>0.8020255199999996</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="22">
         <v>-95.440444000000667</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="23">
         <v>-110.51464103751813</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="23">
         <v>1595.449044852963</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="23">
         <v>1377.8297951350189</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="23">
         <v>1945.2012811350196</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="23">
         <v>320.22201513501545</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="22">
         <v>567.37148600000057</v>
       </c>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A19" s="16">
         <v>43644</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="26">
         <v>0.88732</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="21">
         <v>0.80021431999999926</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="22">
         <v>-135.01380400000116</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="23">
         <v>-152.15909029437086</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="23">
         <v>1443.2899545585922</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="23">
         <v>1280.6600424789301</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="23">
         <v>1983.0453324789319</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="23">
         <v>358.06606647892772</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="22">
         <v>702.38529000000176</v>
       </c>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A20" s="16">
         <v>43677</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="26">
         <v>0.89222000000000001</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="21">
         <v>0.80840215999999976</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="22">
         <v>-129.9176520000004</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="23">
         <v>-145.61167873394498</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="23">
         <v>1297.6782758246472</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="23">
         <v>1157.8145112562668</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="23">
         <v>1990.1174532562691</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="23">
         <v>365.13818725626493</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="22">
         <v>832.30294200000219</v>
       </c>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A21" s="16">
         <v>43707</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="26">
         <v>0.92357</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="21">
         <v>0.81579543999999959</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="22">
         <v>-167.05056800000062</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="23">
         <v>-180.87483136091538</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="23">
         <v>1116.8034444637319</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="23">
         <v>1031.4461572033688</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="23">
         <v>2030.7996672033717</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="23">
         <v>405.82040120336751</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="22">
         <v>999.35351000000287</v>
       </c>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A22" s="16">
         <v>43738</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="26">
         <v>0.95855999999999997</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="21">
         <v>0.83312139999999968</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="22">
         <v>-194.42983000000044</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="23">
         <v>-202.83532590552542</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="23">
         <v>913.96811855820647</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="23">
         <v>876.09327972515439</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="23">
         <v>2069.876619725158</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="23">
         <v>444.89735372515383</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="22">
         <v>1193.7833400000034</v>
       </c>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A23" s="16">
         <v>43769</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="26">
         <v>0.97238999999999998</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="21">
         <v>0.85132979999999947</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="22">
         <v>-187.64331000000078</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="23">
         <v>-192.97124610495871</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="23">
         <v>720.99687245324776</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="23">
         <v>701.09014880481357</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="23">
         <v>2082.5167988048179</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="23">
         <v>457.53753280481374</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="22">
         <v>1381.4266500000042</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="8"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+    <row r="24" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A24" s="16">
         <v>43798</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="26">
         <v>0.97728999999999999</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="21">
         <v>0.87548991999999959</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="22">
         <v>-157.79012400000062</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="23">
         <v>-161.45680811222934</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="23">
         <v>559.54006434101848</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="23">
         <v>546.83290947983392</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="23">
         <v>2086.0496834798387</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="23">
         <v>461.07041747983453</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="22">
         <v>1539.2167740000048</v>
       </c>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A25" s="16">
         <v>43830</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="26">
         <v>1.0407999999999999</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="21">
         <v>0.90189423999999996</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="22">
         <v>-215.30392799999998</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="23">
         <v>-206.86388162951576</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="23">
         <v>352.67618271150275</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="23">
         <v>367.06537096613204</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="23">
         <v>2121.5860729661367</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="23">
         <v>496.60680696613258</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="22">
         <v>1754.5207020000048</v>
       </c>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A26" s="16">
         <v>43853</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="26">
         <v>1.13632</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="21">
         <v>0.92962908</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="22">
         <v>-320.370926</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="23">
         <v>-281.93724127006476</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="23">
         <v>70.738941441437987</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="23">
         <v>80.38207393873482</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="23">
         <v>2155.2737019387396</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="23">
         <v>530.29443593873543</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="22">
         <v>2074.8916280000049</v>
       </c>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A27" s="16">
         <v>43889</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="26">
         <v>1.2075199999999999</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="21">
         <v>0.96966315999999997</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="22">
         <v>-85.418686569365192</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="23">
         <v>-70.738941441437987</v>
       </c>
-      <c r="F27" s="22">
-        <v>0</v>
-      </c>
-      <c r="G27" s="22">
-        <v>0</v>
-      </c>
-      <c r="H27" s="22">
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0</v>
+      </c>
+      <c r="H27" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A28" s="16">
         <v>43921</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="26">
         <v>1.0721400000000001</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="21">
         <v>0.99416948000000038</v>
       </c>
-      <c r="D28" s="21">
-        <v>0</v>
-      </c>
-      <c r="E28" s="22">
-        <v>0</v>
-      </c>
-      <c r="F28" s="22">
-        <v>0</v>
-      </c>
-      <c r="G28" s="22">
-        <v>0</v>
-      </c>
-      <c r="H28" s="22">
+      <c r="D28" s="22">
+        <v>0</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
+      <c r="G28" s="23">
+        <v>0</v>
+      </c>
+      <c r="H28" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A29" s="16">
         <v>43951</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="26">
         <v>1.13618</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="21">
         <v>1.0066833200000003</v>
       </c>
-      <c r="D29" s="21">
-        <v>0</v>
-      </c>
-      <c r="E29" s="22">
-        <v>0</v>
-      </c>
-      <c r="F29" s="22">
-        <v>0</v>
-      </c>
-      <c r="G29" s="22">
-        <v>0</v>
-      </c>
-      <c r="H29" s="22">
+      <c r="D29" s="22">
+        <v>0</v>
+      </c>
+      <c r="E29" s="23">
+        <v>0</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0</v>
+      </c>
+      <c r="G29" s="23">
+        <v>0</v>
+      </c>
+      <c r="H29" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A30" s="16">
         <v>43980</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="26">
         <v>1.12294</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="21">
         <v>1.0254032800000001</v>
       </c>
-      <c r="D30" s="21">
-        <v>0</v>
-      </c>
-      <c r="E30" s="22">
-        <v>0</v>
-      </c>
-      <c r="F30" s="22">
-        <v>0</v>
-      </c>
-      <c r="G30" s="22">
-        <v>0</v>
-      </c>
-      <c r="H30" s="22">
+      <c r="D30" s="22">
+        <v>0</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0</v>
+      </c>
+      <c r="F30" s="23">
+        <v>0</v>
+      </c>
+      <c r="G30" s="23">
+        <v>0</v>
+      </c>
+      <c r="H30" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A31" s="16">
         <v>44012</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="26">
         <v>1.25214</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="21">
         <v>1.0521240799999996</v>
       </c>
-      <c r="D31" s="21">
-        <v>0</v>
-      </c>
-      <c r="E31" s="22">
-        <v>0</v>
-      </c>
-      <c r="F31" s="22">
-        <v>0</v>
-      </c>
-      <c r="G31" s="22">
-        <v>0</v>
-      </c>
-      <c r="H31" s="22">
+      <c r="D31" s="22">
+        <v>0</v>
+      </c>
+      <c r="E31" s="23">
+        <v>0</v>
+      </c>
+      <c r="F31" s="23">
+        <v>0</v>
+      </c>
+      <c r="G31" s="23">
+        <v>0</v>
+      </c>
+      <c r="H31" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A32" s="16">
         <v>44043</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="26">
         <v>1.3561700000000001</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="21">
         <v>1.09524756</v>
       </c>
-      <c r="D32" s="21">
-        <v>0</v>
-      </c>
-      <c r="E32" s="22">
-        <v>0</v>
-      </c>
-      <c r="F32" s="22">
-        <v>0</v>
-      </c>
-      <c r="G32" s="22">
-        <v>0</v>
-      </c>
-      <c r="H32" s="22">
+      <c r="D32" s="22">
+        <v>0</v>
+      </c>
+      <c r="E32" s="23">
+        <v>0</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0</v>
+      </c>
+      <c r="G32" s="23">
+        <v>0</v>
+      </c>
+      <c r="H32" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A33" s="16">
         <v>44074</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="26">
         <v>1.35833</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="21">
         <v>1.1352650000000004</v>
       </c>
-      <c r="D33" s="21">
-        <v>0</v>
-      </c>
-      <c r="E33" s="22">
-        <v>0</v>
-      </c>
-      <c r="F33" s="22">
-        <v>0</v>
-      </c>
-      <c r="G33" s="22">
-        <v>0</v>
-      </c>
-      <c r="H33" s="22">
+      <c r="D33" s="22">
+        <v>0</v>
+      </c>
+      <c r="E33" s="23">
+        <v>0</v>
+      </c>
+      <c r="F33" s="23">
+        <v>0</v>
+      </c>
+      <c r="G33" s="23">
+        <v>0</v>
+      </c>
+      <c r="H33" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A34" s="16">
         <v>44104</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="26">
         <v>1.2336199999999999</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="21">
         <v>1.1624354799999996</v>
       </c>
-      <c r="D34" s="21">
-        <v>0</v>
-      </c>
-      <c r="E34" s="22">
-        <v>0</v>
-      </c>
-      <c r="F34" s="22">
-        <v>0</v>
-      </c>
-      <c r="G34" s="22">
-        <v>0</v>
-      </c>
-      <c r="H34" s="22">
+      <c r="D34" s="22">
+        <v>0</v>
+      </c>
+      <c r="E34" s="23">
+        <v>0</v>
+      </c>
+      <c r="F34" s="23">
+        <v>0</v>
+      </c>
+      <c r="G34" s="23">
+        <v>0</v>
+      </c>
+      <c r="H34" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="8"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
+    <row r="35" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A35" s="16">
         <v>44134</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="26">
         <v>1.2367600000000001</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="21">
         <v>1.1809904399999995</v>
       </c>
-      <c r="D35" s="21">
-        <v>0</v>
-      </c>
-      <c r="E35" s="22">
-        <v>0</v>
-      </c>
-      <c r="F35" s="22">
-        <v>0</v>
-      </c>
-      <c r="G35" s="22">
-        <v>0</v>
-      </c>
-      <c r="H35" s="22">
+      <c r="D35" s="22">
+        <v>0</v>
+      </c>
+      <c r="E35" s="23">
+        <v>0</v>
+      </c>
+      <c r="F35" s="23">
+        <v>0</v>
+      </c>
+      <c r="G35" s="23">
+        <v>0</v>
+      </c>
+      <c r="H35" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A36" s="16">
         <v>44165</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="26">
         <v>1.23942</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="21">
         <v>1.2036349600000003</v>
       </c>
-      <c r="D36" s="21">
-        <v>0</v>
-      </c>
-      <c r="E36" s="22">
-        <v>0</v>
-      </c>
-      <c r="F36" s="22">
-        <v>0</v>
-      </c>
-      <c r="G36" s="22">
-        <v>0</v>
-      </c>
-      <c r="H36" s="22">
+      <c r="D36" s="22">
+        <v>0</v>
+      </c>
+      <c r="E36" s="23">
+        <v>0</v>
+      </c>
+      <c r="F36" s="23">
+        <v>0</v>
+      </c>
+      <c r="G36" s="23">
+        <v>0</v>
+      </c>
+      <c r="H36" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A37" s="16">
         <v>44196</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="26">
         <v>1.2531099999999999</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="21">
         <v>1.2247530400000011</v>
       </c>
-      <c r="D37" s="21">
-        <v>0</v>
-      </c>
-      <c r="E37" s="22">
-        <v>0</v>
-      </c>
-      <c r="F37" s="22">
-        <v>0</v>
-      </c>
-      <c r="G37" s="22">
-        <v>0</v>
-      </c>
-      <c r="H37" s="22">
+      <c r="D37" s="22">
+        <v>0</v>
+      </c>
+      <c r="E37" s="23">
+        <v>0</v>
+      </c>
+      <c r="F37" s="23">
+        <v>0</v>
+      </c>
+      <c r="G37" s="23">
+        <v>0</v>
+      </c>
+      <c r="H37" s="23">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="23">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A38" s="16">
         <v>44225</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="26">
         <v>1.2375</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="21">
         <v>1.2398494000000004</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="22">
         <v>3.6415700000006046</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="23">
         <v>2.9426828282833166</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="23">
         <v>2.9426828282833166</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="23">
         <v>3.6415700000006046</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="23">
         <v>1628.6208360000048</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="23">
         <v>2163.9518845693706</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="23">
         <v>535.33104856936575</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A39" s="16">
         <v>44253</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="26">
         <v>1.23967</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="21">
         <v>1.2465734400000006</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="22">
         <v>10.700332000000834</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="23">
         <v>8.6315971185886848</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="23">
         <v>11.574279946872002</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="23">
         <v>14.348287621738816</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="23">
         <v>1639.3211680000056</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="23">
         <v>2174.6586021911089</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J39" s="23">
         <v>535.33743419110328</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15">
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A40" s="16">
         <v>44286</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="26">
         <v>1.15709</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="21">
         <v>1.2413199199999996</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="22">
         <v>130.55637599999943</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="23">
         <v>112.83165181619358</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="23">
         <v>124.40593176306558</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="23">
         <v>143.94885958372555</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="23">
         <v>1769.8775440000049</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="23">
         <v>2304.2591741530955</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="23">
         <v>534.38163015309055</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15">
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A41" s="16">
         <v>44316</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="26">
         <v>1.17998</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="21">
         <v>1.2470086399999996</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="22">
         <v>103.89439199999927</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="23">
         <v>88.047587247240855</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="23">
         <v>212.45351901030642</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="23">
         <v>250.69090336178138</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="23">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="23">
         <v>2411.0012179311511</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="23">
         <v>537.22928193114694</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A42" s="16">
         <v>44347</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="26">
         <v>1.2623</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="21">
         <v>1.2505698399999998</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="22">
         <v>-18.18174800000024</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="23">
         <v>-14.403666323378152</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="23">
         <v>198.04985268692826</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="23">
         <v>249.99832904670953</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="23">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="23">
         <v>2428.4903916160797</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J42" s="23">
         <v>554.71845561607552</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="22">
         <v>2178.4920625693703</v>
       </c>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A43" s="16">
         <v>44377</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="26">
         <v>1.33643</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="21">
         <v>1.261064600000001</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="22">
         <v>-116.8163699999985</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="23">
         <v>-87.409269471650958</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="23">
         <v>110.6405832152773</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="23">
         <v>147.86339462639305</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="23">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="23">
         <v>2443.171827195762</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="23">
         <v>569.39989119575785</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="22">
         <v>2295.308432569369</v>
       </c>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A44" s="16">
         <v>44407</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B44" s="26">
         <v>1.28626</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="21">
         <v>1.2582182800000008</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="22">
         <v>-43.464665999998701</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="23">
         <v>-33.791508715188769</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="23">
         <v>76.849074500088534</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="23">
         <v>98.847890566483869</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="23">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="23">
         <v>2437.6209891358512</v>
       </c>
-      <c r="J44" s="22">
+      <c r="J44" s="23">
         <v>563.84905313584704</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44" s="22">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A45" s="16">
         <v>44439</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="26">
         <v>1.2177899999999999</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="21">
         <v>1.2513532000000005</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="22">
         <v>52.022960000000886</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="23">
         <v>42.719155190961402</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="23">
         <v>119.56822969104994</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="23">
         <v>145.6089944354637</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="23">
         <v>1925.7948960000051</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="23">
         <v>2484.3820930048309</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J45" s="23">
         <v>558.58719700482584</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="22">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A46" s="16">
         <v>44469</v>
       </c>
-      <c r="B46" s="25">
+      <c r="B46" s="26">
         <v>1.20347</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="21">
         <v>1.2445208000000001</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="22">
         <v>63.628740000000086</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="23">
         <v>52.871064505139373</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="23">
         <v>172.43929419618931</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46" s="23">
         <v>207.52551738628796</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H46" s="23">
         <v>1989.4236360000052</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46" s="23">
         <v>2546.2986159556554</v>
       </c>
-      <c r="J46" s="22">
+      <c r="J46" s="23">
         <v>556.87497995565013</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="22">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A47" s="16">
         <v>44498</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47" s="26">
         <v>1.1970999999999998</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="21">
         <v>1.2406920799999999</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="22">
         <v>67.567724000000055</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="23">
         <v>56.442840197143148</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="23">
         <v>228.88213439333245</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="23">
         <v>273.99480308225822</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="23">
         <v>2056.9913600000054</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="23">
         <v>2612.7679016516258</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="23">
         <v>555.77654165162039</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="22">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A48" s="16">
         <v>44530</v>
       </c>
-      <c r="B48" s="25">
+      <c r="B48" s="26">
         <v>1.23373</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="21">
         <v>1.2385180400000004</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="22">
         <v>7.4214620000006786</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="23">
         <v>6.0154669173973874</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="23">
         <v>234.89760131072984</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G48" s="23">
         <v>289.80021766508673</v>
       </c>
-      <c r="H48" s="22">
+      <c r="H48" s="23">
         <v>2064.4128220000061</v>
       </c>
-      <c r="I48" s="22">
+      <c r="I48" s="23">
         <v>2628.5733162344541</v>
       </c>
-      <c r="J48" s="22">
+      <c r="J48" s="23">
         <v>564.16049423444792</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="22">
         <v>2338.7730985693674</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15">
+    <row r="49" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A49" s="16">
         <v>44561</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B49" s="26">
         <v>1.2554100000000001</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="21">
         <v>1.2381657600000016</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="22">
         <v>-26.728571999997797</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="23">
         <v>-21.290711401054473</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="23">
         <v>213.60688990967537</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="23">
         <v>268.16422566150561</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="23">
         <v>2064.4128220000061</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I49" s="23">
         <v>2633.6658962308707</v>
       </c>
-      <c r="J49" s="22">
+      <c r="J49" s="23">
         <v>569.25307423086451</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15">
+    <row r="50" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A50" s="16">
         <v>44589</v>
       </c>
-      <c r="B50" s="25">
+      <c r="B50" s="26">
         <v>1.11076</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="21">
         <v>1.2355355200000004</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="22">
         <v>193.40205600000073</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="23">
         <v>174.11687133134137</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="23">
         <v>387.72376124101675</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="23">
         <v>430.66804503607176</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="23">
         <v>2257.814878000007</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="23">
         <v>2796.169715605437</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="23">
         <v>538.35483760543002</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15">
+    <row r="51" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A51" s="16">
         <v>44620</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="26">
         <v>1.15177</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="21">
         <v>1.2277890400000004</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="22">
         <v>117.82951200000075</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="23">
         <v>102.30298757564509</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="23">
         <v>490.02674881666184</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G51" s="23">
         <v>564.39810848456659</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="23">
         <v>2375.6443900000077</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I51" s="23">
         <v>2929.8997790539315</v>
       </c>
-      <c r="J51" s="22">
+      <c r="J51" s="23">
         <v>554.25538905392386</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
+    <row r="52" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A52" s="16">
         <v>44651</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="26">
         <v>1.0468499999999998</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="21">
         <v>1.2143669200000002</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="22">
         <v>259.65122600000063</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="23">
         <v>248.03097482925031</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="23">
         <v>738.05772364591212</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G52" s="23">
         <v>772.63572799872293</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="23">
         <v>2635.2956160000085</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="23">
         <v>3138.137398568088</v>
       </c>
-      <c r="J52" s="22">
+      <c r="J52" s="23">
         <v>502.84178256807945</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15">
+    <row r="53" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A53" s="16">
         <v>44680</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B53" s="26">
         <v>0.83169999999999999</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="21">
         <v>1.1967078799999999</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="22">
         <v>565.76221399999997</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="23">
         <v>680.24794276782495</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="23">
         <v>1418.3056664137371</v>
       </c>
-      <c r="G53" s="22">
+      <c r="G53" s="23">
         <v>1179.6048227563051</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H53" s="23">
         <v>3201.0578300000084</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I53" s="23">
         <v>3545.1064933256703</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J53" s="23">
         <v>344.04866332566189</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15">
+    <row r="54" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A54" s="16">
         <v>44712</v>
       </c>
-      <c r="B54" s="25">
+      <c r="B54" s="26">
         <v>0.90644000000000002</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="21">
         <v>1.1734625999999997</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="22">
         <v>413.88502999999946</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E54" s="23">
         <v>456.60499316005411</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="23">
         <v>1874.9106595737912</v>
       </c>
-      <c r="G54" s="22">
+      <c r="G54" s="23">
         <v>1699.4940182640673</v>
       </c>
-      <c r="H54" s="22">
+      <c r="H54" s="23">
         <v>3614.9428600000078</v>
       </c>
-      <c r="I54" s="22">
+      <c r="I54" s="23">
         <v>4064.9956888334327</v>
       </c>
-      <c r="J54" s="22">
+      <c r="J54" s="23">
         <v>450.05282883342488</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15">
+    <row r="55" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A55" s="16">
         <v>44742</v>
       </c>
-      <c r="B55" s="25">
+      <c r="B55" s="26">
         <v>0.99066999999999994</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="21">
         <v>1.1480034399999997</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="22">
         <v>243.86683199999956</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E55" s="23">
         <v>246.16353780774585</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="23">
         <v>2121.074197381537</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G55" s="23">
         <v>2101.284575119967</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H55" s="23">
         <v>3858.8096920000075</v>
       </c>
-      <c r="I55" s="22">
+      <c r="I55" s="23">
         <v>4466.7862456893326</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J55" s="23">
         <v>607.9765536893251</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15">
+    <row r="56" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A56" s="16">
         <v>44771</v>
       </c>
-      <c r="B56" s="25">
+      <c r="B56" s="26">
         <v>1.01267</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="21">
         <v>1.1203607999999998</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="22">
         <v>166.9207399999998</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E56" s="23">
         <v>164.83231457434289</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="23">
         <v>2285.90651195588</v>
       </c>
-      <c r="G56" s="22">
+      <c r="G56" s="23">
         <v>2314.8689474623607</v>
       </c>
-      <c r="H56" s="22">
+      <c r="H56" s="23">
         <v>4025.7304320000076</v>
       </c>
-      <c r="I56" s="22">
+      <c r="I56" s="23">
         <v>4680.3706180317258</v>
       </c>
-      <c r="J56" s="22">
+      <c r="J56" s="23">
         <v>654.64018603171826</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15">
+    <row r="57" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A57" s="16">
         <v>44804</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B57" s="26">
         <v>0.95750000000000002</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="21">
         <v>1.0959177199999997</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="22">
         <v>214.54746599999942</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E57" s="23">
         <v>224.07046057441192</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="23">
         <v>2509.9769725302917</v>
       </c>
-      <c r="G57" s="22">
+      <c r="G57" s="23">
         <v>2403.3029511977543</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H57" s="23">
         <v>4240.2778980000066</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I57" s="23">
         <v>4768.8046217671199</v>
       </c>
-      <c r="J57" s="22">
+      <c r="J57" s="23">
         <v>528.52672376711325</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K57" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15">
+    <row r="58" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A58" s="16">
         <v>44834</v>
       </c>
-      <c r="B58" s="25">
+      <c r="B58" s="26">
         <v>0.85887999999999998</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="21">
         <v>1.06964792</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="22">
         <v>326.69027599999998</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E58" s="23">
         <v>380.36777663934424</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="23">
         <v>2890.3447491696361</v>
       </c>
-      <c r="G58" s="22">
+      <c r="G58" s="23">
         <v>2482.459298166817</v>
       </c>
-      <c r="H58" s="22">
+      <c r="H58" s="23">
         <v>4566.9681740000069</v>
       </c>
-      <c r="I58" s="22">
+      <c r="I58" s="23">
         <v>4847.9609687361826</v>
       </c>
-      <c r="J58" s="22">
+      <c r="J58" s="23">
         <v>280.99279473617571</v>
       </c>
-      <c r="K58" s="21">
+      <c r="K58" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15">
+    <row r="59" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A59" s="16">
         <v>44865</v>
       </c>
-      <c r="B59" s="25">
+      <c r="B59" s="26">
         <v>0.96957000000000004</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="21">
         <v>1.0512867600000002</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="22">
         <v>126.66097800000026</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E59" s="23">
         <v>130.63623874501093</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="23">
         <v>3020.9809879146469</v>
       </c>
-      <c r="G59" s="22">
+      <c r="G59" s="23">
         <v>2929.0525364524042</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H59" s="23">
         <v>4693.6291520000068</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I59" s="23">
         <v>5294.5542070217689</v>
       </c>
-      <c r="J59" s="22">
+      <c r="J59" s="23">
         <v>600.92505502176209</v>
       </c>
-      <c r="K59" s="21">
+      <c r="K59" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15">
+    <row r="60" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A60" s="16">
         <v>44895</v>
       </c>
-      <c r="B60" s="25">
+      <c r="B60" s="26">
         <v>0.99405999999999994</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="21">
         <v>1.0324731600000001</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="22">
         <v>59.540398000000259</v>
       </c>
-      <c r="E60" s="22">
+      <c r="E60" s="23">
         <v>59.896181317023384</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F60" s="23">
         <v>3080.8771692316705</v>
       </c>
-      <c r="G60" s="22">
+      <c r="G60" s="23">
         <v>3062.5767588464341</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H60" s="23">
         <v>4753.1695500000069</v>
       </c>
-      <c r="I60" s="22">
+      <c r="I60" s="23">
         <v>5428.0784294157993</v>
       </c>
-      <c r="J60" s="22">
+      <c r="J60" s="23">
         <v>674.9088794157924</v>
       </c>
-      <c r="K60" s="21">
+      <c r="K60" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="15">
+    <row r="61" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A61" s="16">
         <v>44925</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="26">
         <v>0.95635000000000003</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="21">
         <v>1.0098818000000001</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="22">
         <v>82.974290000000025</v>
       </c>
-      <c r="E61" s="22">
+      <c r="E61" s="23">
         <v>86.761426256077812</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="23">
         <v>3167.6385954877483</v>
       </c>
-      <c r="G61" s="22">
+      <c r="G61" s="23">
         <v>3029.3711707947082</v>
       </c>
-      <c r="H61" s="22">
+      <c r="H61" s="23">
         <v>4836.143840000007</v>
       </c>
-      <c r="I61" s="22">
+      <c r="I61" s="23">
         <v>5394.8728413640729</v>
       </c>
-      <c r="J61" s="22">
+      <c r="J61" s="23">
         <v>558.72900136406588</v>
       </c>
-      <c r="K61" s="21">
+      <c r="K61" s="22">
         <v>2365.5016705693652</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15">
+    <row r="62" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A62" s="16">
         <v>44957</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B62" s="26">
         <v>1.08087</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="21">
         <v>0.99600491999999985</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="22">
         <v>-131.54087400000023</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E62" s="23">
         <v>-121.69907019345548</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="23">
         <v>3045.9395252942927</v>
       </c>
-      <c r="G62" s="22">
+      <c r="G62" s="23">
         <v>3292.2646547048421</v>
       </c>
-      <c r="H62" s="22">
+      <c r="H62" s="23">
         <v>4836.143840000007</v>
       </c>
-      <c r="I62" s="22">
+      <c r="I62" s="23">
         <v>5789.307199274208</v>
       </c>
-      <c r="J62" s="22">
+      <c r="J62" s="23">
         <v>953.16335927420096</v>
       </c>
-      <c r="K62" s="21">
+      <c r="K62" s="22">
         <v>2497.0425445693654</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15">
+    <row r="63" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A63" s="16">
         <v>44985</v>
       </c>
-      <c r="B63" s="25">
+      <c r="B63" s="26">
         <v>1.16859</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="21">
         <v>0.99612511999999998</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="22">
         <v>-267.32056400000005</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E63" s="23">
         <v>-228.75479338347927</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="23">
         <v>2817.1847319108133</v>
       </c>
-      <c r="G63" s="22">
+      <c r="G63" s="23">
         <v>3292.1339058636572</v>
       </c>
-      <c r="H63" s="22">
+      <c r="H63" s="23">
         <v>4836.143840000007</v>
       </c>
-      <c r="I63" s="22">
+      <c r="I63" s="23">
         <v>6056.4970144330227</v>
       </c>
-      <c r="J63" s="22">
+      <c r="J63" s="23">
         <v>1220.3531744330157</v>
       </c>
-      <c r="K63" s="21">
+      <c r="K63" s="22">
         <v>2764.3631085693655</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15">
+    <row r="64" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A64" s="16">
         <v>45016</v>
       </c>
-      <c r="B64" s="25">
+      <c r="B64" s="26">
         <v>1.2989900000000001</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="21">
         <v>1.0068202799999997</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="22">
         <v>-452.86306600000063</v>
       </c>
-      <c r="E64" s="22">
+      <c r="E64" s="23">
         <v>-348.62706102433475</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="23">
         <v>2468.5576708864787</v>
       </c>
-      <c r="G64" s="22">
+      <c r="G64" s="23">
         <v>3206.631728904827</v>
       </c>
-      <c r="H64" s="22">
+      <c r="H64" s="23">
         <v>4836.143840000007</v>
       </c>
-      <c r="I64" s="22">
+      <c r="I64" s="23">
         <v>6423.8579034741933</v>
       </c>
-      <c r="J64" s="22">
+      <c r="J64" s="23">
         <v>1587.7140634741863</v>
       </c>
-      <c r="K64" s="21">
+      <c r="K64" s="22">
         <v>3217.2261745693663</v>
       </c>
+    </row>
+    <row r="65" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A65" s="16">
+        <v>45044</v>
+      </c>
+      <c r="B65" s="26">
+        <v>1.22841</v>
+      </c>
+      <c r="C65" s="21">
+        <v>1.0281103199999995</v>
+      </c>
+      <c r="D65" s="22">
+        <v>-310.46450400000083</v>
+      </c>
+      <c r="E65" s="23">
+        <v>-252.73687449630077</v>
+      </c>
+      <c r="F65" s="23">
+        <v>2215.8207963901777</v>
+      </c>
+      <c r="G65" s="23">
+        <v>2721.9364244936583</v>
+      </c>
+      <c r="H65" s="23">
+        <v>4836.143840000007</v>
+      </c>
+      <c r="I65" s="23">
+        <v>6249.6271030630251</v>
+      </c>
+      <c r="J65" s="23">
+        <v>1413.4832630630181</v>
+      </c>
+      <c r="K65" s="22">
+        <v>3527.6906785693673</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="67" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="68" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="69" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="70" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="71" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="72" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="73" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="74" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="75" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="76" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="77" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="78" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="79" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="80" spans="1:11" ht="14.1" customHeight="1"/>
+    <row r="81" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="82" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="83" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="84" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="85" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="86" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="87" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="88" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="89" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="90" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="91" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="92" spans="12:15" ht="14.1" customHeight="1"/>
+    <row r="93" spans="12:15" ht="14.1" customHeight="1">
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L94" s="8"/>
+    </row>
+    <row r="95" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L95" s="8"/>
+    </row>
+    <row r="96" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L96" s="8"/>
+    </row>
+    <row r="97" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L97" s="8"/>
+    </row>
+    <row r="98" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L98" s="8"/>
+    </row>
+    <row r="99" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L99" s="8"/>
+    </row>
+    <row r="100" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L100" s="8"/>
+    </row>
+    <row r="101" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L101" s="8"/>
+    </row>
+    <row r="102" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L102" s="8"/>
+    </row>
+    <row r="103" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L103" s="8"/>
+    </row>
+    <row r="104" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L104" s="8"/>
+    </row>
+    <row r="105" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L105" s="8"/>
+      <c r="O105" s="3"/>
+    </row>
+    <row r="106" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L106" s="8"/>
+    </row>
+    <row r="107" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L107" s="8"/>
+    </row>
+    <row r="108" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L108" s="8"/>
+    </row>
+    <row r="109" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L109" s="8"/>
+    </row>
+    <row r="110" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L110" s="8"/>
+    </row>
+    <row r="111" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L111" s="8"/>
+    </row>
+    <row r="112" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L112" s="8"/>
+    </row>
+    <row r="113" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L113" s="8"/>
+    </row>
+    <row r="114" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L114" s="8"/>
+    </row>
+    <row r="115" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L115" s="8"/>
+    </row>
+    <row r="116" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L116" s="8"/>
+    </row>
+    <row r="117" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L117" s="8"/>
+      <c r="O117" s="3"/>
+    </row>
+    <row r="118" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L118" s="8"/>
+    </row>
+    <row r="119" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L119" s="8"/>
+    </row>
+    <row r="120" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L120" s="8"/>
+    </row>
+    <row r="121" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L121" s="8"/>
+    </row>
+    <row r="122" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L122" s="8"/>
+    </row>
+    <row r="123" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L123" s="8"/>
+    </row>
+    <row r="124" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L124" s="8"/>
+    </row>
+    <row r="125" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L125" s="8"/>
+    </row>
+    <row r="126" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L126" s="8"/>
+    </row>
+    <row r="127" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L127" s="8"/>
+    </row>
+    <row r="128" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L128" s="8"/>
+    </row>
+    <row r="129" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L129" s="8"/>
+      <c r="O129" s="3"/>
+    </row>
+    <row r="130" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L130" s="8"/>
+    </row>
+    <row r="131" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L131" s="8"/>
+    </row>
+    <row r="132" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L132" s="8"/>
+    </row>
+    <row r="133" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L133" s="8"/>
+    </row>
+    <row r="134" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L134" s="8"/>
+    </row>
+    <row r="135" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L135" s="8"/>
+    </row>
+    <row r="136" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L136" s="8"/>
+    </row>
+    <row r="137" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L137" s="8"/>
+    </row>
+    <row r="138" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L138" s="8"/>
+    </row>
+    <row r="139" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L139" s="8"/>
+    </row>
+    <row r="140" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L140" s="8"/>
+    </row>
+    <row r="141" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L141" s="8"/>
+      <c r="O141" s="3"/>
+    </row>
+    <row r="142" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L142" s="8"/>
+    </row>
+    <row r="143" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L143" s="8"/>
+    </row>
+    <row r="144" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L144" s="8"/>
+    </row>
+    <row r="145" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L145" s="8"/>
+    </row>
+    <row r="146" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L146" s="8"/>
+    </row>
+    <row r="147" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L147" s="8"/>
+    </row>
+    <row r="148" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L148" s="8"/>
+    </row>
+    <row r="149" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L149" s="8"/>
+    </row>
+    <row r="150" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L150" s="8"/>
+    </row>
+    <row r="151" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L151" s="8"/>
+    </row>
+    <row r="152" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L152" s="8"/>
+    </row>
+    <row r="153" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L153" s="8"/>
+      <c r="O153" s="3"/>
+    </row>
+    <row r="154" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L154" s="8"/>
+    </row>
+    <row r="155" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L155" s="8"/>
+    </row>
+    <row r="156" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L156" s="8"/>
+    </row>
+    <row r="157" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L157" s="8"/>
+    </row>
+    <row r="158" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L158" s="8"/>
+    </row>
+    <row r="159" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L159" s="8"/>
+    </row>
+    <row r="160" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L160" s="8"/>
+    </row>
+    <row r="161" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L161" s="8"/>
+    </row>
+    <row r="162" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L162" s="8"/>
+    </row>
+    <row r="163" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L163" s="8"/>
+    </row>
+    <row r="164" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L164" s="8"/>
+    </row>
+    <row r="165" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L165" s="8"/>
+      <c r="O165" s="3"/>
+    </row>
+    <row r="166" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L166" s="8"/>
+    </row>
+    <row r="167" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L167" s="8"/>
+    </row>
+    <row r="168" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L168" s="8"/>
+    </row>
+    <row r="169" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L169" s="4"/>
+    </row>
+    <row r="170" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L170" s="4"/>
+    </row>
+    <row r="171" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L171" s="4"/>
+    </row>
+    <row r="172" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L172" s="4"/>
+    </row>
+    <row r="173" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L173" s="4"/>
+    </row>
+    <row r="174" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L174" s="4"/>
+    </row>
+    <row r="175" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L175" s="4"/>
+    </row>
+    <row r="176" spans="12:15" ht="14.1" customHeight="1">
+      <c r="L176" s="4"/>
+    </row>
+    <row r="177" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L177" s="4"/>
+    </row>
+    <row r="178" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L178" s="4"/>
+    </row>
+    <row r="179" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L179" s="4"/>
+    </row>
+    <row r="180" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L180" s="4"/>
+    </row>
+    <row r="181" spans="12:12" ht="14.1" customHeight="1">
+      <c r="L181" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -11,8 +11,8 @@
     <sheet name="模型二 (1)MA250" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'模型二 (1)MA250'!$O$1:$O$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'模型二 (1)平均线'!$O$1:$O$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'模型二 (1)MA250'!$O$1:$O$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'模型二 (1)平均线'!$O$1:$O$77</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('模型二 (1)MA250'!J1,0,0,COUNTA('模型二 (1)MA250'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('模型二 (1)平均线'!J1,0,0,COUNTA('模型二 (1)平均线'!J:J)-1)</definedName>
     <definedName name="时间" localSheetId="1">OFFSET('模型二 (1)MA250'!A1,0,0,COUNTA('模型二 (1)MA250'!A:A)-1)</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -109,48 +109,8 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年投入本金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计投入本金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总资产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈利金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收资金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年化收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -503,14 +463,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2213,11 +2172,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82103296"/>
-        <c:axId val="388120576"/>
+        <c:axId val="103043072"/>
+        <c:axId val="110822528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="82103296"/>
+        <c:axId val="103043072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2260,14 +2219,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388120576"/>
+        <c:crossAx val="110822528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="388120576"/>
+        <c:axId val="110822528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,7 +2275,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82103296"/>
+        <c:crossAx val="103043072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3777,11 +3736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="522899840"/>
-        <c:axId val="522901760"/>
+        <c:axId val="431296896"/>
+        <c:axId val="431298432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="522899840"/>
+        <c:axId val="431296896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3824,14 +3783,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522901760"/>
+        <c:crossAx val="431298432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="522901760"/>
+        <c:axId val="431298432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3880,7 +3839,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522899840"/>
+        <c:crossAx val="431296896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3988,7 +3947,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4031,7 +3990,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4342,7 +4301,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF181"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4382,151 +4341,151 @@
     <col min="52" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:32" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="25"/>
-      <c r="M2" s="20"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:32" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="24"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
         <v>1550</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
         <f>MIN(F:F)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="9"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>42825</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>0.97609000000000001</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>0.99386428571428564</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>27.550142857142728</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>28.225002671006493</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>28.225002671006493</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <v>27.550142857142728</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>27.550142857142728</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <v>27.550142857142728</v>
       </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="O4" s="27" t="s">
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="O4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <v>43098</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <f>VLOOKUP(X4,O:P,2,)</f>
         <v>304.12500617544276</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="7">
         <f t="shared" ref="Z4:Z5" si="0">0-Y4</f>
         <v>-304.12500617544276</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="6">
         <v>43098</v>
       </c>
       <c r="AB4" s="1">
@@ -4537,89 +4496,89 @@
         <f t="shared" ref="AC4" si="1">0-AB4</f>
         <v>-304.12500617544276</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4" s="6">
         <v>43098</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE4" s="7">
         <f>VLOOKUP(AD4,O:P,2,)</f>
         <v>304.12500617544276</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF4" s="7">
         <f t="shared" ref="AF4" si="2">0-AE4</f>
         <v>-304.12500617544276</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>42853</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>0.88445000000000007</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>0.95655781250000005</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>111.76710937499996</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>126.36905350782968</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>154.59405617883618</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <v>136.73071298737167</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>139.31725223214269</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <v>136.73071298737167</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>-2.5865392447710178</v>
       </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="O5" s="7">
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="O5" s="6">
         <v>43098</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>304.12500617544276</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>304.12500617544276</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>328.80443799445595</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>24.679431819013189</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <v>251.21204627564666</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="9">
         <v>8.1148972685186532E-2</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="9">
         <v>8.1148972685186532E-2</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>43462</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="7">
         <f>VLOOKUP(X5,O:P,2,)</f>
         <v>1807.7843670854991</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="7">
         <f t="shared" si="0"/>
         <v>-1807.7843670854991</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="6">
         <v>43462</v>
       </c>
       <c r="AB5" s="1">
@@ -4630,84 +4589,84 @@
         <f t="shared" ref="AC5:AC6" si="3">0-AB5</f>
         <v>-1807.7843670854991</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="6">
         <v>43462</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="7">
         <f>VLOOKUP(AD5,O:P,2,)</f>
         <v>1807.7843670854991</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="7">
         <f t="shared" ref="AF5:AF7" si="4">0-AE5</f>
         <v>-1807.7843670854991</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>42886</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>0.84275</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>0.91796173076923115</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>116.57818269230829</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>138.33068251831301</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>292.92473869714922</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>246.86232353702252</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>255.89543492445097</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>246.86232353702252</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>-9.0331113874284483</v>
       </c>
-      <c r="K6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="O6" s="7">
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="O6" s="6">
         <v>43462</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>1807.7843670854991</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>2111.9093732609417</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>1961.8999213933344</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>-150.00945186760737</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>317.52088040945171</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="9">
         <v>-7.1030250524425617E-2</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="9">
         <v>-6.2582124461404876E-2</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>43462</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="7">
         <v>1961.8999213933344</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="6">
         <v>43830</v>
       </c>
       <c r="AB6" s="1">
@@ -4718,226 +4677,226 @@
         <f t="shared" si="3"/>
         <v>-287.98245355098834</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="6">
         <v>43830</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="7">
         <f>VLOOKUP(AD6,O:P,2,)</f>
         <v>287.98245355098834</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="7">
         <f t="shared" si="4"/>
         <v>-287.98245355098834</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>42916</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>0.91246000000000005</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>0.90437932432432466</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>-12.525047297296849</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>-13.726680947435337</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>279.19805774971388</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>254.75705977430394</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>255.89543492445097</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>267.28210707160076</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>11.386672147149795</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="21">
         <v>12.525047297296849</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="O7" s="7">
+      <c r="L7" s="7"/>
+      <c r="O7" s="6">
         <v>43830</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="10">
         <v>287.98245355098834</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>3217.6093105743603</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>817.71748376243022</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>1365.8977430166979</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <v>0.34073097571597816</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="9">
         <v>0.15583831681496263</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="8">
         <f>IRR(Z4:Z6)</f>
         <v>-6.2582124461404876E-2</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="6">
         <v>43830</v>
       </c>
       <c r="AC7" s="1">
         <v>3217.6093105743603</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="6">
         <v>44196</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AE7" s="7">
         <f>VLOOKUP(AD7,O:P,2,)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>42947</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>0.89419999999999999</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>0.90019273684210555</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>9.2887421052636032</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>10.38776795489108</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>289.58582570460499</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>258.94764534505777</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>271.47269264235462</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>6.2885156126400261</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="21">
         <v>12.525047297296849</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="O8" s="7">
+      <c r="L8" s="7"/>
+      <c r="O8" s="6">
         <v>44196</v>
       </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>1020.932566047371</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="9">
         <v>0.42540774323299424</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="9">
         <v>0.12448297099432648</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
         <v>0.15583831681496263</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="6">
         <v>44196</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8" s="7">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>42978</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>0.97410000000000008</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>0.90535008474576273</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>-106.56236864406789</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>-109.39571773336195</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>180.19010797124304</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>175.52318417478784</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>294.61060011615257</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>29.426423086437978</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <v>119.08741594136474</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="O9" s="7">
+      <c r="L9" s="7"/>
+      <c r="O9" s="6">
         <v>44561</v>
       </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <v>2399.8918268119301</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>1020.932566047371</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="9">
         <v>0.42540774323299424</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="9">
         <v>0.11623036743162096</v>
       </c>
       <c r="AF9" s="2">
@@ -4946,65 +4905,65 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>43007</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>0.97174000000000005</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>0.91768381294964019</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>-83.787089928057782</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>-86.223773774937513</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>93.966334196305525</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>91.310845591917939</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>294.18535146134047</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>29.001174431625884</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <v>202.87450586942253</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="O10" s="7">
+      <c r="L10" s="7"/>
+      <c r="O10" s="6">
         <v>44925</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="10">
         <v>1191.9854404928446</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>3591.8772673047747</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <v>4692.9521370177645</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <v>1101.0748697129898</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>3420.824392859301</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="9">
         <v>0.30654579423845396</v>
       </c>
-      <c r="V10" s="10">
+      <c r="V10" s="9">
         <v>9.2107928430304797E-2</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="6">
         <v>43098</v>
       </c>
       <c r="Y10" s="1">
@@ -5014,7 +4973,7 @@
         <f>-Y10</f>
         <v>-18.350992705669857</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="6">
         <v>43098</v>
       </c>
       <c r="AB10" s="1">
@@ -5026,41 +4985,41 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>43039</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>0.94596999999999998</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>0.92351769230769187</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>-34.801076923077559</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>-36.788774404132859</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>57.177559792172666</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>54.088256236601573</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>291.76383902910169</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>26.579661999387099</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="21">
         <v>237.67558279250011</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="X11" s="7">
+      <c r="L11" s="7"/>
+      <c r="X11" s="6">
         <v>43462</v>
       </c>
       <c r="Y11" s="1">
@@ -5070,7 +5029,7 @@
         <f>-Y11</f>
         <v>-255.17901000780921</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AA11" s="6">
         <v>43462</v>
       </c>
       <c r="AB11" s="1">
@@ -5082,41 +5041,41 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>43069</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>0.93876000000000004</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>0.93002679775280872</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>-13.536463483146544</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>-14.419514554461783</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>42.758045237710881</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>40.139542547353471</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>265.18417702971459</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>291.35158882300016</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>26.167411793285567</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <v>251.21204627564666</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="X12" s="7">
+      <c r="L12" s="7"/>
+      <c r="X12" s="6">
         <v>43830</v>
       </c>
       <c r="Y12" s="1">
@@ -5126,7 +5085,7 @@
         <f>-Y12</f>
         <v>-51.512876965237467</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="6">
         <v>43830</v>
       </c>
       <c r="AB12" s="1">
@@ -5138,41 +5097,41 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>43098</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>0.90395999999999999</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>0.92908311557788914</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>38.940829145728188</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>43.07804454370568</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>85.836089781416561</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>77.59239171880931</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>304.12500617544276</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>328.80443799445595</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>24.679431819013189</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="21">
         <v>251.21204627564666</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="X13" s="7">
+      <c r="L13" s="7"/>
+      <c r="X13" s="6">
         <v>44196</v>
       </c>
       <c r="Y13" s="1">
@@ -5182,7 +5141,7 @@
         <f>-Y13</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AA13" s="6">
         <v>44196</v>
       </c>
       <c r="AB13" s="1">
@@ -5194,41 +5153,41 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>43131</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>0.86690999999999996</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>0.92713140271493188</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>93.34317420814449</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>107.67343116141755</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>193.50952094283411</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>167.75533880055232</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>397.46818038358725</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>418.96738507619898</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>21.499204692611727</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="21">
         <v>251.21204627564666</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="X14" s="7">
+      <c r="L14" s="7"/>
+      <c r="X14" s="6">
         <v>44561</v>
       </c>
       <c r="Y14" s="1">
@@ -5238,7 +5197,7 @@
         <f>-Y14</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AA14" s="6">
         <v>44561</v>
       </c>
       <c r="AB14" s="1">
@@ -5250,47 +5209,47 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>43159</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>0.8518</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>0.91968983050847442</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>105.22923728813534</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>123.53749388135165</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>317.04701482418579</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>270.06064722724147</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>502.69741767172258</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>521.27269350288816</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <v>18.575275831165584</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <v>251.21204627564666</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="X15" s="7">
+      <c r="L15" s="7"/>
+      <c r="X15" s="6">
         <v>44561</v>
       </c>
       <c r="Z15" s="1">
         <v>499.59426954009558</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AA15" s="6">
         <v>44925</v>
       </c>
       <c r="AB15" s="1">
@@ -5302,45 +5261,45 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>43189</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>0.95575999999999994</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>0.91931608527131781</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>-56.488067829457314</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>-59.102774576731939</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>257.94424024745388</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>246.53278705890651</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>502.69741767172258</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>554.23290116401051</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>51.535483492287938</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <v>307.70011410510398</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
         <v>0.11623036743162096</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AA16" s="6">
         <v>44925</v>
       </c>
       <c r="AC16" s="1">
@@ -5348,2464 +5307,2177 @@
       </c>
     </row>
     <row r="17" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>43217</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>0.92662</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>0.92028402173913049</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>-9.8207663043477442</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>-10.598482985849371</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>247.34575726160452</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>229.19552559374799</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>502.69741767172258</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>546.71640600319972</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>44.018988331477146</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="7"/>
       <c r="AC17" s="2">
         <f>IRR(AC10:AC16)</f>
         <v>9.2107928430304797E-2</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>43251</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>0.88405999999999996</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>0.91991989932885943</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>55.582843959732173</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>62.87225296895253</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>310.21801023055707</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>274.25133412442625</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>558.28026163145478</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>591.77221453387801</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <v>33.491952902423236</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>43280</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>0.81235999999999997</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>0.91462415094339644</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>158.50943396226452</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>195.12215515567547</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>505.34016538623257</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>410.51813675315987</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>716.78969559371933</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>728.03901716261157</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>11.249321568892242</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>43312</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>0.8131799999999999</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>0.90820861764705896</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>147.29435735294155</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>181.13376786559132</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>686.47393325182384</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <v>558.22687304171802</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>864.0840529466609</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>875.74775345116973</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <v>11.663700504508824</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>43343</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>0.77766999999999997</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>0.90034011019283766</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>190.13867079889843</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>244.49788573417831</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>930.97181898600218</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <v>723.98885447084433</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>1054.2227237455593</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>1041.509734880296</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <v>-12.712988865263242</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>43371</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>0.76784000000000008</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>0.8937382984293194</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>195.14236256544496</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>254.14456470807062</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>1185.1163836940727</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>909.97976405565691</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>1249.3650863110042</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>1227.5006444651085</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>-21.864441845895726</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>43404</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>0.67677999999999994</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>0.88415025000000003</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>321.42388750000015</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>474.93112606755545</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>1660.0475097616281</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>1123.4869536564745</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>1570.7889738110043</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <v>1441.0078340659261</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <v>-129.78113974507824</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>43434</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>0.7214299999999999</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>0.87621106635071089</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>239.91065284360204</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>332.54876127081224</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>1992.5962710324404</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <v>1437.5187278109333</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>1810.6996266546064</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <v>1755.0396082203852</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>-55.660018434221229</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L24" s="8"/>
+      <c r="L24" s="7"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>43462</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>0.67408000000000001</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>0.86840886877828072</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>301.2097466063351</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>446.84569577251233</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>2439.4419668049527</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="22">
         <v>1644.3790409838825</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>2111.9093732609417</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="22">
         <v>1961.8999213933344</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>-150.00945186760737</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>43496</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>0.67819000000000007</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>0.86047514038876904</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>282.54196760259191</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>416.61181616153567</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <v>2856.0537829664881</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="22">
         <v>1936.9471150700429</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <v>2394.4513408635335</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <v>2254.4679954794947</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <v>-139.98334538403878</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>43524</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>0.85648000000000002</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>0.8580328242677826</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>2.406877615063002</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>2.8101971033334134</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="22">
         <v>2858.8639800698215</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="22">
         <v>2448.5598216502008</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="22">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="22">
         <v>2766.0807020596526</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>369.22248358105617</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <v>317.52088040945171</v>
       </c>
-      <c r="L27" s="8"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>43553</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>0.94580999999999993</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>0.86124096192384803</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>-131.08200901803545</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="22">
         <v>-138.59232723066521</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="22">
         <v>2720.2716528391566</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="22">
         <v>2572.8601319718023</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="22">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="22">
         <v>3021.4630213992896</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <v>624.60480292069315</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="21">
         <v>448.60288942748718</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>43585</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>0.9108099999999999</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>0.86549344230769254</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>-70.24066442307641</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <v>-77.118899027323394</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="22">
         <v>2643.152753811833</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="22">
         <v>2407.4099596993556</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="22">
         <v>2396.8582184785964</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <v>2926.2535135499193</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <v>529.39529507132283</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="21">
         <v>518.84355385056358</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>43616</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>0.86360000000000003</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>0.86555716666666693</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>3.0336083333336927</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <v>3.5127470279454522</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="22">
         <v>2646.6655008397784</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="22">
         <v>2285.6603265252329</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <v>2804.5038803757966</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="22">
         <v>404.61205356386654</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="21">
         <v>518.84355385056358</v>
       </c>
-      <c r="L30" s="8"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>43644</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>0.88732</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>0.86554053667263009</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <v>-33.758168157423356</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="22">
         <v>-38.045088758760485</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="22">
         <v>2608.620412081018</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="22">
         <v>2314.6810640477288</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <v>2867.2827860557159</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="22">
         <v>467.3909592437858</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="21">
         <v>552.60172200798695</v>
       </c>
-      <c r="L31" s="8"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:29" ht="14.1" customHeight="1">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>43677</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>0.89222000000000001</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>0.86642510309278375</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <v>-39.982090206185198</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22">
         <v>-44.811918816194655</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="22">
         <v>2563.8084932648235</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="22">
         <v>2287.4812138607408</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <v>2880.065026074913</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="22">
         <v>480.17319926298296</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="21">
         <v>592.5838122141721</v>
       </c>
-      <c r="L32" s="8"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>43707</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="25">
         <v>0.92357</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>0.86719825870646772</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <v>-87.376199004975035</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>-94.607013009273828</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="22">
         <v>2469.2014802555495</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="22">
         <v>2280.4804111196181</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="22">
         <v>2960.4404223387655</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="22">
         <v>560.54859552683547</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="21">
         <v>679.96001121914719</v>
       </c>
-      <c r="L33" s="8"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>43738</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="25">
         <v>0.95855999999999997</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>0.87132205457463874</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>-135.21881540930991</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <v>-141.0645295122996</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="22">
         <v>2328.1369507432501</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="22">
         <v>2231.6589555044498</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="22">
         <v>3046.8377821329068</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="22">
         <v>646.94595532097674</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="21">
         <v>815.17882662845705</v>
       </c>
-      <c r="L34" s="8"/>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>43769</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="25">
         <v>0.97238999999999998</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>0.87426804992199714</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <v>-152.08902262090442</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <v>-156.40743181326877</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="22">
         <v>2171.7295189299812</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="22">
         <v>2111.7680669123242</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <v>3079.0359161616857</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="22">
         <v>679.14408934975563</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="21">
         <v>967.26784924936146</v>
       </c>
-      <c r="L35" s="8"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <v>43798</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <v>0.97728999999999999</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>0.87806616314199404</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="21">
         <v>-153.79694712990923</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="22">
         <v>-157.37083888089433</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="22">
         <v>2014.3586800490868</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="22">
         <v>1968.6125944251721</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="22">
         <v>3089.6773908044429</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="22">
         <v>689.78556399251283</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="21">
         <v>1121.0647963792708</v>
       </c>
-      <c r="L36" s="8"/>
+      <c r="L36" s="7"/>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>43830</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="25">
         <v>1.0407999999999999</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>0.8828432602339179</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <v>-244.83294663742717</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="22">
         <v>-235.2353445786195</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="22">
         <v>1779.1233354704673</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="22">
         <v>1851.7115675576622</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="22">
         <v>3217.6093105743603</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="22">
         <v>817.71748376243022</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="21">
         <v>1365.8977430166979</v>
       </c>
-      <c r="L37" s="8"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <v>43853</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="25">
         <v>1.13632</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>0.88820977142857116</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21">
         <v>-384.57085428571469</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>-338.43534768878015</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <v>1440.6879877816871</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <v>1637.0825742760867</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <v>3387.5511715784992</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="22">
         <v>987.65934476656912</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="21">
         <v>1750.4685973024125</v>
       </c>
-      <c r="L38" s="8"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>43889</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <v>1.2075199999999999</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>0.89720491666666646</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <v>-480.98837916666685</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>-398.32746386533296</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <v>1042.3605239163542</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <v>1258.6711798394758</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <v>3490.1281563085554</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="22">
         <v>1090.2363294966253</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K39" s="21">
         <v>2231.4569764690796</v>
       </c>
-      <c r="L39" s="8"/>
+      <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A40" s="16">
+      <c r="A40" s="15">
         <v>43921</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <v>1.0721400000000001</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>0.90529318059299169</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>-258.61257008086301</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>-241.21156759458933</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="22">
         <v>801.1489563217649</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="22">
         <v>858.94384203081711</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <v>3349.0133885807595</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="22">
         <v>949.12156176882945</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="21">
         <v>2490.0695465499425</v>
       </c>
-      <c r="L40" s="8"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A41" s="16">
+      <c r="A41" s="15">
         <v>43951</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <v>1.13618</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>0.91107858453473123</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <v>-348.90719397116652</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="22">
         <v>-307.08795610833363</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <v>494.06100021343127</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="22">
         <v>561.34222722249638</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <v>3400.3189677436058</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="22">
         <v>1000.4271409316757</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="21">
         <v>2838.9767405211091</v>
       </c>
-      <c r="L41" s="8"/>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A42" s="16">
+      <c r="A42" s="15">
         <v>43980</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="25">
         <v>1.12294</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>0.91666642765685002</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="21">
         <v>-319.72403713188254</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="22">
         <v>-284.72049898648419</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="22">
         <v>209.34050122694708</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="22">
         <v>235.07682244778798</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="22">
         <v>3393.7776001007796</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="22">
         <v>993.88577328884958</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K42" s="21">
         <v>3158.7007776529917</v>
       </c>
-      <c r="L42" s="8"/>
+      <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>44012</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="25">
         <v>1.25214</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>0.92355369538077381</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <v>-262.12361520630952</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="22">
         <v>-209.34050122694708</v>
       </c>
-      <c r="F43" s="23">
-        <v>0</v>
-      </c>
-      <c r="G43" s="23">
-        <v>0</v>
-      </c>
-      <c r="H43" s="23">
+      <c r="F43" s="22">
+        <v>0</v>
+      </c>
+      <c r="G43" s="22">
+        <v>0</v>
+      </c>
+      <c r="H43" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K43" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L43" s="8"/>
+      <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A44" s="16">
+      <c r="A44" s="15">
         <v>44043</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="25">
         <v>1.3561700000000001</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>0.93564675970873734</v>
       </c>
-      <c r="D44" s="22">
-        <v>0</v>
-      </c>
-      <c r="E44" s="23">
-        <v>0</v>
-      </c>
-      <c r="F44" s="23">
-        <v>0</v>
-      </c>
-      <c r="G44" s="23">
-        <v>0</v>
-      </c>
-      <c r="H44" s="23">
+      <c r="D44" s="21">
+        <v>0</v>
+      </c>
+      <c r="E44" s="22">
+        <v>0</v>
+      </c>
+      <c r="F44" s="22">
+        <v>0</v>
+      </c>
+      <c r="G44" s="22">
+        <v>0</v>
+      </c>
+      <c r="H44" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K44" s="22">
+      <c r="K44" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L44" s="8"/>
+      <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A45" s="16">
+      <c r="A45" s="15">
         <v>44074</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="25">
         <v>1.35833</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>0.9459795739644965</v>
       </c>
-      <c r="D45" s="22">
-        <v>0</v>
-      </c>
-      <c r="E45" s="23">
-        <v>0</v>
-      </c>
-      <c r="F45" s="23">
-        <v>0</v>
-      </c>
-      <c r="G45" s="23">
-        <v>0</v>
-      </c>
-      <c r="H45" s="23">
+      <c r="D45" s="21">
+        <v>0</v>
+      </c>
+      <c r="E45" s="22">
+        <v>0</v>
+      </c>
+      <c r="F45" s="22">
+        <v>0</v>
+      </c>
+      <c r="G45" s="22">
+        <v>0</v>
+      </c>
+      <c r="H45" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L45" s="8"/>
+      <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A46" s="16">
+      <c r="A46" s="15">
         <v>44104</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="25">
         <v>1.2336199999999999</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>0.95444417531718506</v>
       </c>
-      <c r="D46" s="22">
-        <v>0</v>
-      </c>
-      <c r="E46" s="23">
-        <v>0</v>
-      </c>
-      <c r="F46" s="23">
-        <v>0</v>
-      </c>
-      <c r="G46" s="23">
-        <v>0</v>
-      </c>
-      <c r="H46" s="23">
+      <c r="D46" s="21">
+        <v>0</v>
+      </c>
+      <c r="E46" s="22">
+        <v>0</v>
+      </c>
+      <c r="F46" s="22">
+        <v>0</v>
+      </c>
+      <c r="G46" s="22">
+        <v>0</v>
+      </c>
+      <c r="H46" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K46" s="22">
+      <c r="K46" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L46" s="8"/>
+      <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A47" s="16">
+      <c r="A47" s="15">
         <v>44134</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="25">
         <v>1.2367600000000001</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <v>0.96014630804076961</v>
       </c>
-      <c r="D47" s="22">
-        <v>0</v>
-      </c>
-      <c r="E47" s="23">
-        <v>0</v>
-      </c>
-      <c r="F47" s="23">
-        <v>0</v>
-      </c>
-      <c r="G47" s="23">
-        <v>0</v>
-      </c>
-      <c r="H47" s="23">
+      <c r="D47" s="21">
+        <v>0</v>
+      </c>
+      <c r="E47" s="22">
+        <v>0</v>
+      </c>
+      <c r="F47" s="22">
+        <v>0</v>
+      </c>
+      <c r="G47" s="22">
+        <v>0</v>
+      </c>
+      <c r="H47" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K47" s="22">
+      <c r="K47" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L47" s="8"/>
+      <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A48" s="16">
+      <c r="A48" s="15">
         <v>44165</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="25">
         <v>1.23942</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>0.96710720132743311</v>
       </c>
-      <c r="D48" s="22">
-        <v>0</v>
-      </c>
-      <c r="E48" s="23">
-        <v>0</v>
-      </c>
-      <c r="F48" s="23">
-        <v>0</v>
-      </c>
-      <c r="G48" s="23">
-        <v>0</v>
-      </c>
-      <c r="H48" s="23">
+      <c r="D48" s="21">
+        <v>0</v>
+      </c>
+      <c r="E48" s="22">
+        <v>0</v>
+      </c>
+      <c r="F48" s="22">
+        <v>0</v>
+      </c>
+      <c r="G48" s="22">
+        <v>0</v>
+      </c>
+      <c r="H48" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K48" s="22">
+      <c r="K48" s="21">
         <v>3420.824392859301</v>
       </c>
-      <c r="L48" s="8"/>
+      <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A49" s="16">
+      <c r="A49" s="15">
         <v>44196</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49" s="25">
         <v>1.2531099999999999</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="20">
         <v>0.97392800431499404</v>
       </c>
-      <c r="D49" s="22">
-        <v>0</v>
-      </c>
-      <c r="E49" s="23">
-        <v>0</v>
-      </c>
-      <c r="F49" s="23">
-        <v>0</v>
-      </c>
-      <c r="G49" s="23">
-        <v>0</v>
-      </c>
-      <c r="H49" s="23">
+      <c r="D49" s="21">
+        <v>0</v>
+      </c>
+      <c r="E49" s="22">
+        <v>0</v>
+      </c>
+      <c r="F49" s="22">
+        <v>0</v>
+      </c>
+      <c r="G49" s="22">
+        <v>0</v>
+      </c>
+      <c r="H49" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K49" s="22">
+      <c r="K49" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A50" s="16">
+      <c r="A50" s="15">
         <v>44225</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>1.2375</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="20">
         <v>0.98019564941921822</v>
       </c>
-      <c r="D50" s="22">
-        <v>0</v>
-      </c>
-      <c r="E50" s="23">
-        <v>0</v>
-      </c>
-      <c r="F50" s="23">
-        <v>0</v>
-      </c>
-      <c r="G50" s="23">
-        <v>0</v>
-      </c>
-      <c r="H50" s="23">
+      <c r="D50" s="21">
+        <v>0</v>
+      </c>
+      <c r="E50" s="22">
+        <v>0</v>
+      </c>
+      <c r="F50" s="22">
+        <v>0</v>
+      </c>
+      <c r="G50" s="22">
+        <v>0</v>
+      </c>
+      <c r="H50" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A51" s="16">
+      <c r="A51" s="15">
         <v>44253</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="25">
         <v>1.23967</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="20">
         <v>0.984757931392931</v>
       </c>
-      <c r="D51" s="22">
-        <v>0</v>
-      </c>
-      <c r="E51" s="23">
-        <v>0</v>
-      </c>
-      <c r="F51" s="23">
-        <v>0</v>
-      </c>
-      <c r="G51" s="23">
-        <v>0</v>
-      </c>
-      <c r="H51" s="23">
+      <c r="D51" s="21">
+        <v>0</v>
+      </c>
+      <c r="E51" s="22">
+        <v>0</v>
+      </c>
+      <c r="F51" s="22">
+        <v>0</v>
+      </c>
+      <c r="G51" s="22">
+        <v>0</v>
+      </c>
+      <c r="H51" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K51" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A52" s="16">
+      <c r="A52" s="15">
         <v>44286</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="25">
         <v>1.15709</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>0.98919197969543116</v>
       </c>
-      <c r="D52" s="22">
-        <v>0</v>
-      </c>
-      <c r="E52" s="23">
-        <v>0</v>
-      </c>
-      <c r="F52" s="23">
-        <v>0</v>
-      </c>
-      <c r="G52" s="23">
-        <v>0</v>
-      </c>
-      <c r="H52" s="23">
+      <c r="D52" s="21">
+        <v>0</v>
+      </c>
+      <c r="E52" s="22">
+        <v>0</v>
+      </c>
+      <c r="F52" s="22">
+        <v>0</v>
+      </c>
+      <c r="G52" s="22">
+        <v>0</v>
+      </c>
+      <c r="H52" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K52" s="22">
+      <c r="K52" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A53" s="16">
+      <c r="A53" s="15">
         <v>44316</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="25">
         <v>1.17998</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <v>0.99311644135188804</v>
       </c>
-      <c r="D53" s="22">
-        <v>0</v>
-      </c>
-      <c r="E53" s="23">
-        <v>0</v>
-      </c>
-      <c r="F53" s="23">
-        <v>0</v>
-      </c>
-      <c r="G53" s="23">
-        <v>0</v>
-      </c>
-      <c r="H53" s="23">
+      <c r="D53" s="21">
+        <v>0</v>
+      </c>
+      <c r="E53" s="22">
+        <v>0</v>
+      </c>
+      <c r="F53" s="22">
+        <v>0</v>
+      </c>
+      <c r="G53" s="22">
+        <v>0</v>
+      </c>
+      <c r="H53" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K53" s="22">
+      <c r="K53" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A54" s="16">
+      <c r="A54" s="15">
         <v>44347</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="25">
         <v>1.2623</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>0.99678004882812443</v>
       </c>
-      <c r="D54" s="22">
-        <v>0</v>
-      </c>
-      <c r="E54" s="23">
-        <v>0</v>
-      </c>
-      <c r="F54" s="23">
-        <v>0</v>
-      </c>
-      <c r="G54" s="23">
-        <v>0</v>
-      </c>
-      <c r="H54" s="23">
+      <c r="D54" s="21">
+        <v>0</v>
+      </c>
+      <c r="E54" s="22">
+        <v>0</v>
+      </c>
+      <c r="F54" s="22">
+        <v>0</v>
+      </c>
+      <c r="G54" s="22">
+        <v>0</v>
+      </c>
+      <c r="H54" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K54" s="22">
+      <c r="K54" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A55" s="16">
+      <c r="A55" s="15">
         <v>44377</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="25">
         <v>1.33643</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <v>1.0025140478468895</v>
       </c>
-      <c r="D55" s="22">
-        <v>0</v>
-      </c>
-      <c r="E55" s="23">
-        <v>0</v>
-      </c>
-      <c r="F55" s="23">
-        <v>0</v>
-      </c>
-      <c r="G55" s="23">
-        <v>0</v>
-      </c>
-      <c r="H55" s="23">
+      <c r="D55" s="21">
+        <v>0</v>
+      </c>
+      <c r="E55" s="22">
+        <v>0</v>
+      </c>
+      <c r="F55" s="22">
+        <v>0</v>
+      </c>
+      <c r="G55" s="22">
+        <v>0</v>
+      </c>
+      <c r="H55" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K55" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A56" s="16">
+      <c r="A56" s="15">
         <v>44407</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="25">
         <v>1.28626</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>1.0086370852858479</v>
       </c>
-      <c r="D56" s="22">
-        <v>0</v>
-      </c>
-      <c r="E56" s="23">
-        <v>0</v>
-      </c>
-      <c r="F56" s="23">
-        <v>0</v>
-      </c>
-      <c r="G56" s="23">
-        <v>0</v>
-      </c>
-      <c r="H56" s="23">
+      <c r="D56" s="21">
+        <v>0</v>
+      </c>
+      <c r="E56" s="22">
+        <v>0</v>
+      </c>
+      <c r="F56" s="22">
+        <v>0</v>
+      </c>
+      <c r="G56" s="22">
+        <v>0</v>
+      </c>
+      <c r="H56" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K56" s="22">
+      <c r="K56" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A57" s="16">
+      <c r="A57" s="15">
         <v>44439</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="25">
         <v>1.2177899999999999</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="20">
         <v>1.0138825528007342</v>
       </c>
-      <c r="D57" s="22">
-        <v>0</v>
-      </c>
-      <c r="E57" s="23">
-        <v>0</v>
-      </c>
-      <c r="F57" s="23">
-        <v>0</v>
-      </c>
-      <c r="G57" s="23">
-        <v>0</v>
-      </c>
-      <c r="H57" s="23">
+      <c r="D57" s="21">
+        <v>0</v>
+      </c>
+      <c r="E57" s="22">
+        <v>0</v>
+      </c>
+      <c r="F57" s="22">
+        <v>0</v>
+      </c>
+      <c r="G57" s="22">
+        <v>0</v>
+      </c>
+      <c r="H57" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K57" s="22">
+      <c r="K57" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A58" s="16">
+      <c r="A58" s="15">
         <v>44469</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58" s="25">
         <v>1.20347</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="20">
         <v>1.0177556176735794</v>
       </c>
-      <c r="D58" s="22">
-        <v>0</v>
-      </c>
-      <c r="E58" s="23">
-        <v>0</v>
-      </c>
-      <c r="F58" s="23">
-        <v>0</v>
-      </c>
-      <c r="G58" s="23">
-        <v>0</v>
-      </c>
-      <c r="H58" s="23">
+      <c r="D58" s="21">
+        <v>0</v>
+      </c>
+      <c r="E58" s="22">
+        <v>0</v>
+      </c>
+      <c r="F58" s="22">
+        <v>0</v>
+      </c>
+      <c r="G58" s="22">
+        <v>0</v>
+      </c>
+      <c r="H58" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I58" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J58" s="23">
+      <c r="J58" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K58" s="22">
+      <c r="K58" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A59" s="16">
+      <c r="A59" s="15">
         <v>44498</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="25">
         <v>1.1970999999999998</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="20">
         <v>1.0204018311111105</v>
       </c>
-      <c r="D59" s="22">
-        <v>0</v>
-      </c>
-      <c r="E59" s="23">
-        <v>0</v>
-      </c>
-      <c r="F59" s="23">
-        <v>0</v>
-      </c>
-      <c r="G59" s="23">
-        <v>0</v>
-      </c>
-      <c r="H59" s="23">
+      <c r="D59" s="21">
+        <v>0</v>
+      </c>
+      <c r="E59" s="22">
+        <v>0</v>
+      </c>
+      <c r="F59" s="22">
+        <v>0</v>
+      </c>
+      <c r="G59" s="22">
+        <v>0</v>
+      </c>
+      <c r="H59" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K59" s="22">
+      <c r="K59" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A60" s="16">
+      <c r="A60" s="15">
         <v>44530</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="25">
         <v>1.23373</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="20">
         <v>1.0245603661726232</v>
       </c>
-      <c r="D60" s="22">
-        <v>0</v>
-      </c>
-      <c r="E60" s="23">
-        <v>0</v>
-      </c>
-      <c r="F60" s="23">
-        <v>0</v>
-      </c>
-      <c r="G60" s="23">
-        <v>0</v>
-      </c>
-      <c r="H60" s="23">
+      <c r="D60" s="21">
+        <v>0</v>
+      </c>
+      <c r="E60" s="22">
+        <v>0</v>
+      </c>
+      <c r="F60" s="22">
+        <v>0</v>
+      </c>
+      <c r="G60" s="22">
+        <v>0</v>
+      </c>
+      <c r="H60" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I60" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J60" s="23">
+      <c r="J60" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K60" s="22">
+      <c r="K60" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A61" s="16">
+      <c r="A61" s="15">
         <v>44561</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="25">
         <v>1.2554100000000001</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="20">
         <v>1.0289409572649562</v>
       </c>
-      <c r="D61" s="22">
-        <v>0</v>
-      </c>
-      <c r="E61" s="23">
-        <v>0</v>
-      </c>
-      <c r="F61" s="23">
-        <v>0</v>
-      </c>
-      <c r="G61" s="23">
-        <v>0</v>
-      </c>
-      <c r="H61" s="23">
+      <c r="D61" s="21">
+        <v>0</v>
+      </c>
+      <c r="E61" s="22">
+        <v>0</v>
+      </c>
+      <c r="F61" s="22">
+        <v>0</v>
+      </c>
+      <c r="G61" s="22">
+        <v>0</v>
+      </c>
+      <c r="H61" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J61" s="23">
+      <c r="J61" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K61" s="22">
+      <c r="K61" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A62" s="16">
+      <c r="A62" s="15">
         <v>44589</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="25">
         <v>1.11076</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="20">
         <v>1.0316563299663286</v>
       </c>
-      <c r="D62" s="22">
-        <v>0</v>
-      </c>
-      <c r="E62" s="23">
-        <v>0</v>
-      </c>
-      <c r="F62" s="23">
-        <v>0</v>
-      </c>
-      <c r="G62" s="23">
-        <v>0</v>
-      </c>
-      <c r="H62" s="23">
+      <c r="D62" s="21">
+        <v>0</v>
+      </c>
+      <c r="E62" s="22">
+        <v>0</v>
+      </c>
+      <c r="F62" s="22">
+        <v>0</v>
+      </c>
+      <c r="G62" s="22">
+        <v>0</v>
+      </c>
+      <c r="H62" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I62" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J62" s="23">
+      <c r="J62" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K62" s="22">
+      <c r="K62" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A63" s="16">
+      <c r="A63" s="15">
         <v>44620</v>
       </c>
-      <c r="B63" s="26">
+      <c r="B63" s="25">
         <v>1.15177</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="20">
         <v>1.0331931727574739</v>
       </c>
-      <c r="D63" s="22">
-        <v>0</v>
-      </c>
-      <c r="E63" s="23">
-        <v>0</v>
-      </c>
-      <c r="F63" s="23">
-        <v>0</v>
-      </c>
-      <c r="G63" s="23">
-        <v>0</v>
-      </c>
-      <c r="H63" s="23">
+      <c r="D63" s="21">
+        <v>0</v>
+      </c>
+      <c r="E63" s="22">
+        <v>0</v>
+      </c>
+      <c r="F63" s="22">
+        <v>0</v>
+      </c>
+      <c r="G63" s="22">
+        <v>0</v>
+      </c>
+      <c r="H63" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I63" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J63" s="23">
+      <c r="J63" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K63" s="22">
+      <c r="K63" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A64" s="16">
+      <c r="A64" s="15">
         <v>44651</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64" s="25">
         <v>1.0468499999999998</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>1.0340066340668286</v>
       </c>
-      <c r="D64" s="22">
-        <v>0</v>
-      </c>
-      <c r="E64" s="23">
-        <v>0</v>
-      </c>
-      <c r="F64" s="23">
-        <v>0</v>
-      </c>
-      <c r="G64" s="23">
-        <v>0</v>
-      </c>
-      <c r="H64" s="23">
+      <c r="D64" s="21">
+        <v>0</v>
+      </c>
+      <c r="E64" s="22">
+        <v>0</v>
+      </c>
+      <c r="F64" s="22">
+        <v>0</v>
+      </c>
+      <c r="G64" s="22">
+        <v>0</v>
+      </c>
+      <c r="H64" s="22">
         <v>2399.8918268119301</v>
       </c>
-      <c r="I64" s="23">
+      <c r="I64" s="22">
         <v>3420.824392859301</v>
       </c>
-      <c r="J64" s="23">
+      <c r="J64" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K64" s="22">
+      <c r="K64" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A65" s="16">
+      <c r="A65" s="15">
         <v>44680</v>
       </c>
-      <c r="B65" s="26">
+      <c r="B65" s="25">
         <v>0.83169999999999999</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="20">
         <v>1.032387961476724</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="21">
         <v>311.06634028892216</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="22">
         <v>374.01267318615146</v>
       </c>
-      <c r="F65" s="23">
+      <c r="F65" s="22">
         <v>374.01267318615146</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="22">
         <v>311.06634028892216</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="22">
         <v>2710.9581671008523</v>
       </c>
-      <c r="I65" s="23">
+      <c r="I65" s="22">
         <v>3731.8907331482233</v>
       </c>
-      <c r="J65" s="23">
+      <c r="J65" s="22">
         <v>1020.932566047371</v>
       </c>
-      <c r="K65" s="22">
+      <c r="K65" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A66" s="16">
+      <c r="A66" s="15">
         <v>44712</v>
       </c>
-      <c r="B66" s="26">
+      <c r="B66" s="25">
         <v>0.90644000000000002</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="20">
         <v>1.0300312806324092</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D66" s="21">
         <v>191.56648498023426</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="22">
         <v>211.3393991662264</v>
       </c>
-      <c r="F66" s="23">
+      <c r="F66" s="22">
         <v>585.35207235237783</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="22">
         <v>530.58653246308938</v>
       </c>
-      <c r="H66" s="23">
+      <c r="H66" s="22">
         <v>2902.5246520810865</v>
       </c>
-      <c r="I66" s="23">
+      <c r="I66" s="22">
         <v>3951.4109253223905</v>
       </c>
-      <c r="J66" s="23">
+      <c r="J66" s="22">
         <v>1048.886273241304</v>
       </c>
-      <c r="K66" s="22">
+      <c r="K66" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A67" s="16">
+      <c r="A67" s="15">
         <v>44742</v>
       </c>
-      <c r="B67" s="26">
+      <c r="B67" s="25">
         <v>0.99066999999999994</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="20">
         <v>1.0286842768273694</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="21">
         <v>58.922129082422671</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="22">
         <v>59.477049958535815</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F67" s="22">
         <v>644.82912231091359</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G67" s="22">
         <v>638.81286659975274</v>
       </c>
-      <c r="H67" s="23">
+      <c r="H67" s="22">
         <v>2961.4467811635091</v>
       </c>
-      <c r="I67" s="23">
+      <c r="I67" s="22">
         <v>4059.6372594590539</v>
       </c>
-      <c r="J67" s="23">
+      <c r="J67" s="22">
         <v>1098.1904782955448</v>
       </c>
-      <c r="K67" s="22">
+      <c r="K67" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A68" s="16">
+      <c r="A68" s="15">
         <v>44771</v>
       </c>
-      <c r="B68" s="26">
+      <c r="B68" s="25">
         <v>1.01267</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="20">
         <v>1.0278637413924998</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="21">
         <v>23.550299158374767</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="22">
         <v>23.255650071962997</v>
       </c>
-      <c r="F68" s="23">
+      <c r="F68" s="22">
         <v>668.08477238287662</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="22">
         <v>676.5494064489676</v>
       </c>
-      <c r="H68" s="23">
+      <c r="H68" s="22">
         <v>2984.9970803218839</v>
       </c>
-      <c r="I68" s="23">
+      <c r="I68" s="22">
         <v>4097.3737993082686</v>
       </c>
-      <c r="J68" s="23">
+      <c r="J68" s="22">
         <v>1112.3767189863847</v>
       </c>
-      <c r="K68" s="22">
+      <c r="K68" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A69" s="16">
+      <c r="A69" s="15">
         <v>44804</v>
       </c>
-      <c r="B69" s="26">
+      <c r="B69" s="25">
         <v>0.95750000000000002</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="20">
         <v>1.0277413007518783</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="21">
         <v>108.87401616541135</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="22">
         <v>113.70654429807973</v>
       </c>
-      <c r="F69" s="23">
+      <c r="F69" s="22">
         <v>781.79131668095636</v>
       </c>
-      <c r="G69" s="23">
+      <c r="G69" s="22">
         <v>748.56518572201571</v>
       </c>
-      <c r="H69" s="23">
+      <c r="H69" s="22">
         <v>3093.8710964872953</v>
       </c>
-      <c r="I69" s="23">
+      <c r="I69" s="22">
         <v>4169.3895785813165</v>
       </c>
-      <c r="J69" s="23">
+      <c r="J69" s="22">
         <v>1075.5184820940212</v>
       </c>
-      <c r="K69" s="22">
+      <c r="K69" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A70" s="16">
+      <c r="A70" s="15">
         <v>44834</v>
       </c>
-      <c r="B70" s="26">
+      <c r="B70" s="25">
         <v>0.85887999999999998</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="20">
         <v>1.0261969874167267</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="21">
         <v>259.34133049592646</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="22">
         <v>301.95292764521992</v>
       </c>
-      <c r="F70" s="23">
+      <c r="F70" s="22">
         <v>1083.7442443261762</v>
       </c>
-      <c r="G70" s="23">
+      <c r="G70" s="22">
         <v>930.80625656686618</v>
       </c>
-      <c r="H70" s="23">
+      <c r="H70" s="22">
         <v>3353.2124269832216</v>
       </c>
-      <c r="I70" s="23">
+      <c r="I70" s="22">
         <v>4351.6306494261671</v>
       </c>
-      <c r="J70" s="23">
+      <c r="J70" s="22">
         <v>998.41822244294553</v>
       </c>
-      <c r="K70" s="22">
+      <c r="K70" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A71" s="16">
+      <c r="A71" s="15">
         <v>44865</v>
       </c>
-      <c r="B71" s="26">
+      <c r="B71" s="25">
         <v>0.96957000000000004</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="20">
         <v>1.0250083101682501</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="21">
         <v>85.929380760787609</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="22">
         <v>88.626278412891907</v>
       </c>
-      <c r="F71" s="23">
+      <c r="F71" s="22">
         <v>1172.3705227390681</v>
       </c>
-      <c r="G71" s="23">
+      <c r="G71" s="22">
         <v>1136.6952877321182</v>
       </c>
-      <c r="H71" s="23">
+      <c r="H71" s="22">
         <v>3439.1418077440094</v>
       </c>
-      <c r="I71" s="23">
+      <c r="I71" s="22">
         <v>4557.5196805914193</v>
       </c>
-      <c r="J71" s="23">
+      <c r="J71" s="22">
         <v>1118.3778728474099</v>
       </c>
-      <c r="K71" s="22">
+      <c r="K71" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A72" s="16">
+      <c r="A72" s="15">
         <v>44895</v>
       </c>
-      <c r="B72" s="26">
+      <c r="B72" s="25">
         <v>0.99405999999999994</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="20">
         <v>1.0247448956083498</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="21">
         <v>47.561588192942281</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="22">
         <v>47.845792198601977</v>
       </c>
-      <c r="F72" s="23">
+      <c r="F72" s="22">
         <v>1220.2163149376699</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G72" s="22">
         <v>1212.9682300269401</v>
       </c>
-      <c r="H72" s="23">
+      <c r="H72" s="22">
         <v>3486.7033959369519</v>
       </c>
-      <c r="I72" s="23">
+      <c r="I72" s="22">
         <v>4633.7926228862416</v>
       </c>
-      <c r="J72" s="23">
+      <c r="J72" s="22">
         <v>1147.0892269492897</v>
       </c>
-      <c r="K72" s="22">
+      <c r="K72" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A73" s="16">
+      <c r="A73" s="15">
         <v>44925</v>
       </c>
-      <c r="B73" s="26">
+      <c r="B73" s="25">
         <v>0.95635000000000003</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="20">
         <v>1.0242041105598856</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="21">
         <v>105.1738713678226</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E73" s="22">
         <v>109.97424726075452</v>
       </c>
-      <c r="F73" s="23">
+      <c r="F73" s="22">
         <v>1330.1905621984245</v>
       </c>
-      <c r="G73" s="23">
+      <c r="G73" s="22">
         <v>1272.1277441584632</v>
       </c>
-      <c r="H73" s="23">
+      <c r="H73" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I73" s="23">
+      <c r="I73" s="22">
         <v>4692.9521370177645</v>
       </c>
-      <c r="J73" s="23">
+      <c r="J73" s="22">
         <v>1101.0748697129898</v>
       </c>
-      <c r="K73" s="22">
+      <c r="K73" s="21">
         <v>3420.824392859301</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A74" s="16">
+      <c r="A74" s="15">
         <v>44957</v>
       </c>
-      <c r="B74" s="26">
+      <c r="B74" s="25">
         <v>1.08087</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="20">
         <v>1.0241600981079177</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="21">
         <v>-87.900347932727485</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="22">
         <v>-81.323700290254592</v>
       </c>
-      <c r="F74" s="23">
+      <c r="F74" s="22">
         <v>1248.8668619081698</v>
       </c>
-      <c r="G74" s="23">
+      <c r="G74" s="22">
         <v>1349.8627250306834</v>
       </c>
-      <c r="H74" s="23">
+      <c r="H74" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I74" s="23">
+      <c r="I74" s="22">
         <v>4858.5874658227121</v>
       </c>
-      <c r="J74" s="23">
+      <c r="J74" s="22">
         <v>1266.7101985179374</v>
       </c>
-      <c r="K74" s="22">
+      <c r="K74" s="21">
         <v>3508.7247407920286</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A75" s="16">
+      <c r="A75" s="15">
         <v>44985</v>
       </c>
-      <c r="B75" s="26">
+      <c r="B75" s="25">
         <v>1.16859</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="20">
         <v>1.0261586247408419</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="21">
         <v>-220.76863165169516</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="22">
         <v>-188.91880954970961</v>
       </c>
-      <c r="F75" s="23">
+      <c r="F75" s="22">
         <v>1059.9480523584602</v>
       </c>
-      <c r="G75" s="23">
+      <c r="G75" s="22">
         <v>1238.6446945055732</v>
       </c>
-      <c r="H75" s="23">
+      <c r="H75" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I75" s="23">
+      <c r="I75" s="22">
         <v>4968.1380669492974</v>
       </c>
-      <c r="J75" s="23">
+      <c r="J75" s="22">
         <v>1376.2607996445226</v>
       </c>
-      <c r="K75" s="22">
+      <c r="K75" s="21">
         <v>3729.4933724437237</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A76" s="16">
+      <c r="A76" s="15">
         <v>45016</v>
       </c>
-      <c r="B76" s="26">
+      <c r="B76" s="25">
         <v>1.2989900000000001</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="20">
         <v>1.0293158435374137</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="21">
         <v>-417.99494251700895</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="22">
         <v>-321.78457302751286</v>
       </c>
-      <c r="F76" s="23">
+      <c r="F76" s="22">
         <v>738.16347933094744</v>
       </c>
-      <c r="G76" s="23">
+      <c r="G76" s="22">
         <v>958.86697801610751</v>
       </c>
-      <c r="H76" s="23">
+      <c r="H76" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I76" s="23">
+      <c r="I76" s="22">
         <v>5106.3552929768402</v>
       </c>
-      <c r="J76" s="23">
+      <c r="J76" s="22">
         <v>1514.4780256720655</v>
       </c>
-      <c r="K76" s="22">
+      <c r="K76" s="21">
         <v>4147.4883149607331</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A77" s="16">
+      <c r="A77" s="15">
         <v>45044</v>
       </c>
-      <c r="B77" s="26">
+      <c r="B77" s="25">
         <v>1.22841</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="20">
         <v>1.0326041370047001</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="21">
         <v>-303.49908764271481</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E77" s="22">
         <v>-247.06660450722057</v>
       </c>
-      <c r="F77" s="23">
+      <c r="F77" s="22">
         <v>491.09687482372686</v>
       </c>
-      <c r="G77" s="23">
+      <c r="G77" s="22">
         <v>603.26831200221432</v>
       </c>
-      <c r="H77" s="23">
+      <c r="H77" s="22">
         <v>3591.8772673047747</v>
       </c>
-      <c r="I77" s="23">
+      <c r="I77" s="22">
         <v>5054.2557146056624</v>
       </c>
-      <c r="J77" s="23">
+      <c r="J77" s="22">
         <v>1462.3784473008877</v>
       </c>
-      <c r="K77" s="22">
+      <c r="K77" s="21">
         <v>4450.9874026034477</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="79" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="80" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="81" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="82" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="83" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="84" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="85" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="86" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="87" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="88" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="89" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="90" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="91" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="92" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="93" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="94" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L94" s="8"/>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L97" s="8"/>
-    </row>
-    <row r="98" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L98" s="8"/>
-    </row>
-    <row r="99" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L100" s="8"/>
-    </row>
-    <row r="101" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L101" s="8"/>
-    </row>
-    <row r="102" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L102" s="8"/>
-    </row>
-    <row r="103" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L103" s="8"/>
-    </row>
-    <row r="104" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L104" s="8"/>
-    </row>
-    <row r="105" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L105" s="8"/>
-    </row>
-    <row r="106" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L106" s="8"/>
-      <c r="O106" s="3"/>
-    </row>
-    <row r="107" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L107" s="8"/>
-    </row>
-    <row r="108" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L116" s="8"/>
-    </row>
-    <row r="117" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L117" s="8"/>
-    </row>
-    <row r="118" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L118" s="8"/>
-      <c r="O118" s="3"/>
-    </row>
-    <row r="119" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L128" s="8"/>
-    </row>
-    <row r="129" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L129" s="8"/>
-    </row>
-    <row r="130" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L130" s="8"/>
-      <c r="O130" s="3"/>
-    </row>
-    <row r="131" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L135" s="8"/>
-    </row>
-    <row r="136" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L136" s="8"/>
-    </row>
-    <row r="137" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L137" s="8"/>
-    </row>
-    <row r="138" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L138" s="8"/>
-    </row>
-    <row r="139" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L139" s="8"/>
-    </row>
-    <row r="140" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L140" s="8"/>
-    </row>
-    <row r="141" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L141" s="8"/>
-    </row>
-    <row r="142" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L142" s="8"/>
-      <c r="O142" s="3"/>
-    </row>
-    <row r="143" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L143" s="8"/>
-    </row>
-    <row r="144" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L144" s="8"/>
-    </row>
-    <row r="145" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L145" s="8"/>
-    </row>
-    <row r="146" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L146" s="8"/>
-    </row>
-    <row r="147" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L147" s="8"/>
-    </row>
-    <row r="148" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L148" s="8"/>
-    </row>
-    <row r="149" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L149" s="8"/>
-    </row>
-    <row r="150" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L150" s="8"/>
-    </row>
-    <row r="151" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L151" s="8"/>
-    </row>
-    <row r="152" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L152" s="8"/>
-    </row>
-    <row r="153" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L153" s="8"/>
-    </row>
-    <row r="154" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L154" s="8"/>
-      <c r="O154" s="3"/>
-    </row>
-    <row r="155" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L155" s="8"/>
-    </row>
-    <row r="156" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L156" s="8"/>
-    </row>
-    <row r="157" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L157" s="8"/>
-    </row>
-    <row r="158" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L158" s="8"/>
-    </row>
-    <row r="159" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L159" s="8"/>
-    </row>
-    <row r="160" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L162" s="8"/>
-    </row>
-    <row r="163" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L164" s="8"/>
-    </row>
-    <row r="165" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L165" s="8"/>
-    </row>
-    <row r="166" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L166" s="8"/>
-      <c r="O166" s="3"/>
-    </row>
-    <row r="167" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L167" s="8"/>
-    </row>
-    <row r="168" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L168" s="8"/>
-    </row>
-    <row r="169" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L169" s="4"/>
-    </row>
-    <row r="170" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L171" s="4"/>
-    </row>
-    <row r="172" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L172" s="4"/>
-    </row>
-    <row r="173" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L173" s="4"/>
-    </row>
-    <row r="174" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L174" s="4"/>
-    </row>
-    <row r="175" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L175" s="4"/>
-    </row>
-    <row r="176" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L176" s="4"/>
-    </row>
-    <row r="177" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L177" s="4"/>
-    </row>
-    <row r="178" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L178" s="4"/>
-    </row>
-    <row r="179" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L179" s="4"/>
-    </row>
-    <row r="180" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L180" s="4"/>
-    </row>
-    <row r="181" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L181" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7823,7 +7495,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF181"/>
+  <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7863,137 +7535,137 @@
     <col min="52" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:32" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="25"/>
-      <c r="M2" s="20"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:32" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="24"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
         <v>1550</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6">
+      <c r="E3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
         <f>MIN(F:F)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>43189</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>0.95575999999999994</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>0.91680896000000012</v>
       </c>
-      <c r="D4" s="22">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0</v>
-      </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="O4" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="X4" s="7">
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="O4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="6">
         <v>43462</v>
       </c>
       <c r="Y4" s="1">
@@ -8004,18 +7676,18 @@
         <f t="shared" ref="Z4" si="0">0-Y4</f>
         <v>-1431.6926540000038</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="6">
         <v>43462</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="7">
         <f>VLOOKUP(AA4,O:P,2,)</f>
         <v>1431.6926540000038</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="7">
         <f t="shared" ref="AC4:AC6" si="1">0-AB4</f>
         <v>-1431.6926540000038</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4" s="6">
         <v>43462</v>
       </c>
       <c r="AE4" s="1">
@@ -8027,65 +7699,65 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>43217</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>0.92662</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>0.91465696000000007</v>
       </c>
-      <c r="D5" s="22">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0</v>
-      </c>
-      <c r="I5" s="23">
-        <v>0</v>
-      </c>
-      <c r="J5" s="23">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="O5" s="7">
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="O5" s="6">
         <v>43462</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <v>1431.6926540000038</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>1431.6926540000038</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>1305.2741513950191</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>-126.41850260498472</v>
       </c>
-      <c r="T5" s="6">
-        <v>0</v>
-      </c>
-      <c r="U5" s="10">
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
         <v>-8.8300028816788487E-2</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="9">
         <v>-8.8300028816788487E-2</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>43830</v>
       </c>
       <c r="Y5" s="1">
@@ -8096,18 +7768,18 @@
         <f t="shared" ref="Z5" si="2">0-Y5</f>
         <v>-193.28661200000033</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="6">
         <v>43830</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="7">
         <f>VLOOKUP(AA5,O:P,2,)</f>
         <v>193.28661200000033</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="7">
         <f t="shared" si="1"/>
         <v>-193.28661200000033</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="6">
         <v>43830</v>
       </c>
       <c r="AE5" s="1">
@@ -8119,82 +7791,82 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>43251</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>0.88405999999999996</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>0.91904036000000011</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>54.219558000000241</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>61.330178947130563</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>61.330178947130563</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>54.219558000000241</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>54.219558000000241</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>54.219558000000241</v>
       </c>
-      <c r="J6" s="23">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="O6" s="7">
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="O6" s="6">
         <v>43830</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>193.28661200000033</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>1624.9792660000041</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <v>2121.5860729661367</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>496.60680696613258</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>1754.5207020000048</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="9">
         <v>0.30560808827337449</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="9">
         <v>0.15168919836337369</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>43830</v>
       </c>
       <c r="Z6" s="1">
         <v>2121.5860729661367</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="6">
         <v>44196</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="7">
         <f>VLOOKUP(AA6,O:P,2,)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="6">
         <v>44196</v>
       </c>
       <c r="AE6" s="1">
@@ -8206,75 +7878,75 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>43280</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>0.81235999999999997</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>0.91734940000000031</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>162.73357000000053</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>200.32198778866578</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>261.65216673579636</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>212.55575416949151</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>216.95312800000076</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>212.55575416949151</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>-4.3973738305092525</v>
       </c>
-      <c r="K7" s="22">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="O7" s="7">
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="O7" s="6">
         <v>44196</v>
       </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <v>1624.9792660000041</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <v>2160.3103145693699</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>535.33104856936575</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>2160.3103145693699</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <v>0.32943869486231608</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="9">
         <v>0.10369660281505078</v>
       </c>
       <c r="Z7" s="2">
         <f>IRR(Z4:Z6)</f>
         <v>0.15168919836337369</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="6">
         <v>44196</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AC7" s="7">
         <v>2160.3103145693699</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="6">
         <v>44561</v>
       </c>
       <c r="AE7" s="1">
@@ -8286,69 +7958,69 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>43312</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>0.8131799999999999</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>0.91070244000000022</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>151.15978200000049</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>185.88723529845853</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>447.53940203425486</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>363.93009094621533</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>368.11291000000125</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>363.93009094621533</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>-4.18281905378592</v>
       </c>
-      <c r="K8" s="22">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="O8" s="7">
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="O8" s="6">
         <v>44561</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="10">
         <v>439.433556000002</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>2064.4128220000061</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>2633.6658962308707</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>569.25307423086451</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>2365.5016705693652</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="9">
         <v>0.2757457559672446</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="9">
         <v>9.161448749478418E-2</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
         <v>0.10369660281505078</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="6">
         <v>44561</v>
       </c>
       <c r="AF8" s="1">
@@ -8356,62 +8028,62 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>43343</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>0.77766999999999997</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>0.89930640000000006</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>188.53642000000013</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>242.43756349094107</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>689.97696552519596</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>536.57438677997914</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>556.64933000000133</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>536.57438677997914</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>-20.074943220022192</v>
       </c>
-      <c r="K9" s="22">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="O9" s="7">
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="O9" s="6">
         <v>44925</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="10">
         <v>2771.7310180000009</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>4836.143840000007</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>5394.8728413640729</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>558.72900136406588</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>2365.5016705693652</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="9">
         <v>0.11553192374941128</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="9">
         <v>6.5682800424140098E-2</v>
       </c>
       <c r="AF9" s="2">
@@ -8420,41 +8092,41 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>43371</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>0.76784000000000008</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>0.8825278000000002</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>177.76609000000019</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>231.51449520733507</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>921.4914607325311</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>707.55800320886669</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>734.41542000000152</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>707.55800320886669</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>-26.857416791134824</v>
       </c>
-      <c r="K10" s="22">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="X10" s="7">
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="X10" s="6">
         <v>43462</v>
       </c>
       <c r="Y10" s="1">
@@ -8466,41 +8138,41 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>43404</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>0.67677999999999994</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>0.86133792000000031</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>286.06477600000056</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>422.68503206359611</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>1344.1764927961271</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>909.71176679456289</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>1020.480196000002</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>909.71176679456289</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>-110.76842920543913</v>
       </c>
-      <c r="K11" s="22">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="X11" s="7">
+      <c r="K11" s="21">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="X11" s="6">
         <v>43830</v>
       </c>
       <c r="Y11" s="1">
@@ -8512,41 +8184,41 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>43434</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>0.7214299999999999</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>0.83959144000000063</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>183.15023200000113</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>253.8711059978115</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>1598.0475987939387</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>1152.879479197911</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>1203.6304280000031</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>1152.879479197911</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>-50.750948802092125</v>
       </c>
-      <c r="K12" s="22">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="X12" s="7">
+      <c r="K12" s="21">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="X12" s="6">
         <v>44196</v>
       </c>
       <c r="Y12" s="1">
@@ -8558,41 +8230,41 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>43462</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>0.67408000000000001</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>0.82121692000000046</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>228.06222600000069</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>338.33109719914654</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>1936.3786959930853</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>1305.2741513950191</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>1431.6926540000038</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>1305.2741513950191</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>-126.41850260498472</v>
       </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="X13" s="7">
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="X13" s="6">
         <v>44561</v>
       </c>
       <c r="Y13" s="1">
@@ -8604,41 +8276,41 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>43496</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>0.67819000000000007</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>0.80289104000000022</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>193.28661200000025</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>285.00363025110988</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>2221.3823262441952</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>1506.5192798355508</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>1506.5192798355508</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>-118.45998616445331</v>
       </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="X14" s="7">
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="X14" s="6">
         <v>44925</v>
       </c>
       <c r="Y14" s="1">
@@ -8650,41 +8322,41 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>43524</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>0.85648000000000002</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>0.79863988000000019</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>-89.65218599999973</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>-104.67516579488105</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>2116.707160449314</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>1812.9173487816286</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>1902.5695347816284</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <v>277.59026878162422</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <v>89.65218599999973</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="X15" s="7">
+      <c r="L15" s="7"/>
+      <c r="X15" s="6">
         <v>44925</v>
       </c>
       <c r="Z15" s="1">
@@ -8692,2092 +8364,1792 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>43553</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>0.94580999999999993</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>0.80337899999999995</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>-220.76804999999996</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>-233.41691248770891</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>1883.290247961605</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>1781.2347494245655</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>2091.654985424565</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>466.67571942456084</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <v>310.4202359999997</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
         <v>6.5682800424140098E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>43585</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>0.9108099999999999</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>0.80660947999999977</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>-161.5108060000002</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>-177.32656207112376</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>1705.9636858904812</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>1553.808784745909</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <v>2025.7398267459089</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>400.76056074590474</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <v>471.93104199999993</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>43616</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>0.86360000000000003</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>0.8020255199999996</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>-95.440444000000667</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>-110.51464103751813</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>1595.449044852963</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>1377.8297951350189</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>1945.2012811350196</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <v>320.22201513501545</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="21">
         <v>567.37148600000057</v>
       </c>
-      <c r="L18" s="8"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>43644</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>0.88732</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>0.80021431999999926</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>-135.01380400000116</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>-152.15909029437086</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>1443.2899545585922</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>1280.6600424789301</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>1983.0453324789319</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>358.06606647892772</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <v>702.38529000000176</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>43677</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>0.89222000000000001</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>0.80840215999999976</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>-129.9176520000004</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>-145.61167873394498</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>1297.6782758246472</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <v>1157.8145112562668</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>1990.1174532562691</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <v>365.13818725626493</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <v>832.30294200000219</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>43707</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>0.92357</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>0.81579543999999959</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>-167.05056800000062</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>-180.87483136091538</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>1116.8034444637319</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <v>1031.4461572033688</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>2030.7996672033717</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <v>405.82040120336751</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="21">
         <v>999.35351000000287</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>43738</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>0.95855999999999997</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>0.83312139999999968</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>-194.42983000000044</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>-202.83532590552542</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>913.96811855820647</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>876.09327972515439</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>2069.876619725158</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>444.89735372515383</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <v>1193.7833400000034</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>43769</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>0.97238999999999998</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>0.85132979999999947</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>-187.64331000000078</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>-192.97124610495871</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>720.99687245324776</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>701.09014880481357</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <v>2082.5167988048179</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <v>457.53753280481374</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="21">
         <v>1381.4266500000042</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="7"/>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>43798</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>0.97728999999999999</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>0.87548991999999959</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>-157.79012400000062</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>-161.45680811222934</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>559.54006434101848</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <v>546.83290947983392</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <v>2086.0496834798387</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>461.07041747983453</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="21">
         <v>1539.2167740000048</v>
       </c>
-      <c r="L24" s="8"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>43830</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>1.0407999999999999</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>0.90189423999999996</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>-215.30392799999998</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>-206.86388162951576</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>352.67618271150275</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="22">
         <v>367.06537096613204</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="22">
         <v>2121.5860729661367</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>496.60680696613258</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="21">
         <v>1754.5207020000048</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>43853</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>1.13632</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>0.92962908</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>-320.370926</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>-281.93724127006476</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <v>70.738941441437987</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="22">
         <v>80.38207393873482</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <v>2155.2737019387396</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <v>530.29443593873543</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="21">
         <v>2074.8916280000049</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>43889</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>1.2075199999999999</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>0.96966315999999997</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>-85.418686569365192</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>-70.738941441437987</v>
       </c>
-      <c r="F27" s="23">
-        <v>0</v>
-      </c>
-      <c r="G27" s="23">
-        <v>0</v>
-      </c>
-      <c r="H27" s="23">
+      <c r="F27" s="22">
+        <v>0</v>
+      </c>
+      <c r="G27" s="22">
+        <v>0</v>
+      </c>
+      <c r="H27" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L27" s="8"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>43921</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>1.0721400000000001</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>0.99416948000000038</v>
       </c>
-      <c r="D28" s="22">
-        <v>0</v>
-      </c>
-      <c r="E28" s="23">
-        <v>0</v>
-      </c>
-      <c r="F28" s="23">
-        <v>0</v>
-      </c>
-      <c r="G28" s="23">
-        <v>0</v>
-      </c>
-      <c r="H28" s="23">
+      <c r="D28" s="21">
+        <v>0</v>
+      </c>
+      <c r="E28" s="22">
+        <v>0</v>
+      </c>
+      <c r="F28" s="22">
+        <v>0</v>
+      </c>
+      <c r="G28" s="22">
+        <v>0</v>
+      </c>
+      <c r="H28" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>43951</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>1.13618</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>1.0066833200000003</v>
       </c>
-      <c r="D29" s="22">
-        <v>0</v>
-      </c>
-      <c r="E29" s="23">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23">
-        <v>0</v>
-      </c>
-      <c r="G29" s="23">
-        <v>0</v>
-      </c>
-      <c r="H29" s="23">
+      <c r="D29" s="21">
+        <v>0</v>
+      </c>
+      <c r="E29" s="22">
+        <v>0</v>
+      </c>
+      <c r="F29" s="22">
+        <v>0</v>
+      </c>
+      <c r="G29" s="22">
+        <v>0</v>
+      </c>
+      <c r="H29" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>43980</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>1.12294</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>1.0254032800000001</v>
       </c>
-      <c r="D30" s="22">
-        <v>0</v>
-      </c>
-      <c r="E30" s="23">
-        <v>0</v>
-      </c>
-      <c r="F30" s="23">
-        <v>0</v>
-      </c>
-      <c r="G30" s="23">
-        <v>0</v>
-      </c>
-      <c r="H30" s="23">
+      <c r="D30" s="21">
+        <v>0</v>
+      </c>
+      <c r="E30" s="22">
+        <v>0</v>
+      </c>
+      <c r="F30" s="22">
+        <v>0</v>
+      </c>
+      <c r="G30" s="22">
+        <v>0</v>
+      </c>
+      <c r="H30" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L30" s="8"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>44012</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>1.25214</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>1.0521240799999996</v>
       </c>
-      <c r="D31" s="22">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23">
-        <v>0</v>
-      </c>
-      <c r="F31" s="23">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23">
-        <v>0</v>
-      </c>
-      <c r="H31" s="23">
+      <c r="D31" s="21">
+        <v>0</v>
+      </c>
+      <c r="E31" s="22">
+        <v>0</v>
+      </c>
+      <c r="F31" s="22">
+        <v>0</v>
+      </c>
+      <c r="G31" s="22">
+        <v>0</v>
+      </c>
+      <c r="H31" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L31" s="8"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>44043</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>1.3561700000000001</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>1.09524756</v>
       </c>
-      <c r="D32" s="22">
-        <v>0</v>
-      </c>
-      <c r="E32" s="23">
-        <v>0</v>
-      </c>
-      <c r="F32" s="23">
-        <v>0</v>
-      </c>
-      <c r="G32" s="23">
-        <v>0</v>
-      </c>
-      <c r="H32" s="23">
+      <c r="D32" s="21">
+        <v>0</v>
+      </c>
+      <c r="E32" s="22">
+        <v>0</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0</v>
+      </c>
+      <c r="G32" s="22">
+        <v>0</v>
+      </c>
+      <c r="H32" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L32" s="8"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>44074</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="25">
         <v>1.35833</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>1.1352650000000004</v>
       </c>
-      <c r="D33" s="22">
-        <v>0</v>
-      </c>
-      <c r="E33" s="23">
-        <v>0</v>
-      </c>
-      <c r="F33" s="23">
-        <v>0</v>
-      </c>
-      <c r="G33" s="23">
-        <v>0</v>
-      </c>
-      <c r="H33" s="23">
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="E33" s="22">
+        <v>0</v>
+      </c>
+      <c r="F33" s="22">
+        <v>0</v>
+      </c>
+      <c r="G33" s="22">
+        <v>0</v>
+      </c>
+      <c r="H33" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L33" s="8"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>44104</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="25">
         <v>1.2336199999999999</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="20">
         <v>1.1624354799999996</v>
       </c>
-      <c r="D34" s="22">
-        <v>0</v>
-      </c>
-      <c r="E34" s="23">
-        <v>0</v>
-      </c>
-      <c r="F34" s="23">
-        <v>0</v>
-      </c>
-      <c r="G34" s="23">
-        <v>0</v>
-      </c>
-      <c r="H34" s="23">
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="22">
+        <v>0</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
+        <v>0</v>
+      </c>
+      <c r="H34" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L34" s="8"/>
+      <c r="L34" s="7"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>44134</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="25">
         <v>1.2367600000000001</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>1.1809904399999995</v>
       </c>
-      <c r="D35" s="22">
-        <v>0</v>
-      </c>
-      <c r="E35" s="23">
-        <v>0</v>
-      </c>
-      <c r="F35" s="23">
-        <v>0</v>
-      </c>
-      <c r="G35" s="23">
-        <v>0</v>
-      </c>
-      <c r="H35" s="23">
+      <c r="D35" s="21">
+        <v>0</v>
+      </c>
+      <c r="E35" s="22">
+        <v>0</v>
+      </c>
+      <c r="F35" s="22">
+        <v>0</v>
+      </c>
+      <c r="G35" s="22">
+        <v>0</v>
+      </c>
+      <c r="H35" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L35" s="8"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <v>44165</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <v>1.23942</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>1.2036349600000003</v>
       </c>
-      <c r="D36" s="22">
-        <v>0</v>
-      </c>
-      <c r="E36" s="23">
-        <v>0</v>
-      </c>
-      <c r="F36" s="23">
-        <v>0</v>
-      </c>
-      <c r="G36" s="23">
-        <v>0</v>
-      </c>
-      <c r="H36" s="23">
+      <c r="D36" s="21">
+        <v>0</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0</v>
+      </c>
+      <c r="F36" s="22">
+        <v>0</v>
+      </c>
+      <c r="G36" s="22">
+        <v>0</v>
+      </c>
+      <c r="H36" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L36" s="8"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>44196</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="25">
         <v>1.2531099999999999</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>1.2247530400000011</v>
       </c>
-      <c r="D37" s="22">
-        <v>0</v>
-      </c>
-      <c r="E37" s="23">
-        <v>0</v>
-      </c>
-      <c r="F37" s="23">
-        <v>0</v>
-      </c>
-      <c r="G37" s="23">
-        <v>0</v>
-      </c>
-      <c r="H37" s="23">
+      <c r="D37" s="21">
+        <v>0</v>
+      </c>
+      <c r="E37" s="22">
+        <v>0</v>
+      </c>
+      <c r="F37" s="22">
+        <v>0</v>
+      </c>
+      <c r="G37" s="22">
+        <v>0</v>
+      </c>
+      <c r="H37" s="22">
         <v>1624.9792660000041</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="22">
         <v>2160.3103145693699</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L37" s="8"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <v>44225</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="25">
         <v>1.2375</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="20">
         <v>1.2398494000000004</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21">
         <v>3.6415700000006046</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>2.9426828282833166</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <v>2.9426828282833166</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <v>3.6415700000006046</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="22">
         <v>1628.6208360000048</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <v>2163.9518845693706</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="22">
         <v>535.33104856936575</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K38" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L38" s="8"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>44253</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <v>1.23967</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="20">
         <v>1.2465734400000006</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <v>10.700332000000834</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>8.6315971185886848</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <v>11.574279946872002</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <v>14.348287621738816</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="22">
         <v>1639.3211680000056</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <v>2174.6586021911089</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="22">
         <v>535.33743419110328</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K39" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L39" s="8"/>
+      <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A40" s="16">
+      <c r="A40" s="15">
         <v>44286</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <v>1.15709</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>1.2413199199999996</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>130.55637599999943</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>112.83165181619358</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="22">
         <v>124.40593176306558</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="22">
         <v>143.94885958372555</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="22">
         <v>1769.8775440000049</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <v>2304.2591741530955</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="22">
         <v>534.38163015309055</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L40" s="8"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A41" s="16">
+      <c r="A41" s="15">
         <v>44316</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <v>1.17998</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="20">
         <v>1.2470086399999996</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <v>103.89439199999927</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="22">
         <v>88.047587247240855</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <v>212.45351901030642</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="22">
         <v>250.69090336178138</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="22">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <v>2411.0012179311511</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="22">
         <v>537.22928193114694</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="21">
         <v>2160.3103145693699</v>
       </c>
-      <c r="L41" s="8"/>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A42" s="16">
+      <c r="A42" s="15">
         <v>44347</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="25">
         <v>1.2623</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="20">
         <v>1.2505698399999998</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="21">
         <v>-18.18174800000024</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="22">
         <v>-14.403666323378152</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="22">
         <v>198.04985268692826</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="22">
         <v>249.99832904670953</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="22">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="22">
         <v>2428.4903916160797</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="22">
         <v>554.71845561607552</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K42" s="21">
         <v>2178.4920625693703</v>
       </c>
-      <c r="L42" s="8"/>
+      <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>44377</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="25">
         <v>1.33643</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>1.261064600000001</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <v>-116.8163699999985</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="22">
         <v>-87.409269471650958</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="22">
         <v>110.6405832152773</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="22">
         <v>147.86339462639305</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="22">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="22">
         <v>2443.171827195762</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="22">
         <v>569.39989119575785</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K43" s="21">
         <v>2295.308432569369</v>
       </c>
-      <c r="L43" s="8"/>
+      <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A44" s="16">
+      <c r="A44" s="15">
         <v>44407</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="25">
         <v>1.28626</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>1.2582182800000008</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <v>-43.464665999998701</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="22">
         <v>-33.791508715188769</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="22">
         <v>76.849074500088534</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44" s="22">
         <v>98.847890566483869</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="22">
         <v>1873.7719360000042</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="22">
         <v>2437.6209891358512</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="22">
         <v>563.84905313584704</v>
       </c>
-      <c r="K44" s="22">
+      <c r="K44" s="21">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L44" s="8"/>
+      <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A45" s="16">
+      <c r="A45" s="15">
         <v>44439</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="25">
         <v>1.2177899999999999</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>1.2513532000000005</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="21">
         <v>52.022960000000886</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="22">
         <v>42.719155190961402</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="22">
         <v>119.56822969104994</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="22">
         <v>145.6089944354637</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="22">
         <v>1925.7948960000051</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="22">
         <v>2484.3820930048309</v>
       </c>
-      <c r="J45" s="23">
+      <c r="J45" s="22">
         <v>558.58719700482584</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K45" s="21">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L45" s="8"/>
+      <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A46" s="16">
+      <c r="A46" s="15">
         <v>44469</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="25">
         <v>1.20347</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>1.2445208000000001</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="21">
         <v>63.628740000000086</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="22">
         <v>52.871064505139373</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="22">
         <v>172.43929419618931</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="22">
         <v>207.52551738628796</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="22">
         <v>1989.4236360000052</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="22">
         <v>2546.2986159556554</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="22">
         <v>556.87497995565013</v>
       </c>
-      <c r="K46" s="22">
+      <c r="K46" s="21">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L46" s="8"/>
+      <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A47" s="16">
+      <c r="A47" s="15">
         <v>44498</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="25">
         <v>1.1970999999999998</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <v>1.2406920799999999</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="21">
         <v>67.567724000000055</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="22">
         <v>56.442840197143148</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="22">
         <v>228.88213439333245</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="22">
         <v>273.99480308225822</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="22">
         <v>2056.9913600000054</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="22">
         <v>2612.7679016516258</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="22">
         <v>555.77654165162039</v>
       </c>
-      <c r="K47" s="22">
+      <c r="K47" s="21">
         <v>2338.7730985693674</v>
       </c>
-      <c r="L47" s="8"/>
+      <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A48" s="16">
+      <c r="A48" s="15">
         <v>44530</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="25">
         <v>1.23373</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="20">
         <v>1.2385180400000004</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="21">
         <v>7.4214620000006786</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="22">
         <v>6.0154669173973874</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="22">
         <v>234.89760131072984</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="22">
         <v>289.80021766508673</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="22">
         <v>2064.4128220000061</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="22">
         <v>2628.5733162344541</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="22">
         <v>564.16049423444792</v>
       </c>
-      <c r="K48" s="22">
+      <c r="K48" s="21">
         <v>2338.7730985693674</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A49" s="16">
+      <c r="A49" s="15">
         <v>44561</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49" s="25">
         <v>1.2554100000000001</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="20">
         <v>1.2381657600000016</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="21">
         <v>-26.728571999997797</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="22">
         <v>-21.290711401054473</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="22">
         <v>213.60688990967537</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="22">
         <v>268.16422566150561</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="22">
         <v>2064.4128220000061</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="22">
         <v>2633.6658962308707</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="22">
         <v>569.25307423086451</v>
       </c>
-      <c r="K49" s="22">
+      <c r="K49" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A50" s="16">
+      <c r="A50" s="15">
         <v>44589</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>1.11076</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="20">
         <v>1.2355355200000004</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="21">
         <v>193.40205600000073</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="22">
         <v>174.11687133134137</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="22">
         <v>387.72376124101675</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="22">
         <v>430.66804503607176</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="22">
         <v>2257.814878000007</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="22">
         <v>2796.169715605437</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="22">
         <v>538.35483760543002</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A51" s="16">
+      <c r="A51" s="15">
         <v>44620</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="25">
         <v>1.15177</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="20">
         <v>1.2277890400000004</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="21">
         <v>117.82951200000075</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="22">
         <v>102.30298757564509</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="22">
         <v>490.02674881666184</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="22">
         <v>564.39810848456659</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="22">
         <v>2375.6443900000077</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="22">
         <v>2929.8997790539315</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="22">
         <v>554.25538905392386</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K51" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A52" s="16">
+      <c r="A52" s="15">
         <v>44651</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="25">
         <v>1.0468499999999998</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>1.2143669200000002</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="21">
         <v>259.65122600000063</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="22">
         <v>248.03097482925031</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="22">
         <v>738.05772364591212</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="22">
         <v>772.63572799872293</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="22">
         <v>2635.2956160000085</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="22">
         <v>3138.137398568088</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="22">
         <v>502.84178256807945</v>
       </c>
-      <c r="K52" s="22">
+      <c r="K52" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A53" s="16">
+      <c r="A53" s="15">
         <v>44680</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="25">
         <v>0.83169999999999999</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <v>1.1967078799999999</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="21">
         <v>565.76221399999997</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="22">
         <v>680.24794276782495</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="22">
         <v>1418.3056664137371</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="22">
         <v>1179.6048227563051</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="22">
         <v>3201.0578300000084</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="22">
         <v>3545.1064933256703</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="22">
         <v>344.04866332566189</v>
       </c>
-      <c r="K53" s="22">
+      <c r="K53" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A54" s="16">
+      <c r="A54" s="15">
         <v>44712</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="25">
         <v>0.90644000000000002</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>1.1734625999999997</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="21">
         <v>413.88502999999946</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="22">
         <v>456.60499316005411</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="22">
         <v>1874.9106595737912</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="22">
         <v>1699.4940182640673</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="22">
         <v>3614.9428600000078</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="22">
         <v>4064.9956888334327</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="22">
         <v>450.05282883342488</v>
       </c>
-      <c r="K54" s="22">
+      <c r="K54" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A55" s="16">
+      <c r="A55" s="15">
         <v>44742</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="25">
         <v>0.99066999999999994</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <v>1.1480034399999997</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="21">
         <v>243.86683199999956</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="22">
         <v>246.16353780774585</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="22">
         <v>2121.074197381537</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="22">
         <v>2101.284575119967</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="22">
         <v>3858.8096920000075</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="22">
         <v>4466.7862456893326</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="22">
         <v>607.9765536893251</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K55" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A56" s="16">
+      <c r="A56" s="15">
         <v>44771</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="25">
         <v>1.01267</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>1.1203607999999998</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="21">
         <v>166.9207399999998</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="22">
         <v>164.83231457434289</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="22">
         <v>2285.90651195588</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="22">
         <v>2314.8689474623607</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="22">
         <v>4025.7304320000076</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="22">
         <v>4680.3706180317258</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="22">
         <v>654.64018603171826</v>
       </c>
-      <c r="K56" s="22">
+      <c r="K56" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A57" s="16">
+      <c r="A57" s="15">
         <v>44804</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="25">
         <v>0.95750000000000002</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="20">
         <v>1.0959177199999997</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="21">
         <v>214.54746599999942</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="22">
         <v>224.07046057441192</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="22">
         <v>2509.9769725302917</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="22">
         <v>2403.3029511977543</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="22">
         <v>4240.2778980000066</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="22">
         <v>4768.8046217671199</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="22">
         <v>528.52672376711325</v>
       </c>
-      <c r="K57" s="22">
+      <c r="K57" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A58" s="16">
+      <c r="A58" s="15">
         <v>44834</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58" s="25">
         <v>0.85887999999999998</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="20">
         <v>1.06964792</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="21">
         <v>326.69027599999998</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="22">
         <v>380.36777663934424</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="22">
         <v>2890.3447491696361</v>
       </c>
-      <c r="G58" s="23">
+      <c r="G58" s="22">
         <v>2482.459298166817</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="22">
         <v>4566.9681740000069</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I58" s="22">
         <v>4847.9609687361826</v>
       </c>
-      <c r="J58" s="23">
+      <c r="J58" s="22">
         <v>280.99279473617571</v>
       </c>
-      <c r="K58" s="22">
+      <c r="K58" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A59" s="16">
+      <c r="A59" s="15">
         <v>44865</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="25">
         <v>0.96957000000000004</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="20">
         <v>1.0512867600000002</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="21">
         <v>126.66097800000026</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="22">
         <v>130.63623874501093</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="22">
         <v>3020.9809879146469</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="22">
         <v>2929.0525364524042</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="22">
         <v>4693.6291520000068</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="22">
         <v>5294.5542070217689</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="22">
         <v>600.92505502176209</v>
       </c>
-      <c r="K59" s="22">
+      <c r="K59" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A60" s="16">
+      <c r="A60" s="15">
         <v>44895</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="25">
         <v>0.99405999999999994</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="20">
         <v>1.0324731600000001</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="21">
         <v>59.540398000000259</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="22">
         <v>59.896181317023384</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="22">
         <v>3080.8771692316705</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G60" s="22">
         <v>3062.5767588464341</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="22">
         <v>4753.1695500000069</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I60" s="22">
         <v>5428.0784294157993</v>
       </c>
-      <c r="J60" s="23">
+      <c r="J60" s="22">
         <v>674.9088794157924</v>
       </c>
-      <c r="K60" s="22">
+      <c r="K60" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A61" s="16">
+      <c r="A61" s="15">
         <v>44925</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="25">
         <v>0.95635000000000003</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="20">
         <v>1.0098818000000001</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="21">
         <v>82.974290000000025</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="22">
         <v>86.761426256077812</v>
       </c>
-      <c r="F61" s="23">
+      <c r="F61" s="22">
         <v>3167.6385954877483</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="22">
         <v>3029.3711707947082</v>
       </c>
-      <c r="H61" s="23">
+      <c r="H61" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="22">
         <v>5394.8728413640729</v>
       </c>
-      <c r="J61" s="23">
+      <c r="J61" s="22">
         <v>558.72900136406588</v>
       </c>
-      <c r="K61" s="22">
+      <c r="K61" s="21">
         <v>2365.5016705693652</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A62" s="16">
+      <c r="A62" s="15">
         <v>44957</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="25">
         <v>1.08087</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="20">
         <v>0.99600491999999985</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="21">
         <v>-131.54087400000023</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="22">
         <v>-121.69907019345548</v>
       </c>
-      <c r="F62" s="23">
+      <c r="F62" s="22">
         <v>3045.9395252942927</v>
       </c>
-      <c r="G62" s="23">
+      <c r="G62" s="22">
         <v>3292.2646547048421</v>
       </c>
-      <c r="H62" s="23">
+      <c r="H62" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I62" s="22">
         <v>5789.307199274208</v>
       </c>
-      <c r="J62" s="23">
+      <c r="J62" s="22">
         <v>953.16335927420096</v>
       </c>
-      <c r="K62" s="22">
+      <c r="K62" s="21">
         <v>2497.0425445693654</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A63" s="16">
+      <c r="A63" s="15">
         <v>44985</v>
       </c>
-      <c r="B63" s="26">
+      <c r="B63" s="25">
         <v>1.16859</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="20">
         <v>0.99612511999999998</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="21">
         <v>-267.32056400000005</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="22">
         <v>-228.75479338347927</v>
       </c>
-      <c r="F63" s="23">
+      <c r="F63" s="22">
         <v>2817.1847319108133</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="22">
         <v>3292.1339058636572</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I63" s="22">
         <v>6056.4970144330227</v>
       </c>
-      <c r="J63" s="23">
+      <c r="J63" s="22">
         <v>1220.3531744330157</v>
       </c>
-      <c r="K63" s="22">
+      <c r="K63" s="21">
         <v>2764.3631085693655</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A64" s="16">
+      <c r="A64" s="15">
         <v>45016</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64" s="25">
         <v>1.2989900000000001</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>1.0068202799999997</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="21">
         <v>-452.86306600000063</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="22">
         <v>-348.62706102433475</v>
       </c>
-      <c r="F64" s="23">
+      <c r="F64" s="22">
         <v>2468.5576708864787</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="22">
         <v>3206.631728904827</v>
       </c>
-      <c r="H64" s="23">
+      <c r="H64" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I64" s="23">
+      <c r="I64" s="22">
         <v>6423.8579034741933</v>
       </c>
-      <c r="J64" s="23">
+      <c r="J64" s="22">
         <v>1587.7140634741863</v>
       </c>
-      <c r="K64" s="22">
+      <c r="K64" s="21">
         <v>3217.2261745693663</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.1" customHeight="1">
-      <c r="A65" s="16">
+      <c r="A65" s="15">
         <v>45044</v>
       </c>
-      <c r="B65" s="26">
+      <c r="B65" s="25">
         <v>1.22841</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="20">
         <v>1.0281103199999995</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="21">
         <v>-310.46450400000083</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="22">
         <v>-252.73687449630077</v>
       </c>
-      <c r="F65" s="23">
+      <c r="F65" s="22">
         <v>2215.8207963901777</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="22">
         <v>2721.9364244936583</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="22">
         <v>4836.143840000007</v>
       </c>
-      <c r="I65" s="23">
+      <c r="I65" s="22">
         <v>6249.6271030630251</v>
       </c>
-      <c r="J65" s="23">
+      <c r="J65" s="22">
         <v>1413.4832630630181</v>
       </c>
-      <c r="K65" s="22">
+      <c r="K65" s="21">
         <v>3527.6906785693673</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="67" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="68" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="69" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="70" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="71" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="72" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="73" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="74" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="75" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="76" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="77" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="78" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="79" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="80" spans="1:11" ht="14.1" customHeight="1"/>
-    <row r="81" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="82" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="83" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="84" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="85" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="86" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="87" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="88" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="89" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="90" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="91" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="92" spans="12:15" ht="14.1" customHeight="1"/>
-    <row r="93" spans="12:15" ht="14.1" customHeight="1">
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L94" s="8"/>
-    </row>
-    <row r="95" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L97" s="8"/>
-    </row>
-    <row r="98" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L98" s="8"/>
-    </row>
-    <row r="99" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L100" s="8"/>
-    </row>
-    <row r="101" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L101" s="8"/>
-    </row>
-    <row r="102" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L102" s="8"/>
-    </row>
-    <row r="103" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L103" s="8"/>
-    </row>
-    <row r="104" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L104" s="8"/>
-    </row>
-    <row r="105" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L105" s="8"/>
-      <c r="O105" s="3"/>
-    </row>
-    <row r="106" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L106" s="8"/>
-    </row>
-    <row r="107" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L107" s="8"/>
-    </row>
-    <row r="108" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L116" s="8"/>
-    </row>
-    <row r="117" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L117" s="8"/>
-      <c r="O117" s="3"/>
-    </row>
-    <row r="118" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L118" s="8"/>
-    </row>
-    <row r="119" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L128" s="8"/>
-    </row>
-    <row r="129" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L129" s="8"/>
-      <c r="O129" s="3"/>
-    </row>
-    <row r="130" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L130" s="8"/>
-    </row>
-    <row r="131" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L135" s="8"/>
-    </row>
-    <row r="136" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L136" s="8"/>
-    </row>
-    <row r="137" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L137" s="8"/>
-    </row>
-    <row r="138" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L138" s="8"/>
-    </row>
-    <row r="139" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L139" s="8"/>
-    </row>
-    <row r="140" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L140" s="8"/>
-    </row>
-    <row r="141" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L141" s="8"/>
-      <c r="O141" s="3"/>
-    </row>
-    <row r="142" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L142" s="8"/>
-    </row>
-    <row r="143" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L143" s="8"/>
-    </row>
-    <row r="144" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L144" s="8"/>
-    </row>
-    <row r="145" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L145" s="8"/>
-    </row>
-    <row r="146" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L146" s="8"/>
-    </row>
-    <row r="147" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L147" s="8"/>
-    </row>
-    <row r="148" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L148" s="8"/>
-    </row>
-    <row r="149" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L149" s="8"/>
-    </row>
-    <row r="150" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L150" s="8"/>
-    </row>
-    <row r="151" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L151" s="8"/>
-    </row>
-    <row r="152" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L152" s="8"/>
-    </row>
-    <row r="153" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L153" s="8"/>
-      <c r="O153" s="3"/>
-    </row>
-    <row r="154" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L154" s="8"/>
-    </row>
-    <row r="155" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L155" s="8"/>
-    </row>
-    <row r="156" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L156" s="8"/>
-    </row>
-    <row r="157" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L157" s="8"/>
-    </row>
-    <row r="158" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L158" s="8"/>
-    </row>
-    <row r="159" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L159" s="8"/>
-    </row>
-    <row r="160" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L162" s="8"/>
-    </row>
-    <row r="163" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L164" s="8"/>
-    </row>
-    <row r="165" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L165" s="8"/>
-      <c r="O165" s="3"/>
-    </row>
-    <row r="166" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L166" s="8"/>
-    </row>
-    <row r="167" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L167" s="8"/>
-    </row>
-    <row r="168" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L168" s="8"/>
-    </row>
-    <row r="169" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L169" s="4"/>
-    </row>
-    <row r="170" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L171" s="4"/>
-    </row>
-    <row r="172" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L172" s="4"/>
-    </row>
-    <row r="173" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L173" s="4"/>
-    </row>
-    <row r="174" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L174" s="4"/>
-    </row>
-    <row r="175" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L175" s="4"/>
-    </row>
-    <row r="176" spans="12:15" ht="14.1" customHeight="1">
-      <c r="L176" s="4"/>
-    </row>
-    <row r="177" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L177" s="4"/>
-    </row>
-    <row r="178" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L178" s="4"/>
-    </row>
-    <row r="179" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L179" s="4"/>
-    </row>
-    <row r="180" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L180" s="4"/>
-    </row>
-    <row r="181" spans="12:12" ht="14.1" customHeight="1">
-      <c r="L181" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -711,7 +711,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -933,6 +933,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,7 +948,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1163,6 +1169,12 @@
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>3591.8772673047747</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3591.8772673047747</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
               </c:numCache>
@@ -1206,7 +1218,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1428,6 +1440,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1437,7 +1455,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1656,6 +1674,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>5106.3552929768402</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5054.2557146056624</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5088.7847358745184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,7 +1722,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1920,6 +1944,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,7 +1959,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2151,6 +2181,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1462.3784473008877</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1496.9074685697437</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1500.729157133032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2172,11 +2208,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103043072"/>
-        <c:axId val="110822528"/>
+        <c:axId val="49951104"/>
+        <c:axId val="49953408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103043072"/>
+        <c:axId val="49951104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2219,14 +2255,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110822528"/>
+        <c:crossAx val="49953408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="110822528"/>
+        <c:axId val="49953408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,7 +2311,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103043072"/>
+        <c:crossAx val="49951104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2488,7 +2524,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2674,6 +2710,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2683,7 +2725,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2868,6 +2910,12 @@
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>4836.143840000007</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4836.143840000007</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
               </c:numCache>
@@ -2911,7 +2959,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3097,6 +3145,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3106,7 +3160,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3292,6 +3346,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>6249.6271030630251</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6405.4214632572184</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6447.124900650886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3334,7 +3394,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3520,6 +3580,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3529,7 +3595,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3715,6 +3781,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>1413.4832630630181</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1569.2776232572114</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1610.981060650879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3736,11 +3808,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="431296896"/>
-        <c:axId val="431298432"/>
+        <c:axId val="481427840"/>
+        <c:axId val="503439360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="431296896"/>
+        <c:axId val="481427840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3783,14 +3855,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431298432"/>
+        <c:crossAx val="503439360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="431298432"/>
+        <c:axId val="503439360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3839,7 +3911,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431296896"/>
+        <c:crossAx val="481427840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3947,7 +4019,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3990,7 +4062,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4300,8 +4372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF77"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4404,7 +4478,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-153.00333687566422</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -7477,6 +7551,76 @@
       </c>
       <c r="K77" s="21">
         <v>4450.9874026034477</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.2987200000000001</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.0354160636182892</v>
+      </c>
+      <c r="D78" s="21">
+        <v>-408.12110139165191</v>
+      </c>
+      <c r="E78" s="22">
+        <v>-314.24872288996232</v>
+      </c>
+      <c r="F78" s="22">
+        <v>176.84815193376454</v>
+      </c>
+      <c r="G78" s="22">
+        <v>229.67623187941871</v>
+      </c>
+      <c r="H78" s="22">
+        <v>3591.8772673047747</v>
+      </c>
+      <c r="I78" s="22">
+        <v>5088.7847358745184</v>
+      </c>
+      <c r="J78" s="22">
+        <v>1496.9074685697437</v>
+      </c>
+      <c r="K78" s="21">
+        <v>4859.1085039950995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B79" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.0393539895356432</v>
+      </c>
+      <c r="D79" s="21">
+        <v>-435.51281621975306</v>
+      </c>
+      <c r="E79" s="22">
+        <v>-329.85148880942876</v>
+      </c>
+      <c r="F79" s="22">
+        <v>-153.00333687566422</v>
+      </c>
+      <c r="G79" s="22">
+        <v>-202.01489577704572</v>
+      </c>
+      <c r="H79" s="22">
+        <v>3591.8772673047747</v>
+      </c>
+      <c r="I79" s="22">
+        <v>5092.6064244378067</v>
+      </c>
+      <c r="J79" s="22">
+        <v>1500.729157133032</v>
+      </c>
+      <c r="K79" s="21">
+        <v>5294.6213202148529</v>
       </c>
     </row>
   </sheetData>
@@ -7495,7 +7639,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF65"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10151,6 +10295,76 @@
         <v>3527.6906785693673</v>
       </c>
     </row>
+    <row r="66" spans="1:11" ht="12.75">
+      <c r="A66" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B66" s="25">
+        <v>1.2987200000000001</v>
+      </c>
+      <c r="C66" s="20">
+        <v>1.0590856</v>
+      </c>
+      <c r="D66" s="21">
+        <v>-371.43332000000021</v>
+      </c>
+      <c r="E66" s="22">
+        <v>-285.99953800665287</v>
+      </c>
+      <c r="F66" s="22">
+        <v>1929.8212583835248</v>
+      </c>
+      <c r="G66" s="22">
+        <v>2506.2974646878515</v>
+      </c>
+      <c r="H66" s="22">
+        <v>4836.143840000007</v>
+      </c>
+      <c r="I66" s="22">
+        <v>6405.4214632572184</v>
+      </c>
+      <c r="J66" s="22">
+        <v>1569.2776232572114</v>
+      </c>
+      <c r="K66" s="21">
+        <v>3899.1239985693674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="12.75">
+      <c r="A67" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B67" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C67" s="20">
+        <v>1.0924141600000008</v>
+      </c>
+      <c r="D67" s="21">
+        <v>-353.26955199999878</v>
+      </c>
+      <c r="E67" s="22">
+        <v>-267.56155809532373</v>
+      </c>
+      <c r="F67" s="22">
+        <v>1662.259700288201</v>
+      </c>
+      <c r="G67" s="22">
+        <v>2194.7313500815203</v>
+      </c>
+      <c r="H67" s="22">
+        <v>4836.143840000007</v>
+      </c>
+      <c r="I67" s="22">
+        <v>6447.124900650886</v>
+      </c>
+      <c r="J67" s="22">
+        <v>1610.981060650879</v>
+      </c>
+      <c r="K67" s="21">
+        <v>4252.3935505693662</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -107,6 +107,10 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MA250</t>
@@ -711,7 +715,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -939,6 +943,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,7 +955,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1175,6 +1182,9 @@
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>3591.8772673047747</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
               </c:numCache>
@@ -1218,7 +1228,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1446,6 +1456,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1455,7 +1468,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1680,6 +1693,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>5088.7847358745184</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5092.6064244378067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1722,7 +1738,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1950,6 +1966,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1959,7 +1978,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2186,6 +2205,9 @@
                   <c:v>1496.9074685697437</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>1500.729157133032</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>1500.729157133032</c:v>
                 </c:pt>
               </c:numCache>
@@ -2208,11 +2230,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49951104"/>
-        <c:axId val="49953408"/>
+        <c:axId val="178096768"/>
+        <c:axId val="356452608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="49951104"/>
+        <c:axId val="178096768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,14 +2277,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49953408"/>
+        <c:crossAx val="356452608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="49953408"/>
+        <c:axId val="356452608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2311,7 +2333,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49951104"/>
+        <c:crossAx val="178096768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2524,7 +2546,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2716,6 +2738,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2725,7 +2750,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2916,6 +2941,9 @@
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>4836.143840000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
               </c:numCache>
@@ -2959,7 +2987,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3151,6 +3179,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3160,7 +3191,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3351,6 +3382,9 @@
                   <c:v>6405.4214632572184</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>6447.124900650886</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>6447.124900650886</c:v>
                 </c:pt>
               </c:numCache>
@@ -3394,7 +3428,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3586,6 +3620,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3595,7 +3632,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3786,6 +3823,9 @@
                   <c:v>1569.2776232572114</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>1610.981060650879</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>1610.981060650879</c:v>
                 </c:pt>
               </c:numCache>
@@ -3808,11 +3848,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481427840"/>
-        <c:axId val="503439360"/>
+        <c:axId val="595940480"/>
+        <c:axId val="595942400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481427840"/>
+        <c:axId val="595940480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3855,14 +3895,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503439360"/>
+        <c:crossAx val="595942400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503439360"/>
+        <c:axId val="595942400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,7 +3951,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481427840"/>
+        <c:crossAx val="595940480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4375,7 +4415,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4478,7 +4518,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-153.00333687566422</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -7599,16 +7639,16 @@
         <v>1.0393539895356432</v>
       </c>
       <c r="D79" s="21">
-        <v>-435.51281621975306</v>
+        <v>-233.49792044270734</v>
       </c>
       <c r="E79" s="22">
-        <v>-329.85148880942876</v>
+        <v>-176.84815193376454</v>
       </c>
       <c r="F79" s="22">
-        <v>-153.00333687566422</v>
+        <v>0</v>
       </c>
       <c r="G79" s="22">
-        <v>-202.01489577704572</v>
+        <v>0</v>
       </c>
       <c r="H79" s="22">
         <v>3591.8772673047747</v>
@@ -7620,7 +7660,42 @@
         <v>1500.729157133032</v>
       </c>
       <c r="K79" s="21">
-        <v>5294.6213202148529</v>
+        <v>5092.6064244378067</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B80" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.0393539895356432</v>
+      </c>
+      <c r="D80" s="21">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>3591.8772673047747</v>
+      </c>
+      <c r="I80" s="22">
+        <v>5092.6064244378067</v>
+      </c>
+      <c r="J80" s="22">
+        <v>1500.729157133032</v>
+      </c>
+      <c r="K80" s="21">
+        <v>5092.6064244378067</v>
       </c>
     </row>
   </sheetData>
@@ -7639,7 +7714,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF67"/>
+  <dimension ref="A1:AF68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7681,13 +7756,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -10365,6 +10440,41 @@
         <v>4252.3935505693662</v>
       </c>
     </row>
+    <row r="68" spans="1:11" ht="12.75">
+      <c r="A68" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B68" s="25">
+        <v>1.32033</v>
+      </c>
+      <c r="C68" s="20">
+        <v>1.0924141600000008</v>
+      </c>
+      <c r="D68" s="21">
+        <v>-353.26955199999878</v>
+      </c>
+      <c r="E68" s="22">
+        <v>-267.56155809532373</v>
+      </c>
+      <c r="F68" s="22">
+        <v>1394.6981421928772</v>
+      </c>
+      <c r="G68" s="22">
+        <v>1841.4617980815215</v>
+      </c>
+      <c r="H68" s="22">
+        <v>4836.143840000007</v>
+      </c>
+      <c r="I68" s="22">
+        <v>6447.124900650886</v>
+      </c>
+      <c r="J68" s="22">
+        <v>1610.981060650879</v>
+      </c>
+      <c r="K68" s="21">
+        <v>4605.663102569365</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -115,6 +115,10 @@
   <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2230,11 +2234,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178096768"/>
-        <c:axId val="356452608"/>
+        <c:axId val="90812416"/>
+        <c:axId val="90815488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="178096768"/>
+        <c:axId val="90812416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,14 +2281,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356452608"/>
+        <c:crossAx val="90815488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="356452608"/>
+        <c:axId val="90815488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,7 +2337,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178096768"/>
+        <c:crossAx val="90812416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3385,7 +3389,7 @@
                   <c:v>6447.124900650886</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6447.124900650886</c:v>
+                  <c:v>6344.9790420681766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3826,7 +3830,7 @@
                   <c:v>1610.981060650879</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1610.981060650879</c:v>
+                  <c:v>1508.8352020681696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3848,11 +3852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="595940480"/>
-        <c:axId val="595942400"/>
+        <c:axId val="540443008"/>
+        <c:axId val="548999936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="595940480"/>
+        <c:axId val="540443008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3895,14 +3899,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595942400"/>
+        <c:crossAx val="548999936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="595942400"/>
+        <c:axId val="548999936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3951,7 +3955,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595940480"/>
+        <c:crossAx val="540443008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7668,10 +7672,10 @@
         <v>45138</v>
       </c>
       <c r="B80" s="25">
-        <v>1.32033</v>
+        <v>1.25888</v>
       </c>
       <c r="C80" s="20">
-        <v>1.0393539895356432</v>
+        <v>1.0426825419354826</v>
       </c>
       <c r="D80" s="21">
         <v>0</v>
@@ -7812,7 +7816,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -10445,34 +10449,34 @@
         <v>45138</v>
       </c>
       <c r="B68" s="25">
-        <v>1.32033</v>
+        <v>1.25888</v>
       </c>
       <c r="C68" s="20">
-        <v>1.0924141600000008</v>
+        <v>1.1188947600000003</v>
       </c>
       <c r="D68" s="21">
-        <v>-353.26955199999878</v>
+        <v>-216.9771219999995</v>
       </c>
       <c r="E68" s="22">
-        <v>-267.56155809532373</v>
+        <v>-172.35727154295842</v>
       </c>
       <c r="F68" s="22">
-        <v>1394.6981421928772</v>
+        <v>1489.9024287452426</v>
       </c>
       <c r="G68" s="22">
-        <v>1841.4617980815215</v>
+        <v>1875.608369498811</v>
       </c>
       <c r="H68" s="22">
         <v>4836.143840000007</v>
       </c>
       <c r="I68" s="22">
-        <v>6447.124900650886</v>
+        <v>6344.9790420681766</v>
       </c>
       <c r="J68" s="22">
-        <v>1610.981060650879</v>
+        <v>1508.8352020681696</v>
       </c>
       <c r="K68" s="21">
-        <v>4605.663102569365</v>
+        <v>4469.3706725693655</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -115,10 +115,6 @@
   <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -719,7 +715,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -950,6 +946,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,7 +958,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1189,6 +1188,9 @@
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>3591.8772673047747</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
               </c:numCache>
@@ -1232,7 +1234,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1463,6 +1465,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,7 +1477,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1699,6 +1704,9 @@
                   <c:v>5088.7847358745184</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>5092.6064244378067</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>5092.6064244378067</c:v>
                 </c:pt>
               </c:numCache>
@@ -1742,7 +1750,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1973,6 +1981,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,7 +1993,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2212,6 +2223,9 @@
                   <c:v>1500.729157133032</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>1500.729157133032</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>1500.729157133032</c:v>
                 </c:pt>
               </c:numCache>
@@ -2234,11 +2248,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90812416"/>
-        <c:axId val="90815488"/>
+        <c:axId val="89893504"/>
+        <c:axId val="90329856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90812416"/>
+        <c:axId val="89893504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2281,14 +2295,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90815488"/>
+        <c:crossAx val="90329856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90815488"/>
+        <c:axId val="90329856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2337,7 +2351,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90812416"/>
+        <c:crossAx val="89893504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2550,7 +2564,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2745,6 +2759,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2754,7 +2771,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2948,6 +2965,9 @@
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>4836.143840000007</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
               </c:numCache>
@@ -2991,7 +3011,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3186,6 +3206,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3195,7 +3218,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3390,6 +3413,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>6344.9790420681766</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6336.2929109085917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3432,7 +3458,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3627,6 +3653,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3636,7 +3665,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3831,6 +3860,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1508.8352020681696</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1500.1490709085847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3852,11 +3884,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540443008"/>
-        <c:axId val="548999936"/>
+        <c:axId val="466640256"/>
+        <c:axId val="502912512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="540443008"/>
+        <c:axId val="466640256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3899,14 +3931,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548999936"/>
+        <c:crossAx val="502912512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548999936"/>
+        <c:axId val="502912512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3955,7 +3987,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540443008"/>
+        <c:crossAx val="466640256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4419,7 +4451,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF80"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7702,6 +7734,41 @@
         <v>5092.6064244378067</v>
       </c>
     </row>
+    <row r="81" spans="1:11" ht="12.75">
+      <c r="A81" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B81" s="25">
+        <v>1.25305</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.0455482644628087</v>
+      </c>
+      <c r="D81" s="21">
+        <v>0</v>
+      </c>
+      <c r="E81" s="22">
+        <v>0</v>
+      </c>
+      <c r="F81" s="22">
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <v>3591.8772673047747</v>
+      </c>
+      <c r="I81" s="22">
+        <v>5092.6064244378067</v>
+      </c>
+      <c r="J81" s="22">
+        <v>1500.729157133032</v>
+      </c>
+      <c r="K81" s="21">
+        <v>5092.6064244378067</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -7718,7 +7785,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF68"/>
+  <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7816,7 +7883,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -10477,6 +10544,41 @@
       </c>
       <c r="K68" s="21">
         <v>4469.3706725693655</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="12.75">
+      <c r="A69" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B69" s="25">
+        <v>1.25305</v>
+      </c>
+      <c r="C69" s="20">
+        <v>1.1386268800000001</v>
+      </c>
+      <c r="D69" s="21">
+        <v>-177.35583599999981</v>
+      </c>
+      <c r="E69" s="22">
+        <v>-141.53931287658099</v>
+      </c>
+      <c r="F69" s="22">
+        <v>1348.3631158686617</v>
+      </c>
+      <c r="G69" s="22">
+        <v>1689.5664023392264</v>
+      </c>
+      <c r="H69" s="22">
+        <v>4836.143840000007</v>
+      </c>
+      <c r="I69" s="22">
+        <v>6336.2929109085917</v>
+      </c>
+      <c r="J69" s="22">
+        <v>1500.1490709085847</v>
+      </c>
+      <c r="K69" s="21">
+        <v>4646.7265085693653</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -715,7 +715,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -949,6 +949,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,7 +961,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1191,6 +1194,9 @@
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>3591.8772673047747</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>3591.8772673047747</c:v>
                 </c:pt>
               </c:numCache>
@@ -1234,7 +1240,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1468,6 +1474,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1477,7 +1486,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1707,6 +1716,9 @@
                   <c:v>5092.6064244378067</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>5092.6064244378067</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>5092.6064244378067</c:v>
                 </c:pt>
               </c:numCache>
@@ -1750,7 +1762,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1984,6 +1996,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1993,7 +2008,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2226,6 +2241,9 @@
                   <c:v>1500.729157133032</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>1500.729157133032</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>1500.729157133032</c:v>
                 </c:pt>
               </c:numCache>
@@ -2248,11 +2266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89893504"/>
-        <c:axId val="90329856"/>
+        <c:axId val="296955904"/>
+        <c:axId val="296958208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89893504"/>
+        <c:axId val="296955904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,14 +2313,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90329856"/>
+        <c:crossAx val="296958208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90329856"/>
+        <c:axId val="296958208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2351,7 +2369,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89893504"/>
+        <c:crossAx val="296955904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2564,7 +2582,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2762,6 +2780,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2771,7 +2792,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2968,6 +2989,9 @@
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>4836.143840000007</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>4836.143840000007</c:v>
                 </c:pt>
               </c:numCache>
@@ -3011,7 +3035,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3209,6 +3233,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3218,7 +3245,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3416,6 +3443,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>6336.2929109085917</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6307.370522073209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3458,7 +3488,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3656,6 +3686,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3665,7 +3698,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3863,6 +3896,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>1500.1490709085847</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1471.226682073202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3884,11 +3920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466640256"/>
-        <c:axId val="502912512"/>
+        <c:axId val="451191552"/>
+        <c:axId val="451193088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466640256"/>
+        <c:axId val="451191552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3931,14 +3967,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502912512"/>
+        <c:crossAx val="451193088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502912512"/>
+        <c:axId val="451193088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3987,7 +4023,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466640256"/>
+        <c:crossAx val="451191552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4095,7 +4131,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4138,7 +4174,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4451,7 +4487,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF81"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7769,6 +7805,41 @@
         <v>5092.6064244378067</v>
       </c>
     </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.2315999999999998</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.0475409711779438</v>
+      </c>
+      <c r="D82" s="21">
+        <v>0</v>
+      </c>
+      <c r="E82" s="22">
+        <v>0</v>
+      </c>
+      <c r="F82" s="22">
+        <v>0</v>
+      </c>
+      <c r="G82" s="22">
+        <v>0</v>
+      </c>
+      <c r="H82" s="22">
+        <v>3591.8772673047747</v>
+      </c>
+      <c r="I82" s="22">
+        <v>5092.6064244378067</v>
+      </c>
+      <c r="J82" s="22">
+        <v>1500.729157133032</v>
+      </c>
+      <c r="K82" s="21">
+        <v>5092.6064244378067</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -7785,7 +7856,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF69"/>
+  <dimension ref="A1:AF70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10581,6 +10652,41 @@
         <v>4646.7265085693653</v>
       </c>
     </row>
+    <row r="70" spans="1:11" ht="12.75">
+      <c r="A70" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B70" s="25">
+        <v>1.2315999999999998</v>
+      </c>
+      <c r="C70" s="20">
+        <v>1.1595792</v>
+      </c>
+      <c r="D70" s="21">
+        <v>-111.63223999999965</v>
+      </c>
+      <c r="E70" s="22">
+        <v>-90.640012991230648</v>
+      </c>
+      <c r="F70" s="22">
+        <v>1257.7231028774311</v>
+      </c>
+      <c r="G70" s="22">
+        <v>1549.0117735038439</v>
+      </c>
+      <c r="H70" s="22">
+        <v>4836.143840000007</v>
+      </c>
+      <c r="I70" s="22">
+        <v>6307.370522073209</v>
+      </c>
+      <c r="J70" s="22">
+        <v>1471.226682073202</v>
+      </c>
+      <c r="K70" s="21">
+        <v>4758.3587485693652</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -107,10 +107,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MA250</t>
@@ -715,7 +711,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -952,6 +948,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,7 +960,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1029,175 +1028,178 @@
                   <c:v>2111.9093732609417</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2394.4513408635335</c:v>
+                  <c:v>2395.4200068816317</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2396.8582184785964</c:v>
+                  <c:v>2397.2416290110682</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2396.8582184785964</c:v>
+                  <c:v>2397.2416290110682</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2396.8582184785964</c:v>
+                  <c:v>2397.2416290110682</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2399.8918268119301</c:v>
+                  <c:v>2399.7354959241925</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2710.9581671008523</c:v>
+                  <c:v>2710.3066380378809</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2902.5246520810865</c:v>
+                  <c:v>2901.3939874069629</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2961.4467811635091</c:v>
+                  <c:v>2959.8496460570755</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2984.9970803218839</c:v>
+                  <c:v>2982.9438651410419</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3093.8710964872953</c:v>
+                  <c:v>3091.370097699179</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3353.2124269832216</c:v>
+                  <c:v>3350.2758931201511</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3439.1418077440094</c:v>
+                  <c:v>3435.7788599084693</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3486.7033959369519</c:v>
+                  <c:v>3482.9216533711101</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3591.8772673047747</c:v>
+                  <c:v>3587.6850243046301</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3587.6850243046301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1240,7 +1242,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1477,6 +1479,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1486,7 +1491,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1554,172 +1559,175 @@
                   <c:v>1961.8999213933344</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2254.4679954794947</c:v>
+                  <c:v>2252.948430691451</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2766.0807020596526</c:v>
+                  <c:v>2767.2580750916109</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3021.4630213992896</c:v>
+                  <c:v>3022.7631932507707</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2926.2535135499193</c:v>
+                  <c:v>2927.5266881023304</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2804.5038803757966</c:v>
+                  <c:v>2805.2299385403758</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2867.2827860557159</c:v>
+                  <c:v>2867.9977249046274</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2880.065026074913</c:v>
+                  <c:v>2880.7747887278465</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2960.4404223387655</c:v>
+                  <c:v>2961.099388142412</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3046.8377821329068</c:v>
+                  <c:v>3047.4211447806897</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3079.0359161616857</c:v>
+                  <c:v>3079.5821307106153</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3089.6773908044429</c:v>
+                  <c:v>3090.207905587803</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3217.6093105743603</c:v>
+                  <c:v>3217.9034879507626</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3387.5511715784992</c:v>
+                  <c:v>3387.4430095085036</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3490.1281563085554</c:v>
+                  <c:v>3489.6873280038235</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3349.0133885807595</c:v>
+                  <c:v>3349.2664254597594</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3400.3189677436058</c:v>
+                  <c:v>3400.2100567542902</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3393.7776001007796</c:v>
+                  <c:v>3393.7501919503693</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3420.824392859301</c:v>
+                  <c:v>3419.9347522582125</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3731.8907331482233</c:v>
+                  <c:v>3730.5058943719009</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3951.4109253223905</c:v>
+                  <c:v>3949.5024503798877</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4059.6372594590539</c:v>
+                  <c:v>4057.1676399562484</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4097.3737993082686</c:v>
+                  <c:v>4094.4130128344723</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4169.3895785813165</c:v>
+                  <c:v>4166.0938439923584</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4351.6306494261671</c:v>
+                  <c:v>4348.1472011607748</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4557.5196805914193</c:v>
+                  <c:v>4553.2755358340419</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4633.7926228862416</c:v>
+                  <c:v>4629.0449532534594</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4692.9521370177645</c:v>
+                  <c:v>4687.9403225778906</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4858.5874658227121</c:v>
+                  <c:v>4853.0389304266973</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4968.1380669492974</c:v>
+                  <c:v>4962.1784997953009</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5106.3552929768402</c:v>
+                  <c:v>5099.7393384845409</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5054.2557146056624</c:v>
+                  <c:v>5048.0173225405779</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5088.7847358745184</c:v>
+                  <c:v>5082.1464599692426</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5092.6064244378067</c:v>
+                  <c:v>5085.8382814380839</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5092.6064244378067</c:v>
+                  <c:v>5085.8382814380839</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5092.6064244378067</c:v>
+                  <c:v>5085.8382814380839</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5085.8382814380839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,7 +1770,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1999,6 +2007,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2008,7 +2019,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2076,175 +2087,178 @@
                   <c:v>-150.00945186760737</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-139.98334538403878</c:v>
+                  <c:v>-142.47157619018071</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>369.22248358105617</c:v>
+                  <c:v>370.01644608054266</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>624.60480292069315</c:v>
+                  <c:v>625.52156423970246</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>529.39529507132283</c:v>
+                  <c:v>530.28505909126216</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>404.61205356386654</c:v>
+                  <c:v>405.49444261618328</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>467.3909592437858</c:v>
+                  <c:v>468.26222898043488</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>480.17319926298296</c:v>
+                  <c:v>481.03929280365401</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>560.54859552683547</c:v>
+                  <c:v>561.36389221821946</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>646.94595532097674</c:v>
+                  <c:v>647.68564885649721</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>679.14408934975563</c:v>
+                  <c:v>679.84663478642278</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>689.78556399251283</c:v>
+                  <c:v>690.47240966361051</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>817.71748376243022</c:v>
+                  <c:v>818.16799202657012</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>987.65934476656912</c:v>
+                  <c:v>987.70751358431107</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1090.2363294966253</c:v>
+                  <c:v>1089.951832079631</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>949.12156176882945</c:v>
+                  <c:v>949.53092953556688</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1000.4271409316757</c:v>
+                  <c:v>1000.4745608300977</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>993.88577328884958</c:v>
+                  <c:v>994.01469602617681</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1020.932566047371</c:v>
+                  <c:v>1020.19925633402</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1048.886273241304</c:v>
+                  <c:v>1048.1084629729248</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1098.1904782955448</c:v>
+                  <c:v>1097.317993899173</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1112.3767189863847</c:v>
+                  <c:v>1111.4691476934304</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1075.5184820940212</c:v>
+                  <c:v>1074.7237462931794</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>998.41822244294553</c:v>
+                  <c:v>997.87130804062372</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1118.3778728474099</c:v>
+                  <c:v>1117.4966759255726</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1147.0892269492897</c:v>
+                  <c:v>1146.1232998823493</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1101.0748697129898</c:v>
+                  <c:v>1100.2552982732605</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1266.7101985179374</c:v>
+                  <c:v>1265.3539061220672</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1376.2607996445226</c:v>
+                  <c:v>1374.4934754906708</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1514.4780256720655</c:v>
+                  <c:v>1512.0543141799108</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1462.3784473008877</c:v>
+                  <c:v>1460.3322982359477</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1496.9074685697437</c:v>
+                  <c:v>1494.4614356646125</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1500.729157133032</c:v>
+                  <c:v>1498.1532571334537</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1500.729157133032</c:v>
+                  <c:v>1498.1532571334537</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1500.729157133032</c:v>
+                  <c:v>1498.1532571334537</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1500.729157133032</c:v>
+                  <c:v>1498.1532571334537</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1498.1532571334537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,11 +2280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296955904"/>
-        <c:axId val="296958208"/>
+        <c:axId val="41244544"/>
+        <c:axId val="344148992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="296955904"/>
+        <c:axId val="41244544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,14 +2327,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296958208"/>
+        <c:crossAx val="344148992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296958208"/>
+        <c:axId val="344148992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,7 +2383,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296955904"/>
+        <c:crossAx val="41244544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2582,7 +2596,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2783,6 +2797,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2792,7 +2809,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2824,175 +2841,178 @@
                   <c:v>1431.6926540000038</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1624.9792660000041</c:v>
+                  <c:v>1625.1494560000042</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1628.6208360000048</c:v>
+                  <c:v>1628.7910260000049</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1639.3211680000056</c:v>
+                  <c:v>1639.4913580000057</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1769.8775440000049</c:v>
+                  <c:v>1770.0477340000052</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1873.7719360000042</c:v>
+                  <c:v>1873.9421260000045</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1873.7719360000042</c:v>
+                  <c:v>1873.9421260000045</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1873.7719360000042</c:v>
+                  <c:v>1873.9421260000045</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1873.7719360000042</c:v>
+                  <c:v>1873.9421260000045</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1925.7948960000051</c:v>
+                  <c:v>1925.9650860000054</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1989.4236360000052</c:v>
+                  <c:v>1989.5938260000055</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2056.9913600000054</c:v>
+                  <c:v>2057.1615500000057</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2064.4128220000061</c:v>
+                  <c:v>2064.5830120000064</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2064.4128220000061</c:v>
+                  <c:v>2064.5830120000064</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2257.814878000007</c:v>
+                  <c:v>2257.2385880000079</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2375.6443900000077</c:v>
+                  <c:v>2374.1318380000084</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2635.2956160000085</c:v>
+                  <c:v>2633.8218760000091</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3201.0578300000084</c:v>
+                  <c:v>3199.3673380000087</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3614.9428600000078</c:v>
+                  <c:v>3612.957310000008</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3858.8096920000075</c:v>
+                  <c:v>3856.0087800000078</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4025.7304320000076</c:v>
+                  <c:v>4021.9754020000078</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4240.2778980000066</c:v>
+                  <c:v>4235.9798100000071</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4566.9681740000069</c:v>
+                  <c:v>4562.2859340000068</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4693.6291520000068</c:v>
+                  <c:v>4688.6512340000072</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4753.1695500000069</c:v>
+                  <c:v>4747.6790780000074</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4836.143840000007</c:v>
+                  <c:v>4830.1401940000078</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4830.1401940000078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3035,7 +3055,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3236,6 +3256,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3245,7 +3268,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3277,175 +3300,178 @@
                   <c:v>1305.2741513950191</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1506.5192798355508</c:v>
+                  <c:v>1504.7143635656378</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1902.5695347816284</c:v>
+                  <c:v>1903.1524699952708</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2091.654985424565</c:v>
+                  <c:v>2092.2213351392056</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2025.7398267459089</c:v>
+                  <c:v>2026.372575113543</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1945.2012811350196</c:v>
+                  <c:v>1946.0036372696127</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1983.0453324789319</c:v>
+                  <c:v>1983.7190710097182</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1990.1174532562691</c:v>
+                  <c:v>1990.7609996678661</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2030.7996672033717</c:v>
+                  <c:v>2031.218755893671</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2069.876619725158</c:v>
+                  <c:v>2070.0424198940818</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2082.5167988048179</c:v>
+                  <c:v>2082.5865168633218</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2086.0496834798387</c:v>
+                  <c:v>2086.0907134770578</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2121.5860729661367</c:v>
+                  <c:v>2121.2666649160242</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2155.2737019387396</c:v>
+                  <c:v>2154.5109296543583</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2160.3103145693699</c:v>
+                  <c:v>2159.2747743102564</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2163.9518845693706</c:v>
+                  <c:v>2162.916344310257</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2174.6586021911089</c:v>
+                  <c:v>2173.6230619319954</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2304.2591741530955</c:v>
+                  <c:v>2303.223633893982</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2411.0012179311511</c:v>
+                  <c:v>2409.9656776720376</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2428.4903916160797</c:v>
+                  <c:v>2427.4548513569662</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2443.171827195762</c:v>
+                  <c:v>2442.1362869366485</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2437.6209891358512</c:v>
+                  <c:v>2436.5854488767377</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2484.3820930048309</c:v>
+                  <c:v>2483.3465527457174</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2546.2986159556554</c:v>
+                  <c:v>2545.2630756965418</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2612.7679016516258</c:v>
+                  <c:v>2611.7323613925123</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2628.5733162344541</c:v>
+                  <c:v>2627.5377759753405</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2633.6658962308707</c:v>
+                  <c:v>2632.6303559717571</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2796.169715605437</c:v>
+                  <c:v>2794.3876953463241</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2929.8997790539315</c:v>
+                  <c:v>2927.1539362553685</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3138.137398568088</c:v>
+                  <c:v>3135.5861670544855</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3545.1064933256703</c:v>
+                  <c:v>3542.6500166883184</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4064.9956888334327</c:v>
+                  <c:v>4062.1164629794043</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4466.7862456893326</c:v>
+                  <c:v>4462.9203352572413</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4680.3706180317258</c:v>
+                  <c:v>4675.4877350226261</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4768.8046217671199</c:v>
+                  <c:v>4763.588282997167</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4847.9609687361826</c:v>
+                  <c:v>4842.791089296923</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5294.5542070217689</c:v>
+                  <c:v>5288.5558277635719</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5428.0784294157993</c:v>
+                  <c:v>5421.4421416941914</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5394.8728413640729</c:v>
+                  <c:v>5387.9358458787192</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5789.307199274208</c:v>
+                  <c:v>5781.6018143866768</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6056.4970144330227</c:v>
+                  <c:v>6048.2297512717269</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6423.8579034741933</c:v>
+                  <c:v>6414.7553812283222</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6249.6271030630251</c:v>
+                  <c:v>6240.9766712020419</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6405.4214632572184</c:v>
+                  <c:v>6396.3206704588383</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6447.124900650886</c:v>
+                  <c:v>6437.8856879996092</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6344.9790420681766</c:v>
+                  <c:v>6336.133438855145</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6336.2929109085917</c:v>
+                  <c:v>6327.4846509506451</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6307.370522073209</c:v>
+                  <c:v>6298.6996571103864</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6276.6138989676274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3488,7 +3514,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3689,6 +3715,9 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3698,7 +3727,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3730,175 +3759,178 @@
                   <c:v>-126.41850260498472</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-118.45998616445331</c:v>
+                  <c:v>-120.43509243436642</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>277.59026878162422</c:v>
+                  <c:v>278.00301399526666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>466.67571942456084</c:v>
+                  <c:v>467.07187913920143</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>400.76056074590474</c:v>
+                  <c:v>401.22311911353881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>320.22201513501545</c:v>
+                  <c:v>320.85418126960849</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>358.06606647892772</c:v>
+                  <c:v>358.56961500971397</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>365.13818725626493</c:v>
+                  <c:v>365.61154366786195</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>405.82040120336751</c:v>
+                  <c:v>406.06929989366677</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>444.89735372515383</c:v>
+                  <c:v>444.89296389407764</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>457.53753280481374</c:v>
+                  <c:v>457.43706086331758</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>461.07041747983453</c:v>
+                  <c:v>460.94125747705357</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>496.60680696613258</c:v>
+                  <c:v>496.11720891601999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>530.29443593873543</c:v>
+                  <c:v>529.36147365435409</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>535.33104856936575</c:v>
+                  <c:v>534.12531831025217</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>535.33743419110328</c:v>
+                  <c:v>534.1317039319897</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>534.38163015309055</c:v>
+                  <c:v>533.17589989397675</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>537.22928193114694</c:v>
+                  <c:v>536.02355167203314</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>554.71845561607552</c:v>
+                  <c:v>553.51272535696171</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>569.39989119575785</c:v>
+                  <c:v>568.19416093664404</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>563.84905313584704</c:v>
+                  <c:v>562.64332287673324</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>558.58719700482584</c:v>
+                  <c:v>557.38146674571203</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>556.87497995565013</c:v>
+                  <c:v>555.66924969653633</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>555.77654165162039</c:v>
+                  <c:v>554.57081139250658</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>564.16049423444792</c:v>
+                  <c:v>562.95476397533412</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>569.25307423086451</c:v>
+                  <c:v>568.04734397175071</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>538.35483760543002</c:v>
+                  <c:v>537.14910734631621</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>554.25538905392386</c:v>
+                  <c:v>553.02209825536011</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>502.84178256807945</c:v>
+                  <c:v>501.76429105447642</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>344.04866332566189</c:v>
+                  <c:v>343.28267868830972</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>450.05282883342488</c:v>
+                  <c:v>449.15915297939637</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>607.9765536893251</c:v>
+                  <c:v>606.91155525723343</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>654.64018603171826</c:v>
+                  <c:v>653.51233302261835</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>528.52672376711325</c:v>
+                  <c:v>527.60847299715988</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>280.99279473617571</c:v>
+                  <c:v>280.5051552969162</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>600.92505502176209</c:v>
+                  <c:v>599.90459376356466</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>674.9088794157924</c:v>
+                  <c:v>673.76306369418398</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>558.72900136406588</c:v>
+                  <c:v>557.7956518787114</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>953.16335927420096</c:v>
+                  <c:v>951.46162038666898</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1220.3531744330157</c:v>
+                  <c:v>1218.0895572717191</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1587.7140634741863</c:v>
+                  <c:v>1584.6151872283144</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1413.4832630630181</c:v>
+                  <c:v>1410.8364772020341</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1569.2776232572114</c:v>
+                  <c:v>1566.1804764588305</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1610.981060650879</c:v>
+                  <c:v>1607.7454939996014</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1508.8352020681696</c:v>
+                  <c:v>1505.9932448551372</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1500.1490709085847</c:v>
+                  <c:v>1497.3444569506373</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1471.226682073202</c:v>
+                  <c:v>1468.5594631103786</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1446.4737049676196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3920,11 +3952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451191552"/>
-        <c:axId val="451193088"/>
+        <c:axId val="472352640"/>
+        <c:axId val="472354176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451191552"/>
+        <c:axId val="472352640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3967,14 +3999,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451193088"/>
+        <c:crossAx val="472354176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451193088"/>
+        <c:axId val="472354176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4023,7 +4055,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451191552"/>
+        <c:crossAx val="472352640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4131,7 +4163,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4174,7 +4206,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4487,7 +4519,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4857,22 +4889,22 @@
       </c>
       <c r="AB6" s="1">
         <f>VLOOKUP(AA6,O:P,2,)</f>
-        <v>287.98245355098834</v>
+        <v>287.82612266325077</v>
       </c>
       <c r="AC6" s="1">
         <f t="shared" si="3"/>
-        <v>-287.98245355098834</v>
+        <v>-287.82612266325077</v>
       </c>
       <c r="AD6" s="6">
         <v>43830</v>
       </c>
       <c r="AE6" s="7">
         <f>VLOOKUP(AD6,O:P,2,)</f>
-        <v>287.98245355098834</v>
+        <v>287.82612266325077</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="4"/>
-        <v>-287.98245355098834</v>
+        <v>-287.82612266325077</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="14.1" customHeight="1">
@@ -4914,25 +4946,25 @@
         <v>43830</v>
       </c>
       <c r="P7" s="10">
-        <v>287.98245355098834</v>
+        <v>287.82612266325077</v>
       </c>
       <c r="Q7" s="5">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="R7" s="5">
-        <v>3217.6093105743603</v>
+        <v>3217.9034879507626</v>
       </c>
       <c r="S7" s="5">
-        <v>817.71748376243022</v>
+        <v>818.16799202657012</v>
       </c>
       <c r="T7" s="5">
-        <v>1365.8977430166979</v>
+        <v>1370.5758703073689</v>
       </c>
       <c r="U7" s="9">
-        <v>0.34073097571597816</v>
+        <v>0.34094090511899316</v>
       </c>
       <c r="V7" s="9">
-        <v>0.15583831681496263</v>
+        <v>0.15592183291771655</v>
       </c>
       <c r="Z7" s="8">
         <f>IRR(Z4:Z6)</f>
@@ -4942,7 +4974,7 @@
         <v>43830</v>
       </c>
       <c r="AC7" s="1">
-        <v>3217.6093105743603</v>
+        <v>3217.9034879507626</v>
       </c>
       <c r="AD7" s="6">
         <v>44196</v>
@@ -4998,32 +5030,32 @@
         <v>0</v>
       </c>
       <c r="Q8" s="5">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="R8" s="5">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="S8" s="5">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="T8" s="5">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="U8" s="9">
-        <v>0.42540774323299424</v>
+        <v>0.4251298770496863</v>
       </c>
       <c r="V8" s="9">
-        <v>0.12448297099432648</v>
+        <v>0.12440803408802292</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
-        <v>0.15583831681496263</v>
+        <v>0.15592183291771655</v>
       </c>
       <c r="AD8" s="6">
         <v>44196</v>
       </c>
       <c r="AF8" s="7">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1">
@@ -5068,26 +5100,26 @@
         <v>0</v>
       </c>
       <c r="Q9" s="5">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="R9" s="5">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="S9" s="5">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="T9" s="5">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="U9" s="9">
-        <v>0.42540774323299424</v>
+        <v>0.4251298770496863</v>
       </c>
       <c r="V9" s="9">
         <v>0.11623036743162096</v>
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
-        <v>0.12448297099432648</v>
+        <v>0.12440803408802292</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1">
@@ -5129,22 +5161,22 @@
         <v>44925</v>
       </c>
       <c r="P10" s="10">
-        <v>1191.9854404928446</v>
+        <v>1187.9495283804376</v>
       </c>
       <c r="Q10" s="5">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="R10" s="5">
-        <v>4692.9521370177645</v>
+        <v>4687.9403225778906</v>
       </c>
       <c r="S10" s="5">
-        <v>1101.0748697129898</v>
+        <v>1100.2552982732605</v>
       </c>
       <c r="T10" s="5">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="U10" s="9">
-        <v>0.30654579423845396</v>
+        <v>0.30667555563535387</v>
       </c>
       <c r="V10" s="9">
         <v>9.2107928430304797E-2</v>
@@ -5826,31 +5858,31 @@
         <v>43496</v>
       </c>
       <c r="B26" s="25">
-        <v>0.67819000000000007</v>
+        <v>0.67716999999999994</v>
       </c>
       <c r="C26" s="20">
-        <v>0.86047514038876904</v>
+        <v>0.86008008620689669</v>
       </c>
       <c r="D26" s="21">
-        <v>282.54196760259191</v>
+        <v>283.51063362068999</v>
       </c>
       <c r="E26" s="22">
-        <v>416.61181616153567</v>
+        <v>418.6698076121063</v>
       </c>
       <c r="F26" s="22">
-        <v>2856.0537829664881</v>
+        <v>2858.1117744170588</v>
       </c>
       <c r="G26" s="22">
-        <v>1936.9471150700429</v>
+        <v>1935.4275502819994</v>
       </c>
       <c r="H26" s="22">
-        <v>2394.4513408635335</v>
+        <v>2395.4200068816317</v>
       </c>
       <c r="I26" s="22">
-        <v>2254.4679954794947</v>
+        <v>2252.948430691451</v>
       </c>
       <c r="J26" s="22">
-        <v>-139.98334538403878</v>
+        <v>-142.47157619018071</v>
       </c>
       <c r="K26" s="21">
         <v>317.52088040945171</v>
@@ -5865,28 +5897,28 @@
         <v>0.85648000000000002</v>
       </c>
       <c r="C27" s="20">
-        <v>0.8580328242677826</v>
+        <v>0.85765524008350746</v>
       </c>
       <c r="D27" s="21">
-        <v>2.406877615063002</v>
+        <v>1.8216221294365398</v>
       </c>
       <c r="E27" s="22">
-        <v>2.8101971033334134</v>
+        <v>2.1268705976047775</v>
       </c>
       <c r="F27" s="22">
-        <v>2858.8639800698215</v>
+        <v>2860.2386450146637</v>
       </c>
       <c r="G27" s="22">
-        <v>2448.5598216502008</v>
+        <v>2449.737194682159</v>
       </c>
       <c r="H27" s="22">
-        <v>2396.8582184785964</v>
+        <v>2397.2416290110682</v>
       </c>
       <c r="I27" s="22">
-        <v>2766.0807020596526</v>
+        <v>2767.2580750916109</v>
       </c>
       <c r="J27" s="22">
-        <v>369.22248358105617</v>
+        <v>370.01644608054266</v>
       </c>
       <c r="K27" s="21">
         <v>317.52088040945171</v>
@@ -5901,31 +5933,31 @@
         <v>0.94580999999999993</v>
       </c>
       <c r="C28" s="20">
-        <v>0.86124096192384803</v>
+        <v>0.86087282000000032</v>
       </c>
       <c r="D28" s="21">
-        <v>-131.08200901803545</v>
+        <v>-131.65262899999939</v>
       </c>
       <c r="E28" s="22">
-        <v>-138.59232723066521</v>
+        <v>-139.19564077351626</v>
       </c>
       <c r="F28" s="22">
-        <v>2720.2716528391566</v>
+        <v>2721.0430042411476</v>
       </c>
       <c r="G28" s="22">
-        <v>2572.8601319718023</v>
+        <v>2573.5896838413196</v>
       </c>
       <c r="H28" s="22">
-        <v>2396.8582184785964</v>
+        <v>2397.2416290110682</v>
       </c>
       <c r="I28" s="22">
-        <v>3021.4630213992896</v>
+        <v>3022.7631932507707</v>
       </c>
       <c r="J28" s="22">
-        <v>624.60480292069315</v>
+        <v>625.52156423970246</v>
       </c>
       <c r="K28" s="21">
-        <v>448.60288942748718</v>
+        <v>449.17350940945107</v>
       </c>
       <c r="L28" s="7"/>
     </row>
@@ -5937,31 +5969,31 @@
         <v>0.9108099999999999</v>
       </c>
       <c r="C29" s="20">
-        <v>0.86549344230769254</v>
+        <v>0.86513197696737065</v>
       </c>
       <c r="D29" s="21">
-        <v>-70.24066442307641</v>
+        <v>-70.800935700575323</v>
       </c>
       <c r="E29" s="22">
-        <v>-77.118899027323394</v>
+        <v>-77.734034211938095</v>
       </c>
       <c r="F29" s="22">
-        <v>2643.152753811833</v>
+        <v>2643.3089700292094</v>
       </c>
       <c r="G29" s="22">
-        <v>2407.4099596993556</v>
+        <v>2407.5522429923039</v>
       </c>
       <c r="H29" s="22">
-        <v>2396.8582184785964</v>
+        <v>2397.2416290110682</v>
       </c>
       <c r="I29" s="22">
-        <v>2926.2535135499193</v>
+        <v>2927.5266881023304</v>
       </c>
       <c r="J29" s="22">
-        <v>529.39529507132283</v>
+        <v>530.28505909126216</v>
       </c>
       <c r="K29" s="21">
-        <v>518.84355385056358</v>
+        <v>519.97444511002641</v>
       </c>
       <c r="L29" s="7"/>
     </row>
@@ -5973,31 +6005,31 @@
         <v>0.86360000000000003</v>
       </c>
       <c r="C30" s="20">
-        <v>0.86555716666666693</v>
+        <v>0.86520894639556412</v>
       </c>
       <c r="D30" s="21">
-        <v>3.0336083333336927</v>
+        <v>2.4938669131243261</v>
       </c>
       <c r="E30" s="22">
-        <v>3.5127470279454522</v>
+        <v>2.8877569628581821</v>
       </c>
       <c r="F30" s="22">
-        <v>2646.6655008397784</v>
+        <v>2646.1967269920674</v>
       </c>
       <c r="G30" s="22">
-        <v>2285.6603265252329</v>
+        <v>2285.2554934303494</v>
       </c>
       <c r="H30" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I30" s="22">
-        <v>2804.5038803757966</v>
+        <v>2805.2299385403758</v>
       </c>
       <c r="J30" s="22">
-        <v>404.61205356386654</v>
+        <v>405.49444261618328</v>
       </c>
       <c r="K30" s="21">
-        <v>518.84355385056358</v>
+        <v>519.97444511002641</v>
       </c>
       <c r="L30" s="7"/>
     </row>
@@ -6009,31 +6041,31 @@
         <v>0.88732</v>
       </c>
       <c r="C31" s="20">
-        <v>0.86554053667263009</v>
+        <v>0.86520416071428607</v>
       </c>
       <c r="D31" s="21">
-        <v>-33.758168157423356</v>
+        <v>-34.279550892856584</v>
       </c>
       <c r="E31" s="22">
-        <v>-38.045088758760485</v>
+        <v>-38.632681437200318</v>
       </c>
       <c r="F31" s="22">
-        <v>2608.620412081018</v>
+        <v>2607.5640455548669</v>
       </c>
       <c r="G31" s="22">
-        <v>2314.6810640477288</v>
+        <v>2313.7437289017444</v>
       </c>
       <c r="H31" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I31" s="22">
-        <v>2867.2827860557159</v>
+        <v>2867.9977249046274</v>
       </c>
       <c r="J31" s="22">
-        <v>467.3909592437858</v>
+        <v>468.26222898043488</v>
       </c>
       <c r="K31" s="21">
-        <v>552.60172200798695</v>
+        <v>554.25399600288301</v>
       </c>
       <c r="L31" s="7"/>
     </row>
@@ -6045,31 +6077,31 @@
         <v>0.89222000000000001</v>
       </c>
       <c r="C32" s="20">
-        <v>0.86642510309278375</v>
+        <v>0.86610048027444275</v>
       </c>
       <c r="D32" s="21">
-        <v>-39.982090206185198</v>
+        <v>-40.485255574613753</v>
       </c>
       <c r="E32" s="22">
-        <v>-44.811918816194655</v>
+        <v>-45.375866461874594</v>
       </c>
       <c r="F32" s="22">
-        <v>2563.8084932648235</v>
+        <v>2562.1881790929924</v>
       </c>
       <c r="G32" s="22">
-        <v>2287.4812138607408</v>
+        <v>2286.0355371503497</v>
       </c>
       <c r="H32" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I32" s="22">
-        <v>2880.065026074913</v>
+        <v>2880.7747887278465</v>
       </c>
       <c r="J32" s="22">
-        <v>480.17319926298296</v>
+        <v>481.03929280365401</v>
       </c>
       <c r="K32" s="21">
-        <v>592.5838122141721</v>
+        <v>594.73925157749682</v>
       </c>
       <c r="L32" s="7"/>
     </row>
@@ -6081,31 +6113,31 @@
         <v>0.92357</v>
       </c>
       <c r="C33" s="20">
-        <v>0.86719825870646772</v>
+        <v>0.86687626446280996</v>
       </c>
       <c r="D33" s="21">
-        <v>-87.376199004975035</v>
+        <v>-87.875290082644554</v>
       </c>
       <c r="E33" s="22">
-        <v>-94.607013009273828</v>
+        <v>-95.147406349972982</v>
       </c>
       <c r="F33" s="22">
-        <v>2469.2014802555495</v>
+        <v>2467.0407727430193</v>
       </c>
       <c r="G33" s="22">
-        <v>2280.4804111196181</v>
+        <v>2278.4848464822703</v>
       </c>
       <c r="H33" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I33" s="22">
-        <v>2960.4404223387655</v>
+        <v>2961.099388142412</v>
       </c>
       <c r="J33" s="22">
-        <v>560.54859552683547</v>
+        <v>561.36389221821946</v>
       </c>
       <c r="K33" s="21">
-        <v>679.96001121914719</v>
+        <v>682.61454166014141</v>
       </c>
       <c r="L33" s="7"/>
     </row>
@@ -6117,31 +6149,31 @@
         <v>0.95855999999999997</v>
       </c>
       <c r="C34" s="20">
-        <v>0.87132205457463874</v>
+        <v>0.87099716799999982</v>
       </c>
       <c r="D34" s="21">
-        <v>-135.21881540930991</v>
+        <v>-135.72238960000021</v>
       </c>
       <c r="E34" s="22">
-        <v>-141.0645295122996</v>
+        <v>-141.58987397763335</v>
       </c>
       <c r="F34" s="22">
-        <v>2328.1369507432501</v>
+        <v>2325.4508987653858</v>
       </c>
       <c r="G34" s="22">
-        <v>2231.6589555044498</v>
+        <v>2229.084213520548</v>
       </c>
       <c r="H34" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I34" s="22">
-        <v>3046.8377821329068</v>
+        <v>3047.4211447806897</v>
       </c>
       <c r="J34" s="22">
-        <v>646.94595532097674</v>
+        <v>647.68564885649721</v>
       </c>
       <c r="K34" s="21">
-        <v>815.17882662845705</v>
+        <v>818.33693126014168</v>
       </c>
       <c r="L34" s="7"/>
     </row>
@@ -6153,31 +6185,31 @@
         <v>0.97238999999999998</v>
       </c>
       <c r="C35" s="20">
-        <v>0.87426804992199714</v>
+        <v>0.87394309486780741</v>
       </c>
       <c r="D35" s="21">
-        <v>-152.08902262090442</v>
+        <v>-152.59270295489847</v>
       </c>
       <c r="E35" s="22">
-        <v>-156.40743181326877</v>
+        <v>-156.92541362508712</v>
       </c>
       <c r="F35" s="22">
-        <v>2171.7295189299812</v>
+        <v>2168.5254851402988</v>
       </c>
       <c r="G35" s="22">
-        <v>2111.7680669123242</v>
+        <v>2108.6524964955752</v>
       </c>
       <c r="H35" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I35" s="22">
-        <v>3079.0359161616857</v>
+        <v>3079.5821307106153</v>
       </c>
       <c r="J35" s="22">
-        <v>679.14408934975563</v>
+        <v>679.84663478642278</v>
       </c>
       <c r="K35" s="21">
-        <v>967.26784924936146</v>
+        <v>970.9296342150401</v>
       </c>
       <c r="L35" s="7"/>
     </row>
@@ -6189,31 +6221,31 @@
         <v>0.97728999999999999</v>
       </c>
       <c r="C36" s="20">
-        <v>0.87806616314199404</v>
+        <v>0.87774004518072291</v>
       </c>
       <c r="D36" s="21">
-        <v>-153.79694712990923</v>
+        <v>-154.30242996987948</v>
       </c>
       <c r="E36" s="22">
-        <v>-157.37083888089433</v>
+        <v>-157.88806799402377</v>
       </c>
       <c r="F36" s="22">
-        <v>2014.3586800490868</v>
+        <v>2010.6374171462751</v>
       </c>
       <c r="G36" s="22">
-        <v>1968.6125944251721</v>
+        <v>1964.9758414028831</v>
       </c>
       <c r="H36" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I36" s="22">
-        <v>3089.6773908044429</v>
+        <v>3090.207905587803</v>
       </c>
       <c r="J36" s="22">
-        <v>689.78556399251283</v>
+        <v>690.47240966361051</v>
       </c>
       <c r="K36" s="21">
-        <v>1121.0647963792708</v>
+        <v>1125.2320641849196</v>
       </c>
       <c r="L36" s="7"/>
       <c r="O36" s="3"/>
@@ -6226,31 +6258,31 @@
         <v>1.0407999999999999</v>
       </c>
       <c r="C37" s="20">
-        <v>0.8828432602339179</v>
+        <v>0.88251367346938747</v>
       </c>
       <c r="D37" s="21">
-        <v>-244.83294663742717</v>
+        <v>-245.34380612244934</v>
       </c>
       <c r="E37" s="22">
-        <v>-235.2353445786195</v>
+        <v>-235.72617805769536</v>
       </c>
       <c r="F37" s="22">
-        <v>1779.1233354704673</v>
+        <v>1774.9112390885798</v>
       </c>
       <c r="G37" s="22">
-        <v>1851.7115675576622</v>
+        <v>1847.3276176433938</v>
       </c>
       <c r="H37" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I37" s="22">
-        <v>3217.6093105743603</v>
+        <v>3217.9034879507626</v>
       </c>
       <c r="J37" s="22">
-        <v>817.71748376243022</v>
+        <v>818.16799202657012</v>
       </c>
       <c r="K37" s="21">
-        <v>1365.8977430166979</v>
+        <v>1370.5758703073689</v>
       </c>
       <c r="L37" s="7"/>
     </row>
@@ -6262,31 +6294,31 @@
         <v>1.13632</v>
       </c>
       <c r="C38" s="20">
-        <v>0.88820977142857116</v>
+        <v>0.88787240740740703</v>
       </c>
       <c r="D38" s="21">
-        <v>-384.57085428571469</v>
+        <v>-385.09376851851908</v>
       </c>
       <c r="E38" s="22">
-        <v>-338.43534768878015</v>
+        <v>-338.89552988464436</v>
       </c>
       <c r="F38" s="22">
-        <v>1440.6879877816871</v>
+        <v>1436.0157092039353</v>
       </c>
       <c r="G38" s="22">
-        <v>1637.0825742760867</v>
+        <v>1631.7733706826157</v>
       </c>
       <c r="H38" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I38" s="22">
-        <v>3387.5511715784992</v>
+        <v>3387.4430095085036</v>
       </c>
       <c r="J38" s="22">
-        <v>987.65934476656912</v>
+        <v>987.70751358431107</v>
       </c>
       <c r="K38" s="21">
-        <v>1750.4685973024125</v>
+        <v>1755.6696388258879</v>
       </c>
       <c r="L38" s="7"/>
     </row>
@@ -6298,31 +6330,31 @@
         <v>1.2075199999999999</v>
       </c>
       <c r="C39" s="20">
-        <v>0.89720491666666646</v>
+        <v>0.89685198060941806</v>
       </c>
       <c r="D39" s="21">
-        <v>-480.98837916666685</v>
+        <v>-481.53543005540189</v>
       </c>
       <c r="E39" s="22">
-        <v>-398.32746386533296</v>
+        <v>-398.78050057589269</v>
       </c>
       <c r="F39" s="22">
-        <v>1042.3605239163542</v>
+        <v>1037.2352086280425</v>
       </c>
       <c r="G39" s="22">
-        <v>1258.6711798394758</v>
+        <v>1252.4822591225338</v>
       </c>
       <c r="H39" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I39" s="22">
-        <v>3490.1281563085554</v>
+        <v>3489.6873280038235</v>
       </c>
       <c r="J39" s="22">
-        <v>1090.2363294966253</v>
+        <v>1089.951832079631</v>
       </c>
       <c r="K39" s="21">
-        <v>2231.4569764690796</v>
+        <v>2237.2050688812897</v>
       </c>
       <c r="L39" s="7"/>
     </row>
@@ -6334,31 +6366,31 @@
         <v>1.0721400000000001</v>
       </c>
       <c r="C40" s="20">
-        <v>0.90529318059299169</v>
+        <v>0.90492893817204278</v>
       </c>
       <c r="D40" s="21">
-        <v>-258.61257008086301</v>
+        <v>-259.17714583333384</v>
       </c>
       <c r="E40" s="22">
-        <v>-241.21156759458933</v>
+        <v>-241.7381553093195</v>
       </c>
       <c r="F40" s="22">
-        <v>801.1489563217649</v>
+        <v>795.49705331872303</v>
       </c>
       <c r="G40" s="22">
-        <v>858.94384203081711</v>
+        <v>852.88421074513576</v>
       </c>
       <c r="H40" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I40" s="22">
-        <v>3349.0133885807595</v>
+        <v>3349.2664254597594</v>
       </c>
       <c r="J40" s="22">
-        <v>949.12156176882945</v>
+        <v>949.53092953556688</v>
       </c>
       <c r="K40" s="21">
-        <v>2490.0695465499425</v>
+        <v>2496.3822147146234</v>
       </c>
       <c r="L40" s="7"/>
     </row>
@@ -6370,31 +6402,31 @@
         <v>1.13618</v>
       </c>
       <c r="C41" s="20">
-        <v>0.91107858453473123</v>
+        <v>0.91070921568627439</v>
       </c>
       <c r="D41" s="21">
-        <v>-348.90719397116652</v>
+        <v>-349.47971568627463</v>
       </c>
       <c r="E41" s="22">
-        <v>-307.08795610833363</v>
+        <v>-307.59185664795598</v>
       </c>
       <c r="F41" s="22">
-        <v>494.06100021343127</v>
+        <v>487.90519667076705</v>
       </c>
       <c r="G41" s="22">
-        <v>561.34222722249638</v>
+        <v>554.3481263533921</v>
       </c>
       <c r="H41" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I41" s="22">
-        <v>3400.3189677436058</v>
+        <v>3400.2100567542902</v>
       </c>
       <c r="J41" s="22">
-        <v>1000.4271409316757</v>
+        <v>1000.4745608300977</v>
       </c>
       <c r="K41" s="21">
-        <v>2838.9767405211091</v>
+        <v>2845.861930400898</v>
       </c>
       <c r="L41" s="7"/>
     </row>
@@ -6406,31 +6438,31 @@
         <v>1.12294</v>
       </c>
       <c r="C42" s="20">
-        <v>0.91666642765685002</v>
+        <v>0.91629127713920799</v>
       </c>
       <c r="D42" s="21">
-        <v>-319.72403713188254</v>
+        <v>-320.30552043422767</v>
       </c>
       <c r="E42" s="22">
-        <v>-284.72049898648419</v>
+        <v>-285.23832122306413</v>
       </c>
       <c r="F42" s="22">
-        <v>209.34050122694708</v>
+        <v>202.66687544770292</v>
       </c>
       <c r="G42" s="22">
-        <v>235.07682244778798</v>
+        <v>227.58274111524352</v>
       </c>
       <c r="H42" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I42" s="22">
-        <v>3393.7776001007796</v>
+        <v>3393.7501919503693</v>
       </c>
       <c r="J42" s="22">
-        <v>993.88577328884958</v>
+        <v>994.01469602617681</v>
       </c>
       <c r="K42" s="21">
-        <v>3158.7007776529917</v>
+        <v>3166.1674508351257</v>
       </c>
       <c r="L42" s="7"/>
     </row>
@@ -6442,13 +6474,13 @@
         <v>1.25214</v>
       </c>
       <c r="C43" s="20">
-        <v>0.92355369538077381</v>
+        <v>0.92317073474470712</v>
       </c>
       <c r="D43" s="21">
-        <v>-262.12361520630952</v>
+        <v>-253.76730142308674</v>
       </c>
       <c r="E43" s="22">
-        <v>-209.34050122694708</v>
+        <v>-202.66687544770292</v>
       </c>
       <c r="F43" s="22">
         <v>0</v>
@@ -6457,16 +6489,16 @@
         <v>0</v>
       </c>
       <c r="H43" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I43" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J43" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K43" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="L43" s="7"/>
     </row>
@@ -6478,7 +6510,7 @@
         <v>1.3561700000000001</v>
       </c>
       <c r="C44" s="20">
-        <v>0.93564675970873734</v>
+        <v>0.93524518159806236</v>
       </c>
       <c r="D44" s="21">
         <v>0</v>
@@ -6493,16 +6525,16 @@
         <v>0</v>
       </c>
       <c r="H44" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I44" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J44" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K44" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="L44" s="7"/>
     </row>
@@ -6514,7 +6546,7 @@
         <v>1.35833</v>
       </c>
       <c r="C45" s="20">
-        <v>0.9459795739644965</v>
+        <v>0.9455635537190078</v>
       </c>
       <c r="D45" s="21">
         <v>0</v>
@@ -6529,16 +6561,16 @@
         <v>0</v>
       </c>
       <c r="H45" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I45" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J45" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K45" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="L45" s="7"/>
     </row>
@@ -6550,7 +6582,7 @@
         <v>1.2336199999999999</v>
       </c>
       <c r="C46" s="20">
-        <v>0.95444417531718506</v>
+        <v>0.9540192059838889</v>
       </c>
       <c r="D46" s="21">
         <v>0</v>
@@ -6565,16 +6597,16 @@
         <v>0</v>
       </c>
       <c r="H46" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I46" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J46" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K46" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="L46" s="7"/>
     </row>
@@ -6586,7 +6618,7 @@
         <v>1.2367600000000001</v>
       </c>
       <c r="C47" s="20">
-        <v>0.96014630804076961</v>
+        <v>0.95971613559321989</v>
       </c>
       <c r="D47" s="21">
         <v>0</v>
@@ -6601,16 +6633,16 @@
         <v>0</v>
       </c>
       <c r="H47" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I47" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J47" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K47" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="L47" s="7"/>
     </row>
@@ -6622,7 +6654,7 @@
         <v>1.23942</v>
       </c>
       <c r="C48" s="20">
-        <v>0.96710720132743311</v>
+        <v>0.96667163355408336</v>
       </c>
       <c r="D48" s="21">
         <v>0</v>
@@ -6637,16 +6669,16 @@
         <v>0</v>
       </c>
       <c r="H48" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I48" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J48" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K48" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="L48" s="7"/>
     </row>
@@ -6658,7 +6690,7 @@
         <v>1.2531099999999999</v>
       </c>
       <c r="C49" s="20">
-        <v>0.97392800431499404</v>
+        <v>0.9734885360602793</v>
       </c>
       <c r="D49" s="21">
         <v>0</v>
@@ -6673,16 +6705,16 @@
         <v>0</v>
       </c>
       <c r="H49" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I49" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J49" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K49" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.1" customHeight="1">
@@ -6693,7 +6725,7 @@
         <v>1.2375</v>
       </c>
       <c r="C50" s="20">
-        <v>0.98019564941921822</v>
+        <v>0.97975223393045274</v>
       </c>
       <c r="D50" s="21">
         <v>0</v>
@@ -6708,16 +6740,16 @@
         <v>0</v>
       </c>
       <c r="H50" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I50" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J50" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K50" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.1" customHeight="1">
@@ -6728,7 +6760,7 @@
         <v>1.23967</v>
       </c>
       <c r="C51" s="20">
-        <v>0.984757931392931</v>
+        <v>0.98431195020746853</v>
       </c>
       <c r="D51" s="21">
         <v>0</v>
@@ -6743,16 +6775,16 @@
         <v>0</v>
       </c>
       <c r="H51" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I51" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J51" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K51" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.1" customHeight="1">
@@ -6763,7 +6795,7 @@
         <v>1.15709</v>
       </c>
       <c r="C52" s="20">
-        <v>0.98919197969543116</v>
+        <v>0.98874740628166125</v>
       </c>
       <c r="D52" s="21">
         <v>0</v>
@@ -6778,16 +6810,16 @@
         <v>0</v>
       </c>
       <c r="H52" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I52" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J52" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K52" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.1" customHeight="1">
@@ -6798,7 +6830,7 @@
         <v>1.17998</v>
       </c>
       <c r="C53" s="20">
-        <v>0.99311644135188804</v>
+        <v>0.99267334325396761</v>
       </c>
       <c r="D53" s="21">
         <v>0</v>
@@ -6813,16 +6845,16 @@
         <v>0</v>
       </c>
       <c r="H53" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I53" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J53" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K53" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.1" customHeight="1">
@@ -6833,7 +6865,7 @@
         <v>1.2623</v>
       </c>
       <c r="C54" s="20">
-        <v>0.99678004882812443</v>
+        <v>0.99633758284600327</v>
       </c>
       <c r="D54" s="21">
         <v>0</v>
@@ -6848,16 +6880,16 @@
         <v>0</v>
       </c>
       <c r="H54" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I54" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J54" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K54" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.1" customHeight="1">
@@ -6868,7 +6900,7 @@
         <v>1.33643</v>
       </c>
       <c r="C55" s="20">
-        <v>1.0025140478468895</v>
+        <v>1.0020695033428839</v>
       </c>
       <c r="D55" s="21">
         <v>0</v>
@@ -6883,16 +6915,16 @@
         <v>0</v>
       </c>
       <c r="H55" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I55" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J55" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K55" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.1" customHeight="1">
@@ -6903,7 +6935,7 @@
         <v>1.28626</v>
       </c>
       <c r="C56" s="20">
-        <v>1.0086370852858479</v>
+        <v>1.0081902338634234</v>
       </c>
       <c r="D56" s="21">
         <v>0</v>
@@ -6918,16 +6950,16 @@
         <v>0</v>
       </c>
       <c r="H56" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I56" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J56" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K56" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.1" customHeight="1">
@@ -6938,7 +6970,7 @@
         <v>1.2177899999999999</v>
       </c>
       <c r="C57" s="20">
-        <v>1.0138825528007342</v>
+        <v>1.0134350962419794</v>
       </c>
       <c r="D57" s="21">
         <v>0</v>
@@ -6953,16 +6985,16 @@
         <v>0</v>
       </c>
       <c r="H57" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I57" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J57" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K57" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.1" customHeight="1">
@@ -6973,7 +7005,7 @@
         <v>1.20347</v>
       </c>
       <c r="C58" s="20">
-        <v>1.0177556176735794</v>
+        <v>1.0173092439243918</v>
       </c>
       <c r="D58" s="21">
         <v>0</v>
@@ -6988,16 +7020,16 @@
         <v>0</v>
       </c>
       <c r="H58" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I58" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J58" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K58" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.1" customHeight="1">
@@ -7008,7 +7040,7 @@
         <v>1.1970999999999998</v>
       </c>
       <c r="C59" s="20">
-        <v>1.0204018311111105</v>
+        <v>1.0199570984915698</v>
       </c>
       <c r="D59" s="21">
         <v>0</v>
@@ -7023,16 +7055,16 @@
         <v>0</v>
       </c>
       <c r="H59" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I59" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J59" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K59" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.1" customHeight="1">
@@ -7043,7 +7075,7 @@
         <v>1.23373</v>
       </c>
       <c r="C60" s="20">
-        <v>1.0245603661726232</v>
+        <v>1.0241169103568308</v>
       </c>
       <c r="D60" s="21">
         <v>0</v>
@@ -7058,16 +7090,16 @@
         <v>0</v>
       </c>
       <c r="H60" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I60" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J60" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K60" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.1" customHeight="1">
@@ -7078,7 +7110,7 @@
         <v>1.2554100000000001</v>
       </c>
       <c r="C61" s="20">
-        <v>1.0289409572649562</v>
+        <v>1.0284987286689407</v>
       </c>
       <c r="D61" s="21">
         <v>0</v>
@@ -7093,16 +7125,16 @@
         <v>0</v>
       </c>
       <c r="H61" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I61" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J61" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K61" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.1" customHeight="1">
@@ -7113,7 +7145,7 @@
         <v>1.11076</v>
       </c>
       <c r="C62" s="20">
-        <v>1.0316563299663286</v>
+        <v>1.0313231318219969</v>
       </c>
       <c r="D62" s="21">
         <v>0</v>
@@ -7128,16 +7160,16 @@
         <v>0</v>
       </c>
       <c r="H62" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I62" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J62" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K62" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.1" customHeight="1">
@@ -7148,7 +7180,7 @@
         <v>1.15177</v>
       </c>
       <c r="C63" s="20">
-        <v>1.0331931727574739</v>
+        <v>1.0328605716652843</v>
       </c>
       <c r="D63" s="21">
         <v>0</v>
@@ -7163,16 +7195,16 @@
         <v>0</v>
       </c>
       <c r="H63" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I63" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J63" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K63" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.1" customHeight="1">
@@ -7183,7 +7215,7 @@
         <v>1.0468499999999998</v>
       </c>
       <c r="C64" s="20">
-        <v>1.0340066340668286</v>
+        <v>1.0336782682926817</v>
       </c>
       <c r="D64" s="21">
         <v>0</v>
@@ -7198,16 +7230,16 @@
         <v>0</v>
       </c>
       <c r="H64" s="22">
-        <v>2399.8918268119301</v>
+        <v>2399.7354959241925</v>
       </c>
       <c r="I64" s="22">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="J64" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K64" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.1" customHeight="1">
@@ -7218,31 +7250,31 @@
         <v>0.83169999999999999</v>
       </c>
       <c r="C65" s="20">
-        <v>1.032387961476724</v>
+        <v>1.0320684787830248</v>
       </c>
       <c r="D65" s="21">
-        <v>311.06634028892216</v>
+        <v>310.57114211368838</v>
       </c>
       <c r="E65" s="22">
-        <v>374.01267318615146</v>
+        <v>373.41726838245569</v>
       </c>
       <c r="F65" s="22">
-        <v>374.01267318615146</v>
+        <v>373.41726838245569</v>
       </c>
       <c r="G65" s="22">
-        <v>311.06634028892216</v>
+        <v>310.57114211368838</v>
       </c>
       <c r="H65" s="22">
-        <v>2710.9581671008523</v>
+        <v>2710.3066380378809</v>
       </c>
       <c r="I65" s="22">
-        <v>3731.8907331482233</v>
+        <v>3730.5058943719009</v>
       </c>
       <c r="J65" s="22">
-        <v>1020.932566047371</v>
+        <v>1020.19925633402</v>
       </c>
       <c r="K65" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="14.1" customHeight="1">
@@ -7253,31 +7285,31 @@
         <v>0.90644000000000002</v>
       </c>
       <c r="C66" s="20">
-        <v>1.0300312806324092</v>
+        <v>1.0297221608832787</v>
       </c>
       <c r="D66" s="21">
-        <v>191.56648498023426</v>
+        <v>191.08734936908198</v>
       </c>
       <c r="E66" s="22">
-        <v>211.3393991662264</v>
+        <v>210.81080862393756</v>
       </c>
       <c r="F66" s="22">
-        <v>585.35207235237783</v>
+        <v>584.22807700639328</v>
       </c>
       <c r="G66" s="22">
-        <v>530.58653246308938</v>
+        <v>529.56769812167511</v>
       </c>
       <c r="H66" s="22">
-        <v>2902.5246520810865</v>
+        <v>2901.3939874069629</v>
       </c>
       <c r="I66" s="22">
-        <v>3951.4109253223905</v>
+        <v>3949.5024503798877</v>
       </c>
       <c r="J66" s="22">
-        <v>1048.886273241304</v>
+        <v>1048.1084629729248</v>
       </c>
       <c r="K66" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="14.1" customHeight="1">
@@ -7288,31 +7320,31 @@
         <v>0.99066999999999994</v>
       </c>
       <c r="C67" s="20">
-        <v>1.0286842768273694</v>
+        <v>1.0283833281613628</v>
       </c>
       <c r="D67" s="21">
-        <v>58.922129082422671</v>
+        <v>58.455658650112433</v>
       </c>
       <c r="E67" s="22">
-        <v>59.477049958535815</v>
+        <v>59.0061863689346</v>
       </c>
       <c r="F67" s="22">
-        <v>644.82912231091359</v>
+        <v>643.23426337532783</v>
       </c>
       <c r="G67" s="22">
-        <v>638.81286659975274</v>
+        <v>637.23288769803594</v>
       </c>
       <c r="H67" s="22">
-        <v>2961.4467811635091</v>
+        <v>2959.8496460570755</v>
       </c>
       <c r="I67" s="22">
-        <v>4059.6372594590539</v>
+        <v>4057.1676399562484</v>
       </c>
       <c r="J67" s="22">
-        <v>1098.1904782955448</v>
+        <v>1097.317993899173</v>
       </c>
       <c r="K67" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="14.1" customHeight="1">
@@ -7323,31 +7355,31 @@
         <v>1.01267</v>
       </c>
       <c r="C68" s="20">
-        <v>1.0278637413924998</v>
+        <v>1.027569496183204</v>
       </c>
       <c r="D68" s="21">
-        <v>23.550299158374767</v>
+        <v>23.094219083966316</v>
       </c>
       <c r="E68" s="22">
-        <v>23.255650071962997</v>
+        <v>22.805276234080516</v>
       </c>
       <c r="F68" s="22">
-        <v>668.08477238287662</v>
+        <v>666.03953960940839</v>
       </c>
       <c r="G68" s="22">
-        <v>676.5494064489676</v>
+        <v>674.47826057625957</v>
       </c>
       <c r="H68" s="22">
-        <v>2984.9970803218839</v>
+        <v>2982.9438651410419</v>
       </c>
       <c r="I68" s="22">
-        <v>4097.3737993082686</v>
+        <v>4094.4130128344723</v>
       </c>
       <c r="J68" s="22">
-        <v>1112.3767189863847</v>
+        <v>1111.4691476934304</v>
       </c>
       <c r="K68" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="14.1" customHeight="1">
@@ -7358,31 +7390,31 @@
         <v>0.95750000000000002</v>
       </c>
       <c r="C69" s="20">
-        <v>1.0277413007518783</v>
+        <v>1.027452408102024</v>
       </c>
       <c r="D69" s="21">
-        <v>108.87401616541135</v>
+        <v>108.42623255813714</v>
       </c>
       <c r="E69" s="22">
-        <v>113.70654429807973</v>
+        <v>113.23888517821112</v>
       </c>
       <c r="F69" s="22">
-        <v>781.79131668095636</v>
+        <v>779.27842478761954</v>
       </c>
       <c r="G69" s="22">
-        <v>748.56518572201571</v>
+        <v>746.1590917341457</v>
       </c>
       <c r="H69" s="22">
-        <v>3093.8710964872953</v>
+        <v>3091.370097699179</v>
       </c>
       <c r="I69" s="22">
-        <v>4169.3895785813165</v>
+        <v>4166.0938439923584</v>
       </c>
       <c r="J69" s="22">
-        <v>1075.5184820940212</v>
+        <v>1074.7237462931794</v>
       </c>
       <c r="K69" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="14.1" customHeight="1">
@@ -7393,31 +7425,31 @@
         <v>0.85887999999999998</v>
       </c>
       <c r="C70" s="20">
-        <v>1.0261969874167267</v>
+        <v>1.0259159970457883</v>
       </c>
       <c r="D70" s="21">
-        <v>259.34133049592646</v>
+        <v>258.90579542097186</v>
       </c>
       <c r="E70" s="22">
-        <v>301.95292764521992</v>
+        <v>301.44583110675745</v>
       </c>
       <c r="F70" s="22">
-        <v>1083.7442443261762</v>
+        <v>1080.7242558943769</v>
       </c>
       <c r="G70" s="22">
-        <v>930.80625656686618</v>
+        <v>928.21244890256241</v>
       </c>
       <c r="H70" s="22">
-        <v>3353.2124269832216</v>
+        <v>3350.2758931201511</v>
       </c>
       <c r="I70" s="22">
-        <v>4351.6306494261671</v>
+        <v>4348.1472011607748</v>
       </c>
       <c r="J70" s="22">
-        <v>998.41822244294553</v>
+        <v>997.87130804062372</v>
       </c>
       <c r="K70" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="14.1" customHeight="1">
@@ -7428,31 +7460,31 @@
         <v>0.96957000000000004</v>
       </c>
       <c r="C71" s="20">
-        <v>1.0250083101682501</v>
+        <v>1.0247332043795603</v>
       </c>
       <c r="D71" s="21">
-        <v>85.929380760787609</v>
+        <v>85.502966788318375</v>
       </c>
       <c r="E71" s="22">
-        <v>88.626278412891907</v>
+        <v>88.186481417863973</v>
       </c>
       <c r="F71" s="22">
-        <v>1172.3705227390681</v>
+        <v>1168.9107373122408</v>
       </c>
       <c r="G71" s="22">
-        <v>1136.6952877321182</v>
+        <v>1133.3407835758294</v>
       </c>
       <c r="H71" s="22">
-        <v>3439.1418077440094</v>
+        <v>3435.7788599084693</v>
       </c>
       <c r="I71" s="22">
-        <v>4557.5196805914193</v>
+        <v>4553.2755358340419</v>
       </c>
       <c r="J71" s="22">
-        <v>1118.3778728474099</v>
+        <v>1117.4966759255726</v>
       </c>
       <c r="K71" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="14.1" customHeight="1">
@@ -7463,31 +7495,31 @@
         <v>0.99405999999999994</v>
       </c>
       <c r="C72" s="20">
-        <v>1.0247448956083498</v>
+        <v>1.0244747054597683</v>
       </c>
       <c r="D72" s="21">
-        <v>47.561588192942281</v>
+        <v>47.142793462640896</v>
       </c>
       <c r="E72" s="22">
-        <v>47.845792198601977</v>
+        <v>47.42449496271945</v>
       </c>
       <c r="F72" s="22">
-        <v>1220.2163149376699</v>
+        <v>1216.3352322749602</v>
       </c>
       <c r="G72" s="22">
-        <v>1212.9682300269401</v>
+        <v>1209.1102009952469</v>
       </c>
       <c r="H72" s="22">
-        <v>3486.7033959369519</v>
+        <v>3482.9216533711101</v>
       </c>
       <c r="I72" s="22">
-        <v>4633.7926228862416</v>
+        <v>4629.0449532534594</v>
       </c>
       <c r="J72" s="22">
-        <v>1147.0892269492897</v>
+        <v>1146.1232998823493</v>
       </c>
       <c r="K72" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="14.1" customHeight="1">
@@ -7498,31 +7530,31 @@
         <v>0.95635000000000003</v>
       </c>
       <c r="C73" s="20">
-        <v>1.0242041105598856</v>
+        <v>1.0239392715700129</v>
       </c>
       <c r="D73" s="21">
-        <v>105.1738713678226</v>
+        <v>104.76337093351987</v>
       </c>
       <c r="E73" s="22">
-        <v>109.97424726075452</v>
+        <v>109.54501064831899</v>
       </c>
       <c r="F73" s="22">
-        <v>1330.1905621984245</v>
+        <v>1325.8802429232792</v>
       </c>
       <c r="G73" s="22">
-        <v>1272.1277441584632</v>
+        <v>1268.0055703196781</v>
       </c>
       <c r="H73" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I73" s="22">
-        <v>4692.9521370177645</v>
+        <v>4687.9403225778906</v>
       </c>
       <c r="J73" s="22">
-        <v>1101.0748697129898</v>
+        <v>1100.2552982732605</v>
       </c>
       <c r="K73" s="21">
-        <v>3420.824392859301</v>
+        <v>3419.9347522582125</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="14.1" customHeight="1">
@@ -7533,31 +7565,31 @@
         <v>1.08087</v>
       </c>
       <c r="C74" s="20">
-        <v>1.0241600981079177</v>
+        <v>1.0238983146853136</v>
       </c>
       <c r="D74" s="21">
-        <v>-87.900347932727485</v>
+        <v>-88.306112237763983</v>
       </c>
       <c r="E74" s="22">
-        <v>-81.323700290254592</v>
+        <v>-81.699105570294279</v>
       </c>
       <c r="F74" s="22">
-        <v>1248.8668619081698</v>
+        <v>1244.1811373529849</v>
       </c>
       <c r="G74" s="22">
-        <v>1349.8627250306834</v>
+        <v>1344.7980659307209</v>
       </c>
       <c r="H74" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I74" s="22">
-        <v>4858.5874658227121</v>
+        <v>4853.0389304266973</v>
       </c>
       <c r="J74" s="22">
-        <v>1266.7101985179374</v>
+        <v>1265.3539061220672</v>
       </c>
       <c r="K74" s="21">
-        <v>3508.7247407920286</v>
+        <v>3508.2408644959764</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="14.1" customHeight="1">
@@ -7568,31 +7600,31 @@
         <v>1.16859</v>
       </c>
       <c r="C75" s="20">
-        <v>1.0261586247408419</v>
+        <v>1.0258963172413778</v>
       </c>
       <c r="D75" s="21">
-        <v>-220.76863165169516</v>
+        <v>-221.17520827586452</v>
       </c>
       <c r="E75" s="22">
-        <v>-188.91880954970961</v>
+        <v>-189.2667302269098</v>
       </c>
       <c r="F75" s="22">
-        <v>1059.9480523584602</v>
+        <v>1054.914407126075</v>
       </c>
       <c r="G75" s="22">
-        <v>1238.6446945055732</v>
+        <v>1232.7624270234601</v>
       </c>
       <c r="H75" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I75" s="22">
-        <v>4968.1380669492974</v>
+        <v>4962.1784997953009</v>
       </c>
       <c r="J75" s="22">
-        <v>1376.2607996445226</v>
+        <v>1374.4934754906708</v>
       </c>
       <c r="K75" s="21">
-        <v>3729.4933724437237</v>
+        <v>3729.4160727718408</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="14.1" customHeight="1">
@@ -7603,31 +7635,31 @@
         <v>1.2989900000000001</v>
       </c>
       <c r="C76" s="20">
-        <v>1.0293158435374137</v>
+        <v>1.0290512016293265</v>
       </c>
       <c r="D76" s="21">
-        <v>-417.99494251700895</v>
+        <v>-418.40513747454406</v>
       </c>
       <c r="E76" s="22">
-        <v>-321.78457302751286</v>
+        <v>-322.10035294693881</v>
       </c>
       <c r="F76" s="22">
-        <v>738.16347933094744</v>
+        <v>732.81405417913629</v>
       </c>
       <c r="G76" s="22">
-        <v>958.86697801610751</v>
+        <v>951.91812823815633</v>
       </c>
       <c r="H76" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I76" s="22">
-        <v>5106.3552929768402</v>
+        <v>5099.7393384845409</v>
       </c>
       <c r="J76" s="22">
-        <v>1514.4780256720655</v>
+        <v>1512.0543141799108</v>
       </c>
       <c r="K76" s="21">
-        <v>4147.4883149607331</v>
+        <v>4147.8212102463849</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="14.1" customHeight="1">
@@ -7638,31 +7670,31 @@
         <v>1.22841</v>
       </c>
       <c r="C77" s="20">
-        <v>1.0326041370047001</v>
+        <v>1.0323362533512053</v>
       </c>
       <c r="D77" s="21">
-        <v>-303.49908764271481</v>
+        <v>-303.91430730563184</v>
       </c>
       <c r="E77" s="22">
-        <v>-247.06660450722057</v>
+        <v>-247.40461841374773</v>
       </c>
       <c r="F77" s="22">
-        <v>491.09687482372686</v>
+        <v>485.40943576538859</v>
       </c>
       <c r="G77" s="22">
-        <v>603.26831200221432</v>
+        <v>596.28180498856102</v>
       </c>
       <c r="H77" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I77" s="22">
-        <v>5054.2557146056624</v>
+        <v>5048.0173225405779</v>
       </c>
       <c r="J77" s="22">
-        <v>1462.3784473008877</v>
+        <v>1460.3322982359477</v>
       </c>
       <c r="K77" s="21">
-        <v>4450.9874026034477</v>
+        <v>4451.735517552017</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="12.75">
@@ -7673,31 +7705,31 @@
         <v>1.2987200000000001</v>
       </c>
       <c r="C78" s="20">
-        <v>1.0354160636182892</v>
+        <v>1.035146144179893</v>
       </c>
       <c r="D78" s="21">
-        <v>-408.12110139165191</v>
+        <v>-408.53947652116597</v>
       </c>
       <c r="E78" s="22">
-        <v>-314.24872288996232</v>
+        <v>-314.57086710081154</v>
       </c>
       <c r="F78" s="22">
-        <v>176.84815193376454</v>
+        <v>170.83856866457705</v>
       </c>
       <c r="G78" s="22">
-        <v>229.67623187941871</v>
+        <v>221.87146589605953</v>
       </c>
       <c r="H78" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I78" s="22">
-        <v>5088.7847358745184</v>
+        <v>5082.1464599692426</v>
       </c>
       <c r="J78" s="22">
-        <v>1496.9074685697437</v>
+        <v>1494.4614356646125</v>
       </c>
       <c r="K78" s="21">
-        <v>4859.1085039950995</v>
+        <v>4860.2749940731828</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="12.75">
@@ -7708,13 +7740,13 @@
         <v>1.32033</v>
       </c>
       <c r="C79" s="20">
-        <v>1.0393539895356432</v>
+        <v>1.0390798825065262</v>
       </c>
       <c r="D79" s="21">
-        <v>-233.49792044270734</v>
+        <v>-225.56328736490102</v>
       </c>
       <c r="E79" s="22">
-        <v>-176.84815193376454</v>
+        <v>-170.83856866457705</v>
       </c>
       <c r="F79" s="22">
         <v>0</v>
@@ -7723,16 +7755,16 @@
         <v>0</v>
       </c>
       <c r="H79" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I79" s="22">
-        <v>5092.6064244378067</v>
+        <v>5085.8382814380839</v>
       </c>
       <c r="J79" s="22">
-        <v>1500.729157133032</v>
+        <v>1498.1532571334537</v>
       </c>
       <c r="K79" s="21">
-        <v>5092.6064244378067</v>
+        <v>5085.8382814380839</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="12.75">
@@ -7743,7 +7775,7 @@
         <v>1.25888</v>
       </c>
       <c r="C80" s="20">
-        <v>1.0426825419354826</v>
+        <v>1.0424057115260772</v>
       </c>
       <c r="D80" s="21">
         <v>0</v>
@@ -7758,16 +7790,16 @@
         <v>0</v>
       </c>
       <c r="H80" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I80" s="22">
-        <v>5092.6064244378067</v>
+        <v>5085.8382814380839</v>
       </c>
       <c r="J80" s="22">
-        <v>1500.729157133032</v>
+        <v>1498.1532571334537</v>
       </c>
       <c r="K80" s="21">
-        <v>5092.6064244378067</v>
+        <v>5085.8382814380839</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="12.75">
@@ -7778,7 +7810,7 @@
         <v>1.25305</v>
       </c>
       <c r="C81" s="20">
-        <v>1.0455482644628087</v>
+        <v>1.0452700190355317</v>
       </c>
       <c r="D81" s="21">
         <v>0</v>
@@ -7793,16 +7825,16 @@
         <v>0</v>
       </c>
       <c r="H81" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I81" s="22">
-        <v>5092.6064244378067</v>
+        <v>5085.8382814380839</v>
       </c>
       <c r="J81" s="22">
-        <v>1500.729157133032</v>
+        <v>1498.1532571334537</v>
       </c>
       <c r="K81" s="21">
-        <v>5092.6064244378067</v>
+        <v>5085.8382814380839</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="12.75">
@@ -7828,16 +7860,51 @@
         <v>0</v>
       </c>
       <c r="H82" s="22">
-        <v>3591.8772673047747</v>
+        <v>3587.6850243046301</v>
       </c>
       <c r="I82" s="22">
-        <v>5092.6064244378067</v>
+        <v>5085.8382814380839</v>
       </c>
       <c r="J82" s="22">
-        <v>1500.729157133032</v>
+        <v>1498.1532571334537</v>
       </c>
       <c r="K82" s="21">
-        <v>5092.6064244378067</v>
+        <v>5085.8382814380839</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.2139500000000001</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.0492853130812139</v>
+      </c>
+      <c r="D83" s="21">
+        <v>0</v>
+      </c>
+      <c r="E83" s="22">
+        <v>0</v>
+      </c>
+      <c r="F83" s="22">
+        <v>0</v>
+      </c>
+      <c r="G83" s="22">
+        <v>0</v>
+      </c>
+      <c r="H83" s="22">
+        <v>3587.6850243046301</v>
+      </c>
+      <c r="I83" s="22">
+        <v>5085.8382814380839</v>
+      </c>
+      <c r="J83" s="22">
+        <v>1498.1532571334537</v>
+      </c>
+      <c r="K83" s="21">
+        <v>5085.8382814380839</v>
       </c>
     </row>
   </sheetData>
@@ -7856,7 +7923,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF70"/>
+  <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7898,13 +7965,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -8123,22 +8190,22 @@
       </c>
       <c r="Y5" s="1">
         <f>VLOOKUP(X5,O:R,2,)</f>
-        <v>193.28661200000033</v>
+        <v>193.45680200000038</v>
       </c>
       <c r="Z5" s="1">
         <f t="shared" ref="Z5" si="2">0-Y5</f>
-        <v>-193.28661200000033</v>
+        <v>-193.45680200000038</v>
       </c>
       <c r="AA5" s="6">
         <v>43830</v>
       </c>
       <c r="AB5" s="7">
         <f>VLOOKUP(AA5,O:P,2,)</f>
-        <v>193.28661200000033</v>
+        <v>193.45680200000038</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="1"/>
-        <v>-193.28661200000033</v>
+        <v>-193.45680200000038</v>
       </c>
       <c r="AD5" s="6">
         <v>43830</v>
@@ -8190,31 +8257,31 @@
         <v>43830</v>
       </c>
       <c r="P6" s="10">
-        <v>193.28661200000033</v>
+        <v>193.45680200000038</v>
       </c>
       <c r="Q6" s="5">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="R6" s="5">
-        <v>2121.5860729661367</v>
+        <v>2121.2666649160242</v>
       </c>
       <c r="S6" s="5">
-        <v>496.60680696613258</v>
+        <v>496.11720891601999</v>
       </c>
       <c r="T6" s="5">
-        <v>1754.5207020000048</v>
+        <v>1759.0322560000047</v>
       </c>
       <c r="U6" s="9">
-        <v>0.30560808827337449</v>
+        <v>0.30527482077686441</v>
       </c>
       <c r="V6" s="9">
-        <v>0.15168919836337369</v>
+        <v>0.15154155652049006</v>
       </c>
       <c r="X6" s="6">
         <v>43830</v>
       </c>
       <c r="Z6" s="1">
-        <v>2121.5860729661367</v>
+        <v>2121.2666649160242</v>
       </c>
       <c r="AA6" s="6">
         <v>44196</v>
@@ -8280,32 +8347,32 @@
         <v>0</v>
       </c>
       <c r="Q7" s="5">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="R7" s="5">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="S7" s="5">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="T7" s="5">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="U7" s="9">
-        <v>0.32943869486231608</v>
+        <v>0.32866227554535193</v>
       </c>
       <c r="V7" s="9">
-        <v>0.10369660281505078</v>
+        <v>0.103476938623698</v>
       </c>
       <c r="Z7" s="2">
         <f>IRR(Z4:Z6)</f>
-        <v>0.15168919836337369</v>
+        <v>0.15154155652049006</v>
       </c>
       <c r="AA7" s="6">
         <v>44196</v>
       </c>
       <c r="AC7" s="7">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="AD7" s="6">
         <v>44561</v>
@@ -8357,29 +8424,29 @@
         <v>44561</v>
       </c>
       <c r="P8" s="10">
-        <v>439.433556000002</v>
+        <v>439.43355600000223</v>
       </c>
       <c r="Q8" s="5">
-        <v>2064.4128220000061</v>
+        <v>2064.5830120000064</v>
       </c>
       <c r="R8" s="5">
-        <v>2633.6658962308707</v>
+        <v>2632.6303559717571</v>
       </c>
       <c r="S8" s="5">
-        <v>569.25307423086451</v>
+        <v>568.04734397175071</v>
       </c>
       <c r="T8" s="5">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
       <c r="U8" s="9">
-        <v>0.2757457559672446</v>
+        <v>0.27513901871229235</v>
       </c>
       <c r="V8" s="9">
         <v>9.161448749478418E-2</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
-        <v>0.10369660281505078</v>
+        <v>0.103476938623698</v>
       </c>
       <c r="AD8" s="6">
         <v>44561</v>
@@ -8427,22 +8494,22 @@
         <v>44925</v>
       </c>
       <c r="P9" s="10">
-        <v>2771.7310180000009</v>
+        <v>2765.5571820000014</v>
       </c>
       <c r="Q9" s="5">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="R9" s="5">
-        <v>5394.8728413640729</v>
+        <v>5387.9358458787192</v>
       </c>
       <c r="S9" s="5">
-        <v>558.72900136406588</v>
+        <v>557.7956518787114</v>
       </c>
       <c r="T9" s="5">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
       <c r="U9" s="9">
-        <v>0.11553192374941128</v>
+        <v>0.11548229025973289</v>
       </c>
       <c r="V9" s="9">
         <v>6.5682800424140098E-2</v>
@@ -8641,31 +8708,31 @@
         <v>43496</v>
       </c>
       <c r="B14" s="25">
-        <v>0.67819000000000007</v>
+        <v>0.67716999999999994</v>
       </c>
       <c r="C14" s="20">
-        <v>0.80289104000000022</v>
+        <v>0.80198084000000014</v>
       </c>
       <c r="D14" s="21">
-        <v>193.28661200000025</v>
+        <v>193.45680200000032</v>
       </c>
       <c r="E14" s="22">
-        <v>285.00363025110988</v>
+        <v>285.6842476778362</v>
       </c>
       <c r="F14" s="22">
-        <v>2221.3823262441952</v>
+        <v>2222.0629436709214</v>
       </c>
       <c r="G14" s="22">
-        <v>1506.5192798355508</v>
+        <v>1504.7143635656378</v>
       </c>
       <c r="H14" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I14" s="22">
-        <v>1506.5192798355508</v>
+        <v>1504.7143635656378</v>
       </c>
       <c r="J14" s="22">
-        <v>-118.45998616445331</v>
+        <v>-120.43509243436642</v>
       </c>
       <c r="K14" s="21">
         <v>0</v>
@@ -8690,31 +8757,31 @@
         <v>0.85648000000000002</v>
       </c>
       <c r="C15" s="20">
-        <v>0.79863988000000019</v>
+        <v>0.79816120000000024</v>
       </c>
       <c r="D15" s="21">
-        <v>-89.65218599999973</v>
+        <v>-90.394139999999666</v>
       </c>
       <c r="E15" s="22">
-        <v>-104.67516579488105</v>
+        <v>-105.54144872034334</v>
       </c>
       <c r="F15" s="22">
-        <v>2116.707160449314</v>
+        <v>2116.521494950578</v>
       </c>
       <c r="G15" s="22">
-        <v>1812.9173487816286</v>
+        <v>1812.7583299952712</v>
       </c>
       <c r="H15" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I15" s="22">
-        <v>1902.5695347816284</v>
+        <v>1903.1524699952708</v>
       </c>
       <c r="J15" s="22">
-        <v>277.59026878162422</v>
+        <v>278.00301399526666</v>
       </c>
       <c r="K15" s="21">
-        <v>89.65218599999973</v>
+        <v>90.394139999999666</v>
       </c>
       <c r="L15" s="7"/>
       <c r="X15" s="6">
@@ -8732,31 +8799,31 @@
         <v>0.94580999999999993</v>
       </c>
       <c r="C16" s="20">
-        <v>0.80337899999999995</v>
+        <v>0.80233468000000008</v>
       </c>
       <c r="D16" s="21">
-        <v>-220.76804999999996</v>
+        <v>-222.38674599999976</v>
       </c>
       <c r="E16" s="22">
-        <v>-233.41691248770891</v>
+        <v>-235.12835136020954</v>
       </c>
       <c r="F16" s="22">
-        <v>1883.290247961605</v>
+        <v>1881.3931435903685</v>
       </c>
       <c r="G16" s="22">
-        <v>1781.2347494245655</v>
+        <v>1779.4404491392063</v>
       </c>
       <c r="H16" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I16" s="22">
-        <v>2091.654985424565</v>
+        <v>2092.2213351392056</v>
       </c>
       <c r="J16" s="22">
-        <v>466.67571942456084</v>
+        <v>467.07187913920143</v>
       </c>
       <c r="K16" s="21">
-        <v>310.4202359999997</v>
+        <v>312.78088599999944</v>
       </c>
       <c r="L16" s="7"/>
       <c r="Z16" s="2">
@@ -8772,31 +8839,31 @@
         <v>0.9108099999999999</v>
       </c>
       <c r="C17" s="20">
-        <v>0.80660947999999977</v>
+        <v>0.80561315999999961</v>
       </c>
       <c r="D17" s="21">
-        <v>-161.5108060000002</v>
+        <v>-163.05510200000046</v>
       </c>
       <c r="E17" s="22">
-        <v>-177.32656207112376</v>
+        <v>-179.02208144398995</v>
       </c>
       <c r="F17" s="22">
-        <v>1705.9636858904812</v>
+        <v>1702.3710621463786</v>
       </c>
       <c r="G17" s="22">
-        <v>1553.808784745909</v>
+        <v>1550.536587113543</v>
       </c>
       <c r="H17" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I17" s="22">
-        <v>2025.7398267459089</v>
+        <v>2026.372575113543</v>
       </c>
       <c r="J17" s="22">
-        <v>400.76056074590474</v>
+        <v>401.22311911353881</v>
       </c>
       <c r="K17" s="21">
-        <v>471.93104199999993</v>
+        <v>475.83598799999993</v>
       </c>
       <c r="L17" s="7"/>
     </row>
@@ -8808,31 +8875,31 @@
         <v>0.86360000000000003</v>
       </c>
       <c r="C18" s="20">
-        <v>0.8020255199999996</v>
+        <v>0.8010060799999994</v>
       </c>
       <c r="D18" s="21">
-        <v>-95.440444000000667</v>
+        <v>-97.020576000000986</v>
       </c>
       <c r="E18" s="22">
-        <v>-110.51464103751813</v>
+        <v>-112.34434460398447</v>
       </c>
       <c r="F18" s="22">
-        <v>1595.449044852963</v>
+        <v>1590.0267175423942</v>
       </c>
       <c r="G18" s="22">
-        <v>1377.8297951350189</v>
+        <v>1373.1470732696116</v>
       </c>
       <c r="H18" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I18" s="22">
-        <v>1945.2012811350196</v>
+        <v>1946.0036372696127</v>
       </c>
       <c r="J18" s="22">
-        <v>320.22201513501545</v>
+        <v>320.85418126960849</v>
       </c>
       <c r="K18" s="21">
-        <v>567.37148600000057</v>
+        <v>572.85656400000096</v>
       </c>
       <c r="L18" s="7"/>
     </row>
@@ -8844,31 +8911,31 @@
         <v>0.88732</v>
       </c>
       <c r="C19" s="20">
-        <v>0.80021431999999926</v>
+        <v>0.79979107999999932</v>
       </c>
       <c r="D19" s="21">
-        <v>-135.01380400000116</v>
+        <v>-135.66982600000105</v>
       </c>
       <c r="E19" s="22">
-        <v>-152.15909029437086</v>
+        <v>-152.89841996123275</v>
       </c>
       <c r="F19" s="22">
-        <v>1443.2899545585922</v>
+        <v>1437.1282975811614</v>
       </c>
       <c r="G19" s="22">
-        <v>1280.6600424789301</v>
+        <v>1275.1926810097161</v>
       </c>
       <c r="H19" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I19" s="22">
-        <v>1983.0453324789319</v>
+        <v>1983.7190710097182</v>
       </c>
       <c r="J19" s="22">
-        <v>358.06606647892772</v>
+        <v>358.56961500971397</v>
       </c>
       <c r="K19" s="21">
-        <v>702.38529000000176</v>
+        <v>708.52639000000204</v>
       </c>
       <c r="L19" s="7"/>
     </row>
@@ -8880,31 +8947,31 @@
         <v>0.89222000000000001</v>
       </c>
       <c r="C20" s="20">
-        <v>0.80840215999999976</v>
+        <v>0.80782763999999974</v>
       </c>
       <c r="D20" s="21">
-        <v>-129.9176520000004</v>
+        <v>-130.80815800000042</v>
       </c>
       <c r="E20" s="22">
-        <v>-145.61167873394498</v>
+        <v>-146.6097576830831</v>
       </c>
       <c r="F20" s="22">
-        <v>1297.6782758246472</v>
+        <v>1290.5185398980784</v>
       </c>
       <c r="G20" s="22">
-        <v>1157.8145112562668</v>
+        <v>1151.4264516678636</v>
       </c>
       <c r="H20" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I20" s="22">
-        <v>1990.1174532562691</v>
+        <v>1990.7609996678661</v>
       </c>
       <c r="J20" s="22">
-        <v>365.13818725626493</v>
+        <v>365.61154366786195</v>
       </c>
       <c r="K20" s="21">
-        <v>832.30294200000219</v>
+        <v>839.33454800000243</v>
       </c>
       <c r="L20" s="7"/>
     </row>
@@ -8916,31 +8983,31 @@
         <v>0.92357</v>
       </c>
       <c r="C21" s="20">
-        <v>0.81579543999999959</v>
+        <v>0.81574827999999955</v>
       </c>
       <c r="D21" s="21">
-        <v>-167.05056800000062</v>
+        <v>-167.1236660000007</v>
       </c>
       <c r="E21" s="22">
-        <v>-180.87483136091538</v>
+        <v>-180.95397858310761</v>
       </c>
       <c r="F21" s="22">
-        <v>1116.8034444637319</v>
+        <v>1109.5645613149709</v>
       </c>
       <c r="G21" s="22">
-        <v>1031.4461572033688</v>
+        <v>1024.7605418936678</v>
       </c>
       <c r="H21" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I21" s="22">
-        <v>2030.7996672033717</v>
+        <v>2031.218755893671</v>
       </c>
       <c r="J21" s="22">
-        <v>405.82040120336751</v>
+        <v>406.06929989366677</v>
       </c>
       <c r="K21" s="21">
-        <v>999.35351000000287</v>
+        <v>1006.4582140000032</v>
       </c>
       <c r="L21" s="8"/>
     </row>
@@ -8952,31 +9019,31 @@
         <v>0.95855999999999997</v>
       </c>
       <c r="C22" s="20">
-        <v>0.83312139999999968</v>
+        <v>0.83330167999999971</v>
       </c>
       <c r="D22" s="21">
-        <v>-194.42983000000044</v>
+        <v>-194.1503960000004</v>
       </c>
       <c r="E22" s="22">
-        <v>-202.83532590552542</v>
+        <v>-202.54381155065974</v>
       </c>
       <c r="F22" s="22">
-        <v>913.96811855820647</v>
+        <v>907.02074976431118</v>
       </c>
       <c r="G22" s="22">
-        <v>876.09327972515439</v>
+        <v>869.43380989407808</v>
       </c>
       <c r="H22" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I22" s="22">
-        <v>2069.876619725158</v>
+        <v>2070.0424198940818</v>
       </c>
       <c r="J22" s="22">
-        <v>444.89735372515383</v>
+        <v>444.89296389407764</v>
       </c>
       <c r="K22" s="21">
-        <v>1193.7833400000034</v>
+        <v>1200.6086100000036</v>
       </c>
       <c r="L22" s="7"/>
     </row>
@@ -8988,31 +9055,31 @@
         <v>0.97238999999999998</v>
       </c>
       <c r="C23" s="20">
-        <v>0.85132979999999947</v>
+        <v>0.85201527999999938</v>
       </c>
       <c r="D23" s="21">
-        <v>-187.64331000000078</v>
+        <v>-186.58081600000094</v>
       </c>
       <c r="E23" s="22">
-        <v>-192.97124610495871</v>
+        <v>-191.87858369584316</v>
       </c>
       <c r="F23" s="22">
-        <v>720.99687245324776</v>
+        <v>715.14216606846799</v>
       </c>
       <c r="G23" s="22">
-        <v>701.09014880481357</v>
+        <v>695.39709086331754</v>
       </c>
       <c r="H23" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I23" s="22">
-        <v>2082.5167988048179</v>
+        <v>2082.5865168633218</v>
       </c>
       <c r="J23" s="22">
-        <v>457.53753280481374</v>
+        <v>457.43706086331758</v>
       </c>
       <c r="K23" s="21">
-        <v>1381.4266500000042</v>
+        <v>1387.1894260000045</v>
       </c>
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
@@ -9025,31 +9092,31 @@
         <v>0.97728999999999999</v>
       </c>
       <c r="C24" s="20">
-        <v>0.87548991999999959</v>
+        <v>0.87560303999999967</v>
       </c>
       <c r="D24" s="21">
-        <v>-157.79012400000062</v>
+        <v>-157.61478800000052</v>
       </c>
       <c r="E24" s="22">
-        <v>-161.45680811222934</v>
+        <v>-161.27739770180858</v>
       </c>
       <c r="F24" s="22">
-        <v>559.54006434101848</v>
+        <v>553.8647683666594</v>
       </c>
       <c r="G24" s="22">
-        <v>546.83290947983392</v>
+        <v>541.28649947705253</v>
       </c>
       <c r="H24" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I24" s="22">
-        <v>2086.0496834798387</v>
+        <v>2086.0907134770578</v>
       </c>
       <c r="J24" s="22">
-        <v>461.07041747983453</v>
+        <v>460.94125747705357</v>
       </c>
       <c r="K24" s="21">
-        <v>1539.2167740000048</v>
+        <v>1544.804214000005</v>
       </c>
       <c r="L24" s="7"/>
     </row>
@@ -9061,31 +9128,31 @@
         <v>1.0407999999999999</v>
       </c>
       <c r="C25" s="20">
-        <v>0.90189423999999996</v>
+        <v>0.90258836000000009</v>
       </c>
       <c r="D25" s="21">
-        <v>-215.30392799999998</v>
+        <v>-214.22804199999979</v>
       </c>
       <c r="E25" s="22">
-        <v>-206.86388162951576</v>
+        <v>-205.83017102229036</v>
       </c>
       <c r="F25" s="22">
-        <v>352.67618271150275</v>
+        <v>348.03459734436905</v>
       </c>
       <c r="G25" s="22">
-        <v>367.06537096613204</v>
+        <v>362.23440891601928</v>
       </c>
       <c r="H25" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I25" s="22">
-        <v>2121.5860729661367</v>
+        <v>2121.2666649160242</v>
       </c>
       <c r="J25" s="22">
-        <v>496.60680696613258</v>
+        <v>496.11720891601999</v>
       </c>
       <c r="K25" s="21">
-        <v>1754.5207020000048</v>
+        <v>1759.0322560000047</v>
       </c>
       <c r="L25" s="7"/>
     </row>
@@ -9097,31 +9164,31 @@
         <v>1.13632</v>
       </c>
       <c r="C26" s="20">
-        <v>0.92962908</v>
+        <v>0.93022331999999996</v>
       </c>
       <c r="D26" s="21">
-        <v>-320.370926</v>
+        <v>-319.44985400000007</v>
       </c>
       <c r="E26" s="22">
-        <v>-281.93724127006476</v>
+        <v>-281.12666678400456</v>
       </c>
       <c r="F26" s="22">
-        <v>70.738941441437987</v>
+        <v>66.907930560364491</v>
       </c>
       <c r="G26" s="22">
-        <v>80.38207393873482</v>
+        <v>76.028819654353384</v>
       </c>
       <c r="H26" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I26" s="22">
-        <v>2155.2737019387396</v>
+        <v>2154.5109296543583</v>
       </c>
       <c r="J26" s="22">
-        <v>530.29443593873543</v>
+        <v>529.36147365435409</v>
       </c>
       <c r="K26" s="21">
-        <v>2074.8916280000049</v>
+        <v>2078.4821100000049</v>
       </c>
       <c r="L26" s="7"/>
     </row>
@@ -9133,13 +9200,13 @@
         <v>1.2075199999999999</v>
       </c>
       <c r="C27" s="20">
-        <v>0.96966315999999997</v>
+        <v>0.96999144000000015</v>
       </c>
       <c r="D27" s="21">
-        <v>-85.418686569365192</v>
+        <v>-80.792664310251325</v>
       </c>
       <c r="E27" s="22">
-        <v>-70.738941441437987</v>
+        <v>-66.907930560364491</v>
       </c>
       <c r="F27" s="22">
         <v>0</v>
@@ -9148,16 +9215,16 @@
         <v>0</v>
       </c>
       <c r="H27" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I27" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J27" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K27" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L27" s="7"/>
     </row>
@@ -9169,7 +9236,7 @@
         <v>1.0721400000000001</v>
       </c>
       <c r="C28" s="20">
-        <v>0.99416948000000038</v>
+        <v>0.9937777600000004</v>
       </c>
       <c r="D28" s="21">
         <v>0</v>
@@ -9184,16 +9251,16 @@
         <v>0</v>
       </c>
       <c r="H28" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I28" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J28" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K28" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L28" s="7"/>
     </row>
@@ -9205,7 +9272,7 @@
         <v>1.13618</v>
       </c>
       <c r="C29" s="20">
-        <v>1.0066833200000003</v>
+        <v>1.0062796800000002</v>
       </c>
       <c r="D29" s="21">
         <v>0</v>
@@ -9220,16 +9287,16 @@
         <v>0</v>
       </c>
       <c r="H29" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I29" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J29" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K29" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L29" s="7"/>
     </row>
@@ -9241,7 +9308,7 @@
         <v>1.12294</v>
       </c>
       <c r="C30" s="20">
-        <v>1.0254032800000001</v>
+        <v>1.0253235600000004</v>
       </c>
       <c r="D30" s="21">
         <v>0</v>
@@ -9256,16 +9323,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I30" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J30" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K30" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L30" s="7"/>
     </row>
@@ -9277,7 +9344,7 @@
         <v>1.25214</v>
       </c>
       <c r="C31" s="20">
-        <v>1.0521240799999996</v>
+        <v>1.0521225599999997</v>
       </c>
       <c r="D31" s="21">
         <v>0</v>
@@ -9292,16 +9359,16 @@
         <v>0</v>
       </c>
       <c r="H31" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I31" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J31" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K31" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L31" s="7"/>
     </row>
@@ -9313,7 +9380,7 @@
         <v>1.3561700000000001</v>
       </c>
       <c r="C32" s="20">
-        <v>1.09524756</v>
+        <v>1.09525304</v>
       </c>
       <c r="D32" s="21">
         <v>0</v>
@@ -9328,16 +9395,16 @@
         <v>0</v>
       </c>
       <c r="H32" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I32" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J32" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K32" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L32" s="7"/>
     </row>
@@ -9364,16 +9431,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I33" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J33" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K33" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L33" s="7"/>
     </row>
@@ -9400,16 +9467,16 @@
         <v>0</v>
       </c>
       <c r="H34" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I34" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J34" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K34" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L34" s="7"/>
       <c r="O34" s="3"/>
@@ -9437,16 +9504,16 @@
         <v>0</v>
       </c>
       <c r="H35" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I35" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J35" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K35" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L35" s="7"/>
     </row>
@@ -9473,16 +9540,16 @@
         <v>0</v>
       </c>
       <c r="H36" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I36" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J36" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K36" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L36" s="7"/>
     </row>
@@ -9509,16 +9576,16 @@
         <v>0</v>
       </c>
       <c r="H37" s="22">
-        <v>1624.9792660000041</v>
+        <v>1625.1494560000042</v>
       </c>
       <c r="I37" s="22">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="J37" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K37" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L37" s="7"/>
     </row>
@@ -9545,16 +9612,16 @@
         <v>3.6415700000006046</v>
       </c>
       <c r="H38" s="22">
-        <v>1628.6208360000048</v>
+        <v>1628.7910260000049</v>
       </c>
       <c r="I38" s="22">
-        <v>2163.9518845693706</v>
+        <v>2162.916344310257</v>
       </c>
       <c r="J38" s="22">
-        <v>535.33104856936575</v>
+        <v>534.12531831025217</v>
       </c>
       <c r="K38" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L38" s="7"/>
     </row>
@@ -9581,16 +9648,16 @@
         <v>14.348287621738816</v>
       </c>
       <c r="H39" s="22">
-        <v>1639.3211680000056</v>
+        <v>1639.4913580000057</v>
       </c>
       <c r="I39" s="22">
-        <v>2174.6586021911089</v>
+        <v>2173.6230619319954</v>
       </c>
       <c r="J39" s="22">
-        <v>535.33743419110328</v>
+        <v>534.1317039319897</v>
       </c>
       <c r="K39" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L39" s="7"/>
     </row>
@@ -9617,16 +9684,16 @@
         <v>143.94885958372555</v>
       </c>
       <c r="H40" s="22">
-        <v>1769.8775440000049</v>
+        <v>1770.0477340000052</v>
       </c>
       <c r="I40" s="22">
-        <v>2304.2591741530955</v>
+        <v>2303.223633893982</v>
       </c>
       <c r="J40" s="22">
-        <v>534.38163015309055</v>
+        <v>533.17589989397675</v>
       </c>
       <c r="K40" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L40" s="7"/>
     </row>
@@ -9653,16 +9720,16 @@
         <v>250.69090336178138</v>
       </c>
       <c r="H41" s="22">
-        <v>1873.7719360000042</v>
+        <v>1873.9421260000045</v>
       </c>
       <c r="I41" s="22">
-        <v>2411.0012179311511</v>
+        <v>2409.9656776720376</v>
       </c>
       <c r="J41" s="22">
-        <v>537.22928193114694</v>
+        <v>536.02355167203314</v>
       </c>
       <c r="K41" s="21">
-        <v>2160.3103145693699</v>
+        <v>2159.2747743102564</v>
       </c>
       <c r="L41" s="7"/>
     </row>
@@ -9689,16 +9756,16 @@
         <v>249.99832904670953</v>
       </c>
       <c r="H42" s="22">
-        <v>1873.7719360000042</v>
+        <v>1873.9421260000045</v>
       </c>
       <c r="I42" s="22">
-        <v>2428.4903916160797</v>
+        <v>2427.4548513569662</v>
       </c>
       <c r="J42" s="22">
-        <v>554.71845561607552</v>
+        <v>553.51272535696171</v>
       </c>
       <c r="K42" s="21">
-        <v>2178.4920625693703</v>
+        <v>2177.4565223102568</v>
       </c>
       <c r="L42" s="7"/>
     </row>
@@ -9725,16 +9792,16 @@
         <v>147.86339462639305</v>
       </c>
       <c r="H43" s="22">
-        <v>1873.7719360000042</v>
+        <v>1873.9421260000045</v>
       </c>
       <c r="I43" s="22">
-        <v>2443.171827195762</v>
+        <v>2442.1362869366485</v>
       </c>
       <c r="J43" s="22">
-        <v>569.39989119575785</v>
+        <v>568.19416093664404</v>
       </c>
       <c r="K43" s="21">
-        <v>2295.308432569369</v>
+        <v>2294.2728923102554</v>
       </c>
       <c r="L43" s="7"/>
     </row>
@@ -9761,16 +9828,16 @@
         <v>98.847890566483869</v>
       </c>
       <c r="H44" s="22">
-        <v>1873.7719360000042</v>
+        <v>1873.9421260000045</v>
       </c>
       <c r="I44" s="22">
-        <v>2437.6209891358512</v>
+        <v>2436.5854488767377</v>
       </c>
       <c r="J44" s="22">
-        <v>563.84905313584704</v>
+        <v>562.64332287673324</v>
       </c>
       <c r="K44" s="21">
-        <v>2338.7730985693674</v>
+        <v>2337.7375583102539</v>
       </c>
       <c r="L44" s="7"/>
     </row>
@@ -9797,16 +9864,16 @@
         <v>145.6089944354637</v>
       </c>
       <c r="H45" s="22">
-        <v>1925.7948960000051</v>
+        <v>1925.9650860000054</v>
       </c>
       <c r="I45" s="22">
-        <v>2484.3820930048309</v>
+        <v>2483.3465527457174</v>
       </c>
       <c r="J45" s="22">
-        <v>558.58719700482584</v>
+        <v>557.38146674571203</v>
       </c>
       <c r="K45" s="21">
-        <v>2338.7730985693674</v>
+        <v>2337.7375583102539</v>
       </c>
       <c r="L45" s="7"/>
     </row>
@@ -9833,16 +9900,16 @@
         <v>207.52551738628796</v>
       </c>
       <c r="H46" s="22">
-        <v>1989.4236360000052</v>
+        <v>1989.5938260000055</v>
       </c>
       <c r="I46" s="22">
-        <v>2546.2986159556554</v>
+        <v>2545.2630756965418</v>
       </c>
       <c r="J46" s="22">
-        <v>556.87497995565013</v>
+        <v>555.66924969653633</v>
       </c>
       <c r="K46" s="21">
-        <v>2338.7730985693674</v>
+        <v>2337.7375583102539</v>
       </c>
       <c r="L46" s="7"/>
     </row>
@@ -9869,16 +9936,16 @@
         <v>273.99480308225822</v>
       </c>
       <c r="H47" s="22">
-        <v>2056.9913600000054</v>
+        <v>2057.1615500000057</v>
       </c>
       <c r="I47" s="22">
-        <v>2612.7679016516258</v>
+        <v>2611.7323613925123</v>
       </c>
       <c r="J47" s="22">
-        <v>555.77654165162039</v>
+        <v>554.57081139250658</v>
       </c>
       <c r="K47" s="21">
-        <v>2338.7730985693674</v>
+        <v>2337.7375583102539</v>
       </c>
       <c r="L47" s="7"/>
     </row>
@@ -9905,16 +9972,16 @@
         <v>289.80021766508673</v>
       </c>
       <c r="H48" s="22">
-        <v>2064.4128220000061</v>
+        <v>2064.5830120000064</v>
       </c>
       <c r="I48" s="22">
-        <v>2628.5733162344541</v>
+        <v>2627.5377759753405</v>
       </c>
       <c r="J48" s="22">
-        <v>564.16049423444792</v>
+        <v>562.95476397533412</v>
       </c>
       <c r="K48" s="21">
-        <v>2338.7730985693674</v>
+        <v>2337.7375583102539</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.1" customHeight="1">
@@ -9940,16 +10007,16 @@
         <v>268.16422566150561</v>
       </c>
       <c r="H49" s="22">
-        <v>2064.4128220000061</v>
+        <v>2064.5830120000064</v>
       </c>
       <c r="I49" s="22">
-        <v>2633.6658962308707</v>
+        <v>2632.6303559717571</v>
       </c>
       <c r="J49" s="22">
-        <v>569.25307423086451</v>
+        <v>568.04734397175071</v>
       </c>
       <c r="K49" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.1" customHeight="1">
@@ -9960,31 +10027,31 @@
         <v>1.11076</v>
       </c>
       <c r="C50" s="20">
-        <v>1.2355355200000004</v>
+        <v>1.2350539200000008</v>
       </c>
       <c r="D50" s="21">
-        <v>193.40205600000073</v>
+        <v>192.6555760000013</v>
       </c>
       <c r="E50" s="22">
-        <v>174.11687133134137</v>
+        <v>173.44482696532222</v>
       </c>
       <c r="F50" s="22">
-        <v>387.72376124101675</v>
+        <v>387.05171687499762</v>
       </c>
       <c r="G50" s="22">
-        <v>430.66804503607176</v>
+        <v>429.92156503607237</v>
       </c>
       <c r="H50" s="22">
-        <v>2257.814878000007</v>
+        <v>2257.2385880000079</v>
       </c>
       <c r="I50" s="22">
-        <v>2796.169715605437</v>
+        <v>2794.3876953463241</v>
       </c>
       <c r="J50" s="22">
-        <v>538.35483760543002</v>
+        <v>537.14910734631621</v>
       </c>
       <c r="K50" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.1" customHeight="1">
@@ -9995,31 +10062,31 @@
         <v>1.15177</v>
       </c>
       <c r="C51" s="20">
-        <v>1.2277890400000004</v>
+        <v>1.2271850000000004</v>
       </c>
       <c r="D51" s="21">
-        <v>117.82951200000075</v>
+        <v>116.89325000000071</v>
       </c>
       <c r="E51" s="22">
-        <v>102.30298757564509</v>
+        <v>101.49009784939763</v>
       </c>
       <c r="F51" s="22">
-        <v>490.02674881666184</v>
+        <v>488.54181472439524</v>
       </c>
       <c r="G51" s="22">
-        <v>564.39810848456659</v>
+        <v>562.68780594511668</v>
       </c>
       <c r="H51" s="22">
-        <v>2375.6443900000077</v>
+        <v>2374.1318380000084</v>
       </c>
       <c r="I51" s="22">
-        <v>2929.8997790539315</v>
+        <v>2927.1539362553685</v>
       </c>
       <c r="J51" s="22">
-        <v>554.25538905392386</v>
+        <v>553.02209825536011</v>
       </c>
       <c r="K51" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.1" customHeight="1">
@@ -10030,31 +10097,31 @@
         <v>1.0468499999999998</v>
       </c>
       <c r="C52" s="20">
-        <v>1.2143669200000002</v>
+        <v>1.2143919600000004</v>
       </c>
       <c r="D52" s="21">
-        <v>259.65122600000063</v>
+        <v>259.69003800000087</v>
       </c>
       <c r="E52" s="22">
-        <v>248.03097482925031</v>
+        <v>248.0680498638782</v>
       </c>
       <c r="F52" s="22">
-        <v>738.05772364591212</v>
+        <v>736.60986458827347</v>
       </c>
       <c r="G52" s="22">
-        <v>772.63572799872293</v>
+        <v>771.12003674423397</v>
       </c>
       <c r="H52" s="22">
-        <v>2635.2956160000085</v>
+        <v>2633.8218760000091</v>
       </c>
       <c r="I52" s="22">
-        <v>3138.137398568088</v>
+        <v>3135.5861670544855</v>
       </c>
       <c r="J52" s="22">
-        <v>502.84178256807945</v>
+        <v>501.76429105447642</v>
       </c>
       <c r="K52" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.1" customHeight="1">
@@ -10065,31 +10132,31 @@
         <v>0.83169999999999999</v>
       </c>
       <c r="C53" s="20">
-        <v>1.1967078799999999</v>
+        <v>1.1965680399999998</v>
       </c>
       <c r="D53" s="21">
-        <v>565.76221399999997</v>
+        <v>565.5454619999997</v>
       </c>
       <c r="E53" s="22">
-        <v>680.24794276782495</v>
+        <v>679.98732956594893</v>
       </c>
       <c r="F53" s="22">
-        <v>1418.3056664137371</v>
+        <v>1416.5971941542225</v>
       </c>
       <c r="G53" s="22">
-        <v>1179.6048227563051</v>
+        <v>1178.1838863780667</v>
       </c>
       <c r="H53" s="22">
-        <v>3201.0578300000084</v>
+        <v>3199.3673380000087</v>
       </c>
       <c r="I53" s="22">
-        <v>3545.1064933256703</v>
+        <v>3542.6500166883184</v>
       </c>
       <c r="J53" s="22">
-        <v>344.04866332566189</v>
+        <v>343.28267868830972</v>
       </c>
       <c r="K53" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.1" customHeight="1">
@@ -10100,31 +10167,31 @@
         <v>0.90644000000000002</v>
       </c>
       <c r="C54" s="20">
-        <v>1.1734625999999997</v>
+        <v>1.1732722399999995</v>
       </c>
       <c r="D54" s="21">
-        <v>413.88502999999946</v>
+        <v>413.58997199999925</v>
       </c>
       <c r="E54" s="22">
-        <v>456.60499316005411</v>
+        <v>456.27948016415786</v>
       </c>
       <c r="F54" s="22">
-        <v>1874.9106595737912</v>
+        <v>1872.8766743183803</v>
       </c>
       <c r="G54" s="22">
-        <v>1699.4940182640673</v>
+        <v>1697.6503326691527</v>
       </c>
       <c r="H54" s="22">
-        <v>3614.9428600000078</v>
+        <v>3612.957310000008</v>
       </c>
       <c r="I54" s="22">
-        <v>4064.9956888334327</v>
+        <v>4062.1164629794043</v>
       </c>
       <c r="J54" s="22">
-        <v>450.05282883342488</v>
+        <v>449.15915297939637</v>
       </c>
       <c r="K54" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.1" customHeight="1">
@@ -10135,31 +10202,31 @@
         <v>0.99066999999999994</v>
       </c>
       <c r="C55" s="20">
-        <v>1.1480034399999997</v>
+        <v>1.1474773999999999</v>
       </c>
       <c r="D55" s="21">
-        <v>243.86683199999956</v>
+        <v>243.05146999999988</v>
       </c>
       <c r="E55" s="22">
-        <v>246.16353780774585</v>
+        <v>245.34049683547488</v>
       </c>
       <c r="F55" s="22">
-        <v>2121.074197381537</v>
+        <v>2118.2171711538554</v>
       </c>
       <c r="G55" s="22">
-        <v>2101.284575119967</v>
+        <v>2098.4542049469896</v>
       </c>
       <c r="H55" s="22">
-        <v>3858.8096920000075</v>
+        <v>3856.0087800000078</v>
       </c>
       <c r="I55" s="22">
-        <v>4466.7862456893326</v>
+        <v>4462.9203352572413</v>
       </c>
       <c r="J55" s="22">
-        <v>607.9765536893251</v>
+        <v>606.91155525723343</v>
       </c>
       <c r="K55" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.1" customHeight="1">
@@ -10170,31 +10237,31 @@
         <v>1.01267</v>
       </c>
       <c r="C56" s="20">
-        <v>1.1203607999999998</v>
+        <v>1.1197452399999999</v>
       </c>
       <c r="D56" s="21">
-        <v>166.9207399999998</v>
+        <v>165.96662199999986</v>
       </c>
       <c r="E56" s="22">
-        <v>164.83231457434289</v>
+        <v>163.8901340021921</v>
       </c>
       <c r="F56" s="22">
-        <v>2285.90651195588</v>
+        <v>2282.1073051560475</v>
       </c>
       <c r="G56" s="22">
-        <v>2314.8689474623607</v>
+        <v>2311.0216047123745</v>
       </c>
       <c r="H56" s="22">
-        <v>4025.7304320000076</v>
+        <v>4021.9754020000078</v>
       </c>
       <c r="I56" s="22">
-        <v>4680.3706180317258</v>
+        <v>4675.4877350226261</v>
       </c>
       <c r="J56" s="22">
-        <v>654.64018603171826</v>
+        <v>653.51233302261835</v>
       </c>
       <c r="K56" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.1" customHeight="1">
@@ -10205,31 +10272,31 @@
         <v>0.95750000000000002</v>
       </c>
       <c r="C57" s="20">
-        <v>1.0959177199999997</v>
+        <v>1.0955673599999998</v>
       </c>
       <c r="D57" s="21">
-        <v>214.54746599999942</v>
+        <v>214.00440799999961</v>
       </c>
       <c r="E57" s="22">
-        <v>224.07046057441192</v>
+        <v>223.50329817232335</v>
       </c>
       <c r="F57" s="22">
-        <v>2509.9769725302917</v>
+        <v>2505.6106033283709</v>
       </c>
       <c r="G57" s="22">
-        <v>2403.3029511977543</v>
+        <v>2399.1221526869153</v>
       </c>
       <c r="H57" s="22">
-        <v>4240.2778980000066</v>
+        <v>4235.9798100000071</v>
       </c>
       <c r="I57" s="22">
-        <v>4768.8046217671199</v>
+        <v>4763.588282997167</v>
       </c>
       <c r="J57" s="22">
-        <v>528.52672376711325</v>
+        <v>527.60847299715988</v>
       </c>
       <c r="K57" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.1" customHeight="1">
@@ -10240,31 +10307,31 @@
         <v>0.85887999999999998</v>
       </c>
       <c r="C58" s="20">
-        <v>1.06964792</v>
+        <v>1.0694000799999999</v>
       </c>
       <c r="D58" s="21">
-        <v>326.69027599999998</v>
+        <v>326.30612399999984</v>
       </c>
       <c r="E58" s="22">
-        <v>380.36777663934424</v>
+        <v>379.92050577496258</v>
       </c>
       <c r="F58" s="22">
-        <v>2890.3447491696361</v>
+        <v>2885.5311091033336</v>
       </c>
       <c r="G58" s="22">
-        <v>2482.459298166817</v>
+        <v>2478.3249589866709</v>
       </c>
       <c r="H58" s="22">
-        <v>4566.9681740000069</v>
+        <v>4562.2859340000068</v>
       </c>
       <c r="I58" s="22">
-        <v>4847.9609687361826</v>
+        <v>4842.791089296923</v>
       </c>
       <c r="J58" s="22">
-        <v>280.99279473617571</v>
+        <v>280.5051552969162</v>
       </c>
       <c r="K58" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.1" customHeight="1">
@@ -10275,31 +10342,31 @@
         <v>0.96957000000000004</v>
       </c>
       <c r="C59" s="20">
-        <v>1.0512867600000002</v>
+        <v>1.0510960000000003</v>
       </c>
       <c r="D59" s="21">
-        <v>126.66097800000026</v>
+        <v>126.36530000000033</v>
       </c>
       <c r="E59" s="22">
-        <v>130.63623874501093</v>
+        <v>130.33128087709019</v>
       </c>
       <c r="F59" s="22">
-        <v>3020.9809879146469</v>
+        <v>3015.8623899804238</v>
       </c>
       <c r="G59" s="22">
-        <v>2929.0525364524042</v>
+        <v>2924.0896974533198</v>
       </c>
       <c r="H59" s="22">
-        <v>4693.6291520000068</v>
+        <v>4688.6512340000072</v>
       </c>
       <c r="I59" s="22">
-        <v>5294.5542070217689</v>
+        <v>5288.5558277635719</v>
       </c>
       <c r="J59" s="22">
-        <v>600.92505502176209</v>
+        <v>599.90459376356466</v>
       </c>
       <c r="K59" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.1" customHeight="1">
@@ -10310,31 +10377,31 @@
         <v>0.99405999999999994</v>
       </c>
       <c r="C60" s="20">
-        <v>1.0324731600000001</v>
+        <v>1.0321424800000001</v>
       </c>
       <c r="D60" s="21">
-        <v>59.540398000000259</v>
+        <v>59.027844000000215</v>
       </c>
       <c r="E60" s="22">
-        <v>59.896181317023384</v>
+        <v>59.380564553447698</v>
       </c>
       <c r="F60" s="22">
-        <v>3080.8771692316705</v>
+        <v>3075.2429545338714</v>
       </c>
       <c r="G60" s="22">
-        <v>3062.5767588464341</v>
+        <v>3056.9760113839402</v>
       </c>
       <c r="H60" s="22">
-        <v>4753.1695500000069</v>
+        <v>4747.6790780000074</v>
       </c>
       <c r="I60" s="22">
-        <v>5428.0784294157993</v>
+        <v>5421.4421416941914</v>
       </c>
       <c r="J60" s="22">
-        <v>674.9088794157924</v>
+        <v>673.76306369418398</v>
       </c>
       <c r="K60" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.1" customHeight="1">
@@ -10345,31 +10412,31 @@
         <v>0.95635000000000003</v>
       </c>
       <c r="C61" s="20">
-        <v>1.0098818000000001</v>
+        <v>1.00955072</v>
       </c>
       <c r="D61" s="21">
-        <v>82.974290000000025</v>
+        <v>82.461115999999961</v>
       </c>
       <c r="E61" s="22">
-        <v>86.761426256077812</v>
+        <v>86.224829821717947</v>
       </c>
       <c r="F61" s="22">
-        <v>3167.6385954877483</v>
+        <v>3161.4677843555892</v>
       </c>
       <c r="G61" s="22">
-        <v>3029.3711707947082</v>
+        <v>3023.469715568468</v>
       </c>
       <c r="H61" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I61" s="22">
-        <v>5394.8728413640729</v>
+        <v>5387.9358458787192</v>
       </c>
       <c r="J61" s="22">
-        <v>558.72900136406588</v>
+        <v>557.7956518787114</v>
       </c>
       <c r="K61" s="21">
-        <v>2365.5016705693652</v>
+        <v>2364.4661303102516</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.1" customHeight="1">
@@ -10380,31 +10447,31 @@
         <v>1.08087</v>
       </c>
       <c r="C62" s="20">
-        <v>0.99600491999999985</v>
+        <v>0.9958413599999999</v>
       </c>
       <c r="D62" s="21">
-        <v>-131.54087400000023</v>
+        <v>-131.79439200000016</v>
       </c>
       <c r="E62" s="22">
-        <v>-121.69907019345548</v>
+        <v>-121.93362013933235</v>
       </c>
       <c r="F62" s="22">
-        <v>3045.9395252942927</v>
+        <v>3039.5341642162566</v>
       </c>
       <c r="G62" s="22">
-        <v>3292.2646547048421</v>
+        <v>3285.3412920764254</v>
       </c>
       <c r="H62" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I62" s="22">
-        <v>5789.307199274208</v>
+        <v>5781.6018143866768</v>
       </c>
       <c r="J62" s="22">
-        <v>953.16335927420096</v>
+        <v>951.46162038666898</v>
       </c>
       <c r="K62" s="21">
-        <v>2497.0425445693654</v>
+        <v>2496.2605223102519</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.1" customHeight="1">
@@ -10424,22 +10491,22 @@
         <v>-228.75479338347927</v>
       </c>
       <c r="F63" s="22">
-        <v>2817.1847319108133</v>
+        <v>2810.7793708327772</v>
       </c>
       <c r="G63" s="22">
-        <v>3292.1339058636572</v>
+        <v>3284.6486649614753</v>
       </c>
       <c r="H63" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I63" s="22">
-        <v>6056.4970144330227</v>
+        <v>6048.2297512717269</v>
       </c>
       <c r="J63" s="22">
-        <v>1220.3531744330157</v>
+        <v>1218.0895572717191</v>
       </c>
       <c r="K63" s="21">
-        <v>2764.3631085693655</v>
+        <v>2763.581086310252</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.1" customHeight="1">
@@ -10459,22 +10526,22 @@
         <v>-348.62706102433475</v>
       </c>
       <c r="F64" s="22">
-        <v>2468.5576708864787</v>
+        <v>2462.1523098084426</v>
       </c>
       <c r="G64" s="22">
-        <v>3206.631728904827</v>
+        <v>3198.311228918069</v>
       </c>
       <c r="H64" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I64" s="22">
-        <v>6423.8579034741933</v>
+        <v>6414.7553812283222</v>
       </c>
       <c r="J64" s="22">
-        <v>1587.7140634741863</v>
+        <v>1584.6151872283144</v>
       </c>
       <c r="K64" s="21">
-        <v>3217.2261745693663</v>
+        <v>3216.4441523102528</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.1" customHeight="1">
@@ -10494,22 +10561,22 @@
         <v>-252.73687449630077</v>
       </c>
       <c r="F65" s="22">
-        <v>2215.8207963901777</v>
+        <v>2209.4154353121417</v>
       </c>
       <c r="G65" s="22">
-        <v>2721.9364244936583</v>
+        <v>2714.0680148917882</v>
       </c>
       <c r="H65" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I65" s="22">
-        <v>6249.6271030630251</v>
+        <v>6240.9766712020419</v>
       </c>
       <c r="J65" s="22">
-        <v>1413.4832630630181</v>
+        <v>1410.8364772020341</v>
       </c>
       <c r="K65" s="21">
-        <v>3527.6906785693673</v>
+        <v>3526.9086563102537</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="12.75">
@@ -10529,22 +10596,22 @@
         <v>-285.99953800665287</v>
       </c>
       <c r="F66" s="22">
-        <v>1929.8212583835248</v>
+        <v>1923.4158973054887</v>
       </c>
       <c r="G66" s="22">
-        <v>2506.2974646878515</v>
+        <v>2497.9786941485845</v>
       </c>
       <c r="H66" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I66" s="22">
-        <v>6405.4214632572184</v>
+        <v>6396.3206704588383</v>
       </c>
       <c r="J66" s="22">
-        <v>1569.2776232572114</v>
+        <v>1566.1804764588305</v>
       </c>
       <c r="K66" s="21">
-        <v>3899.1239985693674</v>
+        <v>3898.3419763102538</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="12.75">
@@ -10564,22 +10631,22 @@
         <v>-267.56155809532373</v>
       </c>
       <c r="F67" s="22">
-        <v>1662.259700288201</v>
+        <v>1655.8543392101649</v>
       </c>
       <c r="G67" s="22">
-        <v>2194.7313500815203</v>
+        <v>2186.274159689357</v>
       </c>
       <c r="H67" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I67" s="22">
-        <v>6447.124900650886</v>
+        <v>6437.8856879996092</v>
       </c>
       <c r="J67" s="22">
-        <v>1610.981060650879</v>
+        <v>1607.7454939996014</v>
       </c>
       <c r="K67" s="21">
-        <v>4252.3935505693662</v>
+        <v>4251.6115283102527</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="12.75">
@@ -10599,22 +10666,22 @@
         <v>-172.35727154295842</v>
       </c>
       <c r="F68" s="22">
-        <v>1489.9024287452426</v>
+        <v>1483.4970676672065</v>
       </c>
       <c r="G68" s="22">
-        <v>1875.608369498811</v>
+        <v>1867.544788544893</v>
       </c>
       <c r="H68" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I68" s="22">
-        <v>6344.9790420681766</v>
+        <v>6336.133438855145</v>
       </c>
       <c r="J68" s="22">
-        <v>1508.8352020681696</v>
+        <v>1505.9932448551372</v>
       </c>
       <c r="K68" s="21">
-        <v>4469.3706725693655</v>
+        <v>4468.588650310252</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="12.75">
@@ -10634,22 +10701,22 @@
         <v>-141.53931287658099</v>
       </c>
       <c r="F69" s="22">
-        <v>1348.3631158686617</v>
+        <v>1341.9577547906256</v>
       </c>
       <c r="G69" s="22">
-        <v>1689.5664023392264</v>
+        <v>1681.5401646403934</v>
       </c>
       <c r="H69" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I69" s="22">
-        <v>6336.2929109085917</v>
+        <v>6327.4846509506451</v>
       </c>
       <c r="J69" s="22">
-        <v>1500.1490709085847</v>
+        <v>1497.3444569506373</v>
       </c>
       <c r="K69" s="21">
-        <v>4646.7265085693653</v>
+        <v>4645.9444863102517</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="12.75">
@@ -10669,22 +10736,57 @@
         <v>-90.640012991230648</v>
       </c>
       <c r="F70" s="22">
-        <v>1257.7231028774311</v>
+        <v>1251.317741799395</v>
       </c>
       <c r="G70" s="22">
-        <v>1549.0117735038439</v>
+        <v>1541.1229308001346</v>
       </c>
       <c r="H70" s="22">
-        <v>4836.143840000007</v>
+        <v>4830.1401940000078</v>
       </c>
       <c r="I70" s="22">
-        <v>6307.370522073209</v>
+        <v>6298.6996571103864</v>
       </c>
       <c r="J70" s="22">
-        <v>1471.226682073202</v>
+        <v>1468.5594631103786</v>
       </c>
       <c r="K70" s="21">
-        <v>4758.3587485693652</v>
+        <v>4757.5767263102516</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="12.75">
+      <c r="A71" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B71" s="25">
+        <v>1.2139500000000001</v>
+      </c>
+      <c r="C71" s="20">
+        <v>1.18105912</v>
+      </c>
+      <c r="D71" s="21">
+        <v>-50.980864000000103</v>
+      </c>
+      <c r="E71" s="22">
+        <v>-41.995851558960503</v>
+      </c>
+      <c r="F71" s="22">
+        <v>1209.3218902404344</v>
+      </c>
+      <c r="G71" s="22">
+        <v>1468.0563086573754</v>
+      </c>
+      <c r="H71" s="22">
+        <v>4830.1401940000078</v>
+      </c>
+      <c r="I71" s="22">
+        <v>6276.6138989676274</v>
+      </c>
+      <c r="J71" s="22">
+        <v>1446.4737049676196</v>
+      </c>
+      <c r="K71" s="21">
+        <v>4808.5575903102517</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -711,7 +711,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -951,6 +951,12 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -960,7 +966,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1199,6 +1205,12 @@
                   <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>3587.6850243046301</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3587.6850243046301</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>3587.6850243046301</c:v>
                 </c:pt>
               </c:numCache>
@@ -1242,7 +1254,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1482,6 +1494,12 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,7 +1509,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1727,6 +1745,12 @@
                   <c:v>5085.8382814380839</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>5085.8382814380839</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5085.8382814380839</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>5085.8382814380839</c:v>
                 </c:pt>
               </c:numCache>
@@ -1770,7 +1794,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2010,6 +2034,12 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,7 +2049,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2258,6 +2288,12 @@
                   <c:v>1498.1532571334537</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>1498.1532571334537</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1498.1532571334537</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>1498.1532571334537</c:v>
                 </c:pt>
               </c:numCache>
@@ -2280,11 +2316,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41244544"/>
-        <c:axId val="344148992"/>
+        <c:axId val="495102208"/>
+        <c:axId val="511729664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="41244544"/>
+        <c:axId val="495102208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2327,14 +2363,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344148992"/>
+        <c:crossAx val="511729664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="344148992"/>
+        <c:axId val="511729664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,7 +2419,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41244544"/>
+        <c:crossAx val="495102208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2596,7 +2632,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2800,6 +2836,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2809,7 +2851,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3012,6 +3054,12 @@
                   <c:v>4830.1401940000078</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>4830.1401940000078</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4830.1401940000078</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>4830.1401940000078</c:v>
                 </c:pt>
               </c:numCache>
@@ -3055,7 +3103,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3259,6 +3307,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3268,7 +3322,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3472,6 +3526,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>6276.6138989676274</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6352.2932628588742</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6340.8843712169046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3514,7 +3574,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3718,6 +3778,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3727,7 +3793,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3931,6 +3997,12 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>1446.4737049676196</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1522.1530688588664</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1510.7441772168968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3952,11 +4024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472352640"/>
-        <c:axId val="472354176"/>
+        <c:axId val="591046528"/>
+        <c:axId val="591048064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472352640"/>
+        <c:axId val="591046528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3999,14 +4071,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472354176"/>
+        <c:crossAx val="591048064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472354176"/>
+        <c:axId val="591048064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4055,7 +4127,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472352640"/>
+        <c:crossAx val="591046528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4163,7 +4235,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4206,7 +4278,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4519,7 +4591,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF83"/>
+  <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5115,7 +5187,7 @@
         <v>0.4251298770496863</v>
       </c>
       <c r="V9" s="9">
-        <v>0.11623036743162096</v>
+        <v>9.2180582832422919E-2</v>
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
@@ -5179,27 +5251,27 @@
         <v>0.30667555563535387</v>
       </c>
       <c r="V10" s="9">
-        <v>9.2107928430304797E-2</v>
+        <v>7.2787148508788313E-2</v>
       </c>
       <c r="X10" s="6">
         <v>43098</v>
       </c>
       <c r="Y10" s="1">
-        <v>18.350992705669857</v>
+        <v>304.12500617544276</v>
       </c>
       <c r="Z10" s="1">
         <f>-Y10</f>
-        <v>-18.350992705669857</v>
+        <v>-304.12500617544276</v>
       </c>
       <c r="AA10" s="6">
         <v>43098</v>
       </c>
       <c r="AB10" s="1">
-        <v>18.350992705669857</v>
+        <v>304.12500617544276</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" ref="AC10:AC15" si="5">-AB10</f>
-        <v>-18.350992705669857</v>
+        <v>-304.12500617544276</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
@@ -5241,21 +5313,21 @@
         <v>43462</v>
       </c>
       <c r="Y11" s="1">
-        <v>255.17901000780921</v>
+        <v>1807.7843670854991</v>
       </c>
       <c r="Z11" s="1">
         <f>-Y11</f>
-        <v>-255.17901000780921</v>
+        <v>-1807.7843670854991</v>
       </c>
       <c r="AA11" s="6">
         <v>43462</v>
       </c>
       <c r="AB11" s="1">
-        <v>255.17901000780921</v>
+        <v>1807.7843670854991</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" si="5"/>
-        <v>-255.17901000780921</v>
+        <v>-1807.7843670854991</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
@@ -5297,21 +5369,21 @@
         <v>43830</v>
       </c>
       <c r="Y12" s="1">
-        <v>51.512876965237467</v>
+        <v>287.82612266325077</v>
       </c>
       <c r="Z12" s="1">
         <f>-Y12</f>
-        <v>-51.512876965237467</v>
+        <v>-287.82612266325077</v>
       </c>
       <c r="AA12" s="6">
         <v>43830</v>
       </c>
       <c r="AB12" s="1">
-        <v>51.512876965237467</v>
+        <v>287.82612266325077</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" si="5"/>
-        <v>-51.512876965237467</v>
+        <v>-287.82612266325077</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
@@ -5465,17 +5537,17 @@
         <v>44561</v>
       </c>
       <c r="Z15" s="1">
-        <v>499.59426954009558</v>
+        <v>3419.9347522582125</v>
       </c>
       <c r="AA15" s="6">
         <v>44925</v>
       </c>
       <c r="AB15" s="1">
-        <v>153.10026037530758</v>
+        <v>1187.9495283804376</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="5"/>
-        <v>-153.10026037530758</v>
+        <v>-1187.9495283804376</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
@@ -5515,13 +5587,13 @@
       <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
-        <v>0.11623036743162096</v>
+        <v>9.2180582832422919E-2</v>
       </c>
       <c r="AA16" s="6">
         <v>44925</v>
       </c>
       <c r="AC16" s="1">
-        <v>668.05173961811045</v>
+        <v>4687.9403225778906</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="14.1" customHeight="1">
@@ -5561,7 +5633,7 @@
       <c r="L17" s="7"/>
       <c r="AC17" s="2">
         <f>IRR(AC10:AC16)</f>
-        <v>9.2107928430304797E-2</v>
+        <v>7.2787148508788313E-2</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="14.1" customHeight="1">
@@ -7904,6 +7976,76 @@
         <v>1498.1532571334537</v>
       </c>
       <c r="K83" s="21">
+        <v>5085.8382814380839</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.2765299999999999</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.0525251376146776</v>
+      </c>
+      <c r="D84" s="21">
+        <v>0</v>
+      </c>
+      <c r="E84" s="22">
+        <v>0</v>
+      </c>
+      <c r="F84" s="22">
+        <v>0</v>
+      </c>
+      <c r="G84" s="22">
+        <v>0</v>
+      </c>
+      <c r="H84" s="22">
+        <v>3587.6850243046301</v>
+      </c>
+      <c r="I84" s="22">
+        <v>5085.8382814380839</v>
+      </c>
+      <c r="J84" s="22">
+        <v>1498.1532571334537</v>
+      </c>
+      <c r="K84" s="21">
+        <v>5085.8382814380839</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="12.75">
+      <c r="A85" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B85" s="25">
+        <v>1.2663900000000001</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.0554007487922688</v>
+      </c>
+      <c r="D85" s="21">
+        <v>0</v>
+      </c>
+      <c r="E85" s="22">
+        <v>0</v>
+      </c>
+      <c r="F85" s="22">
+        <v>0</v>
+      </c>
+      <c r="G85" s="22">
+        <v>0</v>
+      </c>
+      <c r="H85" s="22">
+        <v>3587.6850243046301</v>
+      </c>
+      <c r="I85" s="22">
+        <v>5085.8382814380839</v>
+      </c>
+      <c r="J85" s="22">
+        <v>1498.1532571334537</v>
+      </c>
+      <c r="K85" s="21">
         <v>5085.8382814380839</v>
       </c>
     </row>
@@ -7923,7 +8065,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF71"/>
+  <dimension ref="A1:AF73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8119,11 +8261,11 @@
         <v>43462</v>
       </c>
       <c r="AE4" s="1">
-        <v>185.03707217220185</v>
+        <v>1431.6926540000038</v>
       </c>
       <c r="AF4" s="1">
         <f>-AE4</f>
-        <v>-185.03707217220185</v>
+        <v>-1431.6926540000038</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="14.1" customHeight="1">
@@ -8211,11 +8353,11 @@
         <v>43830</v>
       </c>
       <c r="AE5" s="1">
-        <v>24.103041534476546</v>
+        <v>193.45680200000038</v>
       </c>
       <c r="AF5" s="1">
         <f>-AE5</f>
-        <v>-24.103041534476546</v>
+        <v>-193.45680200000038</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="14.1" customHeight="1">
@@ -8378,11 +8520,11 @@
         <v>44561</v>
       </c>
       <c r="AE7" s="1">
-        <v>25.382097087861155</v>
+        <v>439.43355600000223</v>
       </c>
       <c r="AF7" s="1">
         <f>-AE7</f>
-        <v>-25.382097087861155</v>
+        <v>-439.43355600000223</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="14.1" customHeight="1">
@@ -8442,7 +8584,7 @@
         <v>0.27513901871229235</v>
       </c>
       <c r="V8" s="9">
-        <v>9.161448749478418E-2</v>
+        <v>7.596265873352448E-2</v>
       </c>
       <c r="AC8" s="2">
         <f>IRR(AC4:AC7)</f>
@@ -8452,7 +8594,7 @@
         <v>44561</v>
       </c>
       <c r="AF8" s="1">
-        <v>321.80638751270993</v>
+        <v>2632.6303559717571</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1">
@@ -8512,11 +8654,11 @@
         <v>0.11548229025973289</v>
       </c>
       <c r="V9" s="9">
-        <v>6.5682800424140098E-2</v>
+        <v>4.524456729933557E-2</v>
       </c>
       <c r="AF9" s="2">
         <f>IRR(AF4:AF8)</f>
-        <v>9.161448749478418E-2</v>
+        <v>7.596265873352448E-2</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="14.1" customHeight="1">
@@ -8558,11 +8700,11 @@
         <v>43462</v>
       </c>
       <c r="Y10" s="1">
-        <v>185.03707217220185</v>
+        <v>1431.6926540000038</v>
       </c>
       <c r="Z10" s="1">
         <f>-Y10</f>
-        <v>-185.03707217220185</v>
+        <v>-1431.6926540000038</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
@@ -8604,11 +8746,11 @@
         <v>43830</v>
       </c>
       <c r="Y11" s="1">
-        <v>24.103041534476546</v>
+        <v>193.45680200000038</v>
       </c>
       <c r="Z11" s="1">
         <f>-Y11</f>
-        <v>-24.103041534476546</v>
+        <v>-193.45680200000038</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
@@ -8696,11 +8838,11 @@
         <v>44561</v>
       </c>
       <c r="Y13" s="1">
-        <v>25.382097087861155</v>
+        <v>439.43355600000223</v>
       </c>
       <c r="Z13" s="1">
         <f>-Y13</f>
-        <v>-25.382097087861155</v>
+        <v>-439.43355600000223</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
@@ -8742,11 +8884,11 @@
         <v>44925</v>
       </c>
       <c r="Y14" s="1">
-        <v>565.58588458679435</v>
+        <v>2765.5571820000014</v>
       </c>
       <c r="Z14" s="1">
         <f>-Y14</f>
-        <v>-565.58588458679435</v>
+        <v>-2765.5571820000014</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
@@ -8788,7 +8930,7 @@
         <v>44925</v>
       </c>
       <c r="Z15" s="1">
-        <v>916.97898329904501</v>
+        <v>5387.9358458787192</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
@@ -8828,7 +8970,7 @@
       <c r="L16" s="7"/>
       <c r="Z16" s="2">
         <f>IRR(Z10:Z15)</f>
-        <v>6.5682800424140098E-2</v>
+        <v>4.524456729933557E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1">
@@ -10787,6 +10929,76 @@
       </c>
       <c r="K71" s="21">
         <v>4808.5575903102517</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="12.75">
+      <c r="A72" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B72" s="25">
+        <v>1.2765299999999999</v>
+      </c>
+      <c r="C72" s="20">
+        <v>1.2071982400000003</v>
+      </c>
+      <c r="D72" s="21">
+        <v>-107.46422799999942</v>
+      </c>
+      <c r="E72" s="22">
+        <v>-84.18464744267618</v>
+      </c>
+      <c r="F72" s="22">
+        <v>1125.1372427977583</v>
+      </c>
+      <c r="G72" s="22">
+        <v>1436.2714445486224</v>
+      </c>
+      <c r="H72" s="22">
+        <v>4830.1401940000078</v>
+      </c>
+      <c r="I72" s="22">
+        <v>6352.2932628588742</v>
+      </c>
+      <c r="J72" s="22">
+        <v>1522.1530688588664</v>
+      </c>
+      <c r="K72" s="21">
+        <v>4916.0218183102515</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="12.75">
+      <c r="A73" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B73" s="25">
+        <v>1.2663900000000001</v>
+      </c>
+      <c r="C73" s="20">
+        <v>1.2301022400000003</v>
+      </c>
+      <c r="D73" s="21">
+        <v>-56.246027999999662</v>
+      </c>
+      <c r="E73" s="22">
+        <v>-44.414460000473518</v>
+      </c>
+      <c r="F73" s="22">
+        <v>1080.7227827972847</v>
+      </c>
+      <c r="G73" s="22">
+        <v>1368.6165249066535</v>
+      </c>
+      <c r="H73" s="22">
+        <v>4830.1401940000078</v>
+      </c>
+      <c r="I73" s="22">
+        <v>6340.8843712169046</v>
+      </c>
+      <c r="J73" s="22">
+        <v>1510.7441772168968</v>
+      </c>
+      <c r="K73" s="21">
+        <v>4972.2678463102511</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -711,7 +711,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -957,6 +957,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -966,7 +969,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1212,6 +1215,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>3587.6850243046301</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3726.5804042211957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,7 +1260,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1500,6 +1506,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,7 +1518,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1751,6 +1760,9 @@
                   <c:v>5085.8382814380839</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>5085.8382814380839</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>5085.8382814380839</c:v>
                 </c:pt>
               </c:numCache>
@@ -1794,7 +1806,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2040,6 +2052,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,7 +2064,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2294,6 +2309,9 @@
                   <c:v>1498.1532571334537</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>1498.1532571334537</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>1498.1532571334537</c:v>
                 </c:pt>
               </c:numCache>
@@ -2316,11 +2334,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495102208"/>
-        <c:axId val="511729664"/>
+        <c:axId val="487796096"/>
+        <c:axId val="497563136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495102208"/>
+        <c:axId val="487796096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2363,14 +2381,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511729664"/>
+        <c:crossAx val="497563136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511729664"/>
+        <c:axId val="497563136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +2437,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495102208"/>
+        <c:crossAx val="487796096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2632,7 +2650,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2842,6 +2860,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2851,7 +2872,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3061,6 +3082,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>4830.1401940000078</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5258.4664500000081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3103,7 +3127,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3313,6 +3337,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3322,7 +3349,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3532,6 +3559,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>6340.8843712169046</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6445.5449609969455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3574,7 +3604,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3784,6 +3814,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3793,7 +3826,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4003,6 +4036,9 @@
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>1510.7441772168968</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1187.0785109969374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4024,11 +4060,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="591046528"/>
-        <c:axId val="591048064"/>
+        <c:axId val="100533760"/>
+        <c:axId val="100535296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="591046528"/>
+        <c:axId val="100533760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4071,14 +4107,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591048064"/>
+        <c:crossAx val="100535296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="591048064"/>
+        <c:axId val="100535296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4127,7 +4163,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591046528"/>
+        <c:crossAx val="100533760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4235,7 +4271,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4278,7 +4314,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4588,10 +4624,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AF85"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8049,6 +8083,41 @@
         <v>5085.8382814380839</v>
       </c>
     </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B86" s="25">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.0565099225268164</v>
+      </c>
+      <c r="D86" s="21">
+        <v>138.89537991656547</v>
+      </c>
+      <c r="E86" s="22">
+        <v>143.6502015891669</v>
+      </c>
+      <c r="F86" s="22">
+        <v>143.6502015891669</v>
+      </c>
+      <c r="G86" s="22">
+        <v>138.89537991656547</v>
+      </c>
+      <c r="H86" s="22">
+        <v>3726.5804042211957</v>
+      </c>
+      <c r="I86" s="22">
+        <v>5224.7336613546495</v>
+      </c>
+      <c r="J86" s="22">
+        <v>1498.1532571334537</v>
+      </c>
+      <c r="K86" s="21">
+        <v>5085.8382814380839</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -8065,7 +8134,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF73"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11001,6 +11070,41 @@
         <v>4972.2678463102511</v>
       </c>
     </row>
+    <row r="74" spans="1:11" ht="12.75">
+      <c r="A74" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B74" s="25">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="C74" s="20">
+        <v>1.2432395200000002</v>
+      </c>
+      <c r="D74" s="21">
+        <v>428.32625600000028</v>
+      </c>
+      <c r="E74" s="22">
+        <v>442.98919846933529</v>
+      </c>
+      <c r="F74" s="22">
+        <v>1523.7119812666201</v>
+      </c>
+      <c r="G74" s="22">
+        <v>1473.2771146866949</v>
+      </c>
+      <c r="H74" s="22">
+        <v>5258.4664500000081</v>
+      </c>
+      <c r="I74" s="22">
+        <v>6445.5449609969455</v>
+      </c>
+      <c r="J74" s="22">
+        <v>1187.0785109969374</v>
+      </c>
+      <c r="K74" s="21">
+        <v>4972.2678463102511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -107,6 +107,10 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MA250</t>
@@ -711,7 +715,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -960,6 +964,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,7 +976,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1217,6 +1224,9 @@
                   <c:v>3587.6850243046301</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>3726.5804042211957</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>3726.5804042211957</c:v>
                 </c:pt>
               </c:numCache>
@@ -1260,7 +1270,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1509,6 +1519,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1518,7 +1531,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1764,6 +1777,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>5085.8382814380839</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5224.7336613546495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1806,7 +1822,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2055,6 +2071,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2064,7 +2083,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2313,6 +2332,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1498.1532571334537</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1516.9671240355865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2334,11 +2356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487796096"/>
-        <c:axId val="497563136"/>
+        <c:axId val="92126592"/>
+        <c:axId val="92247168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487796096"/>
+        <c:axId val="92126592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,14 +2403,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497563136"/>
+        <c:crossAx val="92247168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497563136"/>
+        <c:axId val="92247168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2437,7 +2459,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487796096"/>
+        <c:crossAx val="92126592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2650,7 +2672,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2863,6 +2885,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,7 +2897,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3085,6 +3110,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>5258.4664500000081</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5467.3450080000084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3127,7 +3155,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3340,6 +3368,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3349,7 +3380,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3562,6 +3593,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>6445.5449609969455</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6853.9840771834351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3604,7 +3638,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3817,6 +3851,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3826,7 +3863,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4039,6 +4076,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>1187.0785109969374</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1386.6390691834267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4060,11 +4100,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100533760"/>
-        <c:axId val="100535296"/>
+        <c:axId val="405058304"/>
+        <c:axId val="405059840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="100533760"/>
+        <c:axId val="405058304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4107,14 +4147,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100535296"/>
+        <c:crossAx val="405059840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="100535296"/>
+        <c:axId val="405059840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4163,7 +4203,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100533760"/>
+        <c:crossAx val="405058304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4271,7 +4311,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4314,7 +4354,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4625,7 +4665,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF86"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8118,6 +8158,41 @@
         <v>5085.8382814380839</v>
       </c>
     </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.0978699999999999</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.0558294743059644</v>
+      </c>
+      <c r="D87" s="21">
+        <v>-65.162814825755007</v>
+      </c>
+      <c r="E87" s="22">
+        <v>-59.353853211905793</v>
+      </c>
+      <c r="F87" s="22">
+        <v>84.296348377261097</v>
+      </c>
+      <c r="G87" s="22">
+        <v>92.546431992943639</v>
+      </c>
+      <c r="H87" s="22">
+        <v>3726.5804042211957</v>
+      </c>
+      <c r="I87" s="22">
+        <v>5243.5475282567822</v>
+      </c>
+      <c r="J87" s="22">
+        <v>1516.9671240355865</v>
+      </c>
+      <c r="K87" s="21">
+        <v>5151.0010962638389</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -8134,7 +8209,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF74"/>
+  <dimension ref="A1:AF75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8176,13 +8251,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -11105,6 +11180,41 @@
         <v>4972.2678463102511</v>
       </c>
     </row>
+    <row r="75" spans="1:11" ht="12.75">
+      <c r="A75" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B75" s="25">
+        <v>1.0978699999999999</v>
+      </c>
+      <c r="C75" s="20">
+        <v>1.2326303600000001</v>
+      </c>
+      <c r="D75" s="21">
+        <v>208.87855800000037</v>
+      </c>
+      <c r="E75" s="22">
+        <v>190.25800686784444</v>
+      </c>
+      <c r="F75" s="22">
+        <v>1713.9699881344645</v>
+      </c>
+      <c r="G75" s="22">
+        <v>1881.7162308731845</v>
+      </c>
+      <c r="H75" s="22">
+        <v>5467.3450080000084</v>
+      </c>
+      <c r="I75" s="22">
+        <v>6853.9840771834351</v>
+      </c>
+      <c r="J75" s="22">
+        <v>1386.6390691834267</v>
+      </c>
+      <c r="K75" s="21">
+        <v>4972.2678463102511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -715,7 +715,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -967,6 +967,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -976,7 +979,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1227,6 +1230,9 @@
                   <c:v>3726.5804042211957</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>3726.5804042211957</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>3726.5804042211957</c:v>
                 </c:pt>
               </c:numCache>
@@ -1270,7 +1276,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1522,6 +1528,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,7 +1540,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1780,6 +1789,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>5224.7336613546495</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5243.5475282567822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,7 +1834,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2074,6 +2086,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2083,7 +2098,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2335,6 +2350,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>1516.9671240355865</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1520.3979854145409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,11 +2374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92126592"/>
-        <c:axId val="92247168"/>
+        <c:axId val="524126464"/>
+        <c:axId val="524281344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92126592"/>
+        <c:axId val="524126464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2403,14 +2421,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92247168"/>
+        <c:crossAx val="524281344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92247168"/>
+        <c:axId val="524281344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2459,7 +2477,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92126592"/>
+        <c:crossAx val="524126464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2672,7 +2690,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2888,6 +2906,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2897,7 +2918,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3113,6 +3134,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>5467.3450080000084</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5609.0739080000076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3155,7 +3179,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3371,6 +3395,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3380,7 +3407,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3596,6 +3623,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>6853.9840771834351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7065.4715557005075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3638,7 +3668,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3854,6 +3884,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3863,7 +3896,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4079,6 +4112,9 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>1386.6390691834267</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1456.3976477004999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4100,11 +4136,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="405058304"/>
-        <c:axId val="405059840"/>
+        <c:axId val="617527552"/>
+        <c:axId val="617545728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="405058304"/>
+        <c:axId val="617527552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4147,14 +4183,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405059840"/>
+        <c:crossAx val="617545728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="405059840"/>
+        <c:axId val="617545728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4203,7 +4239,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405058304"/>
+        <c:crossAx val="617527552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4664,8 +4700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF87"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4768,7 +4806,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-26.714728548453351</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -8191,6 +8229,41 @@
       </c>
       <c r="K87" s="21">
         <v>5151.0010962638389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.1385699999999999</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.0570255600933478</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-126.39388185531068</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-111.01107692571445</v>
+      </c>
+      <c r="F88" s="22">
+        <v>-26.714728548453351</v>
+      </c>
+      <c r="G88" s="22">
+        <v>-30.416588483412529</v>
+      </c>
+      <c r="H88" s="22">
+        <v>3726.5804042211957</v>
+      </c>
+      <c r="I88" s="22">
+        <v>5246.9783896357367</v>
+      </c>
+      <c r="J88" s="22">
+        <v>1520.3979854145409</v>
+      </c>
+      <c r="K88" s="21">
+        <v>5277.3949781191495</v>
       </c>
     </row>
   </sheetData>
@@ -8209,7 +8282,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF75"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11215,6 +11288,41 @@
         <v>4972.2678463102511</v>
       </c>
     </row>
+    <row r="76" spans="1:11" ht="12.75">
+      <c r="A76" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B76" s="25">
+        <v>1.1385699999999999</v>
+      </c>
+      <c r="C76" s="20">
+        <v>1.2300079999999995</v>
+      </c>
+      <c r="D76" s="21">
+        <v>141.72889999999953</v>
+      </c>
+      <c r="E76" s="22">
+        <v>124.4797421326748</v>
+      </c>
+      <c r="F76" s="22">
+        <v>1838.4497302671393</v>
+      </c>
+      <c r="G76" s="22">
+        <v>2093.2037093902568</v>
+      </c>
+      <c r="H76" s="22">
+        <v>5609.0739080000076</v>
+      </c>
+      <c r="I76" s="22">
+        <v>7065.4715557005075</v>
+      </c>
+      <c r="J76" s="22">
+        <v>1456.3976477004999</v>
+      </c>
+      <c r="K76" s="21">
+        <v>4972.2678463102511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -715,7 +715,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -970,6 +970,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,7 +982,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1233,6 +1236,9 @@
                   <c:v>3726.5804042211957</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>3726.5804042211957</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>3726.5804042211957</c:v>
                 </c:pt>
               </c:numCache>
@@ -1276,7 +1282,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1531,6 +1537,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,7 +1549,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1792,6 +1801,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>5243.5475282567822</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5246.9783896357367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1834,7 +1846,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2089,6 +2101,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2098,7 +2113,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2352,6 +2367,9 @@
                   <c:v>1516.9671240355865</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>1520.3979854145409</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>1520.3979854145409</c:v>
                 </c:pt>
               </c:numCache>
@@ -2374,11 +2392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524126464"/>
-        <c:axId val="524281344"/>
+        <c:axId val="407597056"/>
+        <c:axId val="407598592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524126464"/>
+        <c:axId val="407597056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,14 +2439,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524281344"/>
+        <c:crossAx val="407598592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524281344"/>
+        <c:axId val="407598592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,7 +2495,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524126464"/>
+        <c:crossAx val="407597056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2690,7 +2708,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2909,6 +2927,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2918,7 +2939,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3137,6 +3158,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>5609.0739080000076</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5800.7448620000077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3179,7 +3203,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3398,6 +3422,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3407,7 +3434,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3626,6 +3653,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>7065.4715557005075</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7160.7342058452996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3668,7 +3698,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3887,6 +3917,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3896,7 +3929,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4115,6 +4148,9 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1456.3976477004999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1359.9893438452918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4136,11 +4172,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617527552"/>
-        <c:axId val="617545728"/>
+        <c:axId val="458233344"/>
+        <c:axId val="458234880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617527552"/>
+        <c:axId val="458233344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4183,14 +4219,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617545728"/>
+        <c:crossAx val="458234880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617545728"/>
+        <c:axId val="458234880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4239,7 +4275,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617527552"/>
+        <c:crossAx val="458233344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4703,7 +4739,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4806,7 +4842,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-26.714728548453351</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -8242,16 +8278,16 @@
         <v>1.0570255600933478</v>
       </c>
       <c r="D88" s="21">
-        <v>-126.39388185531068</v>
+        <v>-95.977293371898156</v>
       </c>
       <c r="E88" s="22">
-        <v>-111.01107692571445</v>
+        <v>-84.296348377261097</v>
       </c>
       <c r="F88" s="22">
-        <v>-26.714728548453351</v>
+        <v>0</v>
       </c>
       <c r="G88" s="22">
-        <v>-30.416588483412529</v>
+        <v>0</v>
       </c>
       <c r="H88" s="22">
         <v>3726.5804042211957</v>
@@ -8263,7 +8299,42 @@
         <v>1520.3979854145409</v>
       </c>
       <c r="K88" s="21">
-        <v>5277.3949781191495</v>
+        <v>5246.9783896357367</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.08613</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.0569674567474039</v>
+      </c>
+      <c r="D89" s="21">
+        <v>0</v>
+      </c>
+      <c r="E89" s="22">
+        <v>0</v>
+      </c>
+      <c r="F89" s="22">
+        <v>0</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0</v>
+      </c>
+      <c r="H89" s="22">
+        <v>3726.5804042211957</v>
+      </c>
+      <c r="I89" s="22">
+        <v>5246.9783896357367</v>
+      </c>
+      <c r="J89" s="22">
+        <v>1520.3979854145409</v>
+      </c>
+      <c r="K89" s="21">
+        <v>5246.9783896357367</v>
       </c>
     </row>
   </sheetData>
@@ -8282,7 +8353,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11323,6 +11394,41 @@
         <v>4972.2678463102511</v>
       </c>
     </row>
+    <row r="77" spans="1:11" ht="12.75">
+      <c r="A77" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B77" s="25">
+        <v>1.08613</v>
+      </c>
+      <c r="C77" s="20">
+        <v>1.2097886800000002</v>
+      </c>
+      <c r="D77" s="21">
+        <v>191.67095400000019</v>
+      </c>
+      <c r="E77" s="22">
+        <v>176.47146658319002</v>
+      </c>
+      <c r="F77" s="22">
+        <v>2014.9211968503294</v>
+      </c>
+      <c r="G77" s="22">
+        <v>2188.4663595350485</v>
+      </c>
+      <c r="H77" s="22">
+        <v>5800.7448620000077</v>
+      </c>
+      <c r="I77" s="22">
+        <v>7160.7342058452996</v>
+      </c>
+      <c r="J77" s="22">
+        <v>1359.9893438452918</v>
+      </c>
+      <c r="K77" s="21">
+        <v>4972.2678463102511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -107,10 +107,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MA250</t>
@@ -715,7 +711,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -973,6 +969,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,7 +981,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1240,6 +1239,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>3726.5804042211957</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3781.2584127730765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,7 +1284,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1540,6 +1542,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1549,7 +1554,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1803,6 +1808,9 @@
                   <c:v>5243.5475282567822</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>5246.9783896357367</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>5246.9783896357367</c:v>
                 </c:pt>
               </c:numCache>
@@ -1846,7 +1854,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2104,6 +2112,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2113,7 +2124,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2371,6 +2382,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1520.3979854145409</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1520.3979854145405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2392,11 +2406,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="407597056"/>
-        <c:axId val="407598592"/>
+        <c:axId val="77410688"/>
+        <c:axId val="77412608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="407597056"/>
+        <c:axId val="77410688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2439,14 +2453,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407598592"/>
+        <c:crossAx val="77412608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="407598592"/>
+        <c:axId val="77412608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,7 +2509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407597056"/>
+        <c:crossAx val="77410688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2708,7 +2722,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2930,6 +2944,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2939,7 +2956,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3161,6 +3178,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>5800.7448620000077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6068.6050120000073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3203,7 +3223,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3425,6 +3445,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3434,7 +3457,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3656,6 +3679,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>7160.7342058452996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7298.5110433766422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3698,7 +3724,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3920,6 +3946,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3929,7 +3958,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4151,6 +4180,9 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1359.9893438452918</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1229.9060313766349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4172,11 +4204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458233344"/>
-        <c:axId val="458234880"/>
+        <c:axId val="101091584"/>
+        <c:axId val="181834112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="458233344"/>
+        <c:axId val="101091584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4219,14 +4251,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458234880"/>
+        <c:crossAx val="181834112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458234880"/>
+        <c:axId val="181834112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4275,7 +4307,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458233344"/>
+        <c:crossAx val="101091584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4736,10 +4768,8 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:AF89"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5421,6 +5451,16 @@
         <f t="shared" ref="AC10:AC15" si="5">-AB10</f>
         <v>-304.12500617544276</v>
       </c>
+      <c r="AD10" s="6">
+        <v>43098</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>304.12500617544276</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" ref="AF10:AF16" si="6">-AE10</f>
+        <v>-304.12500617544276</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -5457,6 +5497,30 @@
         <v>237.67558279250011</v>
       </c>
       <c r="L11" s="7"/>
+      <c r="O11" s="6">
+        <v>45289</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>3587.6850243046301</v>
+      </c>
+      <c r="R11" s="5">
+        <v>5085.8382814380839</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1498.1532571334537</v>
+      </c>
+      <c r="T11" s="5">
+        <v>5085.8382814380839</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.41758215868569115</v>
+      </c>
+      <c r="V11" s="9">
+        <v>7.5226508819494331E-2</v>
+      </c>
       <c r="X11" s="6">
         <v>43462</v>
       </c>
@@ -5477,6 +5541,16 @@
         <f t="shared" si="5"/>
         <v>-1807.7843670854991</v>
       </c>
+      <c r="AD11" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>1807.7843670854991</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="6"/>
+        <v>-1807.7843670854991</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -5533,6 +5607,16 @@
         <f t="shared" si="5"/>
         <v>-287.82612266325077</v>
       </c>
+      <c r="AD12" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>287.82612266325077</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="6"/>
+        <v>-287.82612266325077</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -5589,6 +5673,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AD13" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -5645,6 +5739,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="AD14" s="6">
+        <v>44561</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -5695,6 +5799,16 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="5"/>
+        <v>-1187.9495283804376</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>1187.9495283804376</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="6"/>
         <v>-1187.9495283804376</v>
       </c>
     </row>
@@ -5743,8 +5857,18 @@
       <c r="AC16" s="1">
         <v>4687.9403225778906</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD16" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43217</v>
       </c>
@@ -5783,8 +5907,14 @@
         <f>IRR(AC10:AC16)</f>
         <v>7.2787148508788313E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD17" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>5085.8382814380839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43251</v>
       </c>
@@ -5819,8 +5949,12 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AF18" s="2">
+        <f>IRR(AF10:AF17)</f>
+        <v>7.5226508819494331E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43280</v>
       </c>
@@ -5856,7 +5990,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+    <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43312</v>
       </c>
@@ -5892,7 +6026,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+    <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43343</v>
       </c>
@@ -5928,7 +6062,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+    <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43371</v>
       </c>
@@ -5964,7 +6098,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+    <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43404</v>
       </c>
@@ -6000,7 +6134,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+    <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43434</v>
       </c>
@@ -6037,7 +6171,7 @@
       <c r="L24" s="7"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+    <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43462</v>
       </c>
@@ -6073,7 +6207,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+    <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43496</v>
       </c>
@@ -6109,7 +6243,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+    <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43524</v>
       </c>
@@ -6145,7 +6279,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+    <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43553</v>
       </c>
@@ -6181,7 +6315,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+    <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43585</v>
       </c>
@@ -6217,7 +6351,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+    <row r="30" spans="1:32" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43616</v>
       </c>
@@ -6253,7 +6387,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+    <row r="31" spans="1:32" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>43644</v>
       </c>
@@ -6289,7 +6423,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+    <row r="32" spans="1:32" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>43677</v>
       </c>
@@ -8334,6 +8468,41 @@
         <v>1520.3979854145409</v>
       </c>
       <c r="K89" s="21">
+        <v>5246.9783896357367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.0215700000000001</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.0568461345496005</v>
+      </c>
+      <c r="D90" s="21">
+        <v>54.678008551880673</v>
+      </c>
+      <c r="E90" s="22">
+        <v>53.523506516323572</v>
+      </c>
+      <c r="F90" s="22">
+        <v>53.523506516323572</v>
+      </c>
+      <c r="G90" s="22">
+        <v>54.678008551880673</v>
+      </c>
+      <c r="H90" s="22">
+        <v>3781.2584127730765</v>
+      </c>
+      <c r="I90" s="22">
+        <v>5301.656398187617</v>
+      </c>
+      <c r="J90" s="22">
+        <v>1520.3979854145405</v>
+      </c>
+      <c r="K90" s="21">
         <v>5246.9783896357367</v>
       </c>
     </row>
@@ -8353,7 +8522,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF77"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8395,13 +8564,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -8984,6 +9153,30 @@
         <v>0</v>
       </c>
       <c r="L10" s="7"/>
+      <c r="O10" s="6">
+        <v>45289</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>4830.1401940000078</v>
+      </c>
+      <c r="R10" s="5">
+        <v>6340.8843712169046</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1510.7441772168968</v>
+      </c>
+      <c r="T10" s="5">
+        <v>4972.2678463102511</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0.31277439505659499</v>
+      </c>
+      <c r="V10" s="9">
+        <v>8.0252163148518463E-2</v>
+      </c>
       <c r="X10" s="6">
         <v>43462</v>
       </c>
@@ -8994,6 +9187,16 @@
         <f>-Y10</f>
         <v>-1431.6926540000038</v>
       </c>
+      <c r="AA10" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1431.6926540000038</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" ref="AC10:AC15" si="3">-AB10</f>
+        <v>-1431.6926540000038</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -9040,6 +9243,16 @@
         <f>-Y11</f>
         <v>-193.45680200000038</v>
       </c>
+      <c r="AA11" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>193.45680200000038</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="3"/>
+        <v>-193.45680200000038</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -9086,6 +9299,16 @@
         <f>-Y12</f>
         <v>0</v>
       </c>
+      <c r="AA12" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -9132,6 +9355,16 @@
         <f>-Y13</f>
         <v>-439.43355600000223</v>
       </c>
+      <c r="AA13" s="6">
+        <v>44561</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>439.43355600000223</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" si="3"/>
+        <v>-439.43355600000223</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -9178,6 +9411,16 @@
         <f>-Y14</f>
         <v>-2765.5571820000014</v>
       </c>
+      <c r="AA14" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>2765.5571820000014</v>
+      </c>
+      <c r="AC14" s="1">
+        <f t="shared" si="3"/>
+        <v>-2765.5571820000014</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -9219,6 +9462,16 @@
       </c>
       <c r="Z15" s="1">
         <v>5387.9358458787192</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="14.1" customHeight="1">
@@ -9260,8 +9513,14 @@
         <f>IRR(Z10:Z15)</f>
         <v>4.524456729933557E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="14.1" customHeight="1">
+      <c r="AA16" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>6340.8843712169046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43585</v>
       </c>
@@ -9296,8 +9555,12 @@
         <v>475.83598799999993</v>
       </c>
       <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.1" customHeight="1">
+      <c r="AC17" s="2">
+        <f>IRR(AC10:AC16)</f>
+        <v>8.0252163148518463E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43616</v>
       </c>
@@ -9333,7 +9596,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:15" ht="14.1" customHeight="1">
+    <row r="19" spans="1:29" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43644</v>
       </c>
@@ -9369,7 +9632,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:15" ht="14.1" customHeight="1">
+    <row r="20" spans="1:29" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43677</v>
       </c>
@@ -9405,7 +9668,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:15" ht="14.1" customHeight="1">
+    <row r="21" spans="1:29" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43707</v>
       </c>
@@ -9441,7 +9704,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:15" ht="14.1" customHeight="1">
+    <row r="22" spans="1:29" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43738</v>
       </c>
@@ -9477,7 +9740,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:15" ht="14.1" customHeight="1">
+    <row r="23" spans="1:29" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43769</v>
       </c>
@@ -9514,7 +9777,7 @@
       <c r="L23" s="7"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="14.1" customHeight="1">
+    <row r="24" spans="1:29" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43798</v>
       </c>
@@ -9550,7 +9813,7 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:15" ht="14.1" customHeight="1">
+    <row r="25" spans="1:29" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43830</v>
       </c>
@@ -9586,7 +9849,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:15" ht="14.1" customHeight="1">
+    <row r="26" spans="1:29" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43853</v>
       </c>
@@ -9622,7 +9885,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:15" ht="14.1" customHeight="1">
+    <row r="27" spans="1:29" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43889</v>
       </c>
@@ -9658,7 +9921,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:15" ht="14.1" customHeight="1">
+    <row r="28" spans="1:29" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43921</v>
       </c>
@@ -9694,7 +9957,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:15" ht="14.1" customHeight="1">
+    <row r="29" spans="1:29" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43951</v>
       </c>
@@ -9730,7 +9993,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="14.1" customHeight="1">
+    <row r="30" spans="1:29" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43980</v>
       </c>
@@ -9766,7 +10029,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:15" ht="14.1" customHeight="1">
+    <row r="31" spans="1:29" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>44012</v>
       </c>
@@ -9802,7 +10065,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:15" ht="14.1" customHeight="1">
+    <row r="32" spans="1:29" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>44043</v>
       </c>
@@ -11426,6 +11689,41 @@
         <v>1359.9893438452918</v>
       </c>
       <c r="K77" s="21">
+        <v>4972.2678463102511</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="12.75">
+      <c r="A78" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B78" s="25">
+        <v>1.0215700000000001</v>
+      </c>
+      <c r="C78" s="20">
+        <v>1.1943829999999998</v>
+      </c>
+      <c r="D78" s="21">
+        <v>267.86014999999946</v>
+      </c>
+      <c r="E78" s="22">
+        <v>262.20440106894233</v>
+      </c>
+      <c r="F78" s="22">
+        <v>2277.1255979192715</v>
+      </c>
+      <c r="G78" s="22">
+        <v>2326.2431970663906</v>
+      </c>
+      <c r="H78" s="22">
+        <v>6068.6050120000073</v>
+      </c>
+      <c r="I78" s="22">
+        <v>7298.5110433766422</v>
+      </c>
+      <c r="J78" s="22">
+        <v>1229.9060313766349</v>
+      </c>
+      <c r="K78" s="21">
         <v>4972.2678463102511</v>
       </c>
     </row>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -711,7 +711,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -972,6 +972,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,7 +984,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1242,6 +1245,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>3781.2584127730765</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3935.4982483624722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,7 +1290,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1545,6 +1551,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1554,7 +1563,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1812,6 +1821,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>5246.9783896357367</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5301.656398187617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1854,7 +1866,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2115,6 +2127,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2124,7 +2139,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2385,6 +2400,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>1520.3979854145405</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1516.9114642000673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2406,11 +2424,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77410688"/>
-        <c:axId val="77412608"/>
+        <c:axId val="353107968"/>
+        <c:axId val="353109504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77410688"/>
+        <c:axId val="353107968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,14 +2471,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77412608"/>
+        <c:crossAx val="353109504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77412608"/>
+        <c:axId val="353109504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,7 +2527,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77410688"/>
+        <c:crossAx val="353107968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2722,7 +2740,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2947,6 +2965,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2956,7 +2977,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3181,6 +3202,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>6068.6050120000073</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6398.9720740000075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3223,7 +3247,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3448,6 +3472,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3457,7 +3484,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3682,6 +3709,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>7298.5110433766422</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7480.5461439281798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3724,7 +3754,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3949,6 +3979,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3958,7 +3991,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4183,6 +4216,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>1229.9060313766349</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1081.5740699281723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4204,11 +4240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101091584"/>
-        <c:axId val="181834112"/>
+        <c:axId val="512226816"/>
+        <c:axId val="512228352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="101091584"/>
+        <c:axId val="512226816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4251,14 +4287,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181834112"/>
+        <c:crossAx val="512228352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181834112"/>
+        <c:axId val="512228352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4307,7 +4343,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101091584"/>
+        <c:crossAx val="512226816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4415,7 +4451,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4458,7 +4494,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4769,7 +4805,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF90"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8506,6 +8542,41 @@
         <v>5246.9783896357367</v>
       </c>
     </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B91" s="25">
+        <v>0.95643</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.0559395713479971</v>
+      </c>
+      <c r="D91" s="21">
+        <v>154.23983558939548</v>
+      </c>
+      <c r="E91" s="22">
+        <v>161.26620410212507</v>
+      </c>
+      <c r="F91" s="22">
+        <v>214.78971061844865</v>
+      </c>
+      <c r="G91" s="22">
+        <v>205.43132292680284</v>
+      </c>
+      <c r="H91" s="22">
+        <v>3935.4982483624722</v>
+      </c>
+      <c r="I91" s="22">
+        <v>5452.4097125625394</v>
+      </c>
+      <c r="J91" s="22">
+        <v>1516.9114642000673</v>
+      </c>
+      <c r="K91" s="21">
+        <v>5246.9783896357367</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -8522,7 +8593,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF78"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11727,6 +11798,41 @@
         <v>4972.2678463102511</v>
       </c>
     </row>
+    <row r="79" spans="1:11" ht="12.75">
+      <c r="A79" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B79" s="25">
+        <v>0.95643</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1.16957004</v>
+      </c>
+      <c r="D79" s="21">
+        <v>330.36706199999998</v>
+      </c>
+      <c r="E79" s="22">
+        <v>345.41687525485395</v>
+      </c>
+      <c r="F79" s="22">
+        <v>2622.5424731741255</v>
+      </c>
+      <c r="G79" s="22">
+        <v>2508.2782976179287</v>
+      </c>
+      <c r="H79" s="22">
+        <v>6398.9720740000075</v>
+      </c>
+      <c r="I79" s="22">
+        <v>7480.5461439281798</v>
+      </c>
+      <c r="J79" s="22">
+        <v>1081.5740699281723</v>
+      </c>
+      <c r="K79" s="21">
+        <v>4972.2678463102511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="17280" windowHeight="8880" activeTab="1"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="15600" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模型二 (1)平均线" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -111,6 +111,10 @@
   <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -711,7 +715,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -975,6 +979,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,7 +991,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1248,6 +1255,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>3935.4982483624722</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4051.8552984738299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,7 +1300,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1554,6 +1564,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1563,7 +1576,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1824,6 +1837,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>5301.656398187617</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5452.4097125625394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1866,7 +1882,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2130,6 +2146,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2139,7 +2158,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2403,6 +2422,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1516.9114642000673</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1521.8344443674423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2424,11 +2446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="353107968"/>
-        <c:axId val="353109504"/>
+        <c:axId val="384457728"/>
+        <c:axId val="391189632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="353107968"/>
+        <c:axId val="384457728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2471,14 +2493,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353109504"/>
+        <c:crossAx val="391189632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="353109504"/>
+        <c:axId val="391189632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2527,7 +2549,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353107968"/>
+        <c:crossAx val="384457728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2740,7 +2762,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2968,6 +2990,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2977,7 +3002,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3205,6 +3230,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>6398.9720740000075</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6639.8119420000066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3247,7 +3275,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3475,6 +3503,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3484,7 +3515,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3712,6 +3743,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7480.5461439281798</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7781.4946854133304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3754,7 +3788,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3982,6 +4016,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3991,7 +4028,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4219,6 +4256,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1081.5740699281723</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1141.6827434133238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4240,11 +4280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="512226816"/>
-        <c:axId val="512228352"/>
+        <c:axId val="448467712"/>
+        <c:axId val="448469632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="512226816"/>
+        <c:axId val="448467712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4287,14 +4327,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512228352"/>
+        <c:crossAx val="448469632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512228352"/>
+        <c:axId val="448469632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4343,7 +4383,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512226816"/>
+        <c:crossAx val="448467712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4451,7 +4491,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4494,7 +4534,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4805,7 +4845,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF91"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8577,6 +8617,41 @@
         <v>5246.9783896357367</v>
       </c>
     </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B92" s="25">
+        <v>0.97935000000000005</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.0544190645879727</v>
+      </c>
+      <c r="D92" s="21">
+        <v>116.35705011135767</v>
+      </c>
+      <c r="E92" s="22">
+        <v>118.81048666090535</v>
+      </c>
+      <c r="F92" s="22">
+        <v>333.60019727935401</v>
+      </c>
+      <c r="G92" s="22">
+        <v>326.71135320553537</v>
+      </c>
+      <c r="H92" s="22">
+        <v>4051.8552984738299</v>
+      </c>
+      <c r="I92" s="22">
+        <v>5573.6897428412722</v>
+      </c>
+      <c r="J92" s="22">
+        <v>1521.8344443674423</v>
+      </c>
+      <c r="K92" s="21">
+        <v>5246.9783896357367</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -8593,7 +8668,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8691,7 +8766,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -11830,6 +11905,41 @@
         <v>1081.5740699281723</v>
       </c>
       <c r="K79" s="21">
+        <v>4972.2678463102511</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="12.75">
+      <c r="A80" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B80" s="25">
+        <v>0.97935000000000005</v>
+      </c>
+      <c r="C80" s="20">
+        <v>1.1347305599999995</v>
+      </c>
+      <c r="D80" s="21">
+        <v>240.83986799999914</v>
+      </c>
+      <c r="E80" s="22">
+        <v>245.91807627507953</v>
+      </c>
+      <c r="F80" s="22">
+        <v>2868.4605494492048</v>
+      </c>
+      <c r="G80" s="22">
+        <v>2809.2268391030789</v>
+      </c>
+      <c r="H80" s="22">
+        <v>6639.8119420000066</v>
+      </c>
+      <c r="I80" s="22">
+        <v>7781.4946854133304</v>
+      </c>
+      <c r="J80" s="22">
+        <v>1141.6827434133238</v>
+      </c>
+      <c r="K80" s="21">
         <v>4972.2678463102511</v>
       </c>
     </row>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -111,10 +111,6 @@
   <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -715,7 +711,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -982,6 +978,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,7 +990,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1258,6 +1257,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>4051.8552984738299</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1300,7 +1302,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1567,6 +1569,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,7 +1581,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1840,6 +1845,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>5452.4097125625394</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5573.6897428412722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,7 +1890,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2149,6 +2157,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2158,7 +2169,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2425,6 +2436,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1521.8344443674423</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1508.3836844131383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2446,11 +2460,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="384457728"/>
-        <c:axId val="391189632"/>
+        <c:axId val="80379264"/>
+        <c:axId val="445155200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="384457728"/>
+        <c:axId val="80379264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,14 +2507,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391189632"/>
+        <c:crossAx val="445155200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391189632"/>
+        <c:axId val="445155200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,7 +2563,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384457728"/>
+        <c:crossAx val="80379264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2762,7 +2776,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -2993,6 +3007,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3002,7 +3019,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3233,6 +3250,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>6639.8119420000066</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3275,7 +3295,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3506,6 +3526,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3515,7 +3538,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3746,6 +3769,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>7781.4946854133304</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7924.9617140595365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3788,7 +3814,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4019,6 +4045,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4028,7 +4057,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4259,6 +4288,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>1141.6827434133238</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1026.0264140595318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4280,11 +4312,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448467712"/>
-        <c:axId val="448469632"/>
+        <c:axId val="487286272"/>
+        <c:axId val="487287808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448467712"/>
+        <c:axId val="487286272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,14 +4359,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448469632"/>
+        <c:crossAx val="487287808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448469632"/>
+        <c:axId val="487287808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4383,7 +4415,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448467712"/>
+        <c:crossAx val="487286272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4491,7 +4523,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4534,7 +4566,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4845,7 +4877,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8652,6 +8684,41 @@
         <v>5246.9783896357367</v>
       </c>
     </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B93" s="25">
+        <v>0.93902999999999992</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.0528800330033004</v>
+      </c>
+      <c r="D93" s="21">
+        <v>176.46755115511567</v>
+      </c>
+      <c r="E93" s="22">
+        <v>187.92536037732094</v>
+      </c>
+      <c r="F93" s="22">
+        <v>521.52555765667489</v>
+      </c>
+      <c r="G93" s="22">
+        <v>489.72814440634738</v>
+      </c>
+      <c r="H93" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I93" s="22">
+        <v>5736.7065340420841</v>
+      </c>
+      <c r="J93" s="22">
+        <v>1508.3836844131383</v>
+      </c>
+      <c r="K93" s="21">
+        <v>5246.9783896357367</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -8668,7 +8735,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF80"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8766,7 +8833,7 @@
         <v>1550</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -11940,6 +12007,41 @@
         <v>1141.6827434133238</v>
       </c>
       <c r="K80" s="21">
+        <v>4972.2678463102511</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="12.75">
+      <c r="A81" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B81" s="25">
+        <v>0.93902999999999992</v>
+      </c>
+      <c r="C81" s="20">
+        <v>1.1062063599999989</v>
+      </c>
+      <c r="D81" s="21">
+        <v>259.12335799999846</v>
+      </c>
+      <c r="E81" s="22">
+        <v>275.9479015579891</v>
+      </c>
+      <c r="F81" s="22">
+        <v>3144.4084510071939</v>
+      </c>
+      <c r="G81" s="22">
+        <v>2952.6938677492849</v>
+      </c>
+      <c r="H81" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I81" s="22">
+        <v>7924.9617140595365</v>
+      </c>
+      <c r="J81" s="22">
+        <v>1026.0264140595318</v>
+      </c>
+      <c r="K81" s="21">
         <v>4972.2678463102511</v>
       </c>
     </row>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -711,7 +711,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -981,6 +981,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,7 +993,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1259,6 +1262,9 @@
                   <c:v>4051.8552984738299</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1302,7 +1308,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1572,6 +1578,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1581,7 +1590,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1848,6 +1857,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>5573.6897428412722</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5736.7065340420841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1890,7 +1902,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2160,6 +2172,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2169,7 +2184,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2439,6 +2454,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>1508.3836844131383</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1653.9571133218469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2460,11 +2478,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80379264"/>
-        <c:axId val="445155200"/>
+        <c:axId val="370584576"/>
+        <c:axId val="414485888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80379264"/>
+        <c:axId val="370584576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2507,14 +2525,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445155200"/>
+        <c:crossAx val="414485888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="445155200"/>
+        <c:axId val="414485888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2563,7 +2581,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80379264"/>
+        <c:crossAx val="370584576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2776,7 +2794,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3010,6 +3028,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3019,7 +3040,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3252,6 +3273,9 @@
                   <c:v>6639.8119420000066</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3295,7 +3319,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3529,6 +3553,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3538,7 +3565,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3772,6 +3799,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>7924.9617140595365</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8802.6604449891747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3814,7 +3844,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4048,6 +4078,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4057,7 +4090,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4291,6 +4324,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1026.0264140595318</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1903.7251449891701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4312,11 +4348,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487286272"/>
-        <c:axId val="487287808"/>
+        <c:axId val="467806080"/>
+        <c:axId val="569025664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487286272"/>
+        <c:axId val="467806080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4359,14 +4395,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487287808"/>
+        <c:crossAx val="569025664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487287808"/>
+        <c:axId val="569025664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4415,7 +4451,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487286272"/>
+        <c:crossAx val="467806080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4523,7 +4559,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4566,7 +4602,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4877,7 +4913,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8719,6 +8755,41 @@
         <v>5246.9783896357367</v>
       </c>
     </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.2181600000000001</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.0519209798584648</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-257.67048121937978</v>
+      </c>
+      <c r="E94" s="22">
+        <v>-211.52433278007794</v>
+      </c>
+      <c r="F94" s="22">
+        <v>310.00122487659695</v>
+      </c>
+      <c r="G94" s="22">
+        <v>377.6310920956754</v>
+      </c>
+      <c r="H94" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I94" s="22">
+        <v>5882.2799629507927</v>
+      </c>
+      <c r="J94" s="22">
+        <v>1653.9571133218469</v>
+      </c>
+      <c r="K94" s="21">
+        <v>5504.6488708551169</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -8735,7 +8806,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF81"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12045,6 +12116,41 @@
         <v>4972.2678463102511</v>
       </c>
     </row>
+    <row r="82" spans="1:11" ht="12.75">
+      <c r="A82" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B82" s="25">
+        <v>1.2181600000000001</v>
+      </c>
+      <c r="C82" s="20">
+        <v>1.0854110799999994</v>
+      </c>
+      <c r="D82" s="21">
+        <v>-205.76082600000112</v>
+      </c>
+      <c r="E82" s="22">
+        <v>-168.91116602088485</v>
+      </c>
+      <c r="F82" s="22">
+        <v>2975.4972849863088</v>
+      </c>
+      <c r="G82" s="22">
+        <v>3624.6317726789225</v>
+      </c>
+      <c r="H82" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I82" s="22">
+        <v>8802.6604449891747</v>
+      </c>
+      <c r="J82" s="22">
+        <v>1903.7251449891701</v>
+      </c>
+      <c r="K82" s="21">
+        <v>5178.0286723102527</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -107,6 +107,10 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MA250</t>
@@ -711,7 +715,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -984,6 +988,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,7 +1000,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1265,6 +1272,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1308,7 +1318,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1581,6 +1591,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,7 +1603,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1860,6 +1873,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>5736.7065340420841</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5882.2799629507927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1902,7 +1918,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2175,6 +2191,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2184,7 +2203,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2457,6 +2476,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1653.9571133218469</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1706.0838192848469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2478,11 +2500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370584576"/>
-        <c:axId val="414485888"/>
+        <c:axId val="70802048"/>
+        <c:axId val="70803840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370584576"/>
+        <c:axId val="70802048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2525,14 +2547,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414485888"/>
+        <c:crossAx val="70803840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="414485888"/>
+        <c:axId val="70803840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,7 +2603,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370584576"/>
+        <c:crossAx val="70802048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2794,7 +2816,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3031,6 +3053,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3040,7 +3065,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3276,6 +3301,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3319,7 +3347,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3556,6 +3584,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3565,7 +3596,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3802,6 +3833,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>8802.6604449891747</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9302.9903134596225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3844,7 +3878,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4081,6 +4115,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4090,7 +4127,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4327,6 +4364,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1903.7251449891701</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2404.0550134596178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4348,11 +4388,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467806080"/>
-        <c:axId val="569025664"/>
+        <c:axId val="98327936"/>
+        <c:axId val="471904256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467806080"/>
+        <c:axId val="98327936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4395,14 +4435,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569025664"/>
+        <c:crossAx val="471904256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="569025664"/>
+        <c:axId val="471904256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4451,7 +4491,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467806080"/>
+        <c:crossAx val="98327936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4912,8 +4952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF94"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5016,7 +5058,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-61.090677857192247</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -8788,6 +8830,41 @@
       </c>
       <c r="K94" s="21">
         <v>5504.6488708551169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.3863099999999999</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.0544077963362068</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-514.44841567887931</v>
+      </c>
+      <c r="E95" s="22">
+        <v>-371.0919027337892</v>
+      </c>
+      <c r="F95" s="22">
+        <v>-61.090677857192247</v>
+      </c>
+      <c r="G95" s="22">
+        <v>-84.690617620204179</v>
+      </c>
+      <c r="H95" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I95" s="22">
+        <v>5934.4066689137926</v>
+      </c>
+      <c r="J95" s="22">
+        <v>1706.0838192848469</v>
+      </c>
+      <c r="K95" s="21">
+        <v>6019.0972865339963</v>
       </c>
     </row>
   </sheetData>
@@ -8806,7 +8883,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AF83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8848,13 +8925,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -12151,6 +12228,41 @@
         <v>5178.0286723102527</v>
       </c>
     </row>
+    <row r="83" spans="1:11" ht="12.75">
+      <c r="A83" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B83" s="25">
+        <v>1.3863099999999999</v>
+      </c>
+      <c r="C83" s="20">
+        <v>1.0912980399999994</v>
+      </c>
+      <c r="D83" s="21">
+        <v>-457.26853800000077</v>
+      </c>
+      <c r="E83" s="22">
+        <v>-329.84580505081891</v>
+      </c>
+      <c r="F83" s="22">
+        <v>2645.65147993549</v>
+      </c>
+      <c r="G83" s="22">
+        <v>3667.6931031493691</v>
+      </c>
+      <c r="H83" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I83" s="22">
+        <v>9302.9903134596225</v>
+      </c>
+      <c r="J83" s="22">
+        <v>2404.0550134596178</v>
+      </c>
+      <c r="K83" s="21">
+        <v>5635.2972103102538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -715,7 +715,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -991,6 +991,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,7 +1003,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1275,6 +1278,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1318,7 +1324,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1594,6 +1600,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,7 +1612,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1876,6 +1885,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>5882.2799629507927</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1918,7 +1930,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2194,6 +2206,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2203,7 +2218,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2478,7 +2493,10 @@
                   <c:v>1653.9571133218469</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1706.0838192848469</c:v>
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2500,11 +2518,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70802048"/>
-        <c:axId val="70803840"/>
+        <c:axId val="476379392"/>
+        <c:axId val="477302784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="70802048"/>
+        <c:axId val="476379392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,14 +2565,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70803840"/>
+        <c:crossAx val="477302784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70803840"/>
+        <c:axId val="477302784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,7 +2621,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70802048"/>
+        <c:crossAx val="476379392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2816,7 +2834,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3056,6 +3074,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3065,7 +3086,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3304,6 +3325,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3347,7 +3371,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3587,6 +3611,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3596,7 +3623,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3836,6 +3863,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>9302.9903134596225</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9505.0651734970961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3878,7 +3908,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4118,6 +4148,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4127,7 +4160,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4367,6 +4400,9 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2404.0550134596178</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2606.1298734970915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4388,11 +4424,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98327936"/>
-        <c:axId val="471904256"/>
+        <c:axId val="569908608"/>
+        <c:axId val="571044992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="98327936"/>
+        <c:axId val="569908608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4435,14 +4471,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471904256"/>
+        <c:crossAx val="571044992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471904256"/>
+        <c:axId val="571044992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4491,7 +4527,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98327936"/>
+        <c:crossAx val="569908608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4955,7 +4991,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF95"/>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5058,7 +5094,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-61.090677857192247</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -8843,28 +8879,63 @@
         <v>1.0544077963362068</v>
       </c>
       <c r="D95" s="21">
-        <v>-514.44841567887931</v>
+        <v>-429.75779805867512</v>
       </c>
       <c r="E95" s="22">
-        <v>-371.0919027337892</v>
+        <v>-310.00122487659695</v>
       </c>
       <c r="F95" s="22">
-        <v>-61.090677857192247</v>
+        <v>0</v>
       </c>
       <c r="G95" s="22">
-        <v>-84.690617620204179</v>
+        <v>0</v>
       </c>
       <c r="H95" s="22">
         <v>4228.3228496289457</v>
       </c>
       <c r="I95" s="22">
-        <v>5934.4066689137926</v>
+        <v>5934.4066689137917</v>
       </c>
       <c r="J95" s="22">
-        <v>1706.0838192848469</v>
+        <v>1706.083819284846</v>
       </c>
       <c r="K95" s="21">
-        <v>6019.0972865339963</v>
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="12.75">
+      <c r="A96" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.46269</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.0582540618336882</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="22">
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I96" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J96" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K96" s="21">
+        <v>5934.4066689137917</v>
       </c>
     </row>
   </sheetData>
@@ -8883,7 +8954,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF83"/>
+  <dimension ref="A1:AF84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12263,6 +12334,41 @@
         <v>5635.2972103102538</v>
       </c>
     </row>
+    <row r="84" spans="1:11" ht="12.75">
+      <c r="A84" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B84" s="25">
+        <v>1.46269</v>
+      </c>
+      <c r="C84" s="20">
+        <v>1.1046611600000003</v>
+      </c>
+      <c r="D84" s="21">
+        <v>-554.94470199999967</v>
+      </c>
+      <c r="E84" s="22">
+        <v>-379.40007930593606</v>
+      </c>
+      <c r="F84" s="22">
+        <v>2266.2514006295542</v>
+      </c>
+      <c r="G84" s="22">
+        <v>3314.8232611868425</v>
+      </c>
+      <c r="H84" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I84" s="22">
+        <v>9505.0651734970961</v>
+      </c>
+      <c r="J84" s="22">
+        <v>2606.1298734970915</v>
+      </c>
+      <c r="K84" s="21">
+        <v>6190.2419123102536</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -11,8 +11,8 @@
     <sheet name="模型二 (1)MA250" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'模型二 (1)MA250'!$O$1:$O$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'模型二 (1)平均线'!$O$1:$O$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'模型二 (1)MA250'!$O$1:$O$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'模型二 (1)平均线'!$O$1:$O$76</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('模型二 (1)MA250'!J1,0,0,COUNTA('模型二 (1)MA250'!J:J)-1)</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('模型二 (1)平均线'!J1,0,0,COUNTA('模型二 (1)平均线'!J:J)-1)</definedName>
     <definedName name="时间" localSheetId="1">OFFSET('模型二 (1)MA250'!A1,0,0,COUNTA('模型二 (1)MA250'!A:A)-1)</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -107,10 +107,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MA250</t>
@@ -715,7 +711,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -994,6 +990,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,7 +1002,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1281,6 +1280,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1324,7 +1326,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1603,6 +1605,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1612,7 +1617,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1887,6 +1892,9 @@
                   <c:v>5882.2799629507927</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -1930,7 +1938,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2209,6 +2217,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2218,7 +2229,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2496,6 +2507,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2518,11 +2532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476379392"/>
-        <c:axId val="477302784"/>
+        <c:axId val="425954688"/>
+        <c:axId val="426407040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476379392"/>
+        <c:axId val="425954688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,14 +2579,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477302784"/>
+        <c:crossAx val="426407040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477302784"/>
+        <c:axId val="426407040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2621,7 +2635,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476379392"/>
+        <c:crossAx val="425954688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2834,7 +2848,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3077,6 +3091,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3086,7 +3103,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3328,6 +3345,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3371,7 +3391,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3614,6 +3634,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3623,7 +3646,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3865,7 +3888,10 @@
                   <c:v>9302.9903134596225</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9505.0651734970961</c:v>
+                  <c:v>9504.9923728574704</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9328.1858434175265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3908,7 +3934,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4151,6 +4177,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4160,7 +4189,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4402,7 +4431,10 @@
                   <c:v>2404.0550134596178</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2606.1298734970915</c:v>
+                  <c:v>2606.0570728574658</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2429.2505434175218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4424,11 +4456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="569908608"/>
-        <c:axId val="571044992"/>
+        <c:axId val="118366592"/>
+        <c:axId val="118368128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="569908608"/>
+        <c:axId val="118366592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4471,14 +4503,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571044992"/>
+        <c:crossAx val="118368128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="571044992"/>
+        <c:axId val="118368128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4527,7 +4559,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569908608"/>
+        <c:crossAx val="118366592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4627,7 +4659,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4991,7 +5023,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF96"/>
+  <dimension ref="A1:AF97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5809,6 +5841,30 @@
         <v>251.21204627564666</v>
       </c>
       <c r="L12" s="7"/>
+      <c r="O12" s="6">
+        <v>45657</v>
+      </c>
+      <c r="P12" s="10">
+        <v>640.6378253243156</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="R12" s="5">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="T12" s="5">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0.40348948742988311</v>
+      </c>
+      <c r="V12" s="9">
+        <v>6.7866001631279316E-2</v>
+      </c>
       <c r="X12" s="6">
         <v>43830</v>
       </c>
@@ -6211,6 +6267,16 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L19" s="7"/>
+      <c r="X19" s="6">
+        <v>43098</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>304.12500617544276</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" ref="Z19:Z26" si="7">-Y19</f>
+        <v>-304.12500617544276</v>
+      </c>
     </row>
     <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
@@ -6247,6 +6313,16 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L20" s="7"/>
+      <c r="X20" s="6">
+        <v>43462</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1807.7843670854991</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="7"/>
+        <v>-1807.7843670854991</v>
+      </c>
     </row>
     <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
@@ -6283,6 +6359,16 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L21" s="8"/>
+      <c r="X21" s="6">
+        <v>43830</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>287.82612266325077</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="7"/>
+        <v>-287.82612266325077</v>
+      </c>
     </row>
     <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
@@ -6319,6 +6405,16 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L22" s="7"/>
+      <c r="X22" s="6">
+        <v>44196</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
@@ -6355,6 +6451,17 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L23" s="7"/>
+      <c r="O23" s="3"/>
+      <c r="X23" s="6">
+        <v>44561</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
@@ -6391,7 +6498,16 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L24" s="7"/>
-      <c r="O24" s="3"/>
+      <c r="X24" s="6">
+        <v>44925</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>1187.9495283804376</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="7"/>
+        <v>-1187.9495283804376</v>
+      </c>
     </row>
     <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
@@ -6428,6 +6544,16 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L25" s="7"/>
+      <c r="X25" s="6">
+        <v>45289</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
@@ -6464,6 +6590,16 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L26" s="7"/>
+      <c r="X26" s="6">
+        <v>45657</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>640.6378253243156</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="7"/>
+        <v>-640.6378253243156</v>
+      </c>
     </row>
     <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
@@ -6500,6 +6636,12 @@
         <v>317.52088040945171</v>
       </c>
       <c r="L27" s="7"/>
+      <c r="X27" s="6">
+        <v>45657</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>5934.4066689137917</v>
+      </c>
     </row>
     <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
@@ -6536,6 +6678,10 @@
         <v>449.17350940945107</v>
       </c>
       <c r="L28" s="7"/>
+      <c r="Z28" s="2">
+        <f>IRR(Z19:Z27)</f>
+        <v>6.7866001631279316E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
@@ -6788,6 +6934,7 @@
         <v>970.9296342150401</v>
       </c>
       <c r="L35" s="7"/>
+      <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" ht="14.1" customHeight="1">
       <c r="A36" s="15">
@@ -6824,7 +6971,6 @@
         <v>1125.2320641849196</v>
       </c>
       <c r="L36" s="7"/>
-      <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="14.1" customHeight="1">
       <c r="A37" s="15">
@@ -8876,7 +9022,7 @@
         <v>1.3863099999999999</v>
       </c>
       <c r="C95" s="20">
-        <v>1.0544077963362068</v>
+        <v>1.054228873315364</v>
       </c>
       <c r="D95" s="21">
         <v>-429.75779805867512</v>
@@ -8935,6 +9081,41 @@
         <v>1706.083819284846</v>
       </c>
       <c r="K96" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="12.75">
+      <c r="A97" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B97" s="25">
+        <v>1.3846400000000001</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.0632972391991562</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
+        <v>0</v>
+      </c>
+      <c r="F97" s="22">
+        <v>0</v>
+      </c>
+      <c r="G97" s="22">
+        <v>0</v>
+      </c>
+      <c r="H97" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I97" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J97" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K97" s="21">
         <v>5934.4066689137917</v>
       </c>
     </row>
@@ -8954,7 +9135,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF84"/>
+  <dimension ref="A1:AF85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8996,13 +9177,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -9629,6 +9810,16 @@
         <f t="shared" ref="AC10:AC15" si="3">-AB10</f>
         <v>-1431.6926540000038</v>
       </c>
+      <c r="AD10" s="6">
+        <v>43462</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>1431.6926540000038</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" ref="AF10:AF16" si="4">-AE10</f>
+        <v>-1431.6926540000038</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="14.1" customHeight="1">
       <c r="A11" s="15">
@@ -9665,6 +9856,30 @@
         <v>0</v>
       </c>
       <c r="L11" s="7"/>
+      <c r="O11" s="6">
+        <v>45657</v>
+      </c>
+      <c r="P11" s="10">
+        <v>2068.7951059999968</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="R11" s="5">
+        <v>9328.1858434175265</v>
+      </c>
+      <c r="S11" s="5">
+        <v>2429.2505434175218</v>
+      </c>
+      <c r="T11" s="5">
+        <v>6599.8088903102534</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.35211962973729005</v>
+      </c>
+      <c r="V11" s="9">
+        <v>8.7850386892617482E-2</v>
+      </c>
       <c r="X11" s="6">
         <v>43830</v>
       </c>
@@ -9685,6 +9900,16 @@
         <f t="shared" si="3"/>
         <v>-193.45680200000038</v>
       </c>
+      <c r="AD11" s="6">
+        <v>43830</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>193.45680200000038</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="4"/>
+        <v>-193.45680200000038</v>
+      </c>
     </row>
     <row r="12" spans="1:32" ht="14.1" customHeight="1">
       <c r="A12" s="15">
@@ -9741,6 +9966,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="AD12" s="6">
+        <v>44196</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="14.1" customHeight="1">
       <c r="A13" s="15">
@@ -9797,6 +10032,16 @@
         <f t="shared" si="3"/>
         <v>-439.43355600000223</v>
       </c>
+      <c r="AD13" s="6">
+        <v>44561</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>439.43355600000223</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="4"/>
+        <v>-439.43355600000223</v>
+      </c>
     </row>
     <row r="14" spans="1:32" ht="14.1" customHeight="1">
       <c r="A14" s="15">
@@ -9853,6 +10098,16 @@
         <f t="shared" si="3"/>
         <v>-2765.5571820000014</v>
       </c>
+      <c r="AD14" s="6">
+        <v>44925</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>2765.5571820000014</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="4"/>
+        <v>-2765.5571820000014</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="14.1" customHeight="1">
       <c r="A15" s="15">
@@ -9903,6 +10158,16 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>45289</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9951,8 +10216,18 @@
       <c r="AC16" s="1">
         <v>6340.8843712169046</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD16" s="6">
+        <v>45657</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>2068.7951059999968</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="4"/>
+        <v>-2068.7951059999968</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.1" customHeight="1">
       <c r="A17" s="15">
         <v>43585</v>
       </c>
@@ -9991,8 +10266,14 @@
         <f>IRR(AC10:AC16)</f>
         <v>8.0252163148518463E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AD17" s="6">
+        <v>45657</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>9328.1858434175265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.1" customHeight="1">
       <c r="A18" s="15">
         <v>43616</v>
       </c>
@@ -10027,8 +10308,12 @@
         <v>572.85656400000096</v>
       </c>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.1" customHeight="1">
+      <c r="AF18" s="2">
+        <f>IRR(AF10:AF17)</f>
+        <v>8.7850386892617482E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.1" customHeight="1">
       <c r="A19" s="15">
         <v>43644</v>
       </c>
@@ -10064,7 +10349,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:29" ht="14.1" customHeight="1">
+    <row r="20" spans="1:32" ht="14.1" customHeight="1">
       <c r="A20" s="15">
         <v>43677</v>
       </c>
@@ -10100,7 +10385,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:29" ht="14.1" customHeight="1">
+    <row r="21" spans="1:32" ht="14.1" customHeight="1">
       <c r="A21" s="15">
         <v>43707</v>
       </c>
@@ -10136,7 +10421,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:29" ht="14.1" customHeight="1">
+    <row r="22" spans="1:32" ht="14.1" customHeight="1">
       <c r="A22" s="15">
         <v>43738</v>
       </c>
@@ -10171,8 +10456,9 @@
         <v>1200.6086100000036</v>
       </c>
       <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:29" ht="14.1" customHeight="1">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:32" ht="14.1" customHeight="1">
       <c r="A23" s="15">
         <v>43769</v>
       </c>
@@ -10207,9 +10493,8 @@
         <v>1387.1894260000045</v>
       </c>
       <c r="L23" s="7"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:29" ht="14.1" customHeight="1">
+    </row>
+    <row r="24" spans="1:32" ht="14.1" customHeight="1">
       <c r="A24" s="15">
         <v>43798</v>
       </c>
@@ -10245,7 +10530,7 @@
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:29" ht="14.1" customHeight="1">
+    <row r="25" spans="1:32" ht="14.1" customHeight="1">
       <c r="A25" s="15">
         <v>43830</v>
       </c>
@@ -10281,7 +10566,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:29" ht="14.1" customHeight="1">
+    <row r="26" spans="1:32" ht="14.1" customHeight="1">
       <c r="A26" s="15">
         <v>43853</v>
       </c>
@@ -10317,7 +10602,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:29" ht="14.1" customHeight="1">
+    <row r="27" spans="1:32" ht="14.1" customHeight="1">
       <c r="A27" s="15">
         <v>43889</v>
       </c>
@@ -10353,7 +10638,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:29" ht="14.1" customHeight="1">
+    <row r="28" spans="1:32" ht="14.1" customHeight="1">
       <c r="A28" s="15">
         <v>43921</v>
       </c>
@@ -10389,7 +10674,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:29" ht="14.1" customHeight="1">
+    <row r="29" spans="1:32" ht="14.1" customHeight="1">
       <c r="A29" s="15">
         <v>43951</v>
       </c>
@@ -10425,7 +10710,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:29" ht="14.1" customHeight="1">
+    <row r="30" spans="1:32" ht="14.1" customHeight="1">
       <c r="A30" s="15">
         <v>43980</v>
       </c>
@@ -10461,7 +10746,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:29" ht="14.1" customHeight="1">
+    <row r="31" spans="1:32" ht="14.1" customHeight="1">
       <c r="A31" s="15">
         <v>44012</v>
       </c>
@@ -10497,7 +10782,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:29" ht="14.1" customHeight="1">
+    <row r="32" spans="1:32" ht="14.1" customHeight="1">
       <c r="A32" s="15">
         <v>44043</v>
       </c>
@@ -10568,6 +10853,7 @@
         <v>2159.2747743102564</v>
       </c>
       <c r="L33" s="7"/>
+      <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="14.1" customHeight="1">
       <c r="A34" s="15">
@@ -10604,7 +10890,6 @@
         <v>2159.2747743102564</v>
       </c>
       <c r="L34" s="7"/>
-      <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="14.1" customHeight="1">
       <c r="A35" s="15">
@@ -12307,19 +12592,19 @@
         <v>1.3863099999999999</v>
       </c>
       <c r="C83" s="20">
-        <v>1.0912980399999994</v>
+        <v>1.0904455599999994</v>
       </c>
       <c r="D83" s="21">
-        <v>-457.26853800000077</v>
+        <v>-458.5898820000009</v>
       </c>
       <c r="E83" s="22">
-        <v>-329.84580505081891</v>
+        <v>-330.79894251646522</v>
       </c>
       <c r="F83" s="22">
-        <v>2645.65147993549</v>
+        <v>2644.6983424698437</v>
       </c>
       <c r="G83" s="22">
-        <v>3667.6931031493691</v>
+        <v>3666.3717591493687</v>
       </c>
       <c r="H83" s="22">
         <v>6898.9353000000046</v>
@@ -12331,7 +12616,7 @@
         <v>2404.0550134596178</v>
       </c>
       <c r="K83" s="21">
-        <v>5635.2972103102538</v>
+        <v>5636.6185543102538</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="12.75">
@@ -12351,22 +12636,57 @@
         <v>-379.40007930593606</v>
       </c>
       <c r="F84" s="22">
-        <v>2266.2514006295542</v>
+        <v>2265.2982631639079</v>
       </c>
       <c r="G84" s="22">
-        <v>3314.8232611868425</v>
+        <v>3313.4291165472164</v>
       </c>
       <c r="H84" s="22">
         <v>6898.9353000000046</v>
       </c>
       <c r="I84" s="22">
-        <v>9505.0651734970961</v>
+        <v>9504.9923728574704</v>
       </c>
       <c r="J84" s="22">
-        <v>2606.1298734970915</v>
+        <v>2606.0570728574658</v>
       </c>
       <c r="K84" s="21">
-        <v>6190.2419123102536</v>
+        <v>6191.5632563102536</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="12.75">
+      <c r="A85" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B85" s="25">
+        <v>1.3846400000000001</v>
+      </c>
+      <c r="C85" s="20">
+        <v>1.1212557200000004</v>
+      </c>
+      <c r="D85" s="21">
+        <v>-408.24563399999954</v>
+      </c>
+      <c r="E85" s="22">
+        <v>-294.83882742084552</v>
+      </c>
+      <c r="F85" s="22">
+        <v>1970.4594357430624</v>
+      </c>
+      <c r="G85" s="22">
+        <v>2728.3769531072739</v>
+      </c>
+      <c r="H85" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I85" s="22">
+        <v>9328.1858434175265</v>
+      </c>
+      <c r="J85" s="22">
+        <v>2429.2505434175218</v>
+      </c>
+      <c r="K85" s="21">
+        <v>6599.8088903102534</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -2532,11 +2532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425954688"/>
-        <c:axId val="426407040"/>
+        <c:axId val="430275968"/>
+        <c:axId val="446325888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425954688"/>
+        <c:axId val="430275968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,14 +2579,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426407040"/>
+        <c:crossAx val="446325888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="426407040"/>
+        <c:axId val="446325888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2635,7 +2635,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425954688"/>
+        <c:crossAx val="430275968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4456,11 +4456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118366592"/>
-        <c:axId val="118368128"/>
+        <c:axId val="512926464"/>
+        <c:axId val="512928384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="118366592"/>
+        <c:axId val="512926464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4503,14 +4503,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118368128"/>
+        <c:crossAx val="512928384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="118368128"/>
+        <c:axId val="512928384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4559,7 +4559,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118366592"/>
+        <c:crossAx val="512926464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -711,7 +711,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -993,6 +993,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1002,7 +1005,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1283,6 +1286,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1326,7 +1332,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1608,6 +1614,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1617,7 +1626,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1895,6 +1904,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -1938,7 +1950,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2220,6 +2232,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2229,7 +2244,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2510,6 +2525,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2532,11 +2550,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430275968"/>
-        <c:axId val="446325888"/>
+        <c:axId val="87011712"/>
+        <c:axId val="87112704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="430275968"/>
+        <c:axId val="87011712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,14 +2597,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446325888"/>
+        <c:crossAx val="87112704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446325888"/>
+        <c:axId val="87112704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2635,7 +2653,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430275968"/>
+        <c:crossAx val="87011712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2848,7 +2866,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3094,6 +3112,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3103,7 +3124,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3348,6 +3369,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3391,7 +3415,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3637,6 +3661,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3646,7 +3673,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3892,6 +3919,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>9328.1858434175265</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9338.7080968043956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3934,7 +3964,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4180,6 +4210,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4189,7 +4222,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4435,6 +4468,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>2429.2505434175218</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2439.772796804391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4456,11 +4492,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="512926464"/>
-        <c:axId val="512928384"/>
+        <c:axId val="569978240"/>
+        <c:axId val="581359104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="512926464"/>
+        <c:axId val="569978240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4503,14 +4539,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512928384"/>
+        <c:crossAx val="581359104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512928384"/>
+        <c:axId val="581359104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4559,7 +4595,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512926464"/>
+        <c:crossAx val="569978240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4667,7 +4703,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4710,7 +4746,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5023,7 +5059,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF97"/>
+  <dimension ref="A1:AF98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9119,6 +9155,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="98" spans="1:11" ht="12.75">
+      <c r="A98" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B98" s="25">
+        <v>1.38998</v>
+      </c>
+      <c r="C98" s="20">
+        <v>1.0659416127348635</v>
+      </c>
+      <c r="D98" s="21">
+        <v>0</v>
+      </c>
+      <c r="E98" s="22">
+        <v>0</v>
+      </c>
+      <c r="F98" s="22">
+        <v>0</v>
+      </c>
+      <c r="G98" s="22">
+        <v>0</v>
+      </c>
+      <c r="H98" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I98" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J98" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K98" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9135,7 +9206,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF85"/>
+  <dimension ref="A1:AF86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12689,6 +12760,41 @@
         <v>6599.8088903102534</v>
       </c>
     </row>
+    <row r="86" spans="1:11" ht="12.75">
+      <c r="A86" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B86" s="25">
+        <v>1.38998</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1.1301867999999995</v>
+      </c>
+      <c r="D86" s="21">
+        <v>-402.6794600000008</v>
+      </c>
+      <c r="E86" s="22">
+        <v>-289.70162160606685</v>
+      </c>
+      <c r="F86" s="22">
+        <v>1680.7578141369954</v>
+      </c>
+      <c r="G86" s="22">
+        <v>2336.219746494141</v>
+      </c>
+      <c r="H86" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I86" s="22">
+        <v>9338.7080968043956</v>
+      </c>
+      <c r="J86" s="22">
+        <v>2439.772796804391</v>
+      </c>
+      <c r="K86" s="21">
+        <v>7002.4883503102546</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -111,6 +111,38 @@
   <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年投入本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计投入本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -711,7 +743,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -996,6 +1028,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1005,7 +1040,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1289,6 +1324,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1332,7 +1370,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1617,6 +1655,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1626,7 +1667,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1907,6 +1948,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -1950,7 +1994,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2235,6 +2279,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2244,7 +2291,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2528,6 +2575,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2550,11 +2600,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87011712"/>
-        <c:axId val="87112704"/>
+        <c:axId val="442542720"/>
+        <c:axId val="452358528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87011712"/>
+        <c:axId val="442542720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2597,14 +2647,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87112704"/>
+        <c:crossAx val="452358528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87112704"/>
+        <c:axId val="452358528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2653,7 +2703,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87011712"/>
+        <c:crossAx val="442542720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2866,7 +2916,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3115,6 +3165,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3124,7 +3177,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3372,6 +3425,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3415,7 +3471,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3664,6 +3720,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3673,7 +3732,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3922,6 +3981,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>9338.7080968043956</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9660.119413601813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3964,7 +4026,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4213,6 +4275,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4222,7 +4287,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4471,6 +4536,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2439.772796804391</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2761.1841136018083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,11 +4560,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="569978240"/>
-        <c:axId val="581359104"/>
+        <c:axId val="516610688"/>
+        <c:axId val="516891392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="569978240"/>
+        <c:axId val="516610688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4539,14 +4607,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581359104"/>
+        <c:crossAx val="516891392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="581359104"/>
+        <c:axId val="516891392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4595,7 +4663,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569978240"/>
+        <c:crossAx val="516610688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4703,7 +4771,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4746,7 +4814,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5059,7 +5127,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF98"/>
+  <dimension ref="A1:AF99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9190,6 +9258,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="99" spans="1:11" ht="12.75">
+      <c r="A99" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B99" s="25">
+        <v>1.58121</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.0711721033591723</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I99" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J99" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K99" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9206,7 +9309,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF86"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9353,28 +9456,28 @@
       </c>
       <c r="L4" s="7"/>
       <c r="O4" s="26" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T4" s="27" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="X4" s="6">
         <v>43462</v>
@@ -12793,6 +12896,41 @@
       </c>
       <c r="K86" s="21">
         <v>7002.4883503102546</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="12.75">
+      <c r="A87" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B87" s="25">
+        <v>1.58121</v>
+      </c>
+      <c r="C87" s="20">
+        <v>1.1746116400000002</v>
+      </c>
+      <c r="D87" s="21">
+        <v>-630.22745799999973</v>
+      </c>
+      <c r="E87" s="22">
+        <v>-398.57290176510378</v>
+      </c>
+      <c r="F87" s="22">
+        <v>1282.1849123718916</v>
+      </c>
+      <c r="G87" s="22">
+        <v>2027.4036052915587</v>
+      </c>
+      <c r="H87" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I87" s="22">
+        <v>9660.119413601813</v>
+      </c>
+      <c r="J87" s="22">
+        <v>2761.1841136018083</v>
+      </c>
+      <c r="K87" s="21">
+        <v>7632.715808310254</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -109,40 +109,12 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>MA250</t>
+    <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年投入本金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计投入本金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总资产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈利金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收资金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年化收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>MA250</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -743,7 +715,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1031,6 +1003,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,7 +1015,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1327,6 +1302,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1370,7 +1348,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1658,6 +1636,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,7 +1648,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1951,6 +1932,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -1994,7 +1978,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2282,6 +2266,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2291,7 +2278,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2578,6 +2565,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2600,11 +2590,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442542720"/>
-        <c:axId val="452358528"/>
+        <c:axId val="160766208"/>
+        <c:axId val="161386496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442542720"/>
+        <c:axId val="160766208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,14 +2637,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452358528"/>
+        <c:crossAx val="161386496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452358528"/>
+        <c:axId val="161386496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +2693,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442542720"/>
+        <c:crossAx val="160766208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2916,7 +2906,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3168,6 +3158,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3177,7 +3170,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3428,6 +3421,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3471,7 +3467,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3723,6 +3719,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3732,7 +3731,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3984,6 +3983,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>9660.119413601813</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9611.0758407035883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4026,7 +4028,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4278,6 +4280,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4287,7 +4292,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4539,6 +4544,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>2761.1841136018083</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2712.1405407035836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4560,11 +4568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516610688"/>
-        <c:axId val="516891392"/>
+        <c:axId val="635351808"/>
+        <c:axId val="635353344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516610688"/>
+        <c:axId val="635351808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4607,14 +4615,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516891392"/>
+        <c:crossAx val="635353344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516891392"/>
+        <c:axId val="635353344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4663,7 +4671,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516610688"/>
+        <c:crossAx val="635351808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4771,7 +4779,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4814,7 +4822,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5127,7 +5135,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF99"/>
+  <dimension ref="A1:AF100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9293,6 +9301,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="100" spans="1:11" ht="12.75">
+      <c r="A100" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B100" s="25">
+        <v>1.5429600000000001</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.0770359795396409</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="22">
+        <v>0</v>
+      </c>
+      <c r="F100" s="22">
+        <v>0</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I100" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J100" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K100" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9309,7 +9352,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF87"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9351,13 +9394,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -9456,28 +9499,28 @@
       </c>
       <c r="L4" s="7"/>
       <c r="O4" s="26" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T4" s="27" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="X4" s="6">
         <v>43462</v>
@@ -12931,6 +12974,41 @@
       </c>
       <c r="K87" s="21">
         <v>7632.715808310254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="12.75">
+      <c r="A88" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B88" s="25">
+        <v>1.5429600000000001</v>
+      </c>
+      <c r="C88" s="20">
+        <v>1.21761052</v>
+      </c>
+      <c r="D88" s="21">
+        <v>-504.29169400000012</v>
+      </c>
+      <c r="E88" s="22">
+        <v>-326.83393866334842</v>
+      </c>
+      <c r="F88" s="22">
+        <v>955.35097370854328</v>
+      </c>
+      <c r="G88" s="22">
+        <v>1474.068338393334</v>
+      </c>
+      <c r="H88" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I88" s="22">
+        <v>9611.0758407035883</v>
+      </c>
+      <c r="J88" s="22">
+        <v>2712.1405407035836</v>
+      </c>
+      <c r="K88" s="21">
+        <v>8137.0075023102545</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -107,10 +107,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MA250</t>
@@ -715,7 +711,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1006,6 +1002,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,7 +1014,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1305,6 +1304,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1348,7 +1350,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1639,6 +1641,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1648,7 +1653,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1935,6 +1940,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -1978,7 +1986,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2269,6 +2277,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2278,7 +2289,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2568,6 +2579,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2590,11 +2604,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160766208"/>
-        <c:axId val="161386496"/>
+        <c:axId val="75858304"/>
+        <c:axId val="75859840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="160766208"/>
+        <c:axId val="75858304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,14 +2651,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161386496"/>
+        <c:crossAx val="75859840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161386496"/>
+        <c:axId val="75859840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2693,7 +2707,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160766208"/>
+        <c:crossAx val="75858304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2906,7 +2920,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3161,6 +3175,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3170,7 +3187,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3424,6 +3441,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3467,7 +3487,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3722,6 +3742,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3731,7 +3754,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3986,6 +4009,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>9611.0758407035883</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9551.9109549018176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4028,7 +4054,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4283,6 +4309,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4292,7 +4321,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4547,6 +4576,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2712.1405407035836</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2652.975654901813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4568,11 +4600,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635351808"/>
-        <c:axId val="635353344"/>
+        <c:axId val="468648704"/>
+        <c:axId val="468650624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="635351808"/>
+        <c:axId val="468648704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4615,14 +4647,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635353344"/>
+        <c:crossAx val="468650624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="635353344"/>
+        <c:axId val="468650624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4671,7 +4703,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635351808"/>
+        <c:crossAx val="468648704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4779,7 +4811,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4822,7 +4854,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5135,7 +5167,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF100"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9336,6 +9368,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="101" spans="1:11" ht="12.75">
+      <c r="A101" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B101" s="25">
+        <v>1.4810300000000001</v>
+      </c>
+      <c r="C101" s="20">
+        <v>1.0809745698380564</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <v>0</v>
+      </c>
+      <c r="F101" s="22">
+        <v>0</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I101" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J101" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K101" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9352,7 +9419,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF88"/>
+  <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9394,13 +9461,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -13011,6 +13078,41 @@
         <v>8137.0075023102545</v>
       </c>
     </row>
+    <row r="89" spans="1:11" ht="12.75">
+      <c r="A89" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B89" s="25">
+        <v>1.4810300000000001</v>
+      </c>
+      <c r="C89" s="20">
+        <v>1.2460871999999994</v>
+      </c>
+      <c r="D89" s="21">
+        <v>-364.16134000000102</v>
+      </c>
+      <c r="E89" s="22">
+        <v>-245.88383759950912</v>
+      </c>
+      <c r="F89" s="22">
+        <v>709.46713610903419</v>
+      </c>
+      <c r="G89" s="22">
+        <v>1050.742112591563</v>
+      </c>
+      <c r="H89" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I89" s="22">
+        <v>9551.9109549018176</v>
+      </c>
+      <c r="J89" s="22">
+        <v>2652.975654901813</v>
+      </c>
+      <c r="K89" s="21">
+        <v>8501.1688423102551</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -711,7 +711,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1005,6 +1005,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,7 +1017,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1307,6 +1310,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1350,7 +1356,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1644,6 +1650,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,7 +1662,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1943,6 +1952,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -1986,7 +1998,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2280,6 +2292,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2289,7 +2304,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2582,6 +2597,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2604,11 +2622,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75858304"/>
-        <c:axId val="75859840"/>
+        <c:axId val="256784640"/>
+        <c:axId val="309924224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75858304"/>
+        <c:axId val="256784640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2651,14 +2669,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75859840"/>
+        <c:crossAx val="309924224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75859840"/>
+        <c:axId val="309924224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2707,7 +2725,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75858304"/>
+        <c:crossAx val="256784640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2920,7 +2938,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3178,6 +3196,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3187,7 +3208,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3444,6 +3465,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3487,7 +3511,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3745,6 +3769,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3754,7 +3781,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4012,6 +4039,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>9551.9109549018176</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9593.2161315660869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4054,7 +4084,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4312,6 +4342,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4321,7 +4354,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4579,6 +4612,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>2652.975654901813</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2694.2808315660823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4600,11 +4636,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468648704"/>
-        <c:axId val="468650624"/>
+        <c:axId val="622282240"/>
+        <c:axId val="622284160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="468648704"/>
+        <c:axId val="622282240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4647,14 +4683,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468650624"/>
+        <c:crossAx val="622284160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468650624"/>
+        <c:axId val="622284160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4703,7 +4739,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468648704"/>
+        <c:crossAx val="622282240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4811,7 +4847,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4854,7 +4890,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5167,7 +5203,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF101"/>
+  <dimension ref="A1:AF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9403,6 +9439,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="102" spans="1:11" ht="12.75">
+      <c r="A102" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B102" s="25">
+        <v>1.53925</v>
+      </c>
+      <c r="C102" s="20">
+        <v>1.0853151779448618</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <v>0</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I102" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J102" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K102" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9419,7 +9490,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13113,6 +13184,41 @@
         <v>8501.1688423102551</v>
       </c>
     </row>
+    <row r="90" spans="1:11" ht="12.75">
+      <c r="A90" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B90" s="25">
+        <v>1.53925</v>
+      </c>
+      <c r="C90" s="20">
+        <v>1.282875679999999</v>
+      </c>
+      <c r="D90" s="21">
+        <v>-397.3801960000016</v>
+      </c>
+      <c r="E90" s="22">
+        <v>-258.16481793081152</v>
+      </c>
+      <c r="F90" s="22">
+        <v>451.30231817822266</v>
+      </c>
+      <c r="G90" s="22">
+        <v>694.66709325582929</v>
+      </c>
+      <c r="H90" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I90" s="22">
+        <v>9593.2161315660869</v>
+      </c>
+      <c r="J90" s="22">
+        <v>2694.2808315660823</v>
+      </c>
+      <c r="K90" s="21">
+        <v>8898.5490383102569</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -711,7 +711,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1008,6 +1008,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,7 +1020,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1313,6 +1316,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1356,7 +1362,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1653,6 +1659,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1662,7 +1671,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1955,6 +1964,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -1998,7 +2010,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2295,6 +2307,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2304,7 +2319,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2600,6 +2615,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="98">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2622,11 +2640,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="256784640"/>
-        <c:axId val="309924224"/>
+        <c:axId val="78076544"/>
+        <c:axId val="89036288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="256784640"/>
+        <c:axId val="78076544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2669,14 +2687,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309924224"/>
+        <c:crossAx val="89036288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="309924224"/>
+        <c:axId val="89036288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2725,7 +2743,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256784640"/>
+        <c:crossAx val="78076544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2938,7 +2956,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3199,6 +3217,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3208,7 +3229,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3468,6 +3489,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3511,7 +3535,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3772,6 +3796,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3781,7 +3808,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4042,6 +4069,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>9593.2161315660869</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9643.7845563179562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4084,7 +4114,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4345,6 +4375,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4354,7 +4387,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4615,6 +4648,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2694.2808315660823</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2744.8492563179516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4636,11 +4672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="622282240"/>
-        <c:axId val="622284160"/>
+        <c:axId val="161303552"/>
+        <c:axId val="161338112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="622282240"/>
+        <c:axId val="161303552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4683,14 +4719,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622284160"/>
+        <c:crossAx val="161338112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="622284160"/>
+        <c:axId val="161338112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4739,7 +4775,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622282240"/>
+        <c:crossAx val="161303552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4847,7 +4883,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4890,7 +4926,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5203,7 +5239,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF102"/>
+  <dimension ref="A1:AF103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9474,6 +9510,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="103" spans="1:11" ht="12.75">
+      <c r="A103" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B103" s="25">
+        <v>1.6513</v>
+      </c>
+      <c r="C103" s="20">
+        <v>1.0902648933002479</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="22">
+        <v>0</v>
+      </c>
+      <c r="F103" s="22">
+        <v>0</v>
+      </c>
+      <c r="G103" s="22">
+        <v>0</v>
+      </c>
+      <c r="H103" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I103" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J103" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K103" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9490,7 +9561,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF90"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13219,6 +13290,41 @@
         <v>8898.5490383102569</v>
       </c>
     </row>
+    <row r="91" spans="1:11" ht="12.75">
+      <c r="A91" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B91" s="25">
+        <v>1.6513</v>
+      </c>
+      <c r="C91" s="20">
+        <v>1.3296850799999993</v>
+      </c>
+      <c r="D91" s="21">
+        <v>-498.50312600000109</v>
+      </c>
+      <c r="E91" s="22">
+        <v>-301.88525767577124</v>
+      </c>
+      <c r="F91" s="22">
+        <v>149.41706050245142</v>
+      </c>
+      <c r="G91" s="22">
+        <v>246.73239200769802</v>
+      </c>
+      <c r="H91" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I91" s="22">
+        <v>9643.7845563179562</v>
+      </c>
+      <c r="J91" s="22">
+        <v>2744.8492563179516</v>
+      </c>
+      <c r="K91" s="21">
+        <v>9397.0521643102584</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -107,6 +107,14 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业指数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MA250</t>
@@ -711,7 +719,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1011,6 +1019,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,7 +1031,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1319,6 +1330,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1362,7 +1376,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1662,6 +1676,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,7 +1688,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1967,6 +1984,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -2010,7 +2030,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2310,6 +2330,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2319,7 +2342,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2618,6 +2641,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2640,11 +2666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78076544"/>
-        <c:axId val="89036288"/>
+        <c:axId val="454957696"/>
+        <c:axId val="455336320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78076544"/>
+        <c:axId val="454957696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,14 +2713,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89036288"/>
+        <c:crossAx val="455336320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89036288"/>
+        <c:axId val="455336320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2743,7 +2769,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78076544"/>
+        <c:crossAx val="454957696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2956,7 +2982,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3220,6 +3246,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3229,7 +3258,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3492,6 +3521,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3535,7 +3567,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3799,6 +3831,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3808,7 +3843,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4072,6 +4107,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>9643.7845563179562</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9655.3867910659719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4114,7 +4152,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4378,6 +4416,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4387,7 +4428,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4651,6 +4692,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>2744.8492563179516</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2756.4514910659673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4672,11 +4716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161303552"/>
-        <c:axId val="161338112"/>
+        <c:axId val="88003712"/>
+        <c:axId val="88005248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="161303552"/>
+        <c:axId val="88003712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4719,14 +4763,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161338112"/>
+        <c:crossAx val="88005248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161338112"/>
+        <c:axId val="88005248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4775,7 +4819,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161303552"/>
+        <c:crossAx val="88003712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5239,7 +5283,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF103"/>
+  <dimension ref="A1:AF104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9545,6 +9589,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="104" spans="1:11" ht="12.75">
+      <c r="A104" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B104" s="25">
+        <v>1.72895</v>
+      </c>
+      <c r="C104" s="20">
+        <v>1.0969903631010793</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <v>0</v>
+      </c>
+      <c r="G104" s="22">
+        <v>0</v>
+      </c>
+      <c r="H104" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I104" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J104" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K104" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9560,8 +9639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AF91"/>
+  <sheetPr codeName="Sheet2">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9603,13 +9684,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -9664,7 +9745,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>0</v>
+        <v>-147.59867390282386</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -13323,6 +13404,41 @@
       </c>
       <c r="K91" s="21">
         <v>9397.0521643102584</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="12.75">
+      <c r="A92" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B92" s="25">
+        <v>1.72895</v>
+      </c>
+      <c r="C92" s="20">
+        <v>1.3976433199999996</v>
+      </c>
+      <c r="D92" s="21">
+        <v>-513.52535400000068</v>
+      </c>
+      <c r="E92" s="22">
+        <v>-297.01573440527528</v>
+      </c>
+      <c r="F92" s="22">
+        <v>-147.59867390282386</v>
+      </c>
+      <c r="G92" s="22">
+        <v>-255.1907272442873</v>
+      </c>
+      <c r="H92" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I92" s="22">
+        <v>9655.3867910659719</v>
+      </c>
+      <c r="J92" s="22">
+        <v>2756.4514910659673</v>
+      </c>
+      <c r="K92" s="21">
+        <v>9910.5775183102596</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -119,6 +119,10 @@
   <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -719,7 +723,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1022,6 +1026,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,7 +1038,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1333,6 +1340,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1376,7 +1386,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1679,6 +1689,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1688,7 +1701,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1987,6 +2000,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -2030,7 +2046,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2333,6 +2349,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2342,7 +2361,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2644,6 +2663,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2666,11 +2688,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454957696"/>
-        <c:axId val="455336320"/>
+        <c:axId val="383544320"/>
+        <c:axId val="418151424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454957696"/>
+        <c:axId val="383544320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2713,14 +2735,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455336320"/>
+        <c:crossAx val="418151424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="455336320"/>
+        <c:axId val="418151424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,7 +2791,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454957696"/>
+        <c:crossAx val="383544320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2982,7 +3004,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3249,6 +3271,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3258,7 +3283,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3524,6 +3549,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3567,7 +3595,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3834,6 +3862,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3843,7 +3874,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4109,6 +4140,9 @@
                   <c:v>9643.7845563179562</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>9655.3867910659719</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>9655.3867910659719</c:v>
                 </c:pt>
               </c:numCache>
@@ -4152,7 +4186,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4419,6 +4453,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4428,7 +4465,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4694,6 +4731,9 @@
                   <c:v>2744.8492563179516</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>2756.4514910659673</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>2756.4514910659673</c:v>
                 </c:pt>
               </c:numCache>
@@ -4716,11 +4756,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88003712"/>
-        <c:axId val="88005248"/>
+        <c:axId val="532552320"/>
+        <c:axId val="560809088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88003712"/>
+        <c:axId val="532552320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4763,14 +4803,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88005248"/>
+        <c:crossAx val="560809088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88005248"/>
+        <c:axId val="560809088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4819,7 +4859,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88003712"/>
+        <c:crossAx val="532552320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5283,7 +5323,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF104"/>
+  <dimension ref="A1:AF105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9624,6 +9664,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="105" spans="1:11" ht="12.75">
+      <c r="A105" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B105" s="25">
+        <v>1.9015899999999999</v>
+      </c>
+      <c r="C105" s="20">
+        <v>1.1046083681398731</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <v>0</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I105" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J105" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K105" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9642,7 +9717,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9745,7 +9820,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <f>MIN(F:F)</f>
-        <v>-147.59867390282386</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -9789,7 +9864,7 @@
       </c>
       <c r="L4" s="7"/>
       <c r="O4" s="26" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>12</v>
@@ -13417,16 +13492,16 @@
         <v>1.3976433199999996</v>
       </c>
       <c r="D92" s="21">
-        <v>-513.52535400000068</v>
+        <v>-258.33462675571337</v>
       </c>
       <c r="E92" s="22">
-        <v>-297.01573440527528</v>
+        <v>-149.41706050245142</v>
       </c>
       <c r="F92" s="22">
-        <v>-147.59867390282386</v>
+        <v>0</v>
       </c>
       <c r="G92" s="22">
-        <v>-255.1907272442873</v>
+        <v>0</v>
       </c>
       <c r="H92" s="22">
         <v>6898.9353000000046</v>
@@ -13438,7 +13513,42 @@
         <v>2756.4514910659673</v>
       </c>
       <c r="K92" s="21">
-        <v>9910.5775183102596</v>
+        <v>9655.3867910659719</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="12.75">
+      <c r="A93" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B93" s="25">
+        <v>1.9015899999999999</v>
+      </c>
+      <c r="C93" s="20">
+        <v>1.4737925600000001</v>
+      </c>
+      <c r="D93" s="21">
+        <v>0</v>
+      </c>
+      <c r="E93" s="22">
+        <v>0</v>
+      </c>
+      <c r="F93" s="22">
+        <v>0</v>
+      </c>
+      <c r="G93" s="22">
+        <v>0</v>
+      </c>
+      <c r="H93" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I93" s="22">
+        <v>9655.3867910659719</v>
+      </c>
+      <c r="J93" s="22">
+        <v>2756.4514910659673</v>
+      </c>
+      <c r="K93" s="21">
+        <v>9655.3867910659719</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -107,14 +107,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能产业指数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MA250</t>
@@ -723,7 +715,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1029,6 +1021,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,7 +1033,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1343,6 +1338,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1386,7 +1384,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1692,6 +1690,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1701,7 +1702,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -2003,6 +2004,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -2046,7 +2050,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2352,6 +2356,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2361,7 +2368,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2666,6 +2673,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2688,11 +2698,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="383544320"/>
-        <c:axId val="418151424"/>
+        <c:axId val="410086400"/>
+        <c:axId val="424958592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="383544320"/>
+        <c:axId val="410086400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2735,14 +2745,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418151424"/>
+        <c:crossAx val="424958592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="418151424"/>
+        <c:axId val="424958592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2791,7 +2801,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383544320"/>
+        <c:crossAx val="410086400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3004,7 +3014,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3274,6 +3284,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3283,7 +3296,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3552,6 +3565,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3595,7 +3611,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3865,6 +3881,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3874,7 +3893,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4143,6 +4162,9 @@
                   <c:v>9655.3867910659719</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>9655.3867910659719</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>9655.3867910659719</c:v>
                 </c:pt>
               </c:numCache>
@@ -4186,7 +4208,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4456,6 +4478,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4465,7 +4490,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4734,6 +4759,9 @@
                   <c:v>2756.4514910659673</c:v>
                 </c:pt>
                 <c:pt idx="89">
+                  <c:v>2756.4514910659673</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>2756.4514910659673</c:v>
                 </c:pt>
               </c:numCache>
@@ -4756,11 +4784,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532552320"/>
-        <c:axId val="560809088"/>
+        <c:axId val="609603968"/>
+        <c:axId val="609606272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532552320"/>
+        <c:axId val="609603968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4803,14 +4831,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560809088"/>
+        <c:crossAx val="609606272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="560809088"/>
+        <c:axId val="609606272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4859,7 +4887,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532552320"/>
+        <c:crossAx val="609603968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4967,7 +4995,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5010,7 +5038,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5323,7 +5351,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF105"/>
+  <dimension ref="A1:AF106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9699,6 +9727,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="106" spans="1:11" ht="12.75">
+      <c r="A106" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B106" s="25">
+        <v>1.87385</v>
+      </c>
+      <c r="C106" s="20">
+        <v>1.1126600432484375</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="22">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <v>0</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I106" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J106" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K106" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9717,7 +9780,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF93"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9759,13 +9822,13 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -9864,7 +9927,7 @@
       </c>
       <c r="L4" s="7"/>
       <c r="O4" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>12</v>
@@ -13548,6 +13611,41 @@
         <v>2756.4514910659673</v>
       </c>
       <c r="K93" s="21">
+        <v>9655.3867910659719</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="12.75">
+      <c r="A94" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B94" s="25">
+        <v>1.87385</v>
+      </c>
+      <c r="C94" s="20">
+        <v>1.5571432000000014</v>
+      </c>
+      <c r="D94" s="21">
+        <v>0</v>
+      </c>
+      <c r="E94" s="22">
+        <v>0</v>
+      </c>
+      <c r="F94" s="22">
+        <v>0</v>
+      </c>
+      <c r="G94" s="22">
+        <v>0</v>
+      </c>
+      <c r="H94" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I94" s="22">
+        <v>9655.3867910659719</v>
+      </c>
+      <c r="J94" s="22">
+        <v>2756.4514910659673</v>
+      </c>
+      <c r="K94" s="21">
         <v>9655.3867910659719</v>
       </c>
     </row>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -109,12 +109,20 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业指数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>MA250</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>买卖金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -715,7 +723,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1024,6 +1032,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,7 +1044,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1341,6 +1352,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1384,7 +1398,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1693,6 +1707,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,7 +1719,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -2007,6 +2024,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -2050,7 +2070,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2359,6 +2379,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2368,7 +2391,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2676,6 +2699,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="103">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2698,11 +2724,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="410086400"/>
-        <c:axId val="424958592"/>
+        <c:axId val="416690560"/>
+        <c:axId val="430339968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="410086400"/>
+        <c:axId val="416690560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,14 +2771,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424958592"/>
+        <c:crossAx val="430339968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="424958592"/>
+        <c:axId val="430339968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2801,7 +2827,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410086400"/>
+        <c:crossAx val="416690560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3014,7 +3040,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3287,6 +3313,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3296,7 +3325,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3568,6 +3597,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3611,7 +3643,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3884,6 +3916,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3893,7 +3928,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4165,6 +4200,9 @@
                   <c:v>9655.3867910659719</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>9655.3867910659719</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>9655.3867910659719</c:v>
                 </c:pt>
               </c:numCache>
@@ -4208,7 +4246,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4481,6 +4519,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4490,7 +4531,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4762,6 +4803,9 @@
                   <c:v>2756.4514910659673</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>2756.4514910659673</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>2756.4514910659673</c:v>
                 </c:pt>
               </c:numCache>
@@ -4784,11 +4828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609603968"/>
-        <c:axId val="609606272"/>
+        <c:axId val="468142720"/>
+        <c:axId val="480985472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609603968"/>
+        <c:axId val="468142720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4831,14 +4875,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609606272"/>
+        <c:crossAx val="480985472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609606272"/>
+        <c:axId val="480985472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4887,7 +4931,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609603968"/>
+        <c:crossAx val="468142720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4995,7 +5039,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5038,7 +5082,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5351,7 +5395,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF106"/>
+  <dimension ref="A1:AF107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9762,6 +9806,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="107" spans="1:11" ht="12.75">
+      <c r="A107" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B107" s="25">
+        <v>1.88497</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1.1186502812202088</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>0</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I107" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J107" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K107" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9780,7 +9859,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF94"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9822,16 +9901,16 @@
   <sheetData>
     <row r="1" spans="1:32" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>4</v>
@@ -9927,7 +10006,7 @@
       </c>
       <c r="L4" s="7"/>
       <c r="O4" s="26" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>12</v>
@@ -13646,6 +13725,41 @@
         <v>2756.4514910659673</v>
       </c>
       <c r="K94" s="21">
+        <v>9655.3867910659719</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="12.75">
+      <c r="A95" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B95" s="25">
+        <v>1.88497</v>
+      </c>
+      <c r="C95" s="20">
+        <v>1.6029035600000012</v>
+      </c>
+      <c r="D95" s="21">
+        <v>0</v>
+      </c>
+      <c r="E95" s="22">
+        <v>0</v>
+      </c>
+      <c r="F95" s="22">
+        <v>0</v>
+      </c>
+      <c r="G95" s="22">
+        <v>0</v>
+      </c>
+      <c r="H95" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I95" s="22">
+        <v>9655.3867910659719</v>
+      </c>
+      <c r="J95" s="22">
+        <v>2756.4514910659673</v>
+      </c>
+      <c r="K95" s="21">
         <v>9655.3867910659719</v>
       </c>
     </row>

--- a/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
+++ b/lai/valuationquan/AIindex/AIinduindexmodel2cn.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -118,10 +118,6 @@
   </si>
   <si>
     <t>MA250</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +719,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1035,6 +1031,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1044,7 +1043,7 @@
               <c:f>'模型二 (1)平均线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -1355,6 +1354,9 @@
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>4228.3228496289457</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>4228.3228496289457</c:v>
                 </c:pt>
               </c:numCache>
@@ -1398,7 +1400,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -1710,6 +1712,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1719,7 +1724,7 @@
               <c:f>'模型二 (1)平均线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="1">
                   <c:v>27.550142857142728</c:v>
                 </c:pt>
@@ -2027,6 +2032,9 @@
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>5934.4066689137917</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>5934.4066689137917</c:v>
                 </c:pt>
               </c:numCache>
@@ -2070,7 +2078,7 @@
               <c:f>'模型二 (1)平均线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>42825</c:v>
                 </c:pt>
@@ -2382,6 +2390,9 @@
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2391,7 +2402,7 @@
               <c:f>'模型二 (1)平均线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2702,6 +2713,9 @@
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>1706.083819284846</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>1706.083819284846</c:v>
                 </c:pt>
               </c:numCache>
@@ -2724,11 +2738,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="416690560"/>
-        <c:axId val="430339968"/>
+        <c:axId val="467603840"/>
+        <c:axId val="467606144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="416690560"/>
+        <c:axId val="467603840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2771,14 +2785,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430339968"/>
+        <c:crossAx val="467606144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="430339968"/>
+        <c:axId val="467606144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2827,7 +2841,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416690560"/>
+        <c:crossAx val="467603840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3040,7 +3054,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3316,6 +3330,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3325,7 +3342,7 @@
               <c:f>'模型二 (1)MA250'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3600,6 +3617,9 @@
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>6898.9353000000046</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>6898.9353000000046</c:v>
                 </c:pt>
               </c:numCache>
@@ -3643,7 +3663,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -3919,6 +3939,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3928,7 +3951,7 @@
               <c:f>'模型二 (1)MA250'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4203,6 +4226,9 @@
                   <c:v>9655.3867910659719</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>9655.3867910659719</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>9655.3867910659719</c:v>
                 </c:pt>
               </c:numCache>
@@ -4246,7 +4272,7 @@
               <c:f>'模型二 (1)MA250'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>43189</c:v>
                 </c:pt>
@@ -4522,6 +4548,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4531,7 +4560,7 @@
               <c:f>'模型二 (1)MA250'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4806,6 +4835,9 @@
                   <c:v>2756.4514910659673</c:v>
                 </c:pt>
                 <c:pt idx="91">
+                  <c:v>2756.4514910659673</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>2756.4514910659673</c:v>
                 </c:pt>
               </c:numCache>
@@ -4828,11 +4860,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468142720"/>
-        <c:axId val="480985472"/>
+        <c:axId val="510286464"/>
+        <c:axId val="533717760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="468142720"/>
+        <c:axId val="510286464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4875,14 +4907,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480985472"/>
+        <c:crossAx val="533717760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="480985472"/>
+        <c:axId val="533717760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4931,7 +4963,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468142720"/>
+        <c:crossAx val="510286464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5039,7 +5071,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5082,7 +5114,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5395,7 +5427,7 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF107"/>
+  <dimension ref="A1:AF108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9841,6 +9873,41 @@
         <v>5934.4066689137917</v>
       </c>
     </row>
+    <row r="108" spans="1:11" ht="12.75">
+      <c r="A108" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B108" s="25">
+        <v>1.87002</v>
+      </c>
+      <c r="C108" s="20">
+        <v>1.1261140396413394</v>
+      </c>
+      <c r="D108" s="21">
+        <v>0</v>
+      </c>
+      <c r="E108" s="22">
+        <v>0</v>
+      </c>
+      <c r="F108" s="22">
+        <v>0</v>
+      </c>
+      <c r="G108" s="22">
+        <v>0</v>
+      </c>
+      <c r="H108" s="22">
+        <v>4228.3228496289457</v>
+      </c>
+      <c r="I108" s="22">
+        <v>5934.4066689137917</v>
+      </c>
+      <c r="J108" s="22">
+        <v>1706.083819284846</v>
+      </c>
+      <c r="K108" s="21">
+        <v>5934.4066689137917</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
@@ -9859,7 +9926,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AF95"/>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9910,7 +9977,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>4</v>
@@ -13763,6 +13830,41 @@
         <v>9655.3867910659719</v>
       </c>
     </row>
+    <row r="96" spans="1:11" ht="12.75">
+      <c r="A96" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B96" s="25">
+        <v>1.87002</v>
+      </c>
+      <c r="C96" s="20">
+        <v>1.6436552000000013</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="22">
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
+        <v>0</v>
+      </c>
+      <c r="G96" s="22">
+        <v>0</v>
+      </c>
+      <c r="H96" s="22">
+        <v>6898.9353000000046</v>
+      </c>
+      <c r="I96" s="22">
+        <v>9655.3867910659719</v>
+      </c>
+      <c r="J96" s="22">
+        <v>2756.4514910659673</v>
+      </c>
+      <c r="K96" s="21">
+        <v>9655.3867910659719</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3">
